--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="257">
   <si>
     <t>af</t>
   </si>
@@ -755,6 +755,15 @@
   </si>
   <si>
     <t>transposition_transposase_source</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>umi_size</t>
   </si>
   <si>
     <t>uniprot_accession_number</t>
@@ -1110,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA228"/>
+  <dimension ref="A1:AA231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4868,7 +4877,7 @@
       <c r="A222" t="s">
         <v>247</v>
       </c>
-      <c r="C222" t="s">
+      <c r="V222" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4876,73 +4885,7 @@
       <c r="A223" t="s">
         <v>248</v>
       </c>
-      <c r="B223" t="s">
-        <v>27</v>
-      </c>
-      <c r="C223" t="s">
-        <v>27</v>
-      </c>
-      <c r="D223" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" t="s">
-        <v>27</v>
-      </c>
-      <c r="F223" t="s">
-        <v>27</v>
-      </c>
-      <c r="G223" t="s">
-        <v>27</v>
-      </c>
-      <c r="H223" t="s">
-        <v>27</v>
-      </c>
-      <c r="I223" t="s">
-        <v>27</v>
-      </c>
-      <c r="K223" t="s">
-        <v>27</v>
-      </c>
-      <c r="L223" t="s">
-        <v>27</v>
-      </c>
-      <c r="M223" t="s">
-        <v>27</v>
-      </c>
-      <c r="N223" t="s">
-        <v>27</v>
-      </c>
-      <c r="O223" t="s">
-        <v>27</v>
-      </c>
-      <c r="P223" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>27</v>
-      </c>
-      <c r="R223" t="s">
-        <v>27</v>
-      </c>
-      <c r="S223" t="s">
-        <v>27</v>
-      </c>
-      <c r="U223" t="s">
-        <v>27</v>
-      </c>
       <c r="V223" t="s">
-        <v>27</v>
-      </c>
-      <c r="X223" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z223" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA223" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4950,39 +4893,129 @@
       <c r="A224" t="s">
         <v>249</v>
       </c>
-      <c r="T224" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20">
+      <c r="V224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225" t="s">
         <v>250</v>
       </c>
-      <c r="T225" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20">
+      <c r="C225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" t="s">
         <v>251</v>
       </c>
-      <c r="T226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20">
+      <c r="B226" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226" t="s">
+        <v>27</v>
+      </c>
+      <c r="F226" t="s">
+        <v>27</v>
+      </c>
+      <c r="G226" t="s">
+        <v>27</v>
+      </c>
+      <c r="H226" t="s">
+        <v>27</v>
+      </c>
+      <c r="I226" t="s">
+        <v>27</v>
+      </c>
+      <c r="K226" t="s">
+        <v>27</v>
+      </c>
+      <c r="L226" t="s">
+        <v>27</v>
+      </c>
+      <c r="M226" t="s">
+        <v>27</v>
+      </c>
+      <c r="N226" t="s">
+        <v>27</v>
+      </c>
+      <c r="O226" t="s">
+        <v>27</v>
+      </c>
+      <c r="P226" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>27</v>
+      </c>
+      <c r="R226" t="s">
+        <v>27</v>
+      </c>
+      <c r="S226" t="s">
+        <v>27</v>
+      </c>
+      <c r="U226" t="s">
+        <v>27</v>
+      </c>
+      <c r="V226" t="s">
+        <v>27</v>
+      </c>
+      <c r="X226" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227" t="s">
         <v>252</v>
       </c>
-      <c r="J227" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20">
+      <c r="T227" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228" t="s">
         <v>253</v>
       </c>
-      <c r="J228" t="s">
+      <c r="T228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" t="s">
+        <v>254</v>
+      </c>
+      <c r="T229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" t="s">
+        <v>255</v>
+      </c>
+      <c r="J230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" t="s">
+        <v>256</v>
+      </c>
+      <c r="J231" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -13,6 +13,3007 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of x resolution distance between laser ablation shots.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>x resolution. Distance between laser ablation shots in the X-dimension.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of y resolution distance between laser ablation shots.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>y resolution. Distance between laser ablation shots in the Y-dimension.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frequency unit of laser ablation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frequency value of laser ablation (in Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The acquisition_id refers to the directory containing the ROI images for a slide. Together, the acquisition_id and the roi_id indicate the slide-ROI represented in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An acquisition_instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing molecular mass.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Institutional affiliation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit for age measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The time elapsed since birth.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Analytes are the target molecules being measured with the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Relative path to file with antibody information for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anti-(target name) antibody. Not validated or used down-stream.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Area normalized ion dose unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of primary ions delivered to the sample per unit area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The specific type of assay being executed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Position(s) in the read at which the bead barcode starts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Which read file contains the bead barcode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length of the bead barcode in base pairs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ABO blood type or "serotype" refers to the presence/absence of the either/both A &amp; B blood antigens.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An individual's weight in kilograms divided by the square of the height in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to a protocols document answering the question: How was tissue stored and processed for cell/nuclei isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to a protocols document answering the question: How was tissue stored and processed for RNA isolation RNA_isolation_protocols_io_doi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RIN value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RNA amount per Tissue input amount. Valid values should be weight/weight (ng/mg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RNA (ng) per Weight of Tissue (mg). Answer the question: How much RNA in ng was isolated? How much tissue in mg was initially used for isolating RNA? Calculate the yield by dividing total RNA isolated by amount of tissue used to isolate RNA from (ng/mg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A number (no comma separators)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The circumstance or condition that caused death.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chemical composition of the background electrolyte that fills the separation capillary (e.g. "3% acetic acid").</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Treatment of surface of separation capillary. Capillary coating affects the absorption of analytes on capillary inner walls and regulates electroosmotic flow. Entries should indicate the charge of the coating and chemical composition (e.g. "Neutral; Polyacrylamide" or "Positive; Polyethyleneimine" or "Uncoated").</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Properties of the electroosmotic flow (EOF). Normal EOF is defined as flow towards the cathode, reversed EOF is defined as flow towards the anode, and suppressed EOF involves marginal to almost no flow (e.g. when a neutral coating is used).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The model name of the instrument used for capillary zone electrophoresis.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The manufacturer of the instrument used for capillary zone electrophoresis. Capillary electrophoresis is used to separate complex biological mixtures prior to performing MS-based analyses. Separations are performed based the analytes migrate through an electrolyte solution in the presence of an electric field.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method by which the separation capillary interfaces with mass spectrometer and enables electrospray ionization while completing the separation circuit. The two most prevalent commercial interfaces are sheathless and sheath-flow.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Position(s) in the read at which the cell barcode starts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Which read file contains the cell barcode</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length of the cell barcode in base pairs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure of channel_id depends on assay type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time interval on ice to the start of preservation protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit for GC column length</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GC column length</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The model of the GC column used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units for GC column temperature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GC column temperature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The manufacturer of the GC column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The concentration units of the antibody preparation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The concentration value of the antibody preparation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An antibody may be conjugated to a fluorescent tag or a metal tag for detection. Conjugated antibodies may be purchased from commercial providers.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The name of the entity conjugated to the antibody.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Relative path to file or directory with instrument data. Downstream processing will depend on filename extension conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Numerical data precision in bytes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solvent composition for conducting nanospray desorption electrospray ionization (nanoDESI) or desorption electrospray ionization (DESI).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The rate of flow of the solvent into a spray.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of the rate of solvent flow.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody solutions may be diluted according to the experimental protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was differential mobility spectrometry used in this assay?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of DNA input into library preparation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount of DNA input into library preparation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Threshold for dual counting.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time stamp indicating end of ablation for ROI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Start date and time of assay, typically a date-time stamped folder generated by the acquisition instrument. YYYY-MM-DD hh:mm, where YYYY is the year, MM is the month with leading 0s, and DD is the day with leading 0s, hh is the hour with leading zeros, mm are the minutes with leading zeros.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>How many cells are expected? This may be used in downstream pipelines to guide selection of cell barcodes or segmentation parameters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>First name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is the gDNA integrity good enough for WGS? This is usually checked through running a gel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies if guard column was used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patient's baseline physical condition prior to immediate event leading to organ/tissue acquisition. For example, if a relatively healthy patient suffers trauma, and as a result of reparative surgery, a tissue sample is collected, the subject will be deemed “relatively healthy”.   Likewise, a relatively healthy subject may have experienced trauma leading to brain death.  As a result of organ donation, a sample is collected.  In this scenario, the subject is deemed “relatively healthy.”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit for height measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The vertical measurement or distance from the base to the top of a subject or participant.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A78" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The units of increment z value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The distance between sequential optical sections.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies if internal standard was utilized and designates what standard was used. Leave blank if not applicable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies whether or not ion mobility spectrometry was performed and which technology was used. Technologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS, Structures for Lossless Ion Manipulations (SLIM).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies the ion source used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is this individual a contact for DOI purposes?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A84" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is this a sequencing replicate?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The Kidney Donor Profle Index (KDPI) is a numerical measure that combines ten donor factors, including clinical parameters and demographics, to summarize into a single number the quality of deceased donor kidneys relative to other recovered kidneys. The KDPI is derived by frst calculating the Kidney Donor Risk Index (KDRI) for a deceased donor. Kidneys from a donor with a KDPI of 90%, for example, have a KDRI (which indicates relative risk of graft failure) greater than 90% of recovered kidneys. The KDPI is simply a mapping of the KDRI from a relative risk scale to a cumulative percentage scale. The reference population used for this mapping is all deceased donors in the United States with a kidney recovered for the purpose of transplantation in the prior calendar year. Lower KDPI values are associated with increased donor quality and expected longevity. https://optn.transplant.hrsa.gov/media/1512/guide_to_calculating_interpreting_kdpi.pdf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the samples were labeled (e.g. TMT), provide the name/ID of the label on this sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates whether samples were labeled prior to MS analysis (e.g., TMT)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Last name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A90" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The model number/name of the LC Column - IF custom self-packed, pulled tip calillary is used enter "Pulled tip capilary"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OPTIONAL: The manufacturer of the LC Column unless self-packed, pulled tip capilary is used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A92" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of flow rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A93" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value of flow rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LC gradient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A95" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>units of LC column inner diameter (typically microns)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LC column inner diameter (microns)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A97" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The model number/name of the instrument used for LC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A98" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The manufacturer of the instrument used for LC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A99" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>units for LC column length (typically cm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A100" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LC column length</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A101" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Composition of mobile phase A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Composition of mobile phase B</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A103" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Details of the resin used for lc, including vendor, particle size, pore size</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>units for LC temperature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LC temperature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A106" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adapter sequence to be used for adapter trimming</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A107" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average size in basepairs (bp) of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit of library_concentration_value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The concentration value of the pooled library samples submitted for sequencing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A110" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes DNA library preparation kit. Modality of isolating gDNA, Fragmentation and generating sequencing libraries.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A link to the protocol document containing the library construction method (including version) that was used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A112" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>date and time of library creation. YYYY-MM-DD, where YYYY is the year, MM is the month with leading 0s, and DD is the day with leading 0s.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total ng of library after final pcr amplification step.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A114" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of final library yield</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total number of ng of library after final pcr amplification step. This is the concentration (ng/ul) * volume (ul)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An id for the library. The id may be text and/or numbers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A117" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Whether the library was generated for single-end or paired end sequencing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of PCR cycles to amplify cDNA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of PCR cycles performed for library indexing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reagent kit used for library preparation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The lot# is specific to the vendor. (eg: Abcam lot# GR3238979-1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A123" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of image width of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A124" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Image width value of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of image height of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Image height value of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A127" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mechanism of injury may be, for example: fall, impact (eg: auto accident), weapon (eg: firearm), etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A record of a patient's background regarding health and the occurrence of disease events of the individual.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Middle name or initial</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A130" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates whether the data were generated using MS, MS/MS or MS3.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The ion source type used for surface sampling.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A132" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The high value of the scanned mass range for MS1. (unitless)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A133" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The low value of the scanned mass range for MS1. (unitless)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name for display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of antibodies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A137" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of barcode probes targeting mRNAs (eg. 24,000 barcode probes = 24,000 mRNAs - 1 per mRNA of interest)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of barcode regions on each mRNA barcode probe (the paper describes mRNA probes with 4 barcoded regions)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of mass channels measured</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A140" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of cycles of 1. oligo application, 2. fluor application, 3. washes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A141" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the total number of acquisitions performed on microscope to collect autofluorescence/background or stained signal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A142" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of pseudocolors that can be assigned to each fluorescent channel (the paper describes 20 pseudocolors per channel (x 3 channels -&gt; total = 60)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A143" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of readout probes that can be interrogated per channel per cycle (the paper describes 20 readout probes per channel (x 3 channels -&gt; total = 60))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A144" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of sections</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A145" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the person responsible for executing the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A146" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Email address for the operator.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A147" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ORCID ID of contributor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A148" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health status of the organ at the time of sample recovery.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for protocols.io for the overall process.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A150" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Further details on organ level QC checks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A151" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of solution that was used to perfuse the organ.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A152" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the principal investigator responsible for the data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A153" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Email address for the principal investigator.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pixel dwell time unit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A155" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Resident time of primary ion beam on each pixel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Width unit of the pixel or voxel measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Width value of the pixel or voxel measurement (distinct from the image resolution_x_value).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length unit of the pixel or voxel measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length value of the pixel or voxel measurement (distinct from the image resolution_y_value).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The polarity of the mass analysis (positive or negative ion modes)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The model number/name of the instrument used to prepare the sample for the assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A162" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The manufacturer of the instrument used to prepare the sample for the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A163" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The matrix is a compound of crystallized molecules that acts like a buffer between the sample and the laser. It also helps ionize the sample, carrying it along the flight tube so it can be detected.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Common methods of depositing matrix for MALDI imaging include robotic spotting, electrospray deposition, and spray-coating with an airbrush.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A165" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary ion.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A166" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary ion current unit, typically nA or pA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary ion current value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date of procedure to procure organ.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for analysis protocols.io for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Software for analyzing and searching LC-MS/MS omics data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for protocols.io referring to the protocol for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A172" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Slide-seq captures RNA sequence data on spatially barcoded arrays of beads. Beads are fixed to a slide in a region shaped like a round puck. Each puck has a unique puck_id.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A grouping of humans based on shared physical characteristics or social/ethnic identity generally viewed as distinct.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unit of range_z_value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The total range of the z axis.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A176" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for protocols.io referring to the protocol for preparing reagents for the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unit of measurement of the width of a pixel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The width of a pixel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unit of measurement of the height of a pixel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The height of a pixel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unit of incremental distance between image slices.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The distance at which two objects along the detection z-axis can be distinguished (resolved as 2 objects).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of cell/nuclei input to the assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A184" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of RNA input amount to the assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RNA input amount value to the assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A186" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The kit used for the RNA sequencing assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A description of the region of interest (ROI) captured in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Multiple images (1-n) are acquired from regions of interest (ROI1, ROI2, ROI3, etc) on a slide. The roi_id is a number from 1-n representing the ROI captured on a slide.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A189" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The rr_id is a unique antibody identifier that comes from the Antibody Registry (https://antibodyregistry.org).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A190" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(No description for this field was supplied.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A191" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a quality metric by visual inspection. This should answer the question: Are the nuclei intact and are the nuclei free of significant amounts of debris? This can be captured at a high level, “OK” or “not OK”.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A192" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total number of cell/nuclei yielded post dissociation and enrichment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A193" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The method by which specific cell populations are sorted or enriched.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A194" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The type of single cell entity derived from isolation protocol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to a protocols document answering the question: How were single cells separated into a single-cell suspension?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A196" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A quality metric by visual inspection prior to cell lysis or defined by known parameters such as wells with several cells or no cells. This can be captured at a high level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A197" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The method by which tissues are dissociated into single cells in suspension.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for protocols.io referring to the protocol for preparing tissue sections for the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A199" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This refers to the data type, which is a "float" for the IMC counts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A200" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percent PhiX loaded to the run</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Slash-delimited list of the number of sequencing cycles for, for example, Read1, i7 index, i5 index, and Read2.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A202" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Q30 is the weighted average of all the reads (e.g. # bases UMI * q30 UMI + # bases R2 * q30 R2 + ...)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reagent kit used for sequencing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A204" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Biological sex at birth: male or female or other.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A205" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of signal measured per channel (usually dual counts)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A206" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>External source (outside of HuBMAP) of the project, eg. HCA (The Human Cell Atlas Consortium).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A207" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies whether or not the analysis was performed in a spatially targeted manner. Spatial profiling experiments target specific tissue foci but do not necessarily generate images. Spatial imaging expriments collect data from a regular array (pixels) that can be visualized as heat maps of ion intensity at each location (molecular images). Leave blank if data are derived from bulk analysis.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A208" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies the cell-type or functional tissue unit (FTU) that is targeted in the spatial profiling experiment. Leave blank if data are generated in imaging mode without a specific target structure.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A209" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specifies whether or not the analysis was performed in a spatialy targeted manner and the technique used for spatial sampling. For example, Laser-capture microdissection (LCM), Liquid Extraction Surface Analysis (LESA), Nanodroplet Processing in One pot for Trace Samples (nanoPOTS).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A210" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The temperature of the medium during the preservation process.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A211" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For example, RIN: 8.7.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distance unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A213" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If surgical sample, how far from the tumor was the sample obtained from. Typically a number of centimeters. Leave blank if not applicable or unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A214" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chemical stains (dyes) applied to histology samples to highlight important features of the tissue as well as to enhance the tissue contrast.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A215" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time stamp indicating start of ablation for ROI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The number of optical sections in z axis range.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A217" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HuBMAP Display ID of the assayed tissue.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A218" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of cell/nuclei input to the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A219" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If Tn5 came from a kit, provide the catalog number.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A220" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Modality of capturing accessible chromatin molecules.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A221" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The source of the Tn5 transposase and transposon used for capturing accessible chromatin.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A222" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Position in the read at which the umi barcode starts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A223" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Which read file(s) contains the UMI (unique molecular identifier) barcode.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A224" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length of the umi barcode in base pairs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A225" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The uniprot_accession_number is a unique identifier for proteins in the UniProt database (https://www.uniprot.org).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A226" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A227" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identify the vital state of the donor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A228" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A229" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time interval between cessation of blood flow and cooling to 4C.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A230" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit for weight measurement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A231" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A measurement that describes the vertical force exerted by a mass of the patient as a result of gravity.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="257">
   <si>
@@ -791,13 +3792,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5021,5 +8028,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3015,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="257">
   <si>
     <t>af</t>
   </si>
@@ -4341,6 +4341,9 @@
       <c r="P9" t="s">
         <v>27</v>
       </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
       <c r="R9" t="s">
         <v>27</v>
       </c>
@@ -4407,6 +4410,9 @@
         <v>27</v>
       </c>
       <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
         <v>27</v>
       </c>
       <c r="R10" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3015,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="257">
   <si>
     <t>af</t>
   </si>
@@ -4557,6 +4557,9 @@
       <c r="P15" t="s">
         <v>27</v>
       </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
       <c r="R15" t="s">
         <v>27</v>
       </c>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3015,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="257">
   <si>
     <t>af</t>
   </si>
@@ -4341,6 +4341,9 @@
       <c r="P9" t="s">
         <v>27</v>
       </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
       <c r="R9" t="s">
         <v>27</v>
       </c>
@@ -4409,6 +4412,9 @@
       <c r="P10" t="s">
         <v>27</v>
       </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
       <c r="R10" t="s">
         <v>27</v>
       </c>
@@ -4549,6 +4555,9 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
         <v>27</v>
       </c>
       <c r="R15" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -249,11 +249,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Area unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The area of a tissue section.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0">
+    <comment ref="A52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0">
+    <comment ref="A54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0">
+    <comment ref="A55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0">
+    <comment ref="A74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0">
+    <comment ref="A75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0">
+    <comment ref="A77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0">
+    <comment ref="A78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0">
+    <comment ref="A79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1033,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0">
+    <comment ref="A80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>histopathological reporting of key variables that are important for the tissue (absence of necrosis, comment on composition, significant pathology description, high level inflammation/fibrosis assessment etc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="0">
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0">
+    <comment ref="A83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A81" authorId="0">
+    <comment ref="A84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0">
+    <comment ref="A85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0">
+    <comment ref="A86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0">
+    <comment ref="A87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A85" authorId="0">
+    <comment ref="A88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="0">
+    <comment ref="A89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0">
+    <comment ref="A90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A88" authorId="0">
+    <comment ref="A91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A89" authorId="0">
+    <comment ref="A92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0">
+    <comment ref="A93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A91" authorId="0">
+    <comment ref="A94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="0">
+    <comment ref="A95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0">
+    <comment ref="A96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0">
+    <comment ref="A97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A95" authorId="0">
+    <comment ref="A98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A96" authorId="0">
+    <comment ref="A99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="0">
+    <comment ref="A100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A100" authorId="0">
+    <comment ref="A103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A101" authorId="0">
+    <comment ref="A104" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="0">
+    <comment ref="A106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A104" authorId="0">
+    <comment ref="A107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A105" authorId="0">
+    <comment ref="A108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A106" authorId="0">
+    <comment ref="A109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A107" authorId="0">
+    <comment ref="A110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A108" authorId="0">
+    <comment ref="A111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A109" authorId="0">
+    <comment ref="A112" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A110" authorId="0">
+    <comment ref="A113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A111" authorId="0">
+    <comment ref="A114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A112" authorId="0">
+    <comment ref="A115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A113" authorId="0">
+    <comment ref="A116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A114" authorId="0">
+    <comment ref="A117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1489,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A115" authorId="0">
+    <comment ref="A118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A116" authorId="0">
+    <comment ref="A119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A117" authorId="0">
+    <comment ref="A120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1528,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="0">
+    <comment ref="A121" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1541,7 +1580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A119" authorId="0">
+    <comment ref="A122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A120" authorId="0">
+    <comment ref="A123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1567,7 +1606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A121" authorId="0">
+    <comment ref="A124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0">
+    <comment ref="A125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0">
+    <comment ref="A126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1606,7 +1645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A124" authorId="0">
+    <comment ref="A127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1619,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A125" authorId="0">
+    <comment ref="A128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A126" authorId="0">
+    <comment ref="A129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A127" authorId="0">
+    <comment ref="A130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A128" authorId="0">
+    <comment ref="A131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A129" authorId="0">
+    <comment ref="A132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A130" authorId="0">
+    <comment ref="A133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A131" authorId="0">
+    <comment ref="A134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A132" authorId="0">
+    <comment ref="A135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="0">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0">
+    <comment ref="A137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0">
+    <comment ref="A138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1762,7 +1801,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1775,7 +1827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A137" authorId="0">
+    <comment ref="A141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1788,7 +1840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A138" authorId="0">
+    <comment ref="A142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1801,7 +1853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A139" authorId="0">
+    <comment ref="A143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1814,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A140" authorId="0">
+    <comment ref="A144" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1827,7 +1879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A141" authorId="0">
+    <comment ref="A145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1840,7 +1892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A142" authorId="0">
+    <comment ref="A146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A143" authorId="0">
+    <comment ref="A147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1866,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A144" authorId="0">
+    <comment ref="A148" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A145" authorId="0">
+    <comment ref="A149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1892,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A146" authorId="0">
+    <comment ref="A150" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1905,7 +1957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A147" authorId="0">
+    <comment ref="A151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1918,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A148" authorId="0">
+    <comment ref="A152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A149" authorId="0">
+    <comment ref="A153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A150" authorId="0">
+    <comment ref="A154" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1957,7 +2009,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A151" authorId="0">
+    <comment ref="A155" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If surgical sample, how far from the pathology was the sample obtained. Typically a number of centimeters. Leave blank if not applicable or unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A156" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1970,7 +2035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A152" authorId="0">
+    <comment ref="A157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1983,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A153" authorId="0">
+    <comment ref="A158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1996,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A154" authorId="0">
+    <comment ref="A159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2009,7 +2074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A155" authorId="0">
+    <comment ref="A160" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A156" authorId="0">
+    <comment ref="A161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2035,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A158" authorId="0">
+    <comment ref="A163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2087,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A161" authorId="0">
+    <comment ref="A166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2100,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A162" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2113,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A163" authorId="0">
+    <comment ref="A168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2126,7 +2191,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A164" authorId="0">
+    <comment ref="A169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The media used during preparation of the sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The temperature for the preparation process.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2139,7 +2230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A165" authorId="0">
+    <comment ref="A172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A166" authorId="0">
+    <comment ref="A173" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A167" authorId="0">
+    <comment ref="A174" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A168" authorId="0">
+    <comment ref="A175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A169" authorId="0">
+    <comment ref="A176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A170" authorId="0">
+    <comment ref="A177" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2217,7 +2308,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0">
+    <comment ref="A178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The amount of time that elapsed from beginning of sampling to the first preservation (time from when received in lab to preservation). This would, for example, represent how long it took to cut the tissue and freeze it.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0">
+    <comment ref="A181" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2360,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A173" authorId="0">
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to cell lysis or defined by known parameters such as wells with several cells or no cells. This can be captured at a high level. "OK" or "not OK", or with more specificity such as "debris", "clump", "low clump".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A174" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2269,7 +2399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A175" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2282,7 +2412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A176" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2295,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A177" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A178" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A179" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A181" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2360,7 +2490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2373,7 +2503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2412,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2438,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2451,7 +2581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2477,7 +2607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2503,7 +2633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2516,7 +2646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2529,7 +2659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2542,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2568,7 +2698,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A208" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The index number for the section if the sample is a single section.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2581,7 +2724,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A210" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thickness unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A211" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thickness of the section</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2607,7 +2776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2620,7 +2789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2633,7 +2802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2646,7 +2815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2659,7 +2828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2672,7 +2841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2685,7 +2854,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A220" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A221" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The amount of time that elapsed between when the source was generated and this sample was derived from the source. This would, for example, include how long the source was stored in a freezer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2698,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2711,7 +2906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2724,7 +2919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2737,7 +2932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2750,7 +2945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2763,7 +2958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2776,7 +2971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2789,7 +2984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2802,7 +2997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2815,7 +3010,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A232" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>What was the sample preserved in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A233" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The temperature during storage, after preparation and before the assay is performed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2828,7 +3049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2841,7 +3062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2854,7 +3075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2867,7 +3088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2880,7 +3101,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A239" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Denotes the type of sample, used to validate the field entries.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2893,7 +3127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2906,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2919,7 +3153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2932,7 +3166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2945,7 +3179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2958,7 +3192,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A247" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The volume of a tissue block.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2971,7 +3231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2984,29 +3244,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unit for weight measurement.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A231" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A measurement that describes the vertical force exerted by a mass of the patient as a result of gravity.</t>
+    <comment ref="A250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Weight unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Weight of a tissue block</t>
         </r>
       </text>
     </comment>
@@ -3015,7 +3275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="280">
   <si>
     <t>af</t>
   </si>
@@ -3074,6 +3334,15 @@
     <t>sample</t>
   </si>
   <si>
+    <t>sample-block</t>
+  </si>
+  <si>
+    <t>sample-section</t>
+  </si>
+  <si>
+    <t>sample-suspension</t>
+  </si>
+  <si>
     <t>scatacseq</t>
   </si>
   <si>
@@ -3149,6 +3418,12 @@
     <t>area_normalized_ion_dose_value</t>
   </si>
   <si>
+    <t>area_unit</t>
+  </si>
+  <si>
+    <t>area_value</t>
+  </si>
+  <si>
     <t>assay_category</t>
   </si>
   <si>
@@ -3326,6 +3601,9 @@
     <t>height_value</t>
   </si>
   <si>
+    <t>histological_report</t>
+  </si>
+  <si>
     <t>increment_z_unit</t>
   </si>
   <si>
@@ -3500,6 +3778,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -3545,6 +3826,9 @@
     <t>pathologist_report</t>
   </si>
   <si>
+    <t>pathology_distance_value</t>
+  </si>
+  <si>
     <t>perfusion_solution</t>
   </si>
   <si>
@@ -3584,6 +3868,12 @@
     <t>preparation_maldi_matrix</t>
   </si>
   <si>
+    <t>preparation_media</t>
+  </si>
+  <si>
+    <t>preparation_temperature</t>
+  </si>
+  <si>
     <t>preparation_type</t>
   </si>
   <si>
@@ -3605,12 +3895,21 @@
     <t>processing_search</t>
   </si>
   <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
     <t>protocols_io_doi</t>
   </si>
   <si>
     <t>puck_id</t>
   </si>
   <si>
+    <t>quality_criteria</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -3686,9 +3985,18 @@
     <t>sc_isolation_tissue_dissociation</t>
   </si>
   <si>
+    <t>section_index_number</t>
+  </si>
+  <si>
     <t>section_prep_protocols_io_doi</t>
   </si>
   <si>
+    <t>section_thickness_unit</t>
+  </si>
+  <si>
+    <t>section_thickness_value</t>
+  </si>
+  <si>
     <t>segment_data_format</t>
   </si>
   <si>
@@ -3713,6 +4021,12 @@
     <t>source_project</t>
   </si>
   <si>
+    <t>source_storage_time_unit</t>
+  </si>
+  <si>
+    <t>source_storage_time_value</t>
+  </si>
+  <si>
     <t>spatial_sampling_type</t>
   </si>
   <si>
@@ -3743,6 +4057,12 @@
     <t>step_z_value</t>
   </si>
   <si>
+    <t>storage_media</t>
+  </si>
+  <si>
+    <t>storage_temperature</t>
+  </si>
+  <si>
     <t>tissue_id</t>
   </si>
   <si>
@@ -3758,6 +4078,9 @@
     <t>transposition_transposase_source</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -3774,6 +4097,12 @@
   </si>
   <si>
     <t>vital_state</t>
+  </si>
+  <si>
+    <t>volume_unit</t>
+  </si>
+  <si>
+    <t>volume_value</t>
   </si>
   <si>
     <t>warm_ischemia_time_unit</t>
@@ -4126,7 +4455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA231"/>
+  <dimension ref="A1:AD251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4138,10 +4467,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="27" width="2.7109375" customWidth="1"/>
+    <col min="2" max="30" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4220,3819 +4549,4096 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="V19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W20" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" t="s">
+        <v>30</v>
       </c>
       <c r="Y21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" t="s">
+        <v>30</v>
       </c>
       <c r="Y22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>52</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>53</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="U39" t="s">
-        <v>27</v>
-      </c>
-      <c r="V39" t="s">
-        <v>27</v>
-      </c>
-      <c r="W39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="U40" t="s">
-        <v>27</v>
-      </c>
-      <c r="V40" t="s">
-        <v>27</v>
-      </c>
-      <c r="W40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="U41" t="s">
-        <v>27</v>
-      </c>
-      <c r="V41" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>69</v>
+      </c>
+      <c r="X41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>70</v>
+      </c>
+      <c r="X42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="T43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="T44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" t="s">
-        <v>27</v>
-      </c>
-      <c r="P55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>27</v>
-      </c>
-      <c r="R55" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55" t="s">
-        <v>27</v>
-      </c>
-      <c r="V55" t="s">
-        <v>27</v>
-      </c>
-      <c r="W55" t="s">
-        <v>27</v>
-      </c>
-      <c r="X55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S57" t="s">
-        <v>27</v>
-      </c>
-      <c r="U57" t="s">
-        <v>27</v>
-      </c>
-      <c r="V57" t="s">
-        <v>27</v>
-      </c>
-      <c r="W57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="L58" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
-      </c>
-      <c r="U59" t="s">
-        <v>27</v>
-      </c>
-      <c r="V59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="N60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+        <v>88</v>
+      </c>
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" t="s">
+        <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" t="s">
+        <v>30</v>
+      </c>
+      <c r="X61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>91</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>89</v>
-      </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+        <v>92</v>
+      </c>
+      <c r="N64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+        <v>94</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s">
-        <v>27</v>
-      </c>
-      <c r="K67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" t="s">
-        <v>27</v>
-      </c>
-      <c r="P67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>27</v>
-      </c>
-      <c r="R67" t="s">
-        <v>27</v>
-      </c>
-      <c r="S67" t="s">
-        <v>27</v>
-      </c>
-      <c r="U67" t="s">
-        <v>27</v>
-      </c>
-      <c r="V67" t="s">
-        <v>27</v>
-      </c>
-      <c r="W67" t="s">
-        <v>27</v>
-      </c>
-      <c r="X67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+        <v>95</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>93</v>
-      </c>
-      <c r="L68" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+        <v>96</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>30</v>
       </c>
       <c r="Q69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R69" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="X69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O70" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q70" t="s">
-        <v>27</v>
-      </c>
-      <c r="R70" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" t="s">
-        <v>27</v>
-      </c>
-      <c r="U70" t="s">
-        <v>27</v>
-      </c>
-      <c r="V70" t="s">
-        <v>27</v>
-      </c>
-      <c r="W70" t="s">
-        <v>27</v>
-      </c>
-      <c r="X70" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>96</v>
-      </c>
-      <c r="V71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>97</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>30</v>
+      </c>
+      <c r="X72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+        <v>101</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>99</v>
-      </c>
-      <c r="K74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="T75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+        <v>103</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+        <v>104</v>
+      </c>
+      <c r="K76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>102</v>
-      </c>
-      <c r="J77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+        <v>105</v>
+      </c>
+      <c r="T77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>104</v>
-      </c>
-      <c r="P79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>105</v>
-      </c>
-      <c r="K80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+        <v>108</v>
+      </c>
+      <c r="U80" t="s">
+        <v>30</v>
+      </c>
+      <c r="V80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>106</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" t="s">
-        <v>27</v>
-      </c>
-      <c r="O81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+        <v>109</v>
+      </c>
+      <c r="P81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+        <v>110</v>
+      </c>
+      <c r="P82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>108</v>
-      </c>
-      <c r="I83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+        <v>111</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>27</v>
-      </c>
-      <c r="R84" t="s">
-        <v>27</v>
-      </c>
-      <c r="S84" t="s">
-        <v>27</v>
-      </c>
-      <c r="U84" t="s">
-        <v>27</v>
-      </c>
-      <c r="V84" t="s">
-        <v>27</v>
-      </c>
-      <c r="W84" t="s">
-        <v>27</v>
-      </c>
-      <c r="X84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="U85" t="s">
-        <v>27</v>
-      </c>
-      <c r="V85" t="s">
-        <v>27</v>
-      </c>
-      <c r="W85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+        <v>113</v>
+      </c>
+      <c r="K85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>111</v>
-      </c>
-      <c r="J86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" t="s">
+        <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="P87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>30</v>
+      </c>
+      <c r="R87" t="s">
+        <v>30</v>
+      </c>
+      <c r="S87" t="s">
+        <v>30</v>
+      </c>
+      <c r="X87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>113</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="K88" t="s">
-        <v>27</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="X88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
+        <v>117</v>
+      </c>
+      <c r="J89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" t="s">
+        <v>30</v>
       </c>
       <c r="O91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>117</v>
-      </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O105" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
-      </c>
-      <c r="U106" t="s">
-        <v>27</v>
-      </c>
-      <c r="V106" t="s">
-        <v>27</v>
-      </c>
-      <c r="W106" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" t="s">
-        <v>27</v>
-      </c>
-      <c r="U107" t="s">
-        <v>27</v>
-      </c>
-      <c r="V107" t="s">
-        <v>27</v>
-      </c>
-      <c r="W107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27">
+        <v>135</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>133</v>
-      </c>
-      <c r="D108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27">
+        <v>136</v>
+      </c>
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="X109" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27">
+        <v>138</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="X110" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" t="s">
-        <v>27</v>
-      </c>
-      <c r="U111" t="s">
-        <v>27</v>
-      </c>
-      <c r="V111" t="s">
-        <v>27</v>
-      </c>
-      <c r="W111" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>138</v>
-      </c>
-      <c r="U113" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+        <v>141</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
-      </c>
-      <c r="U114" t="s">
-        <v>27</v>
-      </c>
-      <c r="V114" t="s">
-        <v>27</v>
-      </c>
-      <c r="W114" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X114" t="s">
+        <v>30</v>
       </c>
       <c r="Y114" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="V115" t="s">
-        <v>27</v>
-      </c>
-      <c r="W115" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" t="s">
-        <v>141</v>
-      </c>
-      <c r="D116" t="s">
-        <v>27</v>
-      </c>
-      <c r="U116" t="s">
-        <v>27</v>
-      </c>
-      <c r="V116" t="s">
-        <v>27</v>
-      </c>
-      <c r="W116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
+        <v>144</v>
+      </c>
+      <c r="X116" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
-      </c>
-      <c r="U117" t="s">
-        <v>27</v>
-      </c>
-      <c r="V117" t="s">
-        <v>27</v>
-      </c>
-      <c r="W117" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X117" t="s">
+        <v>30</v>
       </c>
       <c r="Y117" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
-      </c>
-      <c r="U118" t="s">
-        <v>27</v>
-      </c>
-      <c r="V118" t="s">
-        <v>27</v>
-      </c>
-      <c r="W118" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
       </c>
       <c r="Y118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" t="s">
-        <v>144</v>
-      </c>
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-      <c r="U119" t="s">
-        <v>27</v>
-      </c>
-      <c r="V119" t="s">
-        <v>27</v>
-      </c>
-      <c r="W119" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="X119" t="s">
+        <v>30</v>
       </c>
       <c r="Y119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="X120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27">
+        <v>149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="X121" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" t="s">
-        <v>147</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="K122" t="s">
-        <v>27</v>
-      </c>
-      <c r="N122" t="s">
-        <v>27</v>
-      </c>
-      <c r="O122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27">
+        <v>150</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="X122" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" t="s">
-        <v>148</v>
-      </c>
-      <c r="L123" t="s">
-        <v>27</v>
-      </c>
-      <c r="M123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27">
+        <v>151</v>
+      </c>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" t="s">
-        <v>149</v>
-      </c>
-      <c r="L124" t="s">
-        <v>27</v>
-      </c>
-      <c r="M124" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" t="s">
-        <v>150</v>
-      </c>
-      <c r="L125" t="s">
-        <v>27</v>
-      </c>
-      <c r="M125" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27">
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" t="s">
+        <v>30</v>
+      </c>
+      <c r="N125" t="s">
+        <v>30</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q126" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
-        <v>152</v>
-      </c>
-      <c r="J127" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27">
+        <v>155</v>
+      </c>
+      <c r="L127" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
-        <v>153</v>
-      </c>
-      <c r="J128" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+        <v>156</v>
+      </c>
+      <c r="L128" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
-        <v>154</v>
-      </c>
-      <c r="I129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
+        <v>157</v>
+      </c>
+      <c r="L129" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
-        <v>155</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="K130" t="s">
-        <v>27</v>
-      </c>
-      <c r="N130" t="s">
-        <v>27</v>
-      </c>
-      <c r="O130" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+        <v>158</v>
+      </c>
+      <c r="J130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
-      <c r="K131" t="s">
-        <v>27</v>
-      </c>
-      <c r="N131" t="s">
-        <v>27</v>
-      </c>
-      <c r="O131" t="s">
-        <v>27</v>
-      </c>
-      <c r="S131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+        <v>159</v>
+      </c>
+      <c r="J131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="K132" t="s">
-        <v>27</v>
-      </c>
-      <c r="N132" t="s">
-        <v>27</v>
-      </c>
-      <c r="O132" t="s">
-        <v>27</v>
-      </c>
-      <c r="S132" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+        <v>160</v>
+      </c>
+      <c r="I132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O133" t="s">
-        <v>27</v>
-      </c>
-      <c r="S133" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O134" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+        <v>30</v>
+      </c>
+      <c r="S134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
-        <v>160</v>
-      </c>
-      <c r="I135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
+        <v>163</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="K135" t="s">
+        <v>30</v>
+      </c>
+      <c r="N135" t="s">
+        <v>30</v>
+      </c>
+      <c r="O135" t="s">
+        <v>30</v>
+      </c>
+      <c r="S135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
-        <v>161</v>
-      </c>
-      <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="H136" t="s">
-        <v>27</v>
-      </c>
-      <c r="P136" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" t="s">
+        <v>30</v>
+      </c>
+      <c r="N136" t="s">
+        <v>30</v>
+      </c>
+      <c r="O136" t="s">
+        <v>30</v>
+      </c>
+      <c r="S136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
-        <v>162</v>
-      </c>
-      <c r="X137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
+        <v>165</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" t="s">
+        <v>30</v>
+      </c>
+      <c r="N137" t="s">
+        <v>30</v>
+      </c>
+      <c r="O137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" t="s">
-        <v>163</v>
-      </c>
-      <c r="X138" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
+        <v>166</v>
+      </c>
+      <c r="I138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" t="s">
-        <v>27</v>
-      </c>
-      <c r="L139" t="s">
-        <v>27</v>
-      </c>
-      <c r="M139" t="s">
-        <v>27</v>
-      </c>
-      <c r="P139" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>27</v>
-      </c>
-      <c r="R139" t="s">
-        <v>27</v>
-      </c>
-      <c r="X139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
+        <v>167</v>
+      </c>
+      <c r="U139" t="s">
+        <v>30</v>
+      </c>
+      <c r="V139" t="s">
+        <v>30</v>
+      </c>
+      <c r="W139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>27</v>
-      </c>
-      <c r="R140" t="s">
-        <v>27</v>
-      </c>
-      <c r="X140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24">
+        <v>30</v>
+      </c>
+      <c r="P140" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" t="s">
-        <v>166</v>
-      </c>
-      <c r="F141" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
+        <v>169</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" t="s">
-        <v>167</v>
-      </c>
-      <c r="X142" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24">
+        <v>170</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" t="s">
-        <v>168</v>
-      </c>
-      <c r="X143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24">
+        <v>171</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" t="s">
+        <v>30</v>
+      </c>
+      <c r="M143" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>30</v>
+      </c>
+      <c r="R143" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" t="s">
-        <v>169</v>
-      </c>
-      <c r="M144" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>172</v>
+      </c>
+      <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" t="s">
+        <v>30</v>
+      </c>
+      <c r="R144" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30">
       <c r="A145" t="s">
-        <v>170</v>
-      </c>
-      <c r="B145" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s">
-        <v>27</v>
-      </c>
-      <c r="K145" t="s">
-        <v>27</v>
-      </c>
-      <c r="L145" t="s">
-        <v>27</v>
-      </c>
-      <c r="M145" t="s">
-        <v>27</v>
-      </c>
-      <c r="N145" t="s">
-        <v>27</v>
-      </c>
-      <c r="O145" t="s">
-        <v>27</v>
-      </c>
-      <c r="P145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>27</v>
-      </c>
-      <c r="R145" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" t="s">
-        <v>27</v>
-      </c>
-      <c r="U145" t="s">
-        <v>27</v>
-      </c>
-      <c r="V145" t="s">
-        <v>27</v>
-      </c>
-      <c r="W145" t="s">
-        <v>27</v>
-      </c>
-      <c r="X145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30">
       <c r="A146" t="s">
-        <v>171</v>
-      </c>
-      <c r="B146" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s">
-        <v>27</v>
-      </c>
-      <c r="K146" t="s">
-        <v>27</v>
-      </c>
-      <c r="L146" t="s">
-        <v>27</v>
-      </c>
-      <c r="M146" t="s">
-        <v>27</v>
-      </c>
-      <c r="N146" t="s">
-        <v>27</v>
-      </c>
-      <c r="O146" t="s">
-        <v>27</v>
-      </c>
-      <c r="P146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>27</v>
-      </c>
-      <c r="R146" t="s">
-        <v>27</v>
-      </c>
-      <c r="S146" t="s">
-        <v>27</v>
-      </c>
-      <c r="U146" t="s">
-        <v>27</v>
-      </c>
-      <c r="V146" t="s">
-        <v>27</v>
-      </c>
-      <c r="W146" t="s">
-        <v>27</v>
-      </c>
-      <c r="X146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AA146" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30">
       <c r="A147" t="s">
-        <v>172</v>
-      </c>
-      <c r="I147" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>175</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30">
       <c r="A148" t="s">
-        <v>173</v>
-      </c>
-      <c r="T148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+        <v>176</v>
+      </c>
+      <c r="M148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H149" t="s">
+        <v>30</v>
       </c>
       <c r="K149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L149" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" t="s">
+        <v>30</v>
       </c>
       <c r="N149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="P149" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>30</v>
       </c>
       <c r="R149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X149" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>30</v>
       </c>
       <c r="Z149" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30">
       <c r="A150" t="s">
-        <v>175</v>
-      </c>
-      <c r="T150" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>178</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="K150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L150" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" t="s">
+        <v>30</v>
+      </c>
+      <c r="N150" t="s">
+        <v>30</v>
+      </c>
+      <c r="O150" t="s">
+        <v>30</v>
+      </c>
+      <c r="P150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>30</v>
+      </c>
+      <c r="R150" t="s">
+        <v>30</v>
+      </c>
+      <c r="S150" t="s">
+        <v>30</v>
+      </c>
+      <c r="X150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30">
       <c r="A151" t="s">
-        <v>176</v>
-      </c>
-      <c r="T151" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
+        <v>179</v>
+      </c>
+      <c r="I151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30">
       <c r="A152" t="s">
-        <v>177</v>
-      </c>
-      <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
-      <c r="H152" t="s">
-        <v>27</v>
-      </c>
-      <c r="K152" t="s">
-        <v>27</v>
-      </c>
-      <c r="L152" t="s">
-        <v>27</v>
-      </c>
-      <c r="M152" t="s">
-        <v>27</v>
-      </c>
-      <c r="N152" t="s">
-        <v>27</v>
-      </c>
-      <c r="O152" t="s">
-        <v>27</v>
-      </c>
-      <c r="P152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>27</v>
-      </c>
-      <c r="R152" t="s">
-        <v>27</v>
-      </c>
-      <c r="S152" t="s">
-        <v>27</v>
-      </c>
-      <c r="U152" t="s">
-        <v>27</v>
-      </c>
-      <c r="V152" t="s">
-        <v>27</v>
-      </c>
-      <c r="W152" t="s">
-        <v>27</v>
-      </c>
-      <c r="X152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z152" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27">
+        <v>180</v>
+      </c>
+      <c r="T152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>27</v>
-      </c>
-      <c r="H153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K153" t="s">
-        <v>27</v>
-      </c>
-      <c r="L153" t="s">
-        <v>27</v>
-      </c>
-      <c r="M153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O153" t="s">
-        <v>27</v>
-      </c>
-      <c r="P153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S153" t="s">
-        <v>27</v>
-      </c>
-      <c r="U153" t="s">
-        <v>27</v>
-      </c>
-      <c r="V153" t="s">
-        <v>27</v>
-      </c>
-      <c r="W153" t="s">
-        <v>27</v>
-      </c>
-      <c r="X153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA153" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30">
       <c r="A154" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27">
+        <v>182</v>
+      </c>
+      <c r="T154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30">
       <c r="A155" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27">
+        <v>183</v>
+      </c>
+      <c r="U155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30">
       <c r="A156" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27">
+        <v>184</v>
+      </c>
+      <c r="T156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30">
       <c r="A157" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="K157" t="s">
+        <v>30</v>
+      </c>
+      <c r="L157" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" t="s">
+        <v>30</v>
+      </c>
+      <c r="O157" t="s">
+        <v>30</v>
+      </c>
+      <c r="P157" t="s">
+        <v>30</v>
       </c>
       <c r="Q157" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R157" t="s">
+        <v>30</v>
+      </c>
+      <c r="S157" t="s">
+        <v>30</v>
+      </c>
+      <c r="X157" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="K158" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" t="s">
+        <v>30</v>
+      </c>
+      <c r="O158" t="s">
+        <v>30</v>
+      </c>
+      <c r="P158" t="s">
+        <v>30</v>
       </c>
       <c r="Q158" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R158" t="s">
+        <v>30</v>
+      </c>
+      <c r="S158" t="s">
+        <v>30</v>
+      </c>
+      <c r="X158" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q159" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30">
       <c r="A160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="K160" t="s">
-        <v>27</v>
-      </c>
-      <c r="N160" t="s">
-        <v>27</v>
-      </c>
-      <c r="O160" t="s">
-        <v>27</v>
-      </c>
-      <c r="S160" t="s">
-        <v>27</v>
+        <v>188</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="s">
-        <v>186</v>
-      </c>
-      <c r="H161" t="s">
-        <v>27</v>
-      </c>
-      <c r="L161" t="s">
-        <v>27</v>
-      </c>
-      <c r="M161" t="s">
-        <v>27</v>
-      </c>
-      <c r="N161" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="Q161" t="s">
-        <v>27</v>
-      </c>
-      <c r="X161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="s">
-        <v>187</v>
-      </c>
-      <c r="H162" t="s">
-        <v>27</v>
-      </c>
-      <c r="L162" t="s">
-        <v>27</v>
-      </c>
-      <c r="M162" t="s">
-        <v>27</v>
-      </c>
-      <c r="N162" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="Q162" t="s">
-        <v>27</v>
-      </c>
-      <c r="X162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="s">
-        <v>188</v>
-      </c>
-      <c r="N163" t="s">
-        <v>27</v>
+        <v>191</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="s">
-        <v>189</v>
-      </c>
-      <c r="N164" t="s">
-        <v>27</v>
+        <v>192</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>27</v>
+        <v>193</v>
+      </c>
+      <c r="G165" t="s">
+        <v>30</v>
+      </c>
+      <c r="K165" t="s">
+        <v>30</v>
+      </c>
+      <c r="N165" t="s">
+        <v>30</v>
+      </c>
+      <c r="O165" t="s">
+        <v>30</v>
+      </c>
+      <c r="S165" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="L166" t="s">
+        <v>30</v>
+      </c>
+      <c r="M166" t="s">
+        <v>30</v>
+      </c>
+      <c r="N166" t="s">
+        <v>30</v>
       </c>
       <c r="Q166" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="L167" t="s">
+        <v>30</v>
+      </c>
+      <c r="M167" t="s">
+        <v>30</v>
+      </c>
+      <c r="N167" t="s">
+        <v>30</v>
       </c>
       <c r="Q167" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="s">
-        <v>193</v>
-      </c>
-      <c r="T168" t="s">
-        <v>27</v>
+        <v>196</v>
+      </c>
+      <c r="N168" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="s">
-        <v>194</v>
-      </c>
-      <c r="F169" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
-      <c r="N169" t="s">
-        <v>27</v>
-      </c>
-      <c r="O169" t="s">
-        <v>27</v>
-      </c>
-      <c r="S169" t="s">
-        <v>27</v>
+        <v>197</v>
+      </c>
+      <c r="U169" t="s">
+        <v>30</v>
+      </c>
+      <c r="V169" t="s">
+        <v>30</v>
+      </c>
+      <c r="W169" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="s">
-        <v>195</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
-      <c r="K170" t="s">
-        <v>27</v>
-      </c>
-      <c r="O170" t="s">
-        <v>27</v>
+        <v>198</v>
+      </c>
+      <c r="U170" t="s">
+        <v>30</v>
+      </c>
+      <c r="V170" t="s">
+        <v>30</v>
+      </c>
+      <c r="W170" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="s">
-        <v>196</v>
-      </c>
-      <c r="B171" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" t="s">
-        <v>27</v>
-      </c>
-      <c r="K171" t="s">
-        <v>27</v>
-      </c>
-      <c r="L171" t="s">
-        <v>27</v>
-      </c>
-      <c r="M171" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="N171" t="s">
-        <v>27</v>
-      </c>
-      <c r="O171" t="s">
-        <v>27</v>
-      </c>
-      <c r="P171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>27</v>
-      </c>
-      <c r="R171" t="s">
-        <v>27</v>
-      </c>
-      <c r="S171" t="s">
-        <v>27</v>
-      </c>
-      <c r="U171" t="s">
-        <v>27</v>
-      </c>
-      <c r="V171" t="s">
-        <v>27</v>
-      </c>
-      <c r="W171" t="s">
-        <v>27</v>
-      </c>
-      <c r="X171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z171" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>27</v>
+        <v>200</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="s">
-        <v>198</v>
-      </c>
-      <c r="J173" t="s">
-        <v>27</v>
+        <v>201</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="s">
-        <v>199</v>
-      </c>
-      <c r="P174" t="s">
-        <v>27</v>
+        <v>202</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="s">
-        <v>200</v>
-      </c>
-      <c r="P175" t="s">
-        <v>27</v>
+        <v>203</v>
+      </c>
+      <c r="T175" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="s">
-        <v>201</v>
-      </c>
-      <c r="H176" t="s">
-        <v>27</v>
-      </c>
-      <c r="L176" t="s">
-        <v>27</v>
-      </c>
-      <c r="M176" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>27</v>
-      </c>
-      <c r="R176" t="s">
-        <v>27</v>
-      </c>
-      <c r="X176" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26">
+        <v>204</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" t="s">
+        <v>30</v>
+      </c>
+      <c r="O176" t="s">
+        <v>30</v>
+      </c>
+      <c r="S176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30">
       <c r="A177" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="G177" t="s">
-        <v>27</v>
-      </c>
-      <c r="H177" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K177" t="s">
-        <v>27</v>
-      </c>
-      <c r="N177" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O177" t="s">
-        <v>27</v>
-      </c>
-      <c r="P177" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>27</v>
-      </c>
-      <c r="R177" t="s">
-        <v>27</v>
-      </c>
-      <c r="S177" t="s">
-        <v>27</v>
-      </c>
-      <c r="X177" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30">
       <c r="A178" t="s">
-        <v>203</v>
-      </c>
-      <c r="B178" t="s">
-        <v>27</v>
-      </c>
-      <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
-      <c r="H178" t="s">
-        <v>27</v>
-      </c>
-      <c r="K178" t="s">
-        <v>27</v>
-      </c>
-      <c r="N178" t="s">
-        <v>27</v>
-      </c>
-      <c r="O178" t="s">
-        <v>27</v>
-      </c>
-      <c r="P178" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>27</v>
-      </c>
-      <c r="R178" t="s">
-        <v>27</v>
-      </c>
-      <c r="S178" t="s">
-        <v>27</v>
-      </c>
-      <c r="X178" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z178" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26">
+        <v>206</v>
+      </c>
+      <c r="U178" t="s">
+        <v>30</v>
+      </c>
+      <c r="V178" t="s">
+        <v>30</v>
+      </c>
+      <c r="W178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30">
       <c r="A179" t="s">
-        <v>204</v>
-      </c>
-      <c r="B179" t="s">
-        <v>27</v>
-      </c>
-      <c r="F179" t="s">
-        <v>27</v>
-      </c>
-      <c r="G179" t="s">
-        <v>27</v>
-      </c>
-      <c r="H179" t="s">
-        <v>27</v>
-      </c>
-      <c r="K179" t="s">
-        <v>27</v>
-      </c>
-      <c r="N179" t="s">
-        <v>27</v>
-      </c>
-      <c r="O179" t="s">
-        <v>27</v>
-      </c>
-      <c r="P179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>27</v>
-      </c>
-      <c r="R179" t="s">
-        <v>27</v>
-      </c>
-      <c r="S179" t="s">
-        <v>27</v>
-      </c>
-      <c r="X179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z179" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26">
+        <v>207</v>
+      </c>
+      <c r="U179" t="s">
+        <v>30</v>
+      </c>
+      <c r="V179" t="s">
+        <v>30</v>
+      </c>
+      <c r="W179" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30">
       <c r="A180" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L180" t="s">
+        <v>30</v>
+      </c>
+      <c r="M180" t="s">
+        <v>30</v>
       </c>
       <c r="N180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>30</v>
       </c>
       <c r="Z180" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30">
       <c r="A181" t="s">
-        <v>206</v>
-      </c>
-      <c r="B181" t="s">
-        <v>27</v>
-      </c>
-      <c r="H181" t="s">
-        <v>27</v>
-      </c>
-      <c r="P181" t="s">
-        <v>27</v>
-      </c>
-      <c r="X181" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26">
+        <v>209</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30">
       <c r="A182" t="s">
-        <v>207</v>
-      </c>
-      <c r="B182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s">
-        <v>27</v>
-      </c>
-      <c r="P182" t="s">
-        <v>27</v>
-      </c>
-      <c r="X182" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z182" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26">
+        <v>210</v>
+      </c>
+      <c r="U182" t="s">
+        <v>30</v>
+      </c>
+      <c r="V182" t="s">
+        <v>30</v>
+      </c>
+      <c r="W182" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30">
       <c r="A183" t="s">
-        <v>208</v>
-      </c>
-      <c r="V183" t="s">
-        <v>27</v>
-      </c>
-      <c r="W183" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26">
+        <v>211</v>
+      </c>
+      <c r="J183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30">
       <c r="A184" t="s">
-        <v>209</v>
-      </c>
-      <c r="E184" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26">
+        <v>212</v>
+      </c>
+      <c r="P184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30">
       <c r="A185" t="s">
-        <v>210</v>
-      </c>
-      <c r="E185" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26">
+        <v>213</v>
+      </c>
+      <c r="P185" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30">
       <c r="A186" t="s">
-        <v>211</v>
-      </c>
-      <c r="E186" t="s">
-        <v>27</v>
-      </c>
-      <c r="V186" t="s">
-        <v>27</v>
-      </c>
-      <c r="W186" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26">
+        <v>214</v>
+      </c>
+      <c r="H186" t="s">
+        <v>30</v>
+      </c>
+      <c r="L186" t="s">
+        <v>30</v>
+      </c>
+      <c r="M186" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30">
       <c r="A187" t="s">
-        <v>212</v>
-      </c>
-      <c r="L187" t="s">
-        <v>27</v>
-      </c>
-      <c r="M187" t="s">
-        <v>27</v>
+        <v>215</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" t="s">
+        <v>30</v>
+      </c>
+      <c r="K187" t="s">
+        <v>30</v>
+      </c>
+      <c r="N187" t="s">
+        <v>30</v>
+      </c>
+      <c r="O187" t="s">
+        <v>30</v>
+      </c>
+      <c r="P187" t="s">
+        <v>30</v>
       </c>
       <c r="Q187" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="R187" t="s">
+        <v>30</v>
+      </c>
+      <c r="S187" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30">
       <c r="A188" t="s">
-        <v>213</v>
-      </c>
-      <c r="L188" t="s">
-        <v>27</v>
-      </c>
-      <c r="M188" t="s">
-        <v>27</v>
+        <v>216</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" t="s">
+        <v>30</v>
+      </c>
+      <c r="K188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N188" t="s">
+        <v>30</v>
+      </c>
+      <c r="O188" t="s">
+        <v>30</v>
+      </c>
+      <c r="P188" t="s">
+        <v>30</v>
       </c>
       <c r="Q188" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="R188" t="s">
+        <v>30</v>
+      </c>
+      <c r="S188" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30">
       <c r="A189" t="s">
-        <v>214</v>
-      </c>
-      <c r="C189" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26">
+        <v>217</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" t="s">
+        <v>30</v>
+      </c>
+      <c r="K189" t="s">
+        <v>30</v>
+      </c>
+      <c r="N189" t="s">
+        <v>30</v>
+      </c>
+      <c r="O189" t="s">
+        <v>30</v>
+      </c>
+      <c r="P189" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>30</v>
+      </c>
+      <c r="R189" t="s">
+        <v>30</v>
+      </c>
+      <c r="S189" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30">
       <c r="A190" t="s">
-        <v>215</v>
-      </c>
-      <c r="T190" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26">
+        <v>218</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" t="s">
+        <v>30</v>
+      </c>
+      <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="N190" t="s">
+        <v>30</v>
+      </c>
+      <c r="O190" t="s">
+        <v>30</v>
+      </c>
+      <c r="P190" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>30</v>
+      </c>
+      <c r="R190" t="s">
+        <v>30</v>
+      </c>
+      <c r="S190" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30">
       <c r="A191" t="s">
-        <v>216</v>
-      </c>
-      <c r="D191" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26">
+        <v>219</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s">
+        <v>30</v>
+      </c>
+      <c r="P191" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30">
       <c r="A192" t="s">
-        <v>217</v>
-      </c>
-      <c r="U192" t="s">
-        <v>27</v>
-      </c>
-      <c r="V192" t="s">
-        <v>27</v>
-      </c>
-      <c r="W192" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>220</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
+        <v>30</v>
+      </c>
+      <c r="P192" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
       <c r="A193" t="s">
-        <v>218</v>
-      </c>
-      <c r="U193" t="s">
-        <v>27</v>
-      </c>
-      <c r="V193" t="s">
-        <v>27</v>
-      </c>
-      <c r="W193" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>221</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
       <c r="A194" t="s">
-        <v>219</v>
-      </c>
-      <c r="U194" t="s">
-        <v>27</v>
-      </c>
-      <c r="V194" t="s">
-        <v>27</v>
-      </c>
-      <c r="W194" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>222</v>
+      </c>
+      <c r="E194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
       <c r="A195" t="s">
-        <v>220</v>
-      </c>
-      <c r="U195" t="s">
-        <v>27</v>
-      </c>
-      <c r="V195" t="s">
-        <v>27</v>
-      </c>
-      <c r="W195" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>223</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
       <c r="A196" t="s">
-        <v>221</v>
-      </c>
-      <c r="U196" t="s">
-        <v>27</v>
-      </c>
-      <c r="V196" t="s">
-        <v>27</v>
-      </c>
-      <c r="W196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
+        <v>224</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
       <c r="A197" t="s">
-        <v>222</v>
-      </c>
-      <c r="U197" t="s">
-        <v>27</v>
-      </c>
-      <c r="V197" t="s">
-        <v>27</v>
-      </c>
-      <c r="W197" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27">
+        <v>225</v>
+      </c>
+      <c r="L197" t="s">
+        <v>30</v>
+      </c>
+      <c r="M197" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
       <c r="A198" t="s">
-        <v>223</v>
-      </c>
-      <c r="G198" t="s">
-        <v>27</v>
-      </c>
-      <c r="H198" t="s">
-        <v>27</v>
-      </c>
-      <c r="K198" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="L198" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M198" t="s">
-        <v>27</v>
-      </c>
-      <c r="N198" t="s">
-        <v>27</v>
-      </c>
-      <c r="O198" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q198" t="s">
-        <v>27</v>
-      </c>
-      <c r="R198" t="s">
-        <v>27</v>
-      </c>
-      <c r="X198" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" t="s">
-        <v>224</v>
-      </c>
-      <c r="L199" t="s">
-        <v>27</v>
-      </c>
-      <c r="M199" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27">
+        <v>227</v>
+      </c>
+      <c r="C199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
       <c r="A200" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" t="s">
-        <v>27</v>
-      </c>
-      <c r="E200" t="s">
-        <v>27</v>
+        <v>228</v>
+      </c>
+      <c r="T200" t="s">
+        <v>30</v>
       </c>
       <c r="U200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W200" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA200" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D201" t="s">
-        <v>27</v>
-      </c>
-      <c r="E201" t="s">
-        <v>27</v>
-      </c>
-      <c r="U201" t="s">
-        <v>27</v>
-      </c>
-      <c r="V201" t="s">
-        <v>27</v>
-      </c>
-      <c r="W201" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
       <c r="A202" t="s">
-        <v>227</v>
-      </c>
-      <c r="D202" t="s">
-        <v>27</v>
-      </c>
-      <c r="E202" t="s">
-        <v>27</v>
-      </c>
-      <c r="U202" t="s">
-        <v>27</v>
-      </c>
-      <c r="V202" t="s">
-        <v>27</v>
-      </c>
-      <c r="W202" t="s">
-        <v>27</v>
+        <v>230</v>
+      </c>
+      <c r="X202" t="s">
+        <v>30</v>
       </c>
       <c r="Y202" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA202" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
       <c r="A203" t="s">
-        <v>228</v>
-      </c>
-      <c r="D203" t="s">
-        <v>27</v>
-      </c>
-      <c r="E203" t="s">
-        <v>27</v>
-      </c>
-      <c r="U203" t="s">
-        <v>27</v>
-      </c>
-      <c r="V203" t="s">
-        <v>27</v>
-      </c>
-      <c r="W203" t="s">
-        <v>27</v>
+        <v>231</v>
+      </c>
+      <c r="X203" t="s">
+        <v>30</v>
       </c>
       <c r="Y203" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
       <c r="A204" t="s">
-        <v>229</v>
-      </c>
-      <c r="J204" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27">
+        <v>232</v>
+      </c>
+      <c r="X204" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
       <c r="A205" t="s">
-        <v>230</v>
-      </c>
-      <c r="L205" t="s">
-        <v>27</v>
-      </c>
-      <c r="M205" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27">
+        <v>233</v>
+      </c>
+      <c r="X205" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
       <c r="A206" t="s">
-        <v>231</v>
-      </c>
-      <c r="W206" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27">
+        <v>234</v>
+      </c>
+      <c r="X206" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
       <c r="A207" t="s">
-        <v>232</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
-      <c r="K207" t="s">
-        <v>27</v>
-      </c>
-      <c r="O207" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27">
+        <v>235</v>
+      </c>
+      <c r="X207" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28">
       <c r="A208" t="s">
-        <v>233</v>
-      </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
-      <c r="K208" t="s">
-        <v>27</v>
-      </c>
-      <c r="O208" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>236</v>
+      </c>
+      <c r="V208" t="s">
+        <v>30</v>
+      </c>
+      <c r="W208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G209" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H209" t="s">
+        <v>30</v>
       </c>
       <c r="K209" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L209" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" t="s">
+        <v>30</v>
+      </c>
+      <c r="N209" t="s">
+        <v>30</v>
       </c>
       <c r="O209" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>30</v>
+      </c>
+      <c r="R209" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30">
       <c r="A210" t="s">
-        <v>235</v>
-      </c>
-      <c r="T210" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>238</v>
+      </c>
+      <c r="V210" t="s">
+        <v>30</v>
+      </c>
+      <c r="W210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30">
       <c r="A211" t="s">
-        <v>236</v>
-      </c>
-      <c r="T211" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
+        <v>239</v>
+      </c>
+      <c r="V211" t="s">
+        <v>30</v>
+      </c>
+      <c r="W211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30">
       <c r="A212" t="s">
-        <v>237</v>
-      </c>
-      <c r="T212" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27">
+        <v>240</v>
+      </c>
+      <c r="L212" t="s">
+        <v>30</v>
+      </c>
+      <c r="M212" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30">
       <c r="A213" t="s">
-        <v>238</v>
-      </c>
-      <c r="T213" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27">
+        <v>241</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="X213" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" t="s">
+        <v>30</v>
+      </c>
+      <c r="X214" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>30</v>
       </c>
       <c r="Z214" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30">
       <c r="A215" t="s">
-        <v>240</v>
-      </c>
-      <c r="L215" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27">
+        <v>243</v>
+      </c>
+      <c r="D215" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>30</v>
+      </c>
+      <c r="X215" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30">
       <c r="A216" t="s">
-        <v>241</v>
-      </c>
-      <c r="P216" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27">
+        <v>244</v>
+      </c>
+      <c r="D216" t="s">
+        <v>30</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="X216" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30">
       <c r="A217" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" t="s">
-        <v>27</v>
-      </c>
-      <c r="D217" t="s">
-        <v>27</v>
-      </c>
-      <c r="E217" t="s">
-        <v>27</v>
-      </c>
-      <c r="F217" t="s">
-        <v>27</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
-      <c r="H217" t="s">
-        <v>27</v>
-      </c>
-      <c r="K217" t="s">
-        <v>27</v>
-      </c>
-      <c r="L217" t="s">
-        <v>27</v>
-      </c>
-      <c r="M217" t="s">
-        <v>27</v>
-      </c>
-      <c r="N217" t="s">
-        <v>27</v>
-      </c>
-      <c r="O217" t="s">
-        <v>27</v>
-      </c>
-      <c r="P217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>27</v>
-      </c>
-      <c r="R217" t="s">
-        <v>27</v>
-      </c>
-      <c r="S217" t="s">
-        <v>27</v>
-      </c>
-      <c r="U217" t="s">
-        <v>27</v>
-      </c>
-      <c r="V217" t="s">
-        <v>27</v>
-      </c>
-      <c r="W217" t="s">
-        <v>27</v>
-      </c>
-      <c r="X217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27">
+        <v>245</v>
+      </c>
+      <c r="J217" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30">
       <c r="A218" t="s">
-        <v>243</v>
-      </c>
-      <c r="U218" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27">
+        <v>246</v>
+      </c>
+      <c r="L218" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30">
       <c r="A219" t="s">
-        <v>244</v>
-      </c>
-      <c r="D219" t="s">
-        <v>27</v>
-      </c>
-      <c r="U219" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27">
+        <v>247</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30">
       <c r="A220" t="s">
-        <v>245</v>
-      </c>
-      <c r="D220" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="U220" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="V220" t="s">
+        <v>30</v>
+      </c>
+      <c r="W220" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30">
       <c r="A221" t="s">
-        <v>246</v>
-      </c>
-      <c r="D221" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="U221" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="V221" t="s">
+        <v>30</v>
+      </c>
+      <c r="W221" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30">
       <c r="A222" t="s">
-        <v>247</v>
-      </c>
-      <c r="V222" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27">
+        <v>250</v>
+      </c>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="K222" t="s">
+        <v>30</v>
+      </c>
+      <c r="O222" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
       <c r="A223" t="s">
-        <v>248</v>
-      </c>
-      <c r="V223" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27">
+        <v>251</v>
+      </c>
+      <c r="G223" t="s">
+        <v>30</v>
+      </c>
+      <c r="K223" t="s">
+        <v>30</v>
+      </c>
+      <c r="O223" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30">
       <c r="A224" t="s">
-        <v>249</v>
-      </c>
-      <c r="V224" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>252</v>
+      </c>
+      <c r="G224" t="s">
+        <v>30</v>
+      </c>
+      <c r="K224" t="s">
+        <v>30</v>
+      </c>
+      <c r="O224" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30">
       <c r="A225" t="s">
-        <v>250</v>
-      </c>
-      <c r="C225" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>253</v>
+      </c>
+      <c r="T225" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30">
       <c r="A226" t="s">
-        <v>251</v>
-      </c>
-      <c r="B226" t="s">
-        <v>27</v>
-      </c>
-      <c r="C226" t="s">
-        <v>27</v>
-      </c>
-      <c r="D226" t="s">
-        <v>27</v>
-      </c>
-      <c r="E226" t="s">
-        <v>27</v>
-      </c>
-      <c r="F226" t="s">
-        <v>27</v>
-      </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
-      <c r="H226" t="s">
-        <v>27</v>
-      </c>
-      <c r="I226" t="s">
-        <v>27</v>
-      </c>
-      <c r="K226" t="s">
-        <v>27</v>
-      </c>
-      <c r="L226" t="s">
-        <v>27</v>
-      </c>
-      <c r="M226" t="s">
-        <v>27</v>
-      </c>
-      <c r="N226" t="s">
-        <v>27</v>
-      </c>
-      <c r="O226" t="s">
-        <v>27</v>
-      </c>
-      <c r="P226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>27</v>
-      </c>
-      <c r="R226" t="s">
-        <v>27</v>
-      </c>
-      <c r="S226" t="s">
-        <v>27</v>
-      </c>
-      <c r="U226" t="s">
-        <v>27</v>
-      </c>
-      <c r="V226" t="s">
-        <v>27</v>
-      </c>
-      <c r="X226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>254</v>
+      </c>
+      <c r="T226" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30">
       <c r="A227" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="T227" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="T228" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30">
       <c r="A229" t="s">
-        <v>254</v>
-      </c>
-      <c r="T229" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27">
+        <v>257</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30">
       <c r="A230" t="s">
-        <v>255</v>
-      </c>
-      <c r="J230" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27">
+        <v>258</v>
+      </c>
+      <c r="L230" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30">
       <c r="A231" t="s">
-        <v>256</v>
-      </c>
-      <c r="J231" t="s">
-        <v>27</v>
+        <v>259</v>
+      </c>
+      <c r="P231" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
+      <c r="A232" t="s">
+        <v>260</v>
+      </c>
+      <c r="U232" t="s">
+        <v>30</v>
+      </c>
+      <c r="V232" t="s">
+        <v>30</v>
+      </c>
+      <c r="W232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
+      <c r="A233" t="s">
+        <v>261</v>
+      </c>
+      <c r="U233" t="s">
+        <v>30</v>
+      </c>
+      <c r="V233" t="s">
+        <v>30</v>
+      </c>
+      <c r="W233" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30">
+      <c r="A234" t="s">
+        <v>262</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E234" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>30</v>
+      </c>
+      <c r="H234" t="s">
+        <v>30</v>
+      </c>
+      <c r="K234" t="s">
+        <v>30</v>
+      </c>
+      <c r="L234" t="s">
+        <v>30</v>
+      </c>
+      <c r="M234" t="s">
+        <v>30</v>
+      </c>
+      <c r="N234" t="s">
+        <v>30</v>
+      </c>
+      <c r="O234" t="s">
+        <v>30</v>
+      </c>
+      <c r="P234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>30</v>
+      </c>
+      <c r="R234" t="s">
+        <v>30</v>
+      </c>
+      <c r="S234" t="s">
+        <v>30</v>
+      </c>
+      <c r="X234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30">
+      <c r="A235" t="s">
+        <v>263</v>
+      </c>
+      <c r="X235" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30">
+      <c r="A236" t="s">
+        <v>264</v>
+      </c>
+      <c r="D236" t="s">
+        <v>30</v>
+      </c>
+      <c r="X236" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30">
+      <c r="A237" t="s">
+        <v>265</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="X237" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30">
+      <c r="A238" t="s">
+        <v>266</v>
+      </c>
+      <c r="D238" t="s">
+        <v>30</v>
+      </c>
+      <c r="X238" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30">
+      <c r="A239" t="s">
+        <v>267</v>
+      </c>
+      <c r="U239" t="s">
+        <v>30</v>
+      </c>
+      <c r="V239" t="s">
+        <v>30</v>
+      </c>
+      <c r="W239" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30">
+      <c r="A240" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30">
+      <c r="A241" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30">
+      <c r="A242" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30">
+      <c r="A243" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30">
+      <c r="A244" t="s">
+        <v>272</v>
+      </c>
+      <c r="B244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" t="s">
+        <v>30</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" t="s">
+        <v>30</v>
+      </c>
+      <c r="G244" t="s">
+        <v>30</v>
+      </c>
+      <c r="H244" t="s">
+        <v>30</v>
+      </c>
+      <c r="I244" t="s">
+        <v>30</v>
+      </c>
+      <c r="K244" t="s">
+        <v>30</v>
+      </c>
+      <c r="L244" t="s">
+        <v>30</v>
+      </c>
+      <c r="M244" t="s">
+        <v>30</v>
+      </c>
+      <c r="N244" t="s">
+        <v>30</v>
+      </c>
+      <c r="O244" t="s">
+        <v>30</v>
+      </c>
+      <c r="P244" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>30</v>
+      </c>
+      <c r="R244" t="s">
+        <v>30</v>
+      </c>
+      <c r="S244" t="s">
+        <v>30</v>
+      </c>
+      <c r="U244" t="s">
+        <v>30</v>
+      </c>
+      <c r="V244" t="s">
+        <v>30</v>
+      </c>
+      <c r="W244" t="s">
+        <v>30</v>
+      </c>
+      <c r="X244" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30">
+      <c r="A245" t="s">
+        <v>273</v>
+      </c>
+      <c r="T245" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30">
+      <c r="A246" t="s">
+        <v>274</v>
+      </c>
+      <c r="U246" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30">
+      <c r="A247" t="s">
+        <v>275</v>
+      </c>
+      <c r="U247" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30">
+      <c r="A248" t="s">
+        <v>276</v>
+      </c>
+      <c r="T248" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30">
+      <c r="A249" t="s">
+        <v>277</v>
+      </c>
+      <c r="T249" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30">
+      <c r="A250" t="s">
+        <v>278</v>
+      </c>
+      <c r="J250" t="s">
+        <v>30</v>
+      </c>
+      <c r="U250" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30">
+      <c r="A251" t="s">
+        <v>279</v>
+      </c>
+      <c r="J251" t="s">
+        <v>30</v>
+      </c>
+      <c r="U251" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -1810,7 +1810,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t/>
+          <t>Notes</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2525,7 +2525,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol</t>
+          <t>The type of single cell entity derived from isolation protocol.</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2525,7 +2525,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol.</t>
+          <t>The type of single cell entity derived from isolation protocol</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -249,11 +249,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Area unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The area of a tissue section.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0">
+    <comment ref="A52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0">
+    <comment ref="A54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0">
+    <comment ref="A55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="A63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0">
+    <comment ref="A74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0">
+    <comment ref="A75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0">
+    <comment ref="A77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0">
+    <comment ref="A78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0">
+    <comment ref="A79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1033,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0">
+    <comment ref="A80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>histopathological reporting of key variables that are important for the tissue (absence of necrosis, comment on composition, significant pathology description, high level inflammation/fibrosis assessment etc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="0">
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0">
+    <comment ref="A83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A81" authorId="0">
+    <comment ref="A84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0">
+    <comment ref="A85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0">
+    <comment ref="A86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0">
+    <comment ref="A87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A85" authorId="0">
+    <comment ref="A88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="0">
+    <comment ref="A89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0">
+    <comment ref="A90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A88" authorId="0">
+    <comment ref="A91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A89" authorId="0">
+    <comment ref="A92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0">
+    <comment ref="A93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A91" authorId="0">
+    <comment ref="A94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="0">
+    <comment ref="A95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0">
+    <comment ref="A96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0">
+    <comment ref="A97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A95" authorId="0">
+    <comment ref="A98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A96" authorId="0">
+    <comment ref="A99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="0">
+    <comment ref="A100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A100" authorId="0">
+    <comment ref="A103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A101" authorId="0">
+    <comment ref="A104" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="0">
+    <comment ref="A106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A104" authorId="0">
+    <comment ref="A107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A105" authorId="0">
+    <comment ref="A108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A106" authorId="0">
+    <comment ref="A109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A107" authorId="0">
+    <comment ref="A110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A108" authorId="0">
+    <comment ref="A111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A109" authorId="0">
+    <comment ref="A112" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A110" authorId="0">
+    <comment ref="A113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A111" authorId="0">
+    <comment ref="A114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A112" authorId="0">
+    <comment ref="A115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A113" authorId="0">
+    <comment ref="A116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A114" authorId="0">
+    <comment ref="A117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1489,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A115" authorId="0">
+    <comment ref="A118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A116" authorId="0">
+    <comment ref="A119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A117" authorId="0">
+    <comment ref="A120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1528,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="0">
+    <comment ref="A121" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1541,7 +1580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A119" authorId="0">
+    <comment ref="A122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A120" authorId="0">
+    <comment ref="A123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1567,7 +1606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A121" authorId="0">
+    <comment ref="A124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0">
+    <comment ref="A125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0">
+    <comment ref="A126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1606,7 +1645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A124" authorId="0">
+    <comment ref="A127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1619,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A125" authorId="0">
+    <comment ref="A128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A126" authorId="0">
+    <comment ref="A129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A127" authorId="0">
+    <comment ref="A130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A128" authorId="0">
+    <comment ref="A131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A129" authorId="0">
+    <comment ref="A132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A130" authorId="0">
+    <comment ref="A133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A131" authorId="0">
+    <comment ref="A134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A132" authorId="0">
+    <comment ref="A135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="0">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0">
+    <comment ref="A137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0">
+    <comment ref="A138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1762,7 +1801,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1775,7 +1827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A137" authorId="0">
+    <comment ref="A141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1788,7 +1840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A138" authorId="0">
+    <comment ref="A142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1801,7 +1853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A139" authorId="0">
+    <comment ref="A143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1814,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A140" authorId="0">
+    <comment ref="A144" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1827,7 +1879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A141" authorId="0">
+    <comment ref="A145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1840,7 +1892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A142" authorId="0">
+    <comment ref="A146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A143" authorId="0">
+    <comment ref="A147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1866,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A144" authorId="0">
+    <comment ref="A148" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A145" authorId="0">
+    <comment ref="A149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1892,7 +1944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A146" authorId="0">
+    <comment ref="A150" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1905,7 +1957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A147" authorId="0">
+    <comment ref="A151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1918,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A148" authorId="0">
+    <comment ref="A152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A149" authorId="0">
+    <comment ref="A153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A150" authorId="0">
+    <comment ref="A154" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1957,7 +2009,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A151" authorId="0">
+    <comment ref="A155" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If surgical sample, how far from the pathology was the sample obtained. Typically a number of centimeters. Leave blank if not applicable or unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A156" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1970,7 +2035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A152" authorId="0">
+    <comment ref="A157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1983,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A153" authorId="0">
+    <comment ref="A158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1996,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A154" authorId="0">
+    <comment ref="A159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2009,7 +2074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A155" authorId="0">
+    <comment ref="A160" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A156" authorId="0">
+    <comment ref="A161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2035,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A158" authorId="0">
+    <comment ref="A163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2087,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A161" authorId="0">
+    <comment ref="A166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2100,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A162" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2113,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A163" authorId="0">
+    <comment ref="A168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2126,7 +2191,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A164" authorId="0">
+    <comment ref="A169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The media used during preparation of the sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The temperature for the preparation process.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2139,7 +2230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A165" authorId="0">
+    <comment ref="A172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A166" authorId="0">
+    <comment ref="A173" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A167" authorId="0">
+    <comment ref="A174" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A168" authorId="0">
+    <comment ref="A175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A169" authorId="0">
+    <comment ref="A176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A170" authorId="0">
+    <comment ref="A177" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2217,7 +2308,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0">
+    <comment ref="A178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The amount of time that elapsed from beginning of sampling to the first preservation (time from when received in lab to preservation). This would, for example, represent how long it took to cut the tissue and freeze it.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0">
+    <comment ref="A181" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2360,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A173" authorId="0">
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to cell lysis or defined by known parameters such as wells with several cells or no cells. This can be captured at a high level. "OK" or "not OK", or with more specificity such as "debris", "clump", "low clump".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A174" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2269,7 +2399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A175" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2282,7 +2412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A176" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2295,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A177" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A178" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A179" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A181" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2360,7 +2490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2373,7 +2503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2412,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2438,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2451,7 +2581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2477,7 +2607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2503,7 +2633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2516,7 +2646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2529,7 +2659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2542,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2568,7 +2698,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A208" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The index number for the section if the sample is a single section.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2581,7 +2724,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A210" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thickness unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A211" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thickness of the section</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2607,7 +2776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2620,7 +2789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2633,7 +2802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2646,7 +2815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2659,7 +2828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2672,7 +2841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2685,7 +2854,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A220" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A221" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The amount of time that elapsed between when the source was generated and this sample was derived from the source. This would, for example, include how long the source was stored in a freezer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2698,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2711,7 +2906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2724,7 +2919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2737,7 +2932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2750,7 +2945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2763,7 +2958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2776,7 +2971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2789,7 +2984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2802,7 +2997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2815,7 +3010,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A232" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>What was the sample preserved in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A233" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The temperature during storage, after preparation and before the assay is performed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2828,7 +3049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2841,7 +3062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2854,7 +3075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2867,7 +3088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2880,7 +3101,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A239" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Denotes the type of sample, used to validate the field entries.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2893,7 +3127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2906,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2919,7 +3153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2932,7 +3166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2945,7 +3179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2958,7 +3192,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Volume unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A247" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The volume of a tissue block.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2971,7 +3231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2984,29 +3244,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unit for weight measurement.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A231" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A measurement that describes the vertical force exerted by a mass of the patient as a result of gravity.</t>
+    <comment ref="A250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Weight unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Weight of a tissue block</t>
         </r>
       </text>
     </comment>
@@ -3015,7 +3275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="280">
   <si>
     <t>af</t>
   </si>
@@ -3074,6 +3334,15 @@
     <t>sample</t>
   </si>
   <si>
+    <t>sample-block</t>
+  </si>
+  <si>
+    <t>sample-section</t>
+  </si>
+  <si>
+    <t>sample-suspension</t>
+  </si>
+  <si>
     <t>scatacseq</t>
   </si>
   <si>
@@ -3149,6 +3418,12 @@
     <t>area_normalized_ion_dose_value</t>
   </si>
   <si>
+    <t>area_unit</t>
+  </si>
+  <si>
+    <t>area_value</t>
+  </si>
+  <si>
     <t>assay_category</t>
   </si>
   <si>
@@ -3326,6 +3601,9 @@
     <t>height_value</t>
   </si>
   <si>
+    <t>histological_report</t>
+  </si>
+  <si>
     <t>increment_z_unit</t>
   </si>
   <si>
@@ -3500,6 +3778,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -3545,6 +3826,9 @@
     <t>pathologist_report</t>
   </si>
   <si>
+    <t>pathology_distance_value</t>
+  </si>
+  <si>
     <t>perfusion_solution</t>
   </si>
   <si>
@@ -3584,6 +3868,12 @@
     <t>preparation_maldi_matrix</t>
   </si>
   <si>
+    <t>preparation_media</t>
+  </si>
+  <si>
+    <t>preparation_temperature</t>
+  </si>
+  <si>
     <t>preparation_type</t>
   </si>
   <si>
@@ -3605,12 +3895,21 @@
     <t>processing_search</t>
   </si>
   <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
     <t>protocols_io_doi</t>
   </si>
   <si>
     <t>puck_id</t>
   </si>
   <si>
+    <t>quality_criteria</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -3686,9 +3985,18 @@
     <t>sc_isolation_tissue_dissociation</t>
   </si>
   <si>
+    <t>section_index_number</t>
+  </si>
+  <si>
     <t>section_prep_protocols_io_doi</t>
   </si>
   <si>
+    <t>section_thickness_unit</t>
+  </si>
+  <si>
+    <t>section_thickness_value</t>
+  </si>
+  <si>
     <t>segment_data_format</t>
   </si>
   <si>
@@ -3713,6 +4021,12 @@
     <t>source_project</t>
   </si>
   <si>
+    <t>source_storage_time_unit</t>
+  </si>
+  <si>
+    <t>source_storage_time_value</t>
+  </si>
+  <si>
     <t>spatial_sampling_type</t>
   </si>
   <si>
@@ -3743,6 +4057,12 @@
     <t>step_z_value</t>
   </si>
   <si>
+    <t>storage_media</t>
+  </si>
+  <si>
+    <t>storage_temperature</t>
+  </si>
+  <si>
     <t>tissue_id</t>
   </si>
   <si>
@@ -3758,6 +4078,9 @@
     <t>transposition_transposase_source</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -3774,6 +4097,12 @@
   </si>
   <si>
     <t>vital_state</t>
+  </si>
+  <si>
+    <t>volume_unit</t>
+  </si>
+  <si>
+    <t>volume_value</t>
   </si>
   <si>
     <t>warm_ischemia_time_unit</t>
@@ -4126,7 +4455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA231"/>
+  <dimension ref="A1:AD251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4138,10 +4467,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="27" width="2.7109375" customWidth="1"/>
+    <col min="2" max="30" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4220,3819 +4549,4096 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="V19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W20" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" t="s">
+        <v>30</v>
       </c>
       <c r="Y21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" t="s">
+        <v>30</v>
       </c>
       <c r="Y22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>52</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>53</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="U39" t="s">
-        <v>27</v>
-      </c>
-      <c r="V39" t="s">
-        <v>27</v>
-      </c>
-      <c r="W39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="U40" t="s">
-        <v>27</v>
-      </c>
-      <c r="V40" t="s">
-        <v>27</v>
-      </c>
-      <c r="W40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="U41" t="s">
-        <v>27</v>
-      </c>
-      <c r="V41" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>69</v>
+      </c>
+      <c r="X41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>70</v>
+      </c>
+      <c r="X42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="T43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="T44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" t="s">
-        <v>27</v>
-      </c>
-      <c r="P55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>27</v>
-      </c>
-      <c r="R55" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55" t="s">
-        <v>27</v>
-      </c>
-      <c r="V55" t="s">
-        <v>27</v>
-      </c>
-      <c r="W55" t="s">
-        <v>27</v>
-      </c>
-      <c r="X55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S57" t="s">
-        <v>27</v>
-      </c>
-      <c r="U57" t="s">
-        <v>27</v>
-      </c>
-      <c r="V57" t="s">
-        <v>27</v>
-      </c>
-      <c r="W57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="L58" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
-      </c>
-      <c r="U59" t="s">
-        <v>27</v>
-      </c>
-      <c r="V59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="N60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+        <v>88</v>
+      </c>
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" t="s">
+        <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" t="s">
+        <v>30</v>
+      </c>
+      <c r="X61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>91</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>89</v>
-      </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+        <v>92</v>
+      </c>
+      <c r="N64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+        <v>94</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s">
-        <v>27</v>
-      </c>
-      <c r="K67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" t="s">
-        <v>27</v>
-      </c>
-      <c r="P67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>27</v>
-      </c>
-      <c r="R67" t="s">
-        <v>27</v>
-      </c>
-      <c r="S67" t="s">
-        <v>27</v>
-      </c>
-      <c r="U67" t="s">
-        <v>27</v>
-      </c>
-      <c r="V67" t="s">
-        <v>27</v>
-      </c>
-      <c r="W67" t="s">
-        <v>27</v>
-      </c>
-      <c r="X67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+        <v>95</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>93</v>
-      </c>
-      <c r="L68" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+        <v>96</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>30</v>
       </c>
       <c r="Q69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R69" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="X69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O70" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q70" t="s">
-        <v>27</v>
-      </c>
-      <c r="R70" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" t="s">
-        <v>27</v>
-      </c>
-      <c r="U70" t="s">
-        <v>27</v>
-      </c>
-      <c r="V70" t="s">
-        <v>27</v>
-      </c>
-      <c r="W70" t="s">
-        <v>27</v>
-      </c>
-      <c r="X70" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>96</v>
-      </c>
-      <c r="V71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>97</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>30</v>
+      </c>
+      <c r="X72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+        <v>101</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>99</v>
-      </c>
-      <c r="K74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="T75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+        <v>103</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+        <v>104</v>
+      </c>
+      <c r="K76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>102</v>
-      </c>
-      <c r="J77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+        <v>105</v>
+      </c>
+      <c r="T77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>104</v>
-      </c>
-      <c r="P79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>105</v>
-      </c>
-      <c r="K80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+        <v>108</v>
+      </c>
+      <c r="U80" t="s">
+        <v>30</v>
+      </c>
+      <c r="V80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>106</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" t="s">
-        <v>27</v>
-      </c>
-      <c r="O81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+        <v>109</v>
+      </c>
+      <c r="P81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+        <v>110</v>
+      </c>
+      <c r="P82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>108</v>
-      </c>
-      <c r="I83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+        <v>111</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>27</v>
-      </c>
-      <c r="R84" t="s">
-        <v>27</v>
-      </c>
-      <c r="S84" t="s">
-        <v>27</v>
-      </c>
-      <c r="U84" t="s">
-        <v>27</v>
-      </c>
-      <c r="V84" t="s">
-        <v>27</v>
-      </c>
-      <c r="W84" t="s">
-        <v>27</v>
-      </c>
-      <c r="X84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="U85" t="s">
-        <v>27</v>
-      </c>
-      <c r="V85" t="s">
-        <v>27</v>
-      </c>
-      <c r="W85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+        <v>113</v>
+      </c>
+      <c r="K85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>111</v>
-      </c>
-      <c r="J86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" t="s">
+        <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="P87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>30</v>
+      </c>
+      <c r="R87" t="s">
+        <v>30</v>
+      </c>
+      <c r="S87" t="s">
+        <v>30</v>
+      </c>
+      <c r="X87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>113</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="K88" t="s">
-        <v>27</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="X88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
+        <v>117</v>
+      </c>
+      <c r="J89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" t="s">
+        <v>30</v>
       </c>
       <c r="O91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>117</v>
-      </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O105" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
-      </c>
-      <c r="U106" t="s">
-        <v>27</v>
-      </c>
-      <c r="V106" t="s">
-        <v>27</v>
-      </c>
-      <c r="W106" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27">
+        <v>134</v>
+      </c>
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" t="s">
-        <v>27</v>
-      </c>
-      <c r="U107" t="s">
-        <v>27</v>
-      </c>
-      <c r="V107" t="s">
-        <v>27</v>
-      </c>
-      <c r="W107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27">
+        <v>135</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>133</v>
-      </c>
-      <c r="D108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27">
+        <v>136</v>
+      </c>
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="X109" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27">
+        <v>138</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="X110" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" t="s">
-        <v>27</v>
-      </c>
-      <c r="U111" t="s">
-        <v>27</v>
-      </c>
-      <c r="V111" t="s">
-        <v>27</v>
-      </c>
-      <c r="W111" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>138</v>
-      </c>
-      <c r="U113" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+        <v>141</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
-      </c>
-      <c r="U114" t="s">
-        <v>27</v>
-      </c>
-      <c r="V114" t="s">
-        <v>27</v>
-      </c>
-      <c r="W114" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X114" t="s">
+        <v>30</v>
       </c>
       <c r="Y114" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="V115" t="s">
-        <v>27</v>
-      </c>
-      <c r="W115" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" t="s">
-        <v>141</v>
-      </c>
-      <c r="D116" t="s">
-        <v>27</v>
-      </c>
-      <c r="U116" t="s">
-        <v>27</v>
-      </c>
-      <c r="V116" t="s">
-        <v>27</v>
-      </c>
-      <c r="W116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
+        <v>144</v>
+      </c>
+      <c r="X116" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
-      </c>
-      <c r="U117" t="s">
-        <v>27</v>
-      </c>
-      <c r="V117" t="s">
-        <v>27</v>
-      </c>
-      <c r="W117" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X117" t="s">
+        <v>30</v>
       </c>
       <c r="Y117" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
-      </c>
-      <c r="U118" t="s">
-        <v>27</v>
-      </c>
-      <c r="V118" t="s">
-        <v>27</v>
-      </c>
-      <c r="W118" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
       </c>
       <c r="Y118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" t="s">
-        <v>144</v>
-      </c>
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-      <c r="U119" t="s">
-        <v>27</v>
-      </c>
-      <c r="V119" t="s">
-        <v>27</v>
-      </c>
-      <c r="W119" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="X119" t="s">
+        <v>30</v>
       </c>
       <c r="Y119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="X120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27">
+        <v>149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="X121" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" t="s">
-        <v>147</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="K122" t="s">
-        <v>27</v>
-      </c>
-      <c r="N122" t="s">
-        <v>27</v>
-      </c>
-      <c r="O122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27">
+        <v>150</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="X122" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" t="s">
-        <v>148</v>
-      </c>
-      <c r="L123" t="s">
-        <v>27</v>
-      </c>
-      <c r="M123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27">
+        <v>151</v>
+      </c>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" t="s">
-        <v>149</v>
-      </c>
-      <c r="L124" t="s">
-        <v>27</v>
-      </c>
-      <c r="M124" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" t="s">
-        <v>150</v>
-      </c>
-      <c r="L125" t="s">
-        <v>27</v>
-      </c>
-      <c r="M125" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27">
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" t="s">
+        <v>30</v>
+      </c>
+      <c r="N125" t="s">
+        <v>30</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q126" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
-        <v>152</v>
-      </c>
-      <c r="J127" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27">
+        <v>155</v>
+      </c>
+      <c r="L127" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
-        <v>153</v>
-      </c>
-      <c r="J128" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+        <v>156</v>
+      </c>
+      <c r="L128" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
-        <v>154</v>
-      </c>
-      <c r="I129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
+        <v>157</v>
+      </c>
+      <c r="L129" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
-        <v>155</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="K130" t="s">
-        <v>27</v>
-      </c>
-      <c r="N130" t="s">
-        <v>27</v>
-      </c>
-      <c r="O130" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+        <v>158</v>
+      </c>
+      <c r="J130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
-      <c r="K131" t="s">
-        <v>27</v>
-      </c>
-      <c r="N131" t="s">
-        <v>27</v>
-      </c>
-      <c r="O131" t="s">
-        <v>27</v>
-      </c>
-      <c r="S131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+        <v>159</v>
+      </c>
+      <c r="J131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="K132" t="s">
-        <v>27</v>
-      </c>
-      <c r="N132" t="s">
-        <v>27</v>
-      </c>
-      <c r="O132" t="s">
-        <v>27</v>
-      </c>
-      <c r="S132" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+        <v>160</v>
+      </c>
+      <c r="I132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N133" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O133" t="s">
-        <v>27</v>
-      </c>
-      <c r="S133" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O134" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+        <v>30</v>
+      </c>
+      <c r="S134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
-        <v>160</v>
-      </c>
-      <c r="I135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
+        <v>163</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="K135" t="s">
+        <v>30</v>
+      </c>
+      <c r="N135" t="s">
+        <v>30</v>
+      </c>
+      <c r="O135" t="s">
+        <v>30</v>
+      </c>
+      <c r="S135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
-        <v>161</v>
-      </c>
-      <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="H136" t="s">
-        <v>27</v>
-      </c>
-      <c r="P136" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" t="s">
+        <v>30</v>
+      </c>
+      <c r="N136" t="s">
+        <v>30</v>
+      </c>
+      <c r="O136" t="s">
+        <v>30</v>
+      </c>
+      <c r="S136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
-        <v>162</v>
-      </c>
-      <c r="X137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
+        <v>165</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" t="s">
+        <v>30</v>
+      </c>
+      <c r="N137" t="s">
+        <v>30</v>
+      </c>
+      <c r="O137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" t="s">
-        <v>163</v>
-      </c>
-      <c r="X138" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
+        <v>166</v>
+      </c>
+      <c r="I138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" t="s">
-        <v>27</v>
-      </c>
-      <c r="L139" t="s">
-        <v>27</v>
-      </c>
-      <c r="M139" t="s">
-        <v>27</v>
-      </c>
-      <c r="P139" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>27</v>
-      </c>
-      <c r="R139" t="s">
-        <v>27</v>
-      </c>
-      <c r="X139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
+        <v>167</v>
+      </c>
+      <c r="U139" t="s">
+        <v>30</v>
+      </c>
+      <c r="V139" t="s">
+        <v>30</v>
+      </c>
+      <c r="W139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>27</v>
-      </c>
-      <c r="R140" t="s">
-        <v>27</v>
-      </c>
-      <c r="X140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24">
+        <v>30</v>
+      </c>
+      <c r="P140" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" t="s">
-        <v>166</v>
-      </c>
-      <c r="F141" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
+        <v>169</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" t="s">
-        <v>167</v>
-      </c>
-      <c r="X142" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24">
+        <v>170</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" t="s">
-        <v>168</v>
-      </c>
-      <c r="X143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24">
+        <v>171</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" t="s">
+        <v>30</v>
+      </c>
+      <c r="L143" t="s">
+        <v>30</v>
+      </c>
+      <c r="M143" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>30</v>
+      </c>
+      <c r="R143" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" t="s">
-        <v>169</v>
-      </c>
-      <c r="M144" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>172</v>
+      </c>
+      <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" t="s">
+        <v>30</v>
+      </c>
+      <c r="R144" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30">
       <c r="A145" t="s">
-        <v>170</v>
-      </c>
-      <c r="B145" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s">
-        <v>27</v>
-      </c>
-      <c r="K145" t="s">
-        <v>27</v>
-      </c>
-      <c r="L145" t="s">
-        <v>27</v>
-      </c>
-      <c r="M145" t="s">
-        <v>27</v>
-      </c>
-      <c r="N145" t="s">
-        <v>27</v>
-      </c>
-      <c r="O145" t="s">
-        <v>27</v>
-      </c>
-      <c r="P145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>27</v>
-      </c>
-      <c r="R145" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" t="s">
-        <v>27</v>
-      </c>
-      <c r="U145" t="s">
-        <v>27</v>
-      </c>
-      <c r="V145" t="s">
-        <v>27</v>
-      </c>
-      <c r="W145" t="s">
-        <v>27</v>
-      </c>
-      <c r="X145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30">
       <c r="A146" t="s">
-        <v>171</v>
-      </c>
-      <c r="B146" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s">
-        <v>27</v>
-      </c>
-      <c r="K146" t="s">
-        <v>27</v>
-      </c>
-      <c r="L146" t="s">
-        <v>27</v>
-      </c>
-      <c r="M146" t="s">
-        <v>27</v>
-      </c>
-      <c r="N146" t="s">
-        <v>27</v>
-      </c>
-      <c r="O146" t="s">
-        <v>27</v>
-      </c>
-      <c r="P146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>27</v>
-      </c>
-      <c r="R146" t="s">
-        <v>27</v>
-      </c>
-      <c r="S146" t="s">
-        <v>27</v>
-      </c>
-      <c r="U146" t="s">
-        <v>27</v>
-      </c>
-      <c r="V146" t="s">
-        <v>27</v>
-      </c>
-      <c r="W146" t="s">
-        <v>27</v>
-      </c>
-      <c r="X146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AA146" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30">
       <c r="A147" t="s">
-        <v>172</v>
-      </c>
-      <c r="I147" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>175</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30">
       <c r="A148" t="s">
-        <v>173</v>
-      </c>
-      <c r="T148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+        <v>176</v>
+      </c>
+      <c r="M148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H149" t="s">
+        <v>30</v>
       </c>
       <c r="K149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L149" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" t="s">
+        <v>30</v>
       </c>
       <c r="N149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="P149" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>30</v>
       </c>
       <c r="R149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S149" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="X149" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>30</v>
       </c>
       <c r="Z149" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30">
       <c r="A150" t="s">
-        <v>175</v>
-      </c>
-      <c r="T150" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>178</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="K150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L150" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" t="s">
+        <v>30</v>
+      </c>
+      <c r="N150" t="s">
+        <v>30</v>
+      </c>
+      <c r="O150" t="s">
+        <v>30</v>
+      </c>
+      <c r="P150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>30</v>
+      </c>
+      <c r="R150" t="s">
+        <v>30</v>
+      </c>
+      <c r="S150" t="s">
+        <v>30</v>
+      </c>
+      <c r="X150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30">
       <c r="A151" t="s">
-        <v>176</v>
-      </c>
-      <c r="T151" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
+        <v>179</v>
+      </c>
+      <c r="I151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30">
       <c r="A152" t="s">
-        <v>177</v>
-      </c>
-      <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
-      <c r="H152" t="s">
-        <v>27</v>
-      </c>
-      <c r="K152" t="s">
-        <v>27</v>
-      </c>
-      <c r="L152" t="s">
-        <v>27</v>
-      </c>
-      <c r="M152" t="s">
-        <v>27</v>
-      </c>
-      <c r="N152" t="s">
-        <v>27</v>
-      </c>
-      <c r="O152" t="s">
-        <v>27</v>
-      </c>
-      <c r="P152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>27</v>
-      </c>
-      <c r="R152" t="s">
-        <v>27</v>
-      </c>
-      <c r="S152" t="s">
-        <v>27</v>
-      </c>
-      <c r="U152" t="s">
-        <v>27</v>
-      </c>
-      <c r="V152" t="s">
-        <v>27</v>
-      </c>
-      <c r="W152" t="s">
-        <v>27</v>
-      </c>
-      <c r="X152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z152" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27">
+        <v>180</v>
+      </c>
+      <c r="T152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" t="s">
-        <v>27</v>
-      </c>
-      <c r="E153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>27</v>
-      </c>
-      <c r="H153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K153" t="s">
-        <v>27</v>
-      </c>
-      <c r="L153" t="s">
-        <v>27</v>
-      </c>
-      <c r="M153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O153" t="s">
-        <v>27</v>
-      </c>
-      <c r="P153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R153" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S153" t="s">
-        <v>27</v>
-      </c>
-      <c r="U153" t="s">
-        <v>27</v>
-      </c>
-      <c r="V153" t="s">
-        <v>27</v>
-      </c>
-      <c r="W153" t="s">
-        <v>27</v>
-      </c>
-      <c r="X153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA153" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30">
       <c r="A154" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27">
+        <v>182</v>
+      </c>
+      <c r="T154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30">
       <c r="A155" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27">
+        <v>183</v>
+      </c>
+      <c r="U155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30">
       <c r="A156" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27">
+        <v>184</v>
+      </c>
+      <c r="T156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30">
       <c r="A157" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="K157" t="s">
+        <v>30</v>
+      </c>
+      <c r="L157" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" t="s">
+        <v>30</v>
+      </c>
+      <c r="O157" t="s">
+        <v>30</v>
+      </c>
+      <c r="P157" t="s">
+        <v>30</v>
       </c>
       <c r="Q157" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R157" t="s">
+        <v>30</v>
+      </c>
+      <c r="S157" t="s">
+        <v>30</v>
+      </c>
+      <c r="X157" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="K158" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" t="s">
+        <v>30</v>
+      </c>
+      <c r="O158" t="s">
+        <v>30</v>
+      </c>
+      <c r="P158" t="s">
+        <v>30</v>
       </c>
       <c r="Q158" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="R158" t="s">
+        <v>30</v>
+      </c>
+      <c r="S158" t="s">
+        <v>30</v>
+      </c>
+      <c r="X158" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q159" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30">
       <c r="A160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="K160" t="s">
-        <v>27</v>
-      </c>
-      <c r="N160" t="s">
-        <v>27</v>
-      </c>
-      <c r="O160" t="s">
-        <v>27</v>
-      </c>
-      <c r="S160" t="s">
-        <v>27</v>
+        <v>188</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="s">
-        <v>186</v>
-      </c>
-      <c r="H161" t="s">
-        <v>27</v>
-      </c>
-      <c r="L161" t="s">
-        <v>27</v>
-      </c>
-      <c r="M161" t="s">
-        <v>27</v>
-      </c>
-      <c r="N161" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="Q161" t="s">
-        <v>27</v>
-      </c>
-      <c r="X161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="s">
-        <v>187</v>
-      </c>
-      <c r="H162" t="s">
-        <v>27</v>
-      </c>
-      <c r="L162" t="s">
-        <v>27</v>
-      </c>
-      <c r="M162" t="s">
-        <v>27</v>
-      </c>
-      <c r="N162" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="Q162" t="s">
-        <v>27</v>
-      </c>
-      <c r="X162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="s">
-        <v>188</v>
-      </c>
-      <c r="N163" t="s">
-        <v>27</v>
+        <v>191</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="s">
-        <v>189</v>
-      </c>
-      <c r="N164" t="s">
-        <v>27</v>
+        <v>192</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>27</v>
+        <v>193</v>
+      </c>
+      <c r="G165" t="s">
+        <v>30</v>
+      </c>
+      <c r="K165" t="s">
+        <v>30</v>
+      </c>
+      <c r="N165" t="s">
+        <v>30</v>
+      </c>
+      <c r="O165" t="s">
+        <v>30</v>
+      </c>
+      <c r="S165" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="L166" t="s">
+        <v>30</v>
+      </c>
+      <c r="M166" t="s">
+        <v>30</v>
+      </c>
+      <c r="N166" t="s">
+        <v>30</v>
       </c>
       <c r="Q166" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="L167" t="s">
+        <v>30</v>
+      </c>
+      <c r="M167" t="s">
+        <v>30</v>
+      </c>
+      <c r="N167" t="s">
+        <v>30</v>
       </c>
       <c r="Q167" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="s">
-        <v>193</v>
-      </c>
-      <c r="T168" t="s">
-        <v>27</v>
+        <v>196</v>
+      </c>
+      <c r="N168" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="s">
-        <v>194</v>
-      </c>
-      <c r="F169" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
-      <c r="N169" t="s">
-        <v>27</v>
-      </c>
-      <c r="O169" t="s">
-        <v>27</v>
-      </c>
-      <c r="S169" t="s">
-        <v>27</v>
+        <v>197</v>
+      </c>
+      <c r="U169" t="s">
+        <v>30</v>
+      </c>
+      <c r="V169" t="s">
+        <v>30</v>
+      </c>
+      <c r="W169" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="s">
-        <v>195</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
-      <c r="K170" t="s">
-        <v>27</v>
-      </c>
-      <c r="O170" t="s">
-        <v>27</v>
+        <v>198</v>
+      </c>
+      <c r="U170" t="s">
+        <v>30</v>
+      </c>
+      <c r="V170" t="s">
+        <v>30</v>
+      </c>
+      <c r="W170" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="s">
-        <v>196</v>
-      </c>
-      <c r="B171" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" t="s">
-        <v>27</v>
-      </c>
-      <c r="K171" t="s">
-        <v>27</v>
-      </c>
-      <c r="L171" t="s">
-        <v>27</v>
-      </c>
-      <c r="M171" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="N171" t="s">
-        <v>27</v>
-      </c>
-      <c r="O171" t="s">
-        <v>27</v>
-      </c>
-      <c r="P171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>27</v>
-      </c>
-      <c r="R171" t="s">
-        <v>27</v>
-      </c>
-      <c r="S171" t="s">
-        <v>27</v>
-      </c>
-      <c r="U171" t="s">
-        <v>27</v>
-      </c>
-      <c r="V171" t="s">
-        <v>27</v>
-      </c>
-      <c r="W171" t="s">
-        <v>27</v>
-      </c>
-      <c r="X171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y171" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z171" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>27</v>
+        <v>200</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="s">
-        <v>198</v>
-      </c>
-      <c r="J173" t="s">
-        <v>27</v>
+        <v>201</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="s">
-        <v>199</v>
-      </c>
-      <c r="P174" t="s">
-        <v>27</v>
+        <v>202</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="s">
-        <v>200</v>
-      </c>
-      <c r="P175" t="s">
-        <v>27</v>
+        <v>203</v>
+      </c>
+      <c r="T175" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="s">
-        <v>201</v>
-      </c>
-      <c r="H176" t="s">
-        <v>27</v>
-      </c>
-      <c r="L176" t="s">
-        <v>27</v>
-      </c>
-      <c r="M176" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>27</v>
-      </c>
-      <c r="R176" t="s">
-        <v>27</v>
-      </c>
-      <c r="X176" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26">
+        <v>204</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" t="s">
+        <v>30</v>
+      </c>
+      <c r="O176" t="s">
+        <v>30</v>
+      </c>
+      <c r="S176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30">
       <c r="A177" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="G177" t="s">
-        <v>27</v>
-      </c>
-      <c r="H177" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K177" t="s">
-        <v>27</v>
-      </c>
-      <c r="N177" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O177" t="s">
-        <v>27</v>
-      </c>
-      <c r="P177" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>27</v>
-      </c>
-      <c r="R177" t="s">
-        <v>27</v>
-      </c>
-      <c r="S177" t="s">
-        <v>27</v>
-      </c>
-      <c r="X177" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30">
       <c r="A178" t="s">
-        <v>203</v>
-      </c>
-      <c r="B178" t="s">
-        <v>27</v>
-      </c>
-      <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
-      <c r="H178" t="s">
-        <v>27</v>
-      </c>
-      <c r="K178" t="s">
-        <v>27</v>
-      </c>
-      <c r="N178" t="s">
-        <v>27</v>
-      </c>
-      <c r="O178" t="s">
-        <v>27</v>
-      </c>
-      <c r="P178" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>27</v>
-      </c>
-      <c r="R178" t="s">
-        <v>27</v>
-      </c>
-      <c r="S178" t="s">
-        <v>27</v>
-      </c>
-      <c r="X178" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z178" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26">
+        <v>206</v>
+      </c>
+      <c r="U178" t="s">
+        <v>30</v>
+      </c>
+      <c r="V178" t="s">
+        <v>30</v>
+      </c>
+      <c r="W178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30">
       <c r="A179" t="s">
-        <v>204</v>
-      </c>
-      <c r="B179" t="s">
-        <v>27</v>
-      </c>
-      <c r="F179" t="s">
-        <v>27</v>
-      </c>
-      <c r="G179" t="s">
-        <v>27</v>
-      </c>
-      <c r="H179" t="s">
-        <v>27</v>
-      </c>
-      <c r="K179" t="s">
-        <v>27</v>
-      </c>
-      <c r="N179" t="s">
-        <v>27</v>
-      </c>
-      <c r="O179" t="s">
-        <v>27</v>
-      </c>
-      <c r="P179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>27</v>
-      </c>
-      <c r="R179" t="s">
-        <v>27</v>
-      </c>
-      <c r="S179" t="s">
-        <v>27</v>
-      </c>
-      <c r="X179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z179" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26">
+        <v>207</v>
+      </c>
+      <c r="U179" t="s">
+        <v>30</v>
+      </c>
+      <c r="V179" t="s">
+        <v>30</v>
+      </c>
+      <c r="W179" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30">
       <c r="A180" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L180" t="s">
+        <v>30</v>
+      </c>
+      <c r="M180" t="s">
+        <v>30</v>
       </c>
       <c r="N180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X180" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>30</v>
       </c>
       <c r="Z180" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30">
       <c r="A181" t="s">
-        <v>206</v>
-      </c>
-      <c r="B181" t="s">
-        <v>27</v>
-      </c>
-      <c r="H181" t="s">
-        <v>27</v>
-      </c>
-      <c r="P181" t="s">
-        <v>27</v>
-      </c>
-      <c r="X181" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26">
+        <v>209</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30">
       <c r="A182" t="s">
-        <v>207</v>
-      </c>
-      <c r="B182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s">
-        <v>27</v>
-      </c>
-      <c r="P182" t="s">
-        <v>27</v>
-      </c>
-      <c r="X182" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z182" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26">
+        <v>210</v>
+      </c>
+      <c r="U182" t="s">
+        <v>30</v>
+      </c>
+      <c r="V182" t="s">
+        <v>30</v>
+      </c>
+      <c r="W182" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30">
       <c r="A183" t="s">
-        <v>208</v>
-      </c>
-      <c r="V183" t="s">
-        <v>27</v>
-      </c>
-      <c r="W183" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26">
+        <v>211</v>
+      </c>
+      <c r="J183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30">
       <c r="A184" t="s">
-        <v>209</v>
-      </c>
-      <c r="E184" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26">
+        <v>212</v>
+      </c>
+      <c r="P184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30">
       <c r="A185" t="s">
-        <v>210</v>
-      </c>
-      <c r="E185" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26">
+        <v>213</v>
+      </c>
+      <c r="P185" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30">
       <c r="A186" t="s">
-        <v>211</v>
-      </c>
-      <c r="E186" t="s">
-        <v>27</v>
-      </c>
-      <c r="V186" t="s">
-        <v>27</v>
-      </c>
-      <c r="W186" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26">
+        <v>214</v>
+      </c>
+      <c r="H186" t="s">
+        <v>30</v>
+      </c>
+      <c r="L186" t="s">
+        <v>30</v>
+      </c>
+      <c r="M186" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30">
       <c r="A187" t="s">
-        <v>212</v>
-      </c>
-      <c r="L187" t="s">
-        <v>27</v>
-      </c>
-      <c r="M187" t="s">
-        <v>27</v>
+        <v>215</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" t="s">
+        <v>30</v>
+      </c>
+      <c r="K187" t="s">
+        <v>30</v>
+      </c>
+      <c r="N187" t="s">
+        <v>30</v>
+      </c>
+      <c r="O187" t="s">
+        <v>30</v>
+      </c>
+      <c r="P187" t="s">
+        <v>30</v>
       </c>
       <c r="Q187" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="R187" t="s">
+        <v>30</v>
+      </c>
+      <c r="S187" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30">
       <c r="A188" t="s">
-        <v>213</v>
-      </c>
-      <c r="L188" t="s">
-        <v>27</v>
-      </c>
-      <c r="M188" t="s">
-        <v>27</v>
+        <v>216</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" t="s">
+        <v>30</v>
+      </c>
+      <c r="K188" t="s">
+        <v>30</v>
+      </c>
+      <c r="N188" t="s">
+        <v>30</v>
+      </c>
+      <c r="O188" t="s">
+        <v>30</v>
+      </c>
+      <c r="P188" t="s">
+        <v>30</v>
       </c>
       <c r="Q188" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26">
+        <v>30</v>
+      </c>
+      <c r="R188" t="s">
+        <v>30</v>
+      </c>
+      <c r="S188" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30">
       <c r="A189" t="s">
-        <v>214</v>
-      </c>
-      <c r="C189" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26">
+        <v>217</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" t="s">
+        <v>30</v>
+      </c>
+      <c r="K189" t="s">
+        <v>30</v>
+      </c>
+      <c r="N189" t="s">
+        <v>30</v>
+      </c>
+      <c r="O189" t="s">
+        <v>30</v>
+      </c>
+      <c r="P189" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>30</v>
+      </c>
+      <c r="R189" t="s">
+        <v>30</v>
+      </c>
+      <c r="S189" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30">
       <c r="A190" t="s">
-        <v>215</v>
-      </c>
-      <c r="T190" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26">
+        <v>218</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" t="s">
+        <v>30</v>
+      </c>
+      <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="N190" t="s">
+        <v>30</v>
+      </c>
+      <c r="O190" t="s">
+        <v>30</v>
+      </c>
+      <c r="P190" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>30</v>
+      </c>
+      <c r="R190" t="s">
+        <v>30</v>
+      </c>
+      <c r="S190" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30">
       <c r="A191" t="s">
-        <v>216</v>
-      </c>
-      <c r="D191" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26">
+        <v>219</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s">
+        <v>30</v>
+      </c>
+      <c r="P191" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30">
       <c r="A192" t="s">
-        <v>217</v>
-      </c>
-      <c r="U192" t="s">
-        <v>27</v>
-      </c>
-      <c r="V192" t="s">
-        <v>27</v>
-      </c>
-      <c r="W192" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>220</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
+        <v>30</v>
+      </c>
+      <c r="P192" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
       <c r="A193" t="s">
-        <v>218</v>
-      </c>
-      <c r="U193" t="s">
-        <v>27</v>
-      </c>
-      <c r="V193" t="s">
-        <v>27</v>
-      </c>
-      <c r="W193" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>221</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
       <c r="A194" t="s">
-        <v>219</v>
-      </c>
-      <c r="U194" t="s">
-        <v>27</v>
-      </c>
-      <c r="V194" t="s">
-        <v>27</v>
-      </c>
-      <c r="W194" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>222</v>
+      </c>
+      <c r="E194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
       <c r="A195" t="s">
-        <v>220</v>
-      </c>
-      <c r="U195" t="s">
-        <v>27</v>
-      </c>
-      <c r="V195" t="s">
-        <v>27</v>
-      </c>
-      <c r="W195" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>223</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
       <c r="A196" t="s">
-        <v>221</v>
-      </c>
-      <c r="U196" t="s">
-        <v>27</v>
-      </c>
-      <c r="V196" t="s">
-        <v>27</v>
-      </c>
-      <c r="W196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
+        <v>224</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
       <c r="A197" t="s">
-        <v>222</v>
-      </c>
-      <c r="U197" t="s">
-        <v>27</v>
-      </c>
-      <c r="V197" t="s">
-        <v>27</v>
-      </c>
-      <c r="W197" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27">
+        <v>225</v>
+      </c>
+      <c r="L197" t="s">
+        <v>30</v>
+      </c>
+      <c r="M197" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
       <c r="A198" t="s">
-        <v>223</v>
-      </c>
-      <c r="G198" t="s">
-        <v>27</v>
-      </c>
-      <c r="H198" t="s">
-        <v>27</v>
-      </c>
-      <c r="K198" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="L198" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M198" t="s">
-        <v>27</v>
-      </c>
-      <c r="N198" t="s">
-        <v>27</v>
-      </c>
-      <c r="O198" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q198" t="s">
-        <v>27</v>
-      </c>
-      <c r="R198" t="s">
-        <v>27</v>
-      </c>
-      <c r="X198" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" t="s">
-        <v>224</v>
-      </c>
-      <c r="L199" t="s">
-        <v>27</v>
-      </c>
-      <c r="M199" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27">
+        <v>227</v>
+      </c>
+      <c r="C199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
       <c r="A200" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" t="s">
-        <v>27</v>
-      </c>
-      <c r="E200" t="s">
-        <v>27</v>
+        <v>228</v>
+      </c>
+      <c r="T200" t="s">
+        <v>30</v>
       </c>
       <c r="U200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W200" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA200" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D201" t="s">
-        <v>27</v>
-      </c>
-      <c r="E201" t="s">
-        <v>27</v>
-      </c>
-      <c r="U201" t="s">
-        <v>27</v>
-      </c>
-      <c r="V201" t="s">
-        <v>27</v>
-      </c>
-      <c r="W201" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
       <c r="A202" t="s">
-        <v>227</v>
-      </c>
-      <c r="D202" t="s">
-        <v>27</v>
-      </c>
-      <c r="E202" t="s">
-        <v>27</v>
-      </c>
-      <c r="U202" t="s">
-        <v>27</v>
-      </c>
-      <c r="V202" t="s">
-        <v>27</v>
-      </c>
-      <c r="W202" t="s">
-        <v>27</v>
+        <v>230</v>
+      </c>
+      <c r="X202" t="s">
+        <v>30</v>
       </c>
       <c r="Y202" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA202" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
       <c r="A203" t="s">
-        <v>228</v>
-      </c>
-      <c r="D203" t="s">
-        <v>27</v>
-      </c>
-      <c r="E203" t="s">
-        <v>27</v>
-      </c>
-      <c r="U203" t="s">
-        <v>27</v>
-      </c>
-      <c r="V203" t="s">
-        <v>27</v>
-      </c>
-      <c r="W203" t="s">
-        <v>27</v>
+        <v>231</v>
+      </c>
+      <c r="X203" t="s">
+        <v>30</v>
       </c>
       <c r="Y203" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
       <c r="A204" t="s">
-        <v>229</v>
-      </c>
-      <c r="J204" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27">
+        <v>232</v>
+      </c>
+      <c r="X204" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
       <c r="A205" t="s">
-        <v>230</v>
-      </c>
-      <c r="L205" t="s">
-        <v>27</v>
-      </c>
-      <c r="M205" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27">
+        <v>233</v>
+      </c>
+      <c r="X205" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
       <c r="A206" t="s">
-        <v>231</v>
-      </c>
-      <c r="W206" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27">
+        <v>234</v>
+      </c>
+      <c r="X206" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
       <c r="A207" t="s">
-        <v>232</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
-      <c r="K207" t="s">
-        <v>27</v>
-      </c>
-      <c r="O207" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27">
+        <v>235</v>
+      </c>
+      <c r="X207" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28">
       <c r="A208" t="s">
-        <v>233</v>
-      </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
-      <c r="K208" t="s">
-        <v>27</v>
-      </c>
-      <c r="O208" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>236</v>
+      </c>
+      <c r="V208" t="s">
+        <v>30</v>
+      </c>
+      <c r="W208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G209" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H209" t="s">
+        <v>30</v>
       </c>
       <c r="K209" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="L209" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" t="s">
+        <v>30</v>
+      </c>
+      <c r="N209" t="s">
+        <v>30</v>
       </c>
       <c r="O209" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>30</v>
+      </c>
+      <c r="R209" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30">
       <c r="A210" t="s">
-        <v>235</v>
-      </c>
-      <c r="T210" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>238</v>
+      </c>
+      <c r="V210" t="s">
+        <v>30</v>
+      </c>
+      <c r="W210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30">
       <c r="A211" t="s">
-        <v>236</v>
-      </c>
-      <c r="T211" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
+        <v>239</v>
+      </c>
+      <c r="V211" t="s">
+        <v>30</v>
+      </c>
+      <c r="W211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30">
       <c r="A212" t="s">
-        <v>237</v>
-      </c>
-      <c r="T212" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27">
+        <v>240</v>
+      </c>
+      <c r="L212" t="s">
+        <v>30</v>
+      </c>
+      <c r="M212" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30">
       <c r="A213" t="s">
-        <v>238</v>
-      </c>
-      <c r="T213" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27">
+        <v>241</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="X213" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" t="s">
+        <v>30</v>
+      </c>
+      <c r="X214" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>30</v>
       </c>
       <c r="Z214" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30">
       <c r="A215" t="s">
-        <v>240</v>
-      </c>
-      <c r="L215" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27">
+        <v>243</v>
+      </c>
+      <c r="D215" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>30</v>
+      </c>
+      <c r="X215" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30">
       <c r="A216" t="s">
-        <v>241</v>
-      </c>
-      <c r="P216" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27">
+        <v>244</v>
+      </c>
+      <c r="D216" t="s">
+        <v>30</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="X216" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30">
       <c r="A217" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" t="s">
-        <v>27</v>
-      </c>
-      <c r="D217" t="s">
-        <v>27</v>
-      </c>
-      <c r="E217" t="s">
-        <v>27</v>
-      </c>
-      <c r="F217" t="s">
-        <v>27</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
-      <c r="H217" t="s">
-        <v>27</v>
-      </c>
-      <c r="K217" t="s">
-        <v>27</v>
-      </c>
-      <c r="L217" t="s">
-        <v>27</v>
-      </c>
-      <c r="M217" t="s">
-        <v>27</v>
-      </c>
-      <c r="N217" t="s">
-        <v>27</v>
-      </c>
-      <c r="O217" t="s">
-        <v>27</v>
-      </c>
-      <c r="P217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>27</v>
-      </c>
-      <c r="R217" t="s">
-        <v>27</v>
-      </c>
-      <c r="S217" t="s">
-        <v>27</v>
-      </c>
-      <c r="U217" t="s">
-        <v>27</v>
-      </c>
-      <c r="V217" t="s">
-        <v>27</v>
-      </c>
-      <c r="W217" t="s">
-        <v>27</v>
-      </c>
-      <c r="X217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA217" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27">
+        <v>245</v>
+      </c>
+      <c r="J217" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30">
       <c r="A218" t="s">
-        <v>243</v>
-      </c>
-      <c r="U218" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27">
+        <v>246</v>
+      </c>
+      <c r="L218" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30">
       <c r="A219" t="s">
-        <v>244</v>
-      </c>
-      <c r="D219" t="s">
-        <v>27</v>
-      </c>
-      <c r="U219" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27">
+        <v>247</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30">
       <c r="A220" t="s">
-        <v>245</v>
-      </c>
-      <c r="D220" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="U220" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="V220" t="s">
+        <v>30</v>
+      </c>
+      <c r="W220" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30">
       <c r="A221" t="s">
-        <v>246</v>
-      </c>
-      <c r="D221" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="U221" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27">
+        <v>30</v>
+      </c>
+      <c r="V221" t="s">
+        <v>30</v>
+      </c>
+      <c r="W221" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30">
       <c r="A222" t="s">
-        <v>247</v>
-      </c>
-      <c r="V222" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27">
+        <v>250</v>
+      </c>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="K222" t="s">
+        <v>30</v>
+      </c>
+      <c r="O222" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
       <c r="A223" t="s">
-        <v>248</v>
-      </c>
-      <c r="V223" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27">
+        <v>251</v>
+      </c>
+      <c r="G223" t="s">
+        <v>30</v>
+      </c>
+      <c r="K223" t="s">
+        <v>30</v>
+      </c>
+      <c r="O223" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30">
       <c r="A224" t="s">
-        <v>249</v>
-      </c>
-      <c r="V224" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>252</v>
+      </c>
+      <c r="G224" t="s">
+        <v>30</v>
+      </c>
+      <c r="K224" t="s">
+        <v>30</v>
+      </c>
+      <c r="O224" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30">
       <c r="A225" t="s">
-        <v>250</v>
-      </c>
-      <c r="C225" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>253</v>
+      </c>
+      <c r="T225" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30">
       <c r="A226" t="s">
-        <v>251</v>
-      </c>
-      <c r="B226" t="s">
-        <v>27</v>
-      </c>
-      <c r="C226" t="s">
-        <v>27</v>
-      </c>
-      <c r="D226" t="s">
-        <v>27</v>
-      </c>
-      <c r="E226" t="s">
-        <v>27</v>
-      </c>
-      <c r="F226" t="s">
-        <v>27</v>
-      </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
-      <c r="H226" t="s">
-        <v>27</v>
-      </c>
-      <c r="I226" t="s">
-        <v>27</v>
-      </c>
-      <c r="K226" t="s">
-        <v>27</v>
-      </c>
-      <c r="L226" t="s">
-        <v>27</v>
-      </c>
-      <c r="M226" t="s">
-        <v>27</v>
-      </c>
-      <c r="N226" t="s">
-        <v>27</v>
-      </c>
-      <c r="O226" t="s">
-        <v>27</v>
-      </c>
-      <c r="P226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>27</v>
-      </c>
-      <c r="R226" t="s">
-        <v>27</v>
-      </c>
-      <c r="S226" t="s">
-        <v>27</v>
-      </c>
-      <c r="U226" t="s">
-        <v>27</v>
-      </c>
-      <c r="V226" t="s">
-        <v>27</v>
-      </c>
-      <c r="X226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>254</v>
+      </c>
+      <c r="T226" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30">
       <c r="A227" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="T227" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="T228" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30">
       <c r="A229" t="s">
-        <v>254</v>
-      </c>
-      <c r="T229" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27">
+        <v>257</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30">
       <c r="A230" t="s">
-        <v>255</v>
-      </c>
-      <c r="J230" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27">
+        <v>258</v>
+      </c>
+      <c r="L230" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30">
       <c r="A231" t="s">
-        <v>256</v>
-      </c>
-      <c r="J231" t="s">
-        <v>27</v>
+        <v>259</v>
+      </c>
+      <c r="P231" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
+      <c r="A232" t="s">
+        <v>260</v>
+      </c>
+      <c r="U232" t="s">
+        <v>30</v>
+      </c>
+      <c r="V232" t="s">
+        <v>30</v>
+      </c>
+      <c r="W232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
+      <c r="A233" t="s">
+        <v>261</v>
+      </c>
+      <c r="U233" t="s">
+        <v>30</v>
+      </c>
+      <c r="V233" t="s">
+        <v>30</v>
+      </c>
+      <c r="W233" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30">
+      <c r="A234" t="s">
+        <v>262</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E234" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>30</v>
+      </c>
+      <c r="H234" t="s">
+        <v>30</v>
+      </c>
+      <c r="K234" t="s">
+        <v>30</v>
+      </c>
+      <c r="L234" t="s">
+        <v>30</v>
+      </c>
+      <c r="M234" t="s">
+        <v>30</v>
+      </c>
+      <c r="N234" t="s">
+        <v>30</v>
+      </c>
+      <c r="O234" t="s">
+        <v>30</v>
+      </c>
+      <c r="P234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>30</v>
+      </c>
+      <c r="R234" t="s">
+        <v>30</v>
+      </c>
+      <c r="S234" t="s">
+        <v>30</v>
+      </c>
+      <c r="X234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30">
+      <c r="A235" t="s">
+        <v>263</v>
+      </c>
+      <c r="X235" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30">
+      <c r="A236" t="s">
+        <v>264</v>
+      </c>
+      <c r="D236" t="s">
+        <v>30</v>
+      </c>
+      <c r="X236" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30">
+      <c r="A237" t="s">
+        <v>265</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="X237" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30">
+      <c r="A238" t="s">
+        <v>266</v>
+      </c>
+      <c r="D238" t="s">
+        <v>30</v>
+      </c>
+      <c r="X238" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30">
+      <c r="A239" t="s">
+        <v>267</v>
+      </c>
+      <c r="U239" t="s">
+        <v>30</v>
+      </c>
+      <c r="V239" t="s">
+        <v>30</v>
+      </c>
+      <c r="W239" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30">
+      <c r="A240" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30">
+      <c r="A241" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30">
+      <c r="A242" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30">
+      <c r="A243" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30">
+      <c r="A244" t="s">
+        <v>272</v>
+      </c>
+      <c r="B244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" t="s">
+        <v>30</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" t="s">
+        <v>30</v>
+      </c>
+      <c r="G244" t="s">
+        <v>30</v>
+      </c>
+      <c r="H244" t="s">
+        <v>30</v>
+      </c>
+      <c r="I244" t="s">
+        <v>30</v>
+      </c>
+      <c r="K244" t="s">
+        <v>30</v>
+      </c>
+      <c r="L244" t="s">
+        <v>30</v>
+      </c>
+      <c r="M244" t="s">
+        <v>30</v>
+      </c>
+      <c r="N244" t="s">
+        <v>30</v>
+      </c>
+      <c r="O244" t="s">
+        <v>30</v>
+      </c>
+      <c r="P244" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>30</v>
+      </c>
+      <c r="R244" t="s">
+        <v>30</v>
+      </c>
+      <c r="S244" t="s">
+        <v>30</v>
+      </c>
+      <c r="U244" t="s">
+        <v>30</v>
+      </c>
+      <c r="V244" t="s">
+        <v>30</v>
+      </c>
+      <c r="W244" t="s">
+        <v>30</v>
+      </c>
+      <c r="X244" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30">
+      <c r="A245" t="s">
+        <v>273</v>
+      </c>
+      <c r="T245" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30">
+      <c r="A246" t="s">
+        <v>274</v>
+      </c>
+      <c r="U246" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30">
+      <c r="A247" t="s">
+        <v>275</v>
+      </c>
+      <c r="U247" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30">
+      <c r="A248" t="s">
+        <v>276</v>
+      </c>
+      <c r="T248" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30">
+      <c r="A249" t="s">
+        <v>277</v>
+      </c>
+      <c r="T249" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30">
+      <c r="A250" t="s">
+        <v>278</v>
+      </c>
+      <c r="J250" t="s">
+        <v>30</v>
+      </c>
+      <c r="U250" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30">
+      <c r="A251" t="s">
+        <v>279</v>
+      </c>
+      <c r="J251" t="s">
+        <v>30</v>
+      </c>
+      <c r="U251" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2018,11 +2018,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Distance unit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>If surgical sample, how far from the pathology was the sample obtained. Typically a number of centimeters. Leave blank if not applicable or unknown.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A156" authorId="0">
+    <comment ref="A157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2035,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A158" authorId="0">
+    <comment ref="A159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2061,7 +2074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0">
+    <comment ref="A160" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2087,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A161" authorId="0">
+    <comment ref="A162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2100,7 +2113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A162" authorId="0">
+    <comment ref="A163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2113,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A163" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2126,7 +2139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A164" authorId="0">
+    <comment ref="A165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2139,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A165" authorId="0">
+    <comment ref="A166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A166" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A167" authorId="0">
+    <comment ref="A168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A168" authorId="0">
+    <comment ref="A169" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A169" authorId="0">
+    <comment ref="A170" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A170" authorId="0">
+    <comment ref="A171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2217,7 +2230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0">
+    <comment ref="A172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0">
+    <comment ref="A173" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A173" authorId="0">
+    <comment ref="A174" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A174" authorId="0">
+    <comment ref="A175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2269,7 +2282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A175" authorId="0">
+    <comment ref="A176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2282,7 +2295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A176" authorId="0">
+    <comment ref="A177" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2295,7 +2308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A177" authorId="0">
+    <comment ref="A178" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A178" authorId="0">
+    <comment ref="A179" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A179" authorId="0">
+    <comment ref="A180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0">
+    <comment ref="A181" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A181" authorId="0">
+    <comment ref="A182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2360,7 +2373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2373,7 +2386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2412,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2438,7 +2451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2451,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2477,7 +2490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2503,7 +2516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2516,7 +2529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2529,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2542,7 +2555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2568,7 +2581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2581,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2607,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2620,7 +2633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2633,7 +2646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2646,7 +2659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2659,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2672,7 +2685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2685,7 +2698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2698,7 +2711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2711,7 +2724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2724,7 +2737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2737,7 +2750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2750,7 +2763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2763,7 +2776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2776,7 +2789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2789,7 +2802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2802,7 +2815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2815,7 +2828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2828,7 +2841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2841,7 +2854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2854,7 +2867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2867,7 +2880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2880,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2893,7 +2906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2906,7 +2919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2919,7 +2932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2932,7 +2945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2945,7 +2958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2958,7 +2971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2971,7 +2984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2984,7 +2997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2997,7 +3010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3010,7 +3023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3023,7 +3036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3036,7 +3049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3049,7 +3062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3062,7 +3075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3075,7 +3088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3088,7 +3101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3101,7 +3114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3114,7 +3127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3127,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3140,7 +3153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3153,7 +3166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3166,7 +3179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3179,7 +3192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3192,7 +3205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3205,7 +3218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3218,7 +3231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3231,7 +3244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3244,7 +3257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3257,7 +3270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3275,7 +3288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="281">
   <si>
     <t>af</t>
   </si>
@@ -3824,6 +3837,9 @@
   </si>
   <si>
     <t>pathologist_report</t>
+  </si>
+  <si>
+    <t>pathology_distance_unit</t>
   </si>
   <si>
     <t>pathology_distance_value</t>
@@ -4455,7 +4471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD251"/>
+  <dimension ref="A1:AD252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7019,7 +7035,7 @@
       <c r="A156" t="s">
         <v>184</v>
       </c>
-      <c r="T156" t="s">
+      <c r="U156" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7027,70 +7043,7 @@
       <c r="A157" t="s">
         <v>185</v>
       </c>
-      <c r="B157" t="s">
-        <v>30</v>
-      </c>
-      <c r="D157" t="s">
-        <v>30</v>
-      </c>
-      <c r="E157" t="s">
-        <v>30</v>
-      </c>
-      <c r="F157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" t="s">
-        <v>30</v>
-      </c>
-      <c r="K157" t="s">
-        <v>30</v>
-      </c>
-      <c r="L157" t="s">
-        <v>30</v>
-      </c>
-      <c r="M157" t="s">
-        <v>30</v>
-      </c>
-      <c r="N157" t="s">
-        <v>30</v>
-      </c>
-      <c r="O157" t="s">
-        <v>30</v>
-      </c>
-      <c r="P157" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>30</v>
-      </c>
-      <c r="R157" t="s">
-        <v>30</v>
-      </c>
-      <c r="S157" t="s">
-        <v>30</v>
-      </c>
-      <c r="X157" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y157" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA157" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB157" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC157" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD157" t="s">
+      <c r="T157" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7169,7 +7122,70 @@
       <c r="A159" t="s">
         <v>187</v>
       </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159" t="s">
+        <v>30</v>
+      </c>
+      <c r="H159" t="s">
+        <v>30</v>
+      </c>
+      <c r="K159" t="s">
+        <v>30</v>
+      </c>
+      <c r="L159" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" t="s">
+        <v>30</v>
+      </c>
+      <c r="N159" t="s">
+        <v>30</v>
+      </c>
+      <c r="O159" t="s">
+        <v>30</v>
+      </c>
+      <c r="P159" t="s">
+        <v>30</v>
+      </c>
       <c r="Q159" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" t="s">
+        <v>30</v>
+      </c>
+      <c r="S159" t="s">
+        <v>30</v>
+      </c>
+      <c r="X159" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD159" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7217,19 +7233,7 @@
       <c r="A165" t="s">
         <v>193</v>
       </c>
-      <c r="G165" t="s">
-        <v>30</v>
-      </c>
-      <c r="K165" t="s">
-        <v>30</v>
-      </c>
-      <c r="N165" t="s">
-        <v>30</v>
-      </c>
-      <c r="O165" t="s">
-        <v>30</v>
-      </c>
-      <c r="S165" t="s">
+      <c r="Q165" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7237,22 +7241,19 @@
       <c r="A166" t="s">
         <v>194</v>
       </c>
-      <c r="H166" t="s">
-        <v>30</v>
-      </c>
-      <c r="L166" t="s">
-        <v>30</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="G166" t="s">
+        <v>30</v>
+      </c>
+      <c r="K166" t="s">
         <v>30</v>
       </c>
       <c r="N166" t="s">
         <v>30</v>
       </c>
-      <c r="Q166" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA166" t="s">
+      <c r="O166" t="s">
+        <v>30</v>
+      </c>
+      <c r="S166" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7283,7 +7284,22 @@
       <c r="A168" t="s">
         <v>196</v>
       </c>
+      <c r="H168" t="s">
+        <v>30</v>
+      </c>
+      <c r="L168" t="s">
+        <v>30</v>
+      </c>
+      <c r="M168" t="s">
+        <v>30</v>
+      </c>
       <c r="N168" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA168" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7291,13 +7307,7 @@
       <c r="A169" t="s">
         <v>197</v>
       </c>
-      <c r="U169" t="s">
-        <v>30</v>
-      </c>
-      <c r="V169" t="s">
-        <v>30</v>
-      </c>
-      <c r="W169" t="s">
+      <c r="N169" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7319,7 +7329,13 @@
       <c r="A171" t="s">
         <v>199</v>
       </c>
-      <c r="N171" t="s">
+      <c r="U171" t="s">
+        <v>30</v>
+      </c>
+      <c r="V171" t="s">
+        <v>30</v>
+      </c>
+      <c r="W171" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7327,7 +7343,7 @@
       <c r="A172" t="s">
         <v>200</v>
       </c>
-      <c r="Q172" t="s">
+      <c r="N172" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7351,7 +7367,7 @@
       <c r="A175" t="s">
         <v>203</v>
       </c>
-      <c r="T175" t="s">
+      <c r="Q175" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7359,19 +7375,7 @@
       <c r="A176" t="s">
         <v>204</v>
       </c>
-      <c r="F176" t="s">
-        <v>30</v>
-      </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
-      <c r="N176" t="s">
-        <v>30</v>
-      </c>
-      <c r="O176" t="s">
-        <v>30</v>
-      </c>
-      <c r="S176" t="s">
+      <c r="T176" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7379,13 +7383,19 @@
       <c r="A177" t="s">
         <v>205</v>
       </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
       <c r="G177" t="s">
         <v>30</v>
       </c>
-      <c r="K177" t="s">
+      <c r="N177" t="s">
         <v>30</v>
       </c>
       <c r="O177" t="s">
+        <v>30</v>
+      </c>
+      <c r="S177" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7393,13 +7403,13 @@
       <c r="A178" t="s">
         <v>206</v>
       </c>
-      <c r="U178" t="s">
-        <v>30</v>
-      </c>
-      <c r="V178" t="s">
-        <v>30</v>
-      </c>
-      <c r="W178" t="s">
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="K178" t="s">
+        <v>30</v>
+      </c>
+      <c r="O178" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7421,70 +7431,13 @@
       <c r="A180" t="s">
         <v>208</v>
       </c>
-      <c r="B180" t="s">
-        <v>30</v>
-      </c>
-      <c r="D180" t="s">
-        <v>30</v>
-      </c>
-      <c r="E180" t="s">
-        <v>30</v>
-      </c>
-      <c r="F180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
-      <c r="H180" t="s">
-        <v>30</v>
-      </c>
-      <c r="K180" t="s">
-        <v>30</v>
-      </c>
-      <c r="L180" t="s">
-        <v>30</v>
-      </c>
-      <c r="M180" t="s">
-        <v>30</v>
-      </c>
-      <c r="N180" t="s">
-        <v>30</v>
-      </c>
-      <c r="O180" t="s">
-        <v>30</v>
-      </c>
-      <c r="P180" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>30</v>
-      </c>
-      <c r="R180" t="s">
-        <v>30</v>
-      </c>
-      <c r="S180" t="s">
-        <v>30</v>
-      </c>
-      <c r="X180" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z180" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA180" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB180" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC180" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD180" t="s">
+      <c r="U180" t="s">
+        <v>30</v>
+      </c>
+      <c r="V180" t="s">
+        <v>30</v>
+      </c>
+      <c r="W180" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7492,7 +7445,70 @@
       <c r="A181" t="s">
         <v>209</v>
       </c>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" t="s">
+        <v>30</v>
+      </c>
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>30</v>
+      </c>
+      <c r="K181" t="s">
+        <v>30</v>
+      </c>
+      <c r="L181" t="s">
+        <v>30</v>
+      </c>
+      <c r="M181" t="s">
+        <v>30</v>
+      </c>
+      <c r="N181" t="s">
+        <v>30</v>
+      </c>
+      <c r="O181" t="s">
+        <v>30</v>
+      </c>
+      <c r="P181" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>30</v>
+      </c>
+      <c r="R181" t="s">
+        <v>30</v>
+      </c>
+      <c r="S181" t="s">
+        <v>30</v>
+      </c>
+      <c r="X181" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>30</v>
+      </c>
       <c r="AB181" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD181" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7500,13 +7516,7 @@
       <c r="A182" t="s">
         <v>210</v>
       </c>
-      <c r="U182" t="s">
-        <v>30</v>
-      </c>
-      <c r="V182" t="s">
-        <v>30</v>
-      </c>
-      <c r="W182" t="s">
+      <c r="AB182" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7514,7 +7524,13 @@
       <c r="A183" t="s">
         <v>211</v>
       </c>
-      <c r="J183" t="s">
+      <c r="U183" t="s">
+        <v>30</v>
+      </c>
+      <c r="V183" t="s">
+        <v>30</v>
+      </c>
+      <c r="W183" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7522,7 +7538,7 @@
       <c r="A184" t="s">
         <v>212</v>
       </c>
-      <c r="P184" t="s">
+      <c r="J184" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7538,22 +7554,7 @@
       <c r="A186" t="s">
         <v>214</v>
       </c>
-      <c r="H186" t="s">
-        <v>30</v>
-      </c>
-      <c r="L186" t="s">
-        <v>30</v>
-      </c>
-      <c r="M186" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>30</v>
-      </c>
-      <c r="R186" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA186" t="s">
+      <c r="P186" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7561,28 +7562,13 @@
       <c r="A187" t="s">
         <v>215</v>
       </c>
-      <c r="B187" t="s">
-        <v>30</v>
-      </c>
-      <c r="F187" t="s">
-        <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>30</v>
-      </c>
       <c r="H187" t="s">
         <v>30</v>
       </c>
-      <c r="K187" t="s">
-        <v>30</v>
-      </c>
-      <c r="N187" t="s">
-        <v>30</v>
-      </c>
-      <c r="O187" t="s">
-        <v>30</v>
-      </c>
-      <c r="P187" t="s">
+      <c r="L187" t="s">
+        <v>30</v>
+      </c>
+      <c r="M187" t="s">
         <v>30</v>
       </c>
       <c r="Q187" t="s">
@@ -7591,13 +7577,7 @@
       <c r="R187" t="s">
         <v>30</v>
       </c>
-      <c r="S187" t="s">
-        <v>30</v>
-      </c>
       <c r="AA187" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC187" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7740,10 +7720,34 @@
       <c r="B191" t="s">
         <v>30</v>
       </c>
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s">
+        <v>30</v>
+      </c>
       <c r="H191" t="s">
         <v>30</v>
       </c>
+      <c r="K191" t="s">
+        <v>30</v>
+      </c>
+      <c r="N191" t="s">
+        <v>30</v>
+      </c>
+      <c r="O191" t="s">
+        <v>30</v>
+      </c>
       <c r="P191" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>30</v>
+      </c>
+      <c r="R191" t="s">
+        <v>30</v>
+      </c>
+      <c r="S191" t="s">
         <v>30</v>
       </c>
       <c r="AA191" t="s">
@@ -7773,26 +7777,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:29">
       <c r="A193" t="s">
         <v>221</v>
       </c>
-      <c r="Y193" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z193" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28">
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" t="s">
+        <v>30</v>
+      </c>
+      <c r="P193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" t="s">
         <v>222</v>
       </c>
-      <c r="E194" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:28">
+      <c r="Y194" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -7800,38 +7816,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" spans="1:29">
       <c r="A196" t="s">
         <v>224</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
       </c>
-      <c r="Y196" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z196" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB196" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:28">
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" t="s">
         <v>225</v>
       </c>
-      <c r="L197" t="s">
-        <v>30</v>
-      </c>
-      <c r="M197" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:28">
+      <c r="E197" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -7845,54 +7855,54 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" spans="1:29">
       <c r="A199" t="s">
         <v>227</v>
       </c>
-      <c r="C199" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:28">
+      <c r="L199" t="s">
+        <v>30</v>
+      </c>
+      <c r="M199" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
       <c r="A200" t="s">
         <v>228</v>
       </c>
-      <c r="T200" t="s">
-        <v>30</v>
-      </c>
-      <c r="U200" t="s">
-        <v>30</v>
-      </c>
-      <c r="V200" t="s">
-        <v>30</v>
-      </c>
-      <c r="W200" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28">
+      <c r="C200" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
       <c r="A201" t="s">
         <v>229</v>
       </c>
-      <c r="D201" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28">
+      <c r="T201" t="s">
+        <v>30</v>
+      </c>
+      <c r="U201" t="s">
+        <v>30</v>
+      </c>
+      <c r="V201" t="s">
+        <v>30</v>
+      </c>
+      <c r="W201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
       <c r="A202" t="s">
         <v>230</v>
       </c>
-      <c r="X202" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z202" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28">
+      <c r="D202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" spans="1:29">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" spans="1:29">
       <c r="A205" t="s">
         <v>233</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" spans="1:29">
       <c r="A206" t="s">
         <v>234</v>
       </c>
@@ -7948,7 +7958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" spans="1:29">
       <c r="A207" t="s">
         <v>235</v>
       </c>
@@ -7962,14 +7972,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" spans="1:29">
       <c r="A208" t="s">
         <v>236</v>
       </c>
-      <c r="V208" t="s">
-        <v>30</v>
-      </c>
-      <c r="W208" t="s">
+      <c r="X208" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z208" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7977,37 +7990,10 @@
       <c r="A209" t="s">
         <v>237</v>
       </c>
-      <c r="G209" t="s">
-        <v>30</v>
-      </c>
-      <c r="H209" t="s">
-        <v>30</v>
-      </c>
-      <c r="K209" t="s">
-        <v>30</v>
-      </c>
-      <c r="L209" t="s">
-        <v>30</v>
-      </c>
-      <c r="M209" t="s">
-        <v>30</v>
-      </c>
-      <c r="N209" t="s">
-        <v>30</v>
-      </c>
-      <c r="O209" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>30</v>
-      </c>
-      <c r="R209" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA209" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC209" t="s">
+      <c r="V209" t="s">
+        <v>30</v>
+      </c>
+      <c r="W209" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8015,10 +8001,37 @@
       <c r="A210" t="s">
         <v>238</v>
       </c>
-      <c r="V210" t="s">
-        <v>30</v>
-      </c>
-      <c r="W210" t="s">
+      <c r="G210" t="s">
+        <v>30</v>
+      </c>
+      <c r="H210" t="s">
+        <v>30</v>
+      </c>
+      <c r="K210" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" t="s">
+        <v>30</v>
+      </c>
+      <c r="M210" t="s">
+        <v>30</v>
+      </c>
+      <c r="N210" t="s">
+        <v>30</v>
+      </c>
+      <c r="O210" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>30</v>
+      </c>
+      <c r="R210" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC210" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8037,13 +8050,10 @@
       <c r="A212" t="s">
         <v>240</v>
       </c>
-      <c r="L212" t="s">
-        <v>30</v>
-      </c>
-      <c r="M212" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q212" t="s">
+      <c r="V212" t="s">
+        <v>30</v>
+      </c>
+      <c r="W212" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8051,25 +8061,13 @@
       <c r="A213" t="s">
         <v>241</v>
       </c>
-      <c r="D213" t="s">
-        <v>30</v>
-      </c>
-      <c r="E213" t="s">
-        <v>30</v>
-      </c>
-      <c r="X213" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB213" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD213" t="s">
+      <c r="L213" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q213" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8155,7 +8153,25 @@
       <c r="A217" t="s">
         <v>245</v>
       </c>
-      <c r="J217" t="s">
+      <c r="D217" t="s">
+        <v>30</v>
+      </c>
+      <c r="E217" t="s">
+        <v>30</v>
+      </c>
+      <c r="X217" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD217" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8163,13 +8179,7 @@
       <c r="A218" t="s">
         <v>246</v>
       </c>
-      <c r="L218" t="s">
-        <v>30</v>
-      </c>
-      <c r="M218" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q218" t="s">
+      <c r="J218" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8177,7 +8187,13 @@
       <c r="A219" t="s">
         <v>247</v>
       </c>
-      <c r="Z219" t="s">
+      <c r="L219" t="s">
+        <v>30</v>
+      </c>
+      <c r="M219" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q219" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8185,13 +8201,7 @@
       <c r="A220" t="s">
         <v>248</v>
       </c>
-      <c r="U220" t="s">
-        <v>30</v>
-      </c>
-      <c r="V220" t="s">
-        <v>30</v>
-      </c>
-      <c r="W220" t="s">
+      <c r="Z220" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8213,13 +8223,13 @@
       <c r="A222" t="s">
         <v>250</v>
       </c>
-      <c r="G222" t="s">
-        <v>30</v>
-      </c>
-      <c r="K222" t="s">
-        <v>30</v>
-      </c>
-      <c r="O222" t="s">
+      <c r="U222" t="s">
+        <v>30</v>
+      </c>
+      <c r="V222" t="s">
+        <v>30</v>
+      </c>
+      <c r="W222" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8255,7 +8265,13 @@
       <c r="A225" t="s">
         <v>253</v>
       </c>
-      <c r="T225" t="s">
+      <c r="G225" t="s">
+        <v>30</v>
+      </c>
+      <c r="K225" t="s">
+        <v>30</v>
+      </c>
+      <c r="O225" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8287,7 +8303,7 @@
       <c r="A229" t="s">
         <v>257</v>
       </c>
-      <c r="AC229" t="s">
+      <c r="T229" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8295,10 +8311,7 @@
       <c r="A230" t="s">
         <v>258</v>
       </c>
-      <c r="L230" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q230" t="s">
+      <c r="AC230" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8306,7 +8319,10 @@
       <c r="A231" t="s">
         <v>259</v>
       </c>
-      <c r="P231" t="s">
+      <c r="L231" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q231" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8314,13 +8330,7 @@
       <c r="A232" t="s">
         <v>260</v>
       </c>
-      <c r="U232" t="s">
-        <v>30</v>
-      </c>
-      <c r="V232" t="s">
-        <v>30</v>
-      </c>
-      <c r="W232" t="s">
+      <c r="P232" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8342,70 +8352,13 @@
       <c r="A234" t="s">
         <v>262</v>
       </c>
-      <c r="B234" t="s">
-        <v>30</v>
-      </c>
-      <c r="D234" t="s">
-        <v>30</v>
-      </c>
-      <c r="E234" t="s">
-        <v>30</v>
-      </c>
-      <c r="F234" t="s">
-        <v>30</v>
-      </c>
-      <c r="G234" t="s">
-        <v>30</v>
-      </c>
-      <c r="H234" t="s">
-        <v>30</v>
-      </c>
-      <c r="K234" t="s">
-        <v>30</v>
-      </c>
-      <c r="L234" t="s">
-        <v>30</v>
-      </c>
-      <c r="M234" t="s">
-        <v>30</v>
-      </c>
-      <c r="N234" t="s">
-        <v>30</v>
-      </c>
-      <c r="O234" t="s">
-        <v>30</v>
-      </c>
-      <c r="P234" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>30</v>
-      </c>
-      <c r="R234" t="s">
-        <v>30</v>
-      </c>
-      <c r="S234" t="s">
-        <v>30</v>
-      </c>
-      <c r="X234" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z234" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA234" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB234" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC234" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD234" t="s">
+      <c r="U234" t="s">
+        <v>30</v>
+      </c>
+      <c r="V234" t="s">
+        <v>30</v>
+      </c>
+      <c r="W234" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8413,7 +8366,70 @@
       <c r="A235" t="s">
         <v>263</v>
       </c>
+      <c r="B235" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E235" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235" t="s">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>30</v>
+      </c>
+      <c r="H235" t="s">
+        <v>30</v>
+      </c>
+      <c r="K235" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" t="s">
+        <v>30</v>
+      </c>
+      <c r="M235" t="s">
+        <v>30</v>
+      </c>
+      <c r="N235" t="s">
+        <v>30</v>
+      </c>
+      <c r="O235" t="s">
+        <v>30</v>
+      </c>
+      <c r="P235" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>30</v>
+      </c>
+      <c r="R235" t="s">
+        <v>30</v>
+      </c>
+      <c r="S235" t="s">
+        <v>30</v>
+      </c>
       <c r="X235" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD235" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8421,9 +8437,6 @@
       <c r="A236" t="s">
         <v>264</v>
       </c>
-      <c r="D236" t="s">
-        <v>30</v>
-      </c>
       <c r="X236" t="s">
         <v>30</v>
       </c>
@@ -8454,13 +8467,10 @@
       <c r="A239" t="s">
         <v>267</v>
       </c>
-      <c r="U239" t="s">
-        <v>30</v>
-      </c>
-      <c r="V239" t="s">
-        <v>30</v>
-      </c>
-      <c r="W239" t="s">
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
+      <c r="X239" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8468,7 +8478,13 @@
       <c r="A240" t="s">
         <v>268</v>
       </c>
-      <c r="Y240" t="s">
+      <c r="U240" t="s">
+        <v>30</v>
+      </c>
+      <c r="V240" t="s">
+        <v>30</v>
+      </c>
+      <c r="W240" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8492,7 +8508,7 @@
       <c r="A243" t="s">
         <v>271</v>
       </c>
-      <c r="C243" t="s">
+      <c r="Y243" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8500,82 +8516,7 @@
       <c r="A244" t="s">
         <v>272</v>
       </c>
-      <c r="B244" t="s">
-        <v>30</v>
-      </c>
       <c r="C244" t="s">
-        <v>30</v>
-      </c>
-      <c r="D244" t="s">
-        <v>30</v>
-      </c>
-      <c r="E244" t="s">
-        <v>30</v>
-      </c>
-      <c r="F244" t="s">
-        <v>30</v>
-      </c>
-      <c r="G244" t="s">
-        <v>30</v>
-      </c>
-      <c r="H244" t="s">
-        <v>30</v>
-      </c>
-      <c r="I244" t="s">
-        <v>30</v>
-      </c>
-      <c r="K244" t="s">
-        <v>30</v>
-      </c>
-      <c r="L244" t="s">
-        <v>30</v>
-      </c>
-      <c r="M244" t="s">
-        <v>30</v>
-      </c>
-      <c r="N244" t="s">
-        <v>30</v>
-      </c>
-      <c r="O244" t="s">
-        <v>30</v>
-      </c>
-      <c r="P244" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>30</v>
-      </c>
-      <c r="R244" t="s">
-        <v>30</v>
-      </c>
-      <c r="S244" t="s">
-        <v>30</v>
-      </c>
-      <c r="U244" t="s">
-        <v>30</v>
-      </c>
-      <c r="V244" t="s">
-        <v>30</v>
-      </c>
-      <c r="W244" t="s">
-        <v>30</v>
-      </c>
-      <c r="X244" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y244" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA244" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB244" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC244" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD244" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8583,7 +8524,82 @@
       <c r="A245" t="s">
         <v>273</v>
       </c>
-      <c r="T245" t="s">
+      <c r="B245" t="s">
+        <v>30</v>
+      </c>
+      <c r="C245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245" t="s">
+        <v>30</v>
+      </c>
+      <c r="F245" t="s">
+        <v>30</v>
+      </c>
+      <c r="G245" t="s">
+        <v>30</v>
+      </c>
+      <c r="H245" t="s">
+        <v>30</v>
+      </c>
+      <c r="I245" t="s">
+        <v>30</v>
+      </c>
+      <c r="K245" t="s">
+        <v>30</v>
+      </c>
+      <c r="L245" t="s">
+        <v>30</v>
+      </c>
+      <c r="M245" t="s">
+        <v>30</v>
+      </c>
+      <c r="N245" t="s">
+        <v>30</v>
+      </c>
+      <c r="O245" t="s">
+        <v>30</v>
+      </c>
+      <c r="P245" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>30</v>
+      </c>
+      <c r="R245" t="s">
+        <v>30</v>
+      </c>
+      <c r="S245" t="s">
+        <v>30</v>
+      </c>
+      <c r="U245" t="s">
+        <v>30</v>
+      </c>
+      <c r="V245" t="s">
+        <v>30</v>
+      </c>
+      <c r="W245" t="s">
+        <v>30</v>
+      </c>
+      <c r="X245" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD245" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8591,7 +8607,7 @@
       <c r="A246" t="s">
         <v>274</v>
       </c>
-      <c r="U246" t="s">
+      <c r="T246" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8607,7 +8623,7 @@
       <c r="A248" t="s">
         <v>276</v>
       </c>
-      <c r="T248" t="s">
+      <c r="U248" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8623,10 +8639,7 @@
       <c r="A250" t="s">
         <v>278</v>
       </c>
-      <c r="J250" t="s">
-        <v>30</v>
-      </c>
-      <c r="U250" t="s">
+      <c r="T250" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8638,6 +8651,17 @@
         <v>30</v>
       </c>
       <c r="U251" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30">
+      <c r="A252" t="s">
+        <v>280</v>
+      </c>
+      <c r="J252" t="s">
+        <v>30</v>
+      </c>
+      <c r="U252" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -808,7 +808,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of the current used to acquire microCT images. Example: amp</t>
+          <t>The unit of the current used to acquire microCT images. Example: mA</t>
         </r>
       </text>
     </comment>
@@ -3240,7 +3240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>The format in which each single imaging file will be exported. (Example: DICOM, tiff, avi, etc.)</t>
         </r>
       </text>
     </comment>
@@ -3500,7 +3500,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The number of sections used for analyzing microCT images</t>
+          <t>The number of sections used for analyzing microCT or OCT images</t>
         </r>
       </text>
     </comment>
@@ -3656,7 +3656,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of the voltage used to acquire microCT images. Example: volt</t>
+          <t>The unit of the voltage used to acquire microCT images. Example: V</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -834,7 +834,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition), DIA (Data-independent acquisition), MRM (multiple reaction monitoring), or PRM (parallel reaction monitoring).</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3487,11 +3487,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Was the cell/nuclei population enriched?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A269" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the suspension was enriched, then this is the target of the enrichment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A270" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The type of single cell entity derived from isolation protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A271" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total number of cell/nuclei yielded post dissociation and enrichment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A272" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3504,7 +3556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3517,7 +3569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3530,7 +3582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3543,7 +3595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3556,7 +3608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3569,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3582,7 +3634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3595,7 +3647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3608,7 +3660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3621,7 +3673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3634,7 +3686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3647,7 +3699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3660,7 +3712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3673,7 +3725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3686,7 +3738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3699,7 +3751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3712,7 +3764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3725,7 +3777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3738,7 +3790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3751,7 +3803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3764,7 +3816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3777,7 +3829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3795,7 +3847,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="329">
   <si>
     <t>af</t>
   </si>
@@ -4698,6 +4750,18 @@
   </si>
   <si>
     <t>storage_temperature</t>
+  </si>
+  <si>
+    <t>suspension_enriched</t>
+  </si>
+  <si>
+    <t>suspension_enriched_target</t>
+  </si>
+  <si>
+    <t>suspension_entity</t>
+  </si>
+  <si>
+    <t>suspension_entity_number</t>
   </si>
   <si>
     <t>tissue_id</t>
@@ -5110,7 +5174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI291"/>
+  <dimension ref="A1:AI295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5649,9 +5713,6 @@
       <c r="Z21" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
@@ -5660,9 +5721,6 @@
       <c r="Z22" t="s">
         <v>35</v>
       </c>
-      <c r="AA22" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
@@ -9303,9 +9361,6 @@
       <c r="Z237" t="s">
         <v>35</v>
       </c>
-      <c r="AA237" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="238" spans="1:34">
       <c r="A238" t="s">
@@ -9352,9 +9407,6 @@
       <c r="Z239" t="s">
         <v>35</v>
       </c>
-      <c r="AA239" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="240" spans="1:34">
       <c r="A240" t="s">
@@ -9363,9 +9415,6 @@
       <c r="Z240" t="s">
         <v>35</v>
       </c>
-      <c r="AA240" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="241" spans="1:35">
       <c r="A241" t="s">
@@ -9728,85 +9777,7 @@
       <c r="A268" t="s">
         <v>301</v>
       </c>
-      <c r="B268" t="s">
-        <v>35</v>
-      </c>
-      <c r="D268" t="s">
-        <v>35</v>
-      </c>
-      <c r="E268" t="s">
-        <v>35</v>
-      </c>
-      <c r="F268" t="s">
-        <v>35</v>
-      </c>
-      <c r="G268" t="s">
-        <v>35</v>
-      </c>
-      <c r="H268" t="s">
-        <v>35</v>
-      </c>
-      <c r="I268" t="s">
-        <v>35</v>
-      </c>
-      <c r="L268" t="s">
-        <v>35</v>
-      </c>
-      <c r="M268" t="s">
-        <v>35</v>
-      </c>
-      <c r="N268" t="s">
-        <v>35</v>
-      </c>
-      <c r="O268" t="s">
-        <v>35</v>
-      </c>
-      <c r="P268" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>35</v>
-      </c>
-      <c r="R268" t="s">
-        <v>35</v>
-      </c>
-      <c r="S268" t="s">
-        <v>35</v>
-      </c>
-      <c r="T268" t="s">
-        <v>35</v>
-      </c>
-      <c r="U268" t="s">
-        <v>35</v>
-      </c>
-      <c r="V268" t="s">
-        <v>35</v>
-      </c>
-      <c r="W268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI268" t="s">
+      <c r="AA268" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9814,10 +9785,7 @@
       <c r="A269" t="s">
         <v>302</v>
       </c>
-      <c r="S269" t="s">
-        <v>35</v>
-      </c>
-      <c r="W269" t="s">
+      <c r="AA269" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9825,7 +9793,7 @@
       <c r="A270" t="s">
         <v>303</v>
       </c>
-      <c r="AB270" t="s">
+      <c r="AA270" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9833,10 +9801,7 @@
       <c r="A271" t="s">
         <v>304</v>
       </c>
-      <c r="E271" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB271" t="s">
+      <c r="AA271" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9844,10 +9809,85 @@
       <c r="A272" t="s">
         <v>305</v>
       </c>
+      <c r="B272" t="s">
+        <v>35</v>
+      </c>
+      <c r="D272" t="s">
+        <v>35</v>
+      </c>
       <c r="E272" t="s">
         <v>35</v>
       </c>
+      <c r="F272" t="s">
+        <v>35</v>
+      </c>
+      <c r="G272" t="s">
+        <v>35</v>
+      </c>
+      <c r="H272" t="s">
+        <v>35</v>
+      </c>
+      <c r="I272" t="s">
+        <v>35</v>
+      </c>
+      <c r="L272" t="s">
+        <v>35</v>
+      </c>
+      <c r="M272" t="s">
+        <v>35</v>
+      </c>
+      <c r="N272" t="s">
+        <v>35</v>
+      </c>
+      <c r="O272" t="s">
+        <v>35</v>
+      </c>
+      <c r="P272" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>35</v>
+      </c>
+      <c r="R272" t="s">
+        <v>35</v>
+      </c>
+      <c r="S272" t="s">
+        <v>35</v>
+      </c>
+      <c r="T272" t="s">
+        <v>35</v>
+      </c>
+      <c r="U272" t="s">
+        <v>35</v>
+      </c>
+      <c r="V272" t="s">
+        <v>35</v>
+      </c>
+      <c r="W272" t="s">
+        <v>35</v>
+      </c>
       <c r="AB272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI272" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9855,10 +9895,10 @@
       <c r="A273" t="s">
         <v>306</v>
       </c>
-      <c r="E273" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB273" t="s">
+      <c r="S273" t="s">
+        <v>35</v>
+      </c>
+      <c r="W273" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9866,13 +9906,7 @@
       <c r="A274" t="s">
         <v>307</v>
       </c>
-      <c r="Y274" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z274" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA274" t="s">
+      <c r="AB274" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9880,7 +9914,10 @@
       <c r="A275" t="s">
         <v>308</v>
       </c>
-      <c r="AC275" t="s">
+      <c r="E275" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB275" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9888,7 +9925,10 @@
       <c r="A276" t="s">
         <v>309</v>
       </c>
-      <c r="AC276" t="s">
+      <c r="E276" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB276" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9896,7 +9936,10 @@
       <c r="A277" t="s">
         <v>310</v>
       </c>
-      <c r="AC277" t="s">
+      <c r="E277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB277" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9904,7 +9947,13 @@
       <c r="A278" t="s">
         <v>311</v>
       </c>
-      <c r="C278" t="s">
+      <c r="Y278" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA278" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9912,97 +9961,7 @@
       <c r="A279" t="s">
         <v>312</v>
       </c>
-      <c r="B279" t="s">
-        <v>35</v>
-      </c>
-      <c r="C279" t="s">
-        <v>35</v>
-      </c>
-      <c r="D279" t="s">
-        <v>35</v>
-      </c>
-      <c r="E279" t="s">
-        <v>35</v>
-      </c>
-      <c r="F279" t="s">
-        <v>35</v>
-      </c>
-      <c r="G279" t="s">
-        <v>35</v>
-      </c>
-      <c r="H279" t="s">
-        <v>35</v>
-      </c>
-      <c r="I279" t="s">
-        <v>35</v>
-      </c>
-      <c r="J279" t="s">
-        <v>35</v>
-      </c>
-      <c r="L279" t="s">
-        <v>35</v>
-      </c>
-      <c r="M279" t="s">
-        <v>35</v>
-      </c>
-      <c r="N279" t="s">
-        <v>35</v>
-      </c>
-      <c r="O279" t="s">
-        <v>35</v>
-      </c>
-      <c r="P279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>35</v>
-      </c>
-      <c r="R279" t="s">
-        <v>35</v>
-      </c>
-      <c r="S279" t="s">
-        <v>35</v>
-      </c>
-      <c r="T279" t="s">
-        <v>35</v>
-      </c>
-      <c r="U279" t="s">
-        <v>35</v>
-      </c>
-      <c r="V279" t="s">
-        <v>35</v>
-      </c>
-      <c r="W279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB279" t="s">
-        <v>35</v>
-      </c>
       <c r="AC279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI279" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10010,7 +9969,7 @@
       <c r="A280" t="s">
         <v>313</v>
       </c>
-      <c r="X280" t="s">
+      <c r="AC280" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10018,7 +9977,7 @@
       <c r="A281" t="s">
         <v>314</v>
       </c>
-      <c r="S281" t="s">
+      <c r="AC281" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10026,7 +9985,7 @@
       <c r="A282" t="s">
         <v>315</v>
       </c>
-      <c r="S282" t="s">
+      <c r="C282" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10034,7 +9993,97 @@
       <c r="A283" t="s">
         <v>316</v>
       </c>
+      <c r="B283" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283" t="s">
+        <v>35</v>
+      </c>
+      <c r="E283" t="s">
+        <v>35</v>
+      </c>
+      <c r="F283" t="s">
+        <v>35</v>
+      </c>
+      <c r="G283" t="s">
+        <v>35</v>
+      </c>
+      <c r="H283" t="s">
+        <v>35</v>
+      </c>
+      <c r="I283" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283" t="s">
+        <v>35</v>
+      </c>
+      <c r="L283" t="s">
+        <v>35</v>
+      </c>
+      <c r="M283" t="s">
+        <v>35</v>
+      </c>
+      <c r="N283" t="s">
+        <v>35</v>
+      </c>
+      <c r="O283" t="s">
+        <v>35</v>
+      </c>
+      <c r="P283" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>35</v>
+      </c>
+      <c r="R283" t="s">
+        <v>35</v>
+      </c>
+      <c r="S283" t="s">
+        <v>35</v>
+      </c>
+      <c r="T283" t="s">
+        <v>35</v>
+      </c>
+      <c r="U283" t="s">
+        <v>35</v>
+      </c>
+      <c r="V283" t="s">
+        <v>35</v>
+      </c>
       <c r="W283" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI283" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10042,7 +10091,7 @@
       <c r="A284" t="s">
         <v>317</v>
       </c>
-      <c r="Y284" t="s">
+      <c r="X284" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10050,7 +10099,7 @@
       <c r="A285" t="s">
         <v>318</v>
       </c>
-      <c r="Y285" t="s">
+      <c r="S285" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10058,7 +10107,7 @@
       <c r="A286" t="s">
         <v>319</v>
       </c>
-      <c r="X286" t="s">
+      <c r="S286" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10066,7 +10115,7 @@
       <c r="A287" t="s">
         <v>320</v>
       </c>
-      <c r="X287" t="s">
+      <c r="W287" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10074,7 +10123,7 @@
       <c r="A288" t="s">
         <v>321</v>
       </c>
-      <c r="W288" t="s">
+      <c r="Y288" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10082,7 +10131,7 @@
       <c r="A289" t="s">
         <v>322</v>
       </c>
-      <c r="W289" t="s">
+      <c r="Y289" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10090,10 +10139,7 @@
       <c r="A290" t="s">
         <v>323</v>
       </c>
-      <c r="K290" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y290" t="s">
+      <c r="X290" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10101,10 +10147,45 @@
       <c r="A291" t="s">
         <v>324</v>
       </c>
-      <c r="K291" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y291" t="s">
+      <c r="X291" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25">
+      <c r="A292" t="s">
+        <v>325</v>
+      </c>
+      <c r="W292" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25">
+      <c r="A293" t="s">
+        <v>326</v>
+      </c>
+      <c r="W293" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25">
+      <c r="A294" t="s">
+        <v>327</v>
+      </c>
+      <c r="K294" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
+      <c r="A295" t="s">
+        <v>328</v>
+      </c>
+      <c r="K295" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y295" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -4811,8 +4811,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="60"/>
     </xf>
@@ -5126,106 +5127,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -4811,9 +4811,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="60"/>
     </xf>
@@ -5127,106 +5126,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2355,11 +2355,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>The condition under which the preparation occurred, such as whether the sample was placed in dry ice during the preparation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>The model number/name of the instrument used to prepare the sample for the assay</t>
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,19 +2411,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The temperature for the preparation process.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A186" authorId="0">
       <text>
         <r>
@@ -3317,7 +3317,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The temperature during storage, after preparation and before the assay is performed.</t>
+          <t>The method by which the sample was stored, after preparation and before the assay was performed.</t>
         </r>
       </text>
     </comment>
@@ -4331,6 +4331,9 @@
     <t>polarity</t>
   </si>
   <si>
+    <t>preparation_condition</t>
+  </si>
+  <si>
     <t>preparation_instrument_model</t>
   </si>
   <si>
@@ -4343,9 +4346,6 @@
     <t>preparation_media</t>
   </si>
   <si>
-    <t>preparation_temperature</t>
-  </si>
-  <si>
     <t>preparation_type</t>
   </si>
   <si>
@@ -4553,7 +4553,7 @@
     <t>storage_media</t>
   </si>
   <si>
-    <t>storage_temperature</t>
+    <t>storage_method</t>
   </si>
   <si>
     <t>suspension_enriched</t>
@@ -8183,22 +8183,13 @@
       <c r="A181" t="s">
         <v>213</v>
       </c>
-      <c r="I181" t="s">
-        <v>34</v>
-      </c>
-      <c r="L181" t="s">
-        <v>34</v>
-      </c>
-      <c r="M181" t="s">
-        <v>34</v>
-      </c>
-      <c r="N181" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD181" t="s">
+      <c r="X181" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z181" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8229,7 +8220,22 @@
       <c r="A183" t="s">
         <v>215</v>
       </c>
+      <c r="I183" t="s">
+        <v>34</v>
+      </c>
+      <c r="L183" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183" t="s">
+        <v>34</v>
+      </c>
       <c r="N183" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD183" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8237,13 +8243,7 @@
       <c r="A184" t="s">
         <v>216</v>
       </c>
-      <c r="X184" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y184" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z184" t="s">
+      <c r="N184" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="317">
   <si>
     <t>af</t>
   </si>
@@ -3753,6 +3753,9 @@
   </si>
   <si>
     <t>oct</t>
+  </si>
+  <si>
+    <t>publication</t>
   </si>
   <si>
     <t>sample</t>
@@ -4978,7 +4981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH283"/>
+  <dimension ref="A1:AI283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4990,10 +4993,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="34" width="2.7109375" customWidth="1"/>
+    <col min="2" max="35" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5093,4799 +5096,4814 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+        <v>52</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+        <v>53</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="W22" t="s">
+        <v>35</v>
       </c>
       <c r="AB22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+        <v>57</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+        <v>58</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>35</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+        <v>35</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>35</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V56" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="W56" t="s">
+        <v>35</v>
       </c>
       <c r="AB56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V60" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="W60" t="s">
+        <v>35</v>
       </c>
       <c r="AB60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V62" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB62" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>35</v>
       </c>
       <c r="AE62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34">
+        <v>101</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34">
+        <v>102</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V70" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34">
+        <v>105</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V76" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
+        <v>110</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S83" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S84" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34">
+        <v>118</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35">
       <c r="A87" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34">
+        <v>120</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35">
       <c r="A88" t="s">
-        <v>120</v>
-      </c>
-      <c r="W88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34">
+        <v>121</v>
+      </c>
+      <c r="X88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" t="s">
-        <v>121</v>
-      </c>
-      <c r="X89" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="Y89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K96" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U98" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF98" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC99" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O106" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O107" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O109" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O115" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC119" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC120" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35">
       <c r="A123" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34">
+        <v>156</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC124" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35">
       <c r="A126" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34">
+        <v>159</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC127" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH127" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35">
       <c r="A128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC128" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE128" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC130" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC131" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35">
       <c r="A132" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC132" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35">
       <c r="A133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35">
       <c r="A135" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V136" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V137" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V138" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35">
       <c r="A139" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V139" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J140" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U142" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35">
       <c r="A143" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U143" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35">
       <c r="A144" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U144" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34">
       <c r="A145" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J146" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34">
       <c r="A147" t="s">
-        <v>179</v>
-      </c>
-      <c r="X147" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="Y147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z147" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q148" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34">
       <c r="A149" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S149" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34">
       <c r="A150" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:33">
+        <v>183</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34">
       <c r="A151" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD151" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33">
+        <v>184</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T152" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD152" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T153" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34">
       <c r="A154" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S154" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S155" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V156" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG156" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34">
       <c r="A158" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:33">
+        <v>191</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34">
       <c r="A159" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD159" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:33">
+        <v>192</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:34">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M160" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35">
       <c r="A161" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V161" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH161" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="162" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V162" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH162" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="163" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35">
       <c r="A164" t="s">
-        <v>196</v>
-      </c>
-      <c r="W164" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="165" spans="1:34">
+        <v>197</v>
+      </c>
+      <c r="X164" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U165" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF165" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35">
       <c r="A166" t="s">
-        <v>198</v>
-      </c>
-      <c r="W166" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:34">
+        <v>199</v>
+      </c>
+      <c r="X166" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35">
       <c r="A167" t="s">
-        <v>199</v>
-      </c>
-      <c r="X167" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:34">
+        <v>200</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35">
       <c r="A168" t="s">
-        <v>200</v>
-      </c>
-      <c r="X168" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:34">
+        <v>201</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35">
       <c r="A169" t="s">
-        <v>201</v>
-      </c>
-      <c r="W169" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:34">
+        <v>202</v>
+      </c>
+      <c r="X169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35">
       <c r="A170" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V170" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH170" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="171" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35">
       <c r="A171" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V171" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH171" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="172" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q172" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="173" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35">
       <c r="A173" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q173" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="174" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35">
       <c r="A174" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q174" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q175" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="176" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q176" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q177" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34">
       <c r="A178" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V178" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34">
       <c r="A179" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V179" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U180" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34">
       <c r="A181" t="s">
-        <v>213</v>
-      </c>
-      <c r="X181" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="Y181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z181" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q182" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD182" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q183" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD183" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="184" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34">
       <c r="A184" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N184" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34">
       <c r="A185" t="s">
-        <v>217</v>
-      </c>
-      <c r="X185" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="Y185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z185" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="186" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34">
       <c r="A186" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N186" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="187" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q187" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="188" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q188" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34">
       <c r="A189" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q189" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="190" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34">
       <c r="A190" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG190" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:33">
+        <v>223</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34">
       <c r="A191" t="s">
-        <v>223</v>
-      </c>
-      <c r="W191" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="192" spans="1:33">
+        <v>224</v>
+      </c>
+      <c r="X191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U192" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="193" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:35">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O193" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="194" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35">
       <c r="A194" t="s">
-        <v>226</v>
-      </c>
-      <c r="X194" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="Y194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z194" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="195" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:35">
       <c r="A195" t="s">
-        <v>227</v>
-      </c>
-      <c r="X195" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="Y195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z195" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="196" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:35">
       <c r="A196" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V196" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH196" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="197" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:35">
       <c r="A197" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE197" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="198" spans="1:34">
+        <v>230</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:35">
       <c r="A198" t="s">
-        <v>230</v>
-      </c>
-      <c r="X198" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="Y198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z198" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="199" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35">
       <c r="A199" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG199" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="200" spans="1:34">
+        <v>232</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35">
       <c r="A200" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P200" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="201" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:35">
       <c r="A201" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P201" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:35">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T202" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD202" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="203" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35">
       <c r="A203" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S203" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="204" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:35">
       <c r="A204" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V204" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD204" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF204" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>35</v>
       </c>
       <c r="AG204" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:35">
       <c r="A205" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V205" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD205" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF205" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>35</v>
       </c>
       <c r="AG205" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V206" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD206" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF206" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>35</v>
       </c>
       <c r="AG206" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="207" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35">
       <c r="A207" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V207" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD207" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF207" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>35</v>
       </c>
       <c r="AG207" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="208" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35">
       <c r="A208" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V208" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD208" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF208" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>35</v>
       </c>
       <c r="AG208" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="209" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V209" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD209" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF209" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>35</v>
       </c>
       <c r="AG209" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34">
       <c r="A210" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB210" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="AC210" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="211" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34">
       <c r="A211" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="212" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34">
       <c r="A213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC213" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="214" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:34">
       <c r="A214" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V214" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG214" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="215" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:34">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V215" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG215" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="216" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34">
       <c r="A216" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="217" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34">
       <c r="A217" t="s">
-        <v>249</v>
-      </c>
-      <c r="W217" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="X217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z217" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="218" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:34">
       <c r="A218" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:34">
       <c r="A219" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA219" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="AB219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC219" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:34">
       <c r="A220" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="AB220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC220" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:34">
       <c r="A221" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA221" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="AB221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC221" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="222" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:34">
       <c r="A222" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA222" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="AB222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC222" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="223" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:34">
       <c r="A223" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA223" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="AB223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC223" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:34">
       <c r="A224" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA224" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="AB224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC224" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35">
       <c r="A225" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S225" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35">
       <c r="A226" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:34">
+        <v>259</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35">
       <c r="A227" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T227" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD227" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF227" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35">
       <c r="A228" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y228" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="229" spans="1:34">
+        <v>261</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35">
       <c r="A229" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y229" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="230" spans="1:34">
+        <v>262</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:35">
       <c r="A230" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q230" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="231" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35">
       <c r="A231" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S231" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="232" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35">
       <c r="A232" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC232" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE232" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH232" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35">
       <c r="A233" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC233" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE233" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH233" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35">
       <c r="A234" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC234" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE234" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH234" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:35">
       <c r="A235" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC235" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE235" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH235" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:35">
       <c r="A236" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q236" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:35">
       <c r="A237" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V237" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG237" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:35">
       <c r="A238" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V238" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="239" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:35">
       <c r="A239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V239" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35">
       <c r="A240" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="241" spans="1:33">
+        <v>273</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="1:34">
       <c r="A241" t="s">
-        <v>273</v>
-      </c>
-      <c r="X241" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="Y241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z241" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:34">
       <c r="A242" t="s">
-        <v>274</v>
-      </c>
-      <c r="X242" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="Y242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z242" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="243" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:34">
       <c r="A243" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H243" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K243" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O243" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="244" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:34">
       <c r="A244" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O244" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="245" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:34">
       <c r="A245" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O245" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="246" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:34">
       <c r="A246" t="s">
-        <v>278</v>
-      </c>
-      <c r="W246" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="247" spans="1:33">
+        <v>279</v>
+      </c>
+      <c r="X246" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:34">
       <c r="A247" t="s">
-        <v>279</v>
-      </c>
-      <c r="W247" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="248" spans="1:33">
+        <v>280</v>
+      </c>
+      <c r="X247" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:34">
       <c r="A248" t="s">
-        <v>280</v>
-      </c>
-      <c r="W248" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="249" spans="1:33">
+        <v>281</v>
+      </c>
+      <c r="X248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:34">
       <c r="A249" t="s">
-        <v>281</v>
-      </c>
-      <c r="W249" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="250" spans="1:33">
+        <v>282</v>
+      </c>
+      <c r="X249" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:34">
       <c r="A250" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG250" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="251" spans="1:33">
+        <v>283</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:34">
       <c r="A251" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF251" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="252" spans="1:33">
+        <v>284</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:34">
       <c r="A252" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L252" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q252" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="253" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:34">
       <c r="A253" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P253" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="254" spans="1:33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254" spans="1:34">
       <c r="A254" t="s">
-        <v>286</v>
-      </c>
-      <c r="X254" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="Y254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z254" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="255" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:34">
       <c r="A255" t="s">
-        <v>287</v>
-      </c>
-      <c r="X255" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="Y255" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z255" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="256" spans="1:33">
+        <v>35</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:34">
       <c r="A256" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z256" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="257" spans="1:34">
+        <v>289</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:35">
       <c r="A257" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z257" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="258" spans="1:34">
+        <v>290</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:35">
       <c r="A258" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z258" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="259" spans="1:34">
+        <v>291</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:35">
       <c r="A259" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z259" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="260" spans="1:34">
+        <v>292</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:35">
       <c r="A260" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V260" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH260" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="261" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:35">
       <c r="A261" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V261" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="262" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:35">
       <c r="A262" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA262" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="263" spans="1:34">
+        <v>295</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="263" spans="1:35">
       <c r="A263" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA263" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="264" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:35">
       <c r="A264" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E264" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA264" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="265" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:35">
       <c r="A265" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA265" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="266" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:35">
       <c r="A266" t="s">
-        <v>298</v>
-      </c>
-      <c r="X266" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="Y266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z266" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="267" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:35">
       <c r="A267" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB267" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="268" spans="1:34">
+        <v>300</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268" spans="1:35">
       <c r="A268" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="269" spans="1:34">
+        <v>301</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:35">
       <c r="A269" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB269" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="270" spans="1:34">
+        <v>302</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:35">
       <c r="A270" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C270" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="271" spans="1:34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:35">
       <c r="A271" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V271" t="s">
-        <v>34</v>
-      </c>
-      <c r="X271" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="W271" t="s">
+        <v>35</v>
       </c>
       <c r="Y271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB271" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD271" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>35</v>
       </c>
       <c r="AE271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH271" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="272" spans="1:34">
+        <v>35</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:35">
       <c r="A272" t="s">
-        <v>304</v>
-      </c>
-      <c r="W272" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24">
+        <v>305</v>
+      </c>
+      <c r="X272" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25">
       <c r="A273" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R273" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25">
       <c r="A274" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R274" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25">
       <c r="A275" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V275" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25">
       <c r="A276" t="s">
-        <v>308</v>
-      </c>
-      <c r="X276" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24">
+        <v>309</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25">
       <c r="A277" t="s">
-        <v>309</v>
-      </c>
-      <c r="X277" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24">
+        <v>310</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25">
       <c r="A278" t="s">
-        <v>310</v>
-      </c>
-      <c r="W278" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24">
+        <v>311</v>
+      </c>
+      <c r="X278" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25">
       <c r="A279" t="s">
-        <v>311</v>
-      </c>
-      <c r="W279" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="280" spans="1:24">
+        <v>312</v>
+      </c>
+      <c r="X279" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25">
       <c r="A280" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V280" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25">
       <c r="A281" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V281" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25">
       <c r="A282" t="s">
-        <v>314</v>
-      </c>
-      <c r="X282" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24">
+        <v>315</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25">
       <c r="A283" t="s">
-        <v>315</v>
-      </c>
-      <c r="X283" t="s">
-        <v>34</v>
+        <v>316</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="340">
   <si>
     <t>af</t>
   </si>
@@ -7092,6 +7092,9 @@
       <c r="A99" t="s">
         <v>134</v>
       </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
       <c r="L99" t="s">
         <v>37</v>
       </c>
@@ -7105,6 +7108,9 @@
         <v>37</v>
       </c>
       <c r="AC99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI99" t="s">
         <v>37</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="340">
   <si>
     <t>af</t>
   </si>
@@ -7095,9 +7095,33 @@
       <c r="B99" t="s">
         <v>37</v>
       </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>37</v>
+      </c>
       <c r="L99" t="s">
         <v>37</v>
       </c>
+      <c r="O99" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" t="s">
+        <v>37</v>
+      </c>
+      <c r="R99" t="s">
+        <v>37</v>
+      </c>
+      <c r="U99" t="s">
+        <v>37</v>
+      </c>
       <c r="X99" t="s">
         <v>37</v>
       </c>
@@ -7110,7 +7134,22 @@
       <c r="AC99" t="s">
         <v>37</v>
       </c>
+      <c r="AD99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>37</v>
+      </c>
       <c r="AI99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK99" t="s">
         <v>37</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="360">
+  <si>
+    <t>10x-multiome</t>
+  </si>
   <si>
     <t>af</t>
   </si>
@@ -3989,12 +3992,30 @@
     <t>codex</t>
   </si>
   <si>
+    <t>confocal</t>
+  </si>
+  <si>
     <t>contributors</t>
   </si>
   <si>
+    <t>cosmx</t>
+  </si>
+  <si>
+    <t>dbit</t>
+  </si>
+  <si>
+    <t>desi</t>
+  </si>
+  <si>
     <t>gcms</t>
   </si>
   <si>
+    <t>geomx</t>
+  </si>
+  <si>
+    <t>hifi-slide</t>
+  </si>
+  <si>
     <t>histology</t>
   </si>
   <si>
@@ -4013,6 +4034,15 @@
     <t>lightsheet</t>
   </si>
   <si>
+    <t>maldi</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>merfish</t>
+  </si>
+  <si>
     <t>mibi</t>
   </si>
   <si>
@@ -4028,15 +4058,27 @@
     <t>nano</t>
   </si>
   <si>
+    <t>nano-desi</t>
+  </si>
+  <si>
     <t>oct</t>
   </si>
   <si>
     <t>organ</t>
   </si>
   <si>
+    <t>phenocycler</t>
+  </si>
+  <si>
     <t>publication</t>
   </si>
   <si>
+    <t>rnaseq-geomx</t>
+  </si>
+  <si>
+    <t>rnaseq-visium</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
   <si>
@@ -4061,16 +4103,34 @@
     <t>seqfish</t>
   </si>
   <si>
+    <t>shg</t>
+  </si>
+  <si>
+    <t>sims</t>
+  </si>
+  <si>
     <t>slideseq</t>
   </si>
   <si>
+    <t>srs</t>
+  </si>
+  <si>
     <t>stained</t>
   </si>
   <si>
+    <t>tsm-mxif</t>
+  </si>
+  <si>
     <t>ultrasound</t>
   </si>
   <si>
+    <t>visium</t>
+  </si>
+  <si>
     <t>wgs</t>
+  </si>
+  <si>
+    <t>xenium</t>
   </si>
   <si>
     <t>ablation_distance_between_shots_x_units</t>
@@ -5323,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK304"/>
+  <dimension ref="A1:BE304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5335,10 +5395,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="37" width="2.7109375" customWidth="1"/>
+    <col min="2" max="57" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5447,5045 +5507,5321 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>59</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>62</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <v>63</v>
+      </c>
+      <c r="T8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W9" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>57</v>
       </c>
       <c r="AD9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>57</v>
       </c>
       <c r="AD10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>66</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>67</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>57</v>
       </c>
       <c r="AE14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57">
       <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+        <v>74</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W21" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>57</v>
       </c>
       <c r="AD21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AG21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X22" t="s">
+        <v>57</v>
       </c>
       <c r="Y22" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>57</v>
       </c>
       <c r="AD22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AG22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57">
       <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>78</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57">
       <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+        <v>79</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57">
       <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+        <v>80</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57">
       <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57">
       <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32">
+        <v>87</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32">
+        <v>88</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32">
+        <v>93</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32">
+        <v>94</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32">
+        <v>95</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="T42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32">
+        <v>97</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32">
+        <v>98</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32">
+        <v>99</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46">
       <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32">
+        <v>100</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
       <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32">
+        <v>101</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46">
       <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32">
+        <v>102</v>
+      </c>
+      <c r="P47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46">
       <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="K48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37">
+        <v>103</v>
+      </c>
+      <c r="P48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56">
       <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="K49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37">
+        <v>104</v>
+      </c>
+      <c r="P49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56">
       <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+        <v>105</v>
+      </c>
+      <c r="P50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56">
       <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="K51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
+        <v>106</v>
+      </c>
+      <c r="P51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56">
       <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="K52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56">
       <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+        <v>108</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56">
       <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56">
       <c r="A55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56">
       <c r="A56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56">
       <c r="A57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56">
       <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58" t="s">
-        <v>37</v>
-      </c>
-      <c r="N58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O58" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>37</v>
-      </c>
-      <c r="R58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W58" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>57</v>
       </c>
       <c r="AD58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AK58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56">
       <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="S59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37">
+        <v>114</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56">
       <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="S60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
+        <v>115</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56">
       <c r="A61" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" t="s">
-        <v>37</v>
-      </c>
-      <c r="K61" t="s">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="I61" t="s">
+        <v>57</v>
       </c>
       <c r="P61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="W61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56">
       <c r="A62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>37</v>
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-      <c r="K62" t="s">
-        <v>37</v>
-      </c>
-      <c r="M62" t="s">
-        <v>37</v>
-      </c>
-      <c r="N62" t="s">
-        <v>37</v>
-      </c>
-      <c r="O62" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
       </c>
       <c r="P62" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>37</v>
-      </c>
-      <c r="R62" t="s">
-        <v>37</v>
-      </c>
-      <c r="S62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W62" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>57</v>
       </c>
       <c r="AD62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF62" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH62" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AK62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56">
       <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="M63" t="s">
-        <v>37</v>
-      </c>
-      <c r="R63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37">
+        <v>118</v>
+      </c>
+      <c r="T63" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56">
       <c r="A64" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" t="s">
-        <v>37</v>
-      </c>
-      <c r="M64" t="s">
-        <v>37</v>
-      </c>
-      <c r="N64" t="s">
-        <v>37</v>
-      </c>
-      <c r="O64" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
       </c>
       <c r="P64" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>37</v>
-      </c>
-      <c r="R64" t="s">
-        <v>37</v>
-      </c>
-      <c r="S64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W64" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>57</v>
       </c>
       <c r="AD64" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE64" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>57</v>
       </c>
       <c r="AH64" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:56">
       <c r="A65" t="s">
-        <v>100</v>
-      </c>
-      <c r="O65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37">
+        <v>120</v>
+      </c>
+      <c r="V65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:56">
       <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="O66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37">
+        <v>121</v>
+      </c>
+      <c r="V66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:56">
       <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="O67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37">
+        <v>122</v>
+      </c>
+      <c r="V67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56">
       <c r="A68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56">
       <c r="A69" t="s">
-        <v>104</v>
-      </c>
-      <c r="P69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37">
+        <v>124</v>
+      </c>
+      <c r="W69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56">
       <c r="A70" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37">
+        <v>125</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:56">
       <c r="A71" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37">
+        <v>126</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:56">
       <c r="A72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" t="s">
-        <v>37</v>
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
-      </c>
-      <c r="K72" t="s">
-        <v>37</v>
-      </c>
-      <c r="M72" t="s">
-        <v>37</v>
-      </c>
-      <c r="N72" t="s">
-        <v>37</v>
-      </c>
-      <c r="O72" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
       </c>
       <c r="P72" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>37</v>
-      </c>
-      <c r="R72" t="s">
-        <v>37</v>
-      </c>
-      <c r="S72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W72" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>57</v>
       </c>
       <c r="AD72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF72" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH72" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56">
       <c r="A73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M73" t="s">
-        <v>37</v>
-      </c>
-      <c r="R73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37">
+        <v>128</v>
+      </c>
+      <c r="T73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:56">
       <c r="A74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37">
+        <v>129</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:56">
       <c r="A75" t="s">
-        <v>110</v>
-      </c>
-      <c r="T75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37">
+        <v>130</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56">
       <c r="A76" t="s">
-        <v>111</v>
-      </c>
-      <c r="T76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37">
+        <v>131</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:56">
       <c r="A77" t="s">
-        <v>112</v>
-      </c>
-      <c r="M77" t="s">
-        <v>37</v>
-      </c>
-      <c r="R77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37">
+        <v>132</v>
+      </c>
+      <c r="T77" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:56">
       <c r="A78" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
-      </c>
-      <c r="K78" t="s">
-        <v>37</v>
-      </c>
-      <c r="M78" t="s">
-        <v>37</v>
-      </c>
-      <c r="N78" t="s">
-        <v>37</v>
-      </c>
-      <c r="O78" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J78" t="s">
+        <v>57</v>
       </c>
       <c r="P78" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>37</v>
-      </c>
-      <c r="R78" t="s">
-        <v>37</v>
-      </c>
-      <c r="S78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W78" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>57</v>
       </c>
       <c r="AD78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:56">
       <c r="A79" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:56">
       <c r="A80" t="s">
-        <v>115</v>
-      </c>
-      <c r="T80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:56">
       <c r="A81" t="s">
-        <v>116</v>
-      </c>
-      <c r="T81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:56">
       <c r="A82" t="s">
-        <v>117</v>
-      </c>
-      <c r="S82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:56">
       <c r="A83" t="s">
-        <v>118</v>
-      </c>
-      <c r="J83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="L83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:56">
       <c r="A84" t="s">
-        <v>119</v>
-      </c>
-      <c r="T84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:56">
       <c r="A85" t="s">
-        <v>120</v>
-      </c>
-      <c r="T85" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:56">
       <c r="A86" t="s">
-        <v>121</v>
-      </c>
-      <c r="T86" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37">
+        <v>141</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:56">
       <c r="A87" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK87" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:37">
+        <v>142</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:56">
       <c r="A88" t="s">
-        <v>123</v>
-      </c>
-      <c r="K88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:37">
+        <v>143</v>
+      </c>
+      <c r="P88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:56">
       <c r="A89" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:37">
+        <v>144</v>
+      </c>
+      <c r="BB89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:56">
       <c r="A90" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:37">
+        <v>145</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:56">
       <c r="A91" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:37">
+        <v>146</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:56">
       <c r="A92" t="s">
-        <v>127</v>
-      </c>
-      <c r="S92" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:37">
+        <v>147</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:56">
       <c r="A93" t="s">
-        <v>128</v>
-      </c>
-      <c r="S93" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:37">
+        <v>148</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:56">
       <c r="A94" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:37">
+        <v>149</v>
+      </c>
+      <c r="X94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:56">
       <c r="A95" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:37">
+        <v>150</v>
+      </c>
+      <c r="X95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:56">
       <c r="A96" t="s">
-        <v>131</v>
-      </c>
-      <c r="K96" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:37">
+        <v>151</v>
+      </c>
+      <c r="P96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:57">
       <c r="A97" t="s">
-        <v>132</v>
-      </c>
-      <c r="H97" t="s">
-        <v>37</v>
-      </c>
-      <c r="K97" t="s">
-        <v>37</v>
-      </c>
-      <c r="O97" t="s">
-        <v>37</v>
+        <v>152</v>
+      </c>
+      <c r="I97" t="s">
+        <v>57</v>
       </c>
       <c r="P97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="V97" t="s">
+        <v>57</v>
+      </c>
+      <c r="W97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:57">
       <c r="A98" t="s">
-        <v>133</v>
-      </c>
-      <c r="K98" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:37">
+        <v>153</v>
+      </c>
+      <c r="P98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:57">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="H99" t="s">
+        <v>57</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
-      </c>
-      <c r="L99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J99" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99" t="s">
+        <v>57</v>
+      </c>
+      <c r="N99" t="s">
+        <v>57</v>
       </c>
       <c r="O99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="S99" t="s">
+        <v>57</v>
+      </c>
+      <c r="T99" t="s">
+        <v>57</v>
       </c>
       <c r="U99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="V99" t="s">
+        <v>57</v>
+      </c>
+      <c r="W99" t="s">
+        <v>57</v>
       </c>
       <c r="X99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>57</v>
       </c>
       <c r="AA99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AD99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE99" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>57</v>
       </c>
       <c r="AH99" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AI99" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>57</v>
       </c>
       <c r="AK99" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ99" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA99" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB99" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC99" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD99" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:57">
       <c r="A100" t="s">
-        <v>135</v>
-      </c>
-      <c r="J100" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:37">
+        <v>155</v>
+      </c>
+      <c r="L100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:57">
       <c r="A101" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" t="s">
-        <v>37</v>
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>57</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I101" t="s">
-        <v>37</v>
-      </c>
-      <c r="K101" t="s">
-        <v>37</v>
-      </c>
-      <c r="M101" t="s">
-        <v>37</v>
-      </c>
-      <c r="N101" t="s">
-        <v>37</v>
-      </c>
-      <c r="O101" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J101" t="s">
+        <v>57</v>
       </c>
       <c r="P101" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>37</v>
-      </c>
-      <c r="R101" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="T101" t="s">
+        <v>57</v>
       </c>
       <c r="U101" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V101" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="W101" t="s">
+        <v>57</v>
+      </c>
+      <c r="X101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>57</v>
       </c>
       <c r="AE101" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF101" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI101" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK101" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ101" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:57">
       <c r="A102" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:37">
+        <v>157</v>
+      </c>
+      <c r="F102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:57">
       <c r="A103" t="s">
-        <v>138</v>
-      </c>
-      <c r="X103" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:37">
+        <v>158</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:57">
       <c r="A104" t="s">
-        <v>139</v>
-      </c>
-      <c r="P104" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:37">
+        <v>159</v>
+      </c>
+      <c r="W104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:57">
       <c r="A105" t="s">
-        <v>140</v>
-      </c>
-      <c r="H105" t="s">
-        <v>37</v>
-      </c>
-      <c r="K105" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="I105" t="s">
+        <v>57</v>
       </c>
       <c r="P105" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="W105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:57">
       <c r="A106" t="s">
-        <v>141</v>
-      </c>
-      <c r="J106" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:37">
+        <v>161</v>
+      </c>
+      <c r="L106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:57">
       <c r="A107" t="s">
-        <v>142</v>
-      </c>
-      <c r="X107" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:37">
+        <v>162</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:57">
       <c r="A108" t="s">
-        <v>143</v>
-      </c>
-      <c r="P108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:37">
+        <v>163</v>
+      </c>
+      <c r="W108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:57">
       <c r="A109" t="s">
-        <v>144</v>
-      </c>
-      <c r="P109" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:37">
+        <v>164</v>
+      </c>
+      <c r="W109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:57">
       <c r="A110" t="s">
-        <v>145</v>
-      </c>
-      <c r="P110" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37">
+        <v>165</v>
+      </c>
+      <c r="W110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:57">
       <c r="A111" t="s">
-        <v>146</v>
-      </c>
-      <c r="P111" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:37">
+        <v>166</v>
+      </c>
+      <c r="W111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:57">
       <c r="A112" t="s">
-        <v>147</v>
-      </c>
-      <c r="P112" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:37">
+        <v>167</v>
+      </c>
+      <c r="W112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:56">
       <c r="A113" t="s">
-        <v>148</v>
-      </c>
-      <c r="P113" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:37">
+        <v>168</v>
+      </c>
+      <c r="W113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:56">
       <c r="A114" t="s">
-        <v>149</v>
-      </c>
-      <c r="P114" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:37">
+        <v>169</v>
+      </c>
+      <c r="W114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:56">
       <c r="A115" t="s">
-        <v>150</v>
-      </c>
-      <c r="P115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:37">
+        <v>170</v>
+      </c>
+      <c r="W115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:56">
       <c r="A116" t="s">
-        <v>151</v>
-      </c>
-      <c r="P116" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:37">
+        <v>171</v>
+      </c>
+      <c r="W116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:56">
       <c r="A117" t="s">
-        <v>152</v>
-      </c>
-      <c r="P117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37">
+        <v>172</v>
+      </c>
+      <c r="W117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:56">
       <c r="A118" t="s">
-        <v>153</v>
-      </c>
-      <c r="P118" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37">
+        <v>173</v>
+      </c>
+      <c r="W118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:56">
       <c r="A119" t="s">
-        <v>154</v>
-      </c>
-      <c r="P119" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37">
+        <v>174</v>
+      </c>
+      <c r="W119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:56">
       <c r="A120" t="s">
-        <v>155</v>
-      </c>
-      <c r="P120" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:37">
+        <v>175</v>
+      </c>
+      <c r="W120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:56">
       <c r="A121" t="s">
-        <v>156</v>
-      </c>
-      <c r="P121" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:37">
+        <v>176</v>
+      </c>
+      <c r="W121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:56">
       <c r="A122" t="s">
-        <v>157</v>
-      </c>
-      <c r="P122" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37">
+        <v>177</v>
+      </c>
+      <c r="W122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:56">
       <c r="A123" t="s">
-        <v>158</v>
-      </c>
-      <c r="P123" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:37">
+        <v>178</v>
+      </c>
+      <c r="W123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:56">
       <c r="A124" t="s">
-        <v>159</v>
-      </c>
-      <c r="E124" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK124" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX124" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:56">
       <c r="A125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK125" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX125" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:56">
       <c r="A126" t="s">
-        <v>161</v>
-      </c>
-      <c r="E126" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:37">
+        <v>181</v>
+      </c>
+      <c r="F126" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:56">
       <c r="A127" t="s">
-        <v>162</v>
-      </c>
-      <c r="E127" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:37">
+        <v>182</v>
+      </c>
+      <c r="F127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:56">
       <c r="A128" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37">
+        <v>183</v>
+      </c>
+      <c r="BD128" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:56">
       <c r="A129" t="s">
-        <v>164</v>
-      </c>
-      <c r="E129" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH129" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK129" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX129" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD129" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:56">
       <c r="A130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37">
+        <v>185</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:56">
       <c r="A131" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD131" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK131" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37">
+        <v>186</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:56">
       <c r="A132" t="s">
-        <v>167</v>
-      </c>
-      <c r="E132" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD132" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE132" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF132" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH132" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK132" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX132" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD132" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:56">
       <c r="A133" t="s">
-        <v>168</v>
-      </c>
-      <c r="E133" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE133" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF133" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH133" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G133" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS133" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT133" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX133" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:56">
       <c r="A134" t="s">
-        <v>169</v>
-      </c>
-      <c r="E134" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD134" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE134" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF134" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:37">
+        <v>189</v>
+      </c>
+      <c r="F134" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS134" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:56">
       <c r="A135" t="s">
-        <v>170</v>
-      </c>
-      <c r="E135" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD135" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE135" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF135" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH135" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G135" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR135" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS135" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT135" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX135" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:56">
       <c r="A136" t="s">
-        <v>171</v>
-      </c>
-      <c r="E136" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD136" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF136" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" spans="1:37">
+        <v>191</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:56">
       <c r="A137" t="s">
-        <v>172</v>
-      </c>
-      <c r="F137" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD137" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE137" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF137" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH137" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:37">
+        <v>192</v>
+      </c>
+      <c r="G137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:56">
       <c r="A138" t="s">
-        <v>173</v>
-      </c>
-      <c r="E138" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:37">
+        <v>193</v>
+      </c>
+      <c r="F138" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:56">
       <c r="A139" t="s">
-        <v>174</v>
-      </c>
-      <c r="C139" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:37">
+        <v>194</v>
+      </c>
+      <c r="D139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:56">
       <c r="A140" t="s">
-        <v>175</v>
-      </c>
-      <c r="H140" t="s">
-        <v>37</v>
-      </c>
-      <c r="K140" t="s">
-        <v>37</v>
-      </c>
-      <c r="O140" t="s">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="I140" t="s">
+        <v>57</v>
       </c>
       <c r="P140" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="V140" t="s">
+        <v>57</v>
+      </c>
+      <c r="W140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:56">
       <c r="A141" t="s">
-        <v>176</v>
-      </c>
-      <c r="D141" t="s">
-        <v>37</v>
-      </c>
-      <c r="M141" t="s">
-        <v>37</v>
-      </c>
-      <c r="N141" t="s">
-        <v>37</v>
-      </c>
-      <c r="R141" t="s">
-        <v>37</v>
-      </c>
-      <c r="S141" t="s">
-        <v>37</v>
+        <v>196</v>
+      </c>
+      <c r="E141" t="s">
+        <v>57</v>
       </c>
       <c r="T141" t="s">
-        <v>37</v>
-      </c>
-      <c r="W141" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="U141" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:56">
       <c r="A142" t="s">
-        <v>177</v>
-      </c>
-      <c r="D142" t="s">
-        <v>37</v>
-      </c>
-      <c r="M142" t="s">
-        <v>37</v>
-      </c>
-      <c r="N142" t="s">
-        <v>37</v>
-      </c>
-      <c r="R142" t="s">
-        <v>37</v>
-      </c>
-      <c r="S142" t="s">
-        <v>37</v>
+        <v>197</v>
+      </c>
+      <c r="E142" t="s">
+        <v>57</v>
       </c>
       <c r="T142" t="s">
-        <v>37</v>
-      </c>
-      <c r="W142" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="U142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:56">
       <c r="A143" t="s">
-        <v>178</v>
-      </c>
-      <c r="D143" t="s">
-        <v>37</v>
-      </c>
-      <c r="M143" t="s">
-        <v>37</v>
-      </c>
-      <c r="N143" t="s">
-        <v>37</v>
-      </c>
-      <c r="R143" t="s">
-        <v>37</v>
-      </c>
-      <c r="S143" t="s">
-        <v>37</v>
+        <v>198</v>
+      </c>
+      <c r="E143" t="s">
+        <v>57</v>
       </c>
       <c r="T143" t="s">
-        <v>37</v>
-      </c>
-      <c r="W143" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="U143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:56">
       <c r="A144" t="s">
-        <v>179</v>
-      </c>
-      <c r="D144" t="s">
-        <v>37</v>
-      </c>
-      <c r="M144" t="s">
-        <v>37</v>
-      </c>
-      <c r="N144" t="s">
-        <v>37</v>
-      </c>
-      <c r="R144" t="s">
-        <v>37</v>
-      </c>
-      <c r="S144" t="s">
-        <v>37</v>
+        <v>199</v>
+      </c>
+      <c r="E144" t="s">
+        <v>57</v>
       </c>
       <c r="T144" t="s">
-        <v>37</v>
-      </c>
-      <c r="W144" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="U144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB144" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:47">
       <c r="A145" t="s">
-        <v>180</v>
-      </c>
-      <c r="J145" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:33">
+        <v>200</v>
+      </c>
+      <c r="L145" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:47">
       <c r="A146" t="s">
-        <v>181</v>
-      </c>
-      <c r="H146" t="s">
-        <v>37</v>
-      </c>
-      <c r="K146" t="s">
-        <v>37</v>
-      </c>
-      <c r="O146" t="s">
-        <v>37</v>
+        <v>201</v>
+      </c>
+      <c r="I146" t="s">
+        <v>57</v>
       </c>
       <c r="P146" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="V146" t="s">
+        <v>57</v>
+      </c>
+      <c r="W146" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:47">
       <c r="A147" t="s">
-        <v>182</v>
-      </c>
-      <c r="H147" t="s">
-        <v>37</v>
-      </c>
-      <c r="K147" t="s">
-        <v>37</v>
-      </c>
-      <c r="O147" t="s">
-        <v>37</v>
+        <v>202</v>
+      </c>
+      <c r="I147" t="s">
+        <v>57</v>
       </c>
       <c r="P147" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V147" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="W147" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF147" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:47">
       <c r="A148" t="s">
-        <v>183</v>
-      </c>
-      <c r="H148" t="s">
-        <v>37</v>
-      </c>
-      <c r="K148" t="s">
-        <v>37</v>
-      </c>
-      <c r="O148" t="s">
-        <v>37</v>
+        <v>203</v>
+      </c>
+      <c r="I148" t="s">
+        <v>57</v>
       </c>
       <c r="P148" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V148" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="W148" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:47">
       <c r="A149" t="s">
-        <v>184</v>
-      </c>
-      <c r="H149" t="s">
-        <v>37</v>
-      </c>
-      <c r="K149" t="s">
-        <v>37</v>
-      </c>
-      <c r="O149" t="s">
-        <v>37</v>
+        <v>204</v>
+      </c>
+      <c r="I149" t="s">
+        <v>57</v>
       </c>
       <c r="P149" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V149" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="W149" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:47">
       <c r="A150" t="s">
-        <v>185</v>
-      </c>
-      <c r="H150" t="s">
-        <v>37</v>
-      </c>
-      <c r="K150" t="s">
-        <v>37</v>
-      </c>
-      <c r="O150" t="s">
-        <v>37</v>
+        <v>205</v>
+      </c>
+      <c r="I150" t="s">
+        <v>57</v>
       </c>
       <c r="P150" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="V150" t="s">
+        <v>57</v>
+      </c>
+      <c r="W150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:47">
       <c r="A151" t="s">
-        <v>186</v>
-      </c>
-      <c r="J151" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33">
+        <v>206</v>
+      </c>
+      <c r="L151" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:47">
       <c r="A152" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC152" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:33">
+        <v>207</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:47">
       <c r="A153" t="s">
-        <v>188</v>
-      </c>
-      <c r="G153" t="s">
-        <v>37</v>
-      </c>
-      <c r="I153" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>37</v>
-      </c>
-      <c r="R153" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:33">
+        <v>208</v>
+      </c>
+      <c r="H153" t="s">
+        <v>57</v>
+      </c>
+      <c r="J153" t="s">
+        <v>57</v>
+      </c>
+      <c r="X153" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:47">
       <c r="A154" t="s">
-        <v>189</v>
-      </c>
-      <c r="T154" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33">
+        <v>209</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:47">
       <c r="A155" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG155" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33">
+        <v>210</v>
+      </c>
+      <c r="AU155" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:47">
       <c r="A156" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG156" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33">
+        <v>211</v>
+      </c>
+      <c r="AU156" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:47">
       <c r="A157" t="s">
-        <v>192</v>
-      </c>
-      <c r="B157" t="s">
-        <v>37</v>
-      </c>
-      <c r="G157" t="s">
-        <v>37</v>
-      </c>
-      <c r="I157" t="s">
-        <v>37</v>
-      </c>
-      <c r="M157" t="s">
-        <v>37</v>
-      </c>
-      <c r="N157" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>37</v>
-      </c>
-      <c r="R157" t="s">
-        <v>37</v>
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>57</v>
+      </c>
+      <c r="H157" t="s">
+        <v>57</v>
+      </c>
+      <c r="J157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>57</v>
       </c>
       <c r="U157" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="X157" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:47">
       <c r="A158" t="s">
-        <v>193</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
-      <c r="I158" t="s">
-        <v>37</v>
-      </c>
-      <c r="U158" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG158" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:33">
+        <v>213</v>
+      </c>
+      <c r="H158" t="s">
+        <v>57</v>
+      </c>
+      <c r="J158" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU158" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:47">
       <c r="A159" t="s">
-        <v>194</v>
-      </c>
-      <c r="T159" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:33">
+        <v>214</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:47">
       <c r="A160" t="s">
-        <v>195</v>
-      </c>
-      <c r="T160" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:37">
+        <v>215</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:56">
       <c r="A161" t="s">
-        <v>196</v>
-      </c>
-      <c r="D161" t="s">
-        <v>37</v>
-      </c>
-      <c r="S161" t="s">
-        <v>37</v>
-      </c>
-      <c r="T161" t="s">
-        <v>37</v>
-      </c>
-      <c r="W161" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:37">
+        <v>216</v>
+      </c>
+      <c r="E161" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:56">
       <c r="A162" t="s">
-        <v>197</v>
-      </c>
-      <c r="G162" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:37">
+        <v>217</v>
+      </c>
+      <c r="H162" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:56">
       <c r="A163" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG163" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:37">
+        <v>218</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:56">
       <c r="A164" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG164" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="165" spans="1:37">
+        <v>219</v>
+      </c>
+      <c r="AU164" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:56">
       <c r="A165" t="s">
-        <v>200</v>
-      </c>
-      <c r="N165" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:37">
+        <v>220</v>
+      </c>
+      <c r="U165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:56">
       <c r="A166" t="s">
-        <v>201</v>
-      </c>
-      <c r="B166" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" t="s">
-        <v>37</v>
+        <v>221</v>
+      </c>
+      <c r="C166" t="s">
+        <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I166" t="s">
-        <v>37</v>
-      </c>
-      <c r="K166" t="s">
-        <v>37</v>
-      </c>
-      <c r="M166" t="s">
-        <v>37</v>
-      </c>
-      <c r="N166" t="s">
-        <v>37</v>
-      </c>
-      <c r="O166" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J166" t="s">
+        <v>57</v>
       </c>
       <c r="P166" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>37</v>
-      </c>
-      <c r="R166" t="s">
-        <v>37</v>
-      </c>
-      <c r="S166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W166" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>57</v>
       </c>
       <c r="AD166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF166" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG166" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH166" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI166" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ166" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK166" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:56">
       <c r="A167" t="s">
-        <v>202</v>
-      </c>
-      <c r="B167" t="s">
-        <v>37</v>
-      </c>
-      <c r="D167" t="s">
-        <v>37</v>
+        <v>222</v>
+      </c>
+      <c r="C167" t="s">
+        <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I167" t="s">
-        <v>37</v>
-      </c>
-      <c r="K167" t="s">
-        <v>37</v>
-      </c>
-      <c r="M167" t="s">
-        <v>37</v>
-      </c>
-      <c r="N167" t="s">
-        <v>37</v>
-      </c>
-      <c r="O167" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J167" t="s">
+        <v>57</v>
       </c>
       <c r="P167" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>37</v>
-      </c>
-      <c r="R167" t="s">
-        <v>37</v>
-      </c>
-      <c r="S167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W167" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>57</v>
       </c>
       <c r="AD167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF167" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG167" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH167" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI167" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ167" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK167" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ167" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:56">
       <c r="A168" t="s">
-        <v>203</v>
-      </c>
-      <c r="J168" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:37">
+        <v>223</v>
+      </c>
+      <c r="L168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:56">
       <c r="A169" t="s">
-        <v>204</v>
-      </c>
-      <c r="X169" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z169" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:37">
+        <v>224</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:56">
       <c r="A170" t="s">
-        <v>205</v>
-      </c>
-      <c r="X170" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:37">
+        <v>225</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:56">
       <c r="A171" t="s">
-        <v>206</v>
-      </c>
-      <c r="X171" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" spans="1:37">
+        <v>226</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:56">
       <c r="A172" t="s">
-        <v>207</v>
-      </c>
-      <c r="X172" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:37">
+        <v>227</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:56">
       <c r="A173" t="s">
-        <v>208</v>
-      </c>
-      <c r="X173" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:37">
+        <v>228</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:56">
       <c r="A174" t="s">
-        <v>209</v>
-      </c>
-      <c r="X174" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:37">
+        <v>229</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:56">
       <c r="A175" t="s">
-        <v>210</v>
-      </c>
-      <c r="X175" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:37">
+        <v>230</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:56">
       <c r="A176" t="s">
-        <v>211</v>
-      </c>
-      <c r="X176" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:37">
+        <v>231</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:56">
       <c r="A177" t="s">
-        <v>212</v>
-      </c>
-      <c r="X177" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="178" spans="1:37">
+        <v>232</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:56">
       <c r="A178" t="s">
-        <v>213</v>
-      </c>
-      <c r="X178" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:37">
+        <v>233</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:56">
       <c r="A179" t="s">
-        <v>214</v>
-      </c>
-      <c r="X179" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:37">
+        <v>234</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:56">
       <c r="A180" t="s">
-        <v>215</v>
-      </c>
-      <c r="B180" t="s">
-        <v>37</v>
-      </c>
-      <c r="G180" t="s">
-        <v>37</v>
+        <v>235</v>
+      </c>
+      <c r="C180" t="s">
+        <v>57</v>
       </c>
       <c r="H180" t="s">
-        <v>37</v>
-      </c>
-      <c r="K180" t="s">
-        <v>37</v>
-      </c>
-      <c r="O180" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="I180" t="s">
+        <v>57</v>
       </c>
       <c r="P180" t="s">
-        <v>37</v>
-      </c>
-      <c r="U180" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V180" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI180" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="W180" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ180" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:56">
       <c r="A181" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:37">
+        <v>236</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:56">
       <c r="A182" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA182" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="1:37">
+        <v>237</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:56">
       <c r="A183" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA183" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:37">
+        <v>238</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:56">
       <c r="A184" t="s">
-        <v>219</v>
-      </c>
-      <c r="X184" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:37">
+        <v>239</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:56">
       <c r="A185" t="s">
-        <v>220</v>
-      </c>
-      <c r="X185" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z185" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:37">
+        <v>240</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:56">
       <c r="A186" t="s">
-        <v>221</v>
-      </c>
-      <c r="B186" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" t="s">
-        <v>37</v>
+        <v>241</v>
+      </c>
+      <c r="C186" t="s">
+        <v>57</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I186" t="s">
-        <v>37</v>
-      </c>
-      <c r="K186" t="s">
-        <v>37</v>
-      </c>
-      <c r="M186" t="s">
-        <v>37</v>
-      </c>
-      <c r="N186" t="s">
-        <v>37</v>
-      </c>
-      <c r="O186" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J186" t="s">
+        <v>57</v>
       </c>
       <c r="P186" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>37</v>
-      </c>
-      <c r="R186" t="s">
-        <v>37</v>
-      </c>
-      <c r="S186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W186" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>57</v>
       </c>
       <c r="AD186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF186" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH186" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI186" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ186" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX186" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ186" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB186" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:56">
       <c r="A187" t="s">
-        <v>222</v>
-      </c>
-      <c r="B187" t="s">
-        <v>37</v>
-      </c>
-      <c r="D187" t="s">
-        <v>37</v>
+        <v>242</v>
+      </c>
+      <c r="C187" t="s">
+        <v>57</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I187" t="s">
-        <v>37</v>
-      </c>
-      <c r="K187" t="s">
-        <v>37</v>
-      </c>
-      <c r="M187" t="s">
-        <v>37</v>
-      </c>
-      <c r="N187" t="s">
-        <v>37</v>
-      </c>
-      <c r="O187" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J187" t="s">
+        <v>57</v>
       </c>
       <c r="P187" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>37</v>
-      </c>
-      <c r="R187" t="s">
-        <v>37</v>
-      </c>
-      <c r="S187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W187" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>57</v>
       </c>
       <c r="AD187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF187" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG187" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH187" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI187" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK187" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ187" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:56">
       <c r="A188" t="s">
-        <v>223</v>
-      </c>
-      <c r="R188" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="1:37">
+        <v>243</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:56">
       <c r="A189" t="s">
-        <v>224</v>
-      </c>
-      <c r="R189" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:37">
+        <v>244</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:56">
       <c r="A190" t="s">
-        <v>225</v>
-      </c>
-      <c r="R190" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:37">
+        <v>245</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:56">
       <c r="A191" t="s">
-        <v>226</v>
-      </c>
-      <c r="R191" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:37">
+        <v>246</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:56">
       <c r="A192" t="s">
-        <v>227</v>
-      </c>
-      <c r="R192" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:36">
+        <v>247</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:54">
       <c r="A193" t="s">
-        <v>228</v>
-      </c>
-      <c r="R193" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:36">
+        <v>248</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:54">
       <c r="A194" t="s">
-        <v>229</v>
-      </c>
-      <c r="D194" t="s">
-        <v>37</v>
-      </c>
-      <c r="S194" t="s">
-        <v>37</v>
-      </c>
-      <c r="T194" t="s">
-        <v>37</v>
-      </c>
-      <c r="W194" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:36">
+        <v>249</v>
+      </c>
+      <c r="E194" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB194" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:54">
       <c r="A195" t="s">
-        <v>230</v>
-      </c>
-      <c r="D195" t="s">
-        <v>37</v>
-      </c>
-      <c r="S195" t="s">
-        <v>37</v>
-      </c>
-      <c r="T195" t="s">
-        <v>37</v>
-      </c>
-      <c r="W195" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:36">
+        <v>250</v>
+      </c>
+      <c r="E195" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:54">
       <c r="A196" t="s">
-        <v>231</v>
-      </c>
-      <c r="H196" t="s">
-        <v>37</v>
-      </c>
-      <c r="K196" t="s">
-        <v>37</v>
-      </c>
-      <c r="O196" t="s">
-        <v>37</v>
+        <v>251</v>
+      </c>
+      <c r="I196" t="s">
+        <v>57</v>
       </c>
       <c r="P196" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V196" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="W196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:54">
       <c r="A197" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB197" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC197" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:36">
+        <v>252</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:54">
       <c r="A198" t="s">
-        <v>233</v>
-      </c>
-      <c r="I198" t="s">
-        <v>37</v>
-      </c>
-      <c r="M198" t="s">
-        <v>37</v>
-      </c>
-      <c r="N198" t="s">
-        <v>37</v>
-      </c>
-      <c r="O198" t="s">
-        <v>37</v>
-      </c>
-      <c r="R198" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG198" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:36">
+        <v>253</v>
+      </c>
+      <c r="J198" t="s">
+        <v>57</v>
+      </c>
+      <c r="T198" t="s">
+        <v>57</v>
+      </c>
+      <c r="U198" t="s">
+        <v>57</v>
+      </c>
+      <c r="V198" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:54">
       <c r="A199" t="s">
-        <v>234</v>
-      </c>
-      <c r="I199" t="s">
-        <v>37</v>
-      </c>
-      <c r="M199" t="s">
-        <v>37</v>
-      </c>
-      <c r="N199" t="s">
-        <v>37</v>
-      </c>
-      <c r="O199" t="s">
-        <v>37</v>
-      </c>
-      <c r="R199" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG199" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:36">
+        <v>254</v>
+      </c>
+      <c r="J199" t="s">
+        <v>57</v>
+      </c>
+      <c r="T199" t="s">
+        <v>57</v>
+      </c>
+      <c r="U199" t="s">
+        <v>57</v>
+      </c>
+      <c r="V199" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:54">
       <c r="A200" t="s">
-        <v>235</v>
-      </c>
-      <c r="O200" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="1:36">
+        <v>255</v>
+      </c>
+      <c r="V200" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:54">
       <c r="A201" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB201" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC201" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="1:36">
+        <v>256</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP201" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:54">
       <c r="A202" t="s">
-        <v>237</v>
-      </c>
-      <c r="O202" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:36">
+        <v>257</v>
+      </c>
+      <c r="V202" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:54">
       <c r="A203" t="s">
-        <v>238</v>
-      </c>
-      <c r="R203" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:36">
+        <v>258</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:54">
       <c r="A204" t="s">
-        <v>239</v>
-      </c>
-      <c r="R204" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" spans="1:36">
+        <v>259</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:54">
       <c r="A205" t="s">
-        <v>240</v>
-      </c>
-      <c r="R205" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="1:36">
+        <v>260</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:54">
       <c r="A206" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ206" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="207" spans="1:36">
+        <v>261</v>
+      </c>
+      <c r="BB206" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:54">
       <c r="A207" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="208" spans="1:36">
+        <v>262</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:54">
       <c r="A208" t="s">
-        <v>243</v>
-      </c>
-      <c r="G208" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="H208" t="s">
-        <v>37</v>
-      </c>
-      <c r="O208" t="s">
-        <v>37</v>
-      </c>
-      <c r="P208" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="I208" t="s">
+        <v>57</v>
       </c>
       <c r="V208" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="W208" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:56">
       <c r="A209" t="s">
-        <v>244</v>
-      </c>
-      <c r="H209" t="s">
-        <v>37</v>
-      </c>
-      <c r="K209" t="s">
-        <v>37</v>
+        <v>264</v>
+      </c>
+      <c r="I209" t="s">
+        <v>57</v>
       </c>
       <c r="P209" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="W209" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:56">
       <c r="A210" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA210" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB210" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC210" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:37">
+        <v>265</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:56">
       <c r="A211" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB211" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="1:37">
+        <v>266</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP211" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:56">
       <c r="A212" t="s">
-        <v>247</v>
-      </c>
-      <c r="B212" t="s">
-        <v>37</v>
-      </c>
-      <c r="D212" t="s">
-        <v>37</v>
+        <v>267</v>
+      </c>
+      <c r="C212" t="s">
+        <v>57</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I212" t="s">
-        <v>37</v>
-      </c>
-      <c r="K212" t="s">
-        <v>37</v>
-      </c>
-      <c r="M212" t="s">
-        <v>37</v>
-      </c>
-      <c r="N212" t="s">
-        <v>37</v>
-      </c>
-      <c r="O212" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J212" t="s">
+        <v>57</v>
       </c>
       <c r="P212" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>37</v>
-      </c>
-      <c r="R212" t="s">
-        <v>37</v>
-      </c>
-      <c r="S212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W212" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>57</v>
       </c>
       <c r="AD212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF212" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH212" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI212" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ212" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK212" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ212" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB212" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD212" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:56">
       <c r="A213" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH213" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:37">
+        <v>268</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:56">
       <c r="A214" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA214" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB214" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC214" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="215" spans="1:37">
+        <v>269</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:56">
       <c r="A215" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ215" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:37">
+        <v>270</v>
+      </c>
+      <c r="BB215" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:56">
       <c r="A216" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="217" spans="1:37">
+        <v>271</v>
+      </c>
+      <c r="X216" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:56">
       <c r="A217" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="218" spans="1:37">
+        <v>272</v>
+      </c>
+      <c r="X217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:56">
       <c r="A218" t="s">
-        <v>253</v>
-      </c>
-      <c r="I218" t="s">
-        <v>37</v>
-      </c>
-      <c r="M218" t="s">
-        <v>37</v>
-      </c>
-      <c r="N218" t="s">
-        <v>37</v>
-      </c>
-      <c r="R218" t="s">
-        <v>37</v>
+        <v>273</v>
+      </c>
+      <c r="J218" t="s">
+        <v>57</v>
+      </c>
+      <c r="T218" t="s">
+        <v>57</v>
       </c>
       <c r="U218" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG218" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:56">
       <c r="A219" t="s">
-        <v>254</v>
-      </c>
-      <c r="T219" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" spans="1:37">
+        <v>274</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:56">
       <c r="A220" t="s">
-        <v>255</v>
-      </c>
-      <c r="B220" t="s">
-        <v>37</v>
-      </c>
-      <c r="D220" t="s">
-        <v>37</v>
-      </c>
-      <c r="G220" t="s">
-        <v>37</v>
+        <v>275</v>
+      </c>
+      <c r="C220" t="s">
+        <v>57</v>
+      </c>
+      <c r="E220" t="s">
+        <v>57</v>
       </c>
       <c r="H220" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I220" t="s">
-        <v>37</v>
-      </c>
-      <c r="K220" t="s">
-        <v>37</v>
-      </c>
-      <c r="O220" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J220" t="s">
+        <v>57</v>
       </c>
       <c r="P220" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>37</v>
-      </c>
-      <c r="R220" t="s">
-        <v>37</v>
-      </c>
-      <c r="S220" t="s">
-        <v>37</v>
-      </c>
-      <c r="T220" t="s">
-        <v>37</v>
-      </c>
-      <c r="U220" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V220" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W220" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG220" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI220" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ220" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="X220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ220" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:56">
       <c r="A221" t="s">
-        <v>256</v>
-      </c>
-      <c r="B221" t="s">
-        <v>37</v>
-      </c>
-      <c r="D221" t="s">
-        <v>37</v>
-      </c>
-      <c r="G221" t="s">
-        <v>37</v>
+        <v>276</v>
+      </c>
+      <c r="C221" t="s">
+        <v>57</v>
+      </c>
+      <c r="E221" t="s">
+        <v>57</v>
       </c>
       <c r="H221" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I221" t="s">
-        <v>37</v>
-      </c>
-      <c r="K221" t="s">
-        <v>37</v>
-      </c>
-      <c r="O221" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J221" t="s">
+        <v>57</v>
       </c>
       <c r="P221" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>37</v>
-      </c>
-      <c r="R221" t="s">
-        <v>37</v>
-      </c>
-      <c r="S221" t="s">
-        <v>37</v>
-      </c>
-      <c r="T221" t="s">
-        <v>37</v>
-      </c>
-      <c r="U221" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V221" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W221" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG221" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI221" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ221" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="X221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ221" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:56">
       <c r="A222" t="s">
-        <v>257</v>
-      </c>
-      <c r="B222" t="s">
-        <v>37</v>
-      </c>
-      <c r="D222" t="s">
-        <v>37</v>
-      </c>
-      <c r="G222" t="s">
-        <v>37</v>
+        <v>277</v>
+      </c>
+      <c r="C222" t="s">
+        <v>57</v>
+      </c>
+      <c r="E222" t="s">
+        <v>57</v>
       </c>
       <c r="H222" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I222" t="s">
-        <v>37</v>
-      </c>
-      <c r="K222" t="s">
-        <v>37</v>
-      </c>
-      <c r="O222" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J222" t="s">
+        <v>57</v>
       </c>
       <c r="P222" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>37</v>
-      </c>
-      <c r="R222" t="s">
-        <v>37</v>
-      </c>
-      <c r="S222" t="s">
-        <v>37</v>
-      </c>
-      <c r="T222" t="s">
-        <v>37</v>
-      </c>
-      <c r="U222" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V222" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W222" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG222" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI222" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ222" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="X222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ222" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:56">
       <c r="A223" t="s">
-        <v>258</v>
-      </c>
-      <c r="B223" t="s">
-        <v>37</v>
-      </c>
-      <c r="D223" t="s">
-        <v>37</v>
-      </c>
-      <c r="G223" t="s">
-        <v>37</v>
+        <v>278</v>
+      </c>
+      <c r="C223" t="s">
+        <v>57</v>
+      </c>
+      <c r="E223" t="s">
+        <v>57</v>
       </c>
       <c r="H223" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I223" t="s">
-        <v>37</v>
-      </c>
-      <c r="K223" t="s">
-        <v>37</v>
-      </c>
-      <c r="O223" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J223" t="s">
+        <v>57</v>
       </c>
       <c r="P223" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>37</v>
-      </c>
-      <c r="R223" t="s">
-        <v>37</v>
-      </c>
-      <c r="S223" t="s">
-        <v>37</v>
-      </c>
-      <c r="T223" t="s">
-        <v>37</v>
-      </c>
-      <c r="U223" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V223" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W223" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG223" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI223" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ223" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="224" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="X223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:56">
       <c r="A224" t="s">
-        <v>259</v>
-      </c>
-      <c r="B224" t="s">
-        <v>37</v>
-      </c>
-      <c r="D224" t="s">
-        <v>37</v>
-      </c>
-      <c r="I224" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>37</v>
-      </c>
-      <c r="S224" t="s">
-        <v>37</v>
-      </c>
-      <c r="T224" t="s">
-        <v>37</v>
-      </c>
-      <c r="W224" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG224" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI224" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ224" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:36">
+        <v>279</v>
+      </c>
+      <c r="C224" t="s">
+        <v>57</v>
+      </c>
+      <c r="E224" t="s">
+        <v>57</v>
+      </c>
+      <c r="J224" t="s">
+        <v>57</v>
+      </c>
+      <c r="X224" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:54">
       <c r="A225" t="s">
-        <v>260</v>
-      </c>
-      <c r="B225" t="s">
-        <v>37</v>
-      </c>
-      <c r="D225" t="s">
-        <v>37</v>
-      </c>
-      <c r="I225" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>37</v>
-      </c>
-      <c r="S225" t="s">
-        <v>37</v>
-      </c>
-      <c r="T225" t="s">
-        <v>37</v>
-      </c>
-      <c r="W225" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG225" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI225" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ225" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" spans="1:36">
+        <v>280</v>
+      </c>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+      <c r="E225" t="s">
+        <v>57</v>
+      </c>
+      <c r="J225" t="s">
+        <v>57</v>
+      </c>
+      <c r="X225" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:54">
       <c r="A226" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE226" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF226" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" spans="1:36">
+        <v>281</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:54">
       <c r="A227" t="s">
-        <v>262</v>
-      </c>
-      <c r="F227" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:36">
+        <v>282</v>
+      </c>
+      <c r="G227" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:54">
       <c r="A228" t="s">
-        <v>263</v>
-      </c>
-      <c r="F228" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="229" spans="1:36">
+        <v>283</v>
+      </c>
+      <c r="G228" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:54">
       <c r="A229" t="s">
-        <v>264</v>
-      </c>
-      <c r="F229" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE229" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF229" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH229" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230" spans="1:36">
+        <v>284</v>
+      </c>
+      <c r="G229" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS229" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT229" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX229" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:54">
       <c r="A230" t="s">
-        <v>265</v>
-      </c>
-      <c r="D230" t="s">
-        <v>37</v>
-      </c>
-      <c r="M230" t="s">
-        <v>37</v>
-      </c>
-      <c r="N230" t="s">
-        <v>37</v>
-      </c>
-      <c r="R230" t="s">
-        <v>37</v>
-      </c>
-      <c r="S230" t="s">
-        <v>37</v>
+        <v>285</v>
+      </c>
+      <c r="E230" t="s">
+        <v>57</v>
       </c>
       <c r="T230" t="s">
-        <v>37</v>
-      </c>
-      <c r="W230" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ230" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="U230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB230" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:54">
       <c r="A231" t="s">
-        <v>266</v>
-      </c>
-      <c r="D231" t="s">
-        <v>37</v>
-      </c>
-      <c r="M231" t="s">
-        <v>37</v>
-      </c>
-      <c r="N231" t="s">
-        <v>37</v>
-      </c>
-      <c r="R231" t="s">
-        <v>37</v>
-      </c>
-      <c r="S231" t="s">
-        <v>37</v>
+        <v>286</v>
+      </c>
+      <c r="E231" t="s">
+        <v>57</v>
       </c>
       <c r="T231" t="s">
-        <v>37</v>
-      </c>
-      <c r="W231" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ231" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="232" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="U231" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB231" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:54">
       <c r="A232" t="s">
-        <v>267</v>
-      </c>
-      <c r="C232" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="233" spans="1:36">
+        <v>287</v>
+      </c>
+      <c r="D232" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:54">
       <c r="A233" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z233" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA233" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB233" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC233" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" spans="1:36">
+        <v>288</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP233" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:54">
       <c r="A234" t="s">
-        <v>269</v>
-      </c>
-      <c r="E234" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="235" spans="1:36">
+        <v>289</v>
+      </c>
+      <c r="F234" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:54">
       <c r="A235" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD235" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE235" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF235" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" spans="1:36">
+        <v>290</v>
+      </c>
+      <c r="AR235" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT235" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:54">
       <c r="A236" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD236" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE236" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF236" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" spans="1:36">
+        <v>291</v>
+      </c>
+      <c r="AR236" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT236" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:54">
       <c r="A237" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE237" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF237" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="1:36">
+        <v>292</v>
+      </c>
+      <c r="AR237" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:54">
       <c r="A238" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE238" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF238" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:36">
+        <v>293</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:54">
       <c r="A239" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD239" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE239" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF239" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:36">
+        <v>294</v>
+      </c>
+      <c r="AR239" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT239" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:54">
       <c r="A240" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE240" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF240" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="241" spans="1:37">
+        <v>295</v>
+      </c>
+      <c r="AR240" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:56">
       <c r="A241" t="s">
-        <v>276</v>
-      </c>
-      <c r="T241" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" spans="1:37">
+        <v>296</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:56">
       <c r="A242" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB242" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" spans="1:37">
+        <v>297</v>
+      </c>
+      <c r="AP242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:56">
       <c r="A243" t="s">
-        <v>278</v>
-      </c>
-      <c r="H243" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="I243" t="s">
-        <v>37</v>
-      </c>
-      <c r="K243" t="s">
-        <v>37</v>
-      </c>
-      <c r="M243" t="s">
-        <v>37</v>
-      </c>
-      <c r="N243" t="s">
-        <v>37</v>
-      </c>
-      <c r="O243" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J243" t="s">
+        <v>57</v>
       </c>
       <c r="P243" t="s">
-        <v>37</v>
-      </c>
-      <c r="R243" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="T243" t="s">
+        <v>57</v>
       </c>
       <c r="U243" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG243" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI243" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="V243" t="s">
+        <v>57</v>
+      </c>
+      <c r="W243" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU243" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ243" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:56">
       <c r="A244" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB244" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="245" spans="1:37">
+        <v>299</v>
+      </c>
+      <c r="AP244" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:56">
       <c r="A245" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB245" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="246" spans="1:37">
+        <v>300</v>
+      </c>
+      <c r="AP245" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:56">
       <c r="A246" t="s">
-        <v>281</v>
-      </c>
-      <c r="M246" t="s">
-        <v>37</v>
-      </c>
-      <c r="N246" t="s">
-        <v>37</v>
-      </c>
-      <c r="R246" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="247" spans="1:37">
+        <v>301</v>
+      </c>
+      <c r="T246" t="s">
+        <v>57</v>
+      </c>
+      <c r="U246" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:56">
       <c r="A247" t="s">
-        <v>282</v>
-      </c>
-      <c r="T247" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="248" spans="1:37">
+        <v>302</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:56">
       <c r="A248" t="s">
-        <v>283</v>
-      </c>
-      <c r="E248" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK248" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G248" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR248" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS248" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX248" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD248" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:56">
       <c r="A249" t="s">
-        <v>284</v>
-      </c>
-      <c r="E249" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD249" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE249" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF249" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH249" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK249" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="250" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G249" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX249" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD249" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="1:56">
       <c r="A250" t="s">
-        <v>285</v>
-      </c>
-      <c r="E250" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD250" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE250" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF250" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH250" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK250" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="251" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G250" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR250" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX250" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD250" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:56">
       <c r="A251" t="s">
-        <v>286</v>
-      </c>
-      <c r="E251" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD251" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE251" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF251" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH251" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK251" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="G251" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD251" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:56">
       <c r="A252" t="s">
-        <v>287</v>
-      </c>
-      <c r="M252" t="s">
-        <v>37</v>
-      </c>
-      <c r="N252" t="s">
-        <v>37</v>
-      </c>
-      <c r="R252" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="253" spans="1:37">
+        <v>307</v>
+      </c>
+      <c r="T252" t="s">
+        <v>57</v>
+      </c>
+      <c r="U252" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="1:56">
       <c r="A253" t="s">
-        <v>288</v>
-      </c>
-      <c r="D253" t="s">
-        <v>37</v>
-      </c>
-      <c r="S253" t="s">
-        <v>37</v>
-      </c>
-      <c r="T253" t="s">
-        <v>37</v>
-      </c>
-      <c r="W253" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ253" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:37">
+        <v>308</v>
+      </c>
+      <c r="E253" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB253" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:56">
       <c r="A254" t="s">
-        <v>289</v>
-      </c>
-      <c r="W254" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" spans="1:37">
+        <v>309</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:56">
       <c r="A255" t="s">
-        <v>290</v>
-      </c>
-      <c r="W255" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" spans="1:37">
+        <v>310</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:56">
       <c r="A256" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF256" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="257" spans="1:36">
+        <v>311</v>
+      </c>
+      <c r="AT256" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:54">
       <c r="A257" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA257" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB257" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC257" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" spans="1:36">
+        <v>312</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="1:54">
       <c r="A258" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA258" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB258" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC258" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" spans="1:36">
+        <v>313</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:54">
       <c r="A259" t="s">
-        <v>294</v>
-      </c>
-      <c r="H259" t="s">
-        <v>37</v>
-      </c>
-      <c r="K259" t="s">
-        <v>37</v>
+        <v>314</v>
+      </c>
+      <c r="I259" t="s">
+        <v>57</v>
       </c>
       <c r="P259" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="W259" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:54">
       <c r="A260" t="s">
-        <v>295</v>
-      </c>
-      <c r="H260" t="s">
-        <v>37</v>
-      </c>
-      <c r="K260" t="s">
-        <v>37</v>
+        <v>315</v>
+      </c>
+      <c r="I260" t="s">
+        <v>57</v>
       </c>
       <c r="P260" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="261" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="W260" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:54">
       <c r="A261" t="s">
-        <v>296</v>
-      </c>
-      <c r="H261" t="s">
-        <v>37</v>
-      </c>
-      <c r="K261" t="s">
-        <v>37</v>
+        <v>316</v>
+      </c>
+      <c r="I261" t="s">
+        <v>57</v>
       </c>
       <c r="P261" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" spans="1:36">
+        <v>57</v>
+      </c>
+      <c r="W261" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="262" spans="1:54">
       <c r="A262" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="263" spans="1:36">
+        <v>317</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="1:54">
       <c r="A263" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="264" spans="1:36">
+        <v>318</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:54">
       <c r="A264" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z264" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="265" spans="1:36">
+        <v>319</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:54">
       <c r="A265" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z265" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="266" spans="1:36">
+        <v>320</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:54">
       <c r="A266" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ266" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:36">
+        <v>321</v>
+      </c>
+      <c r="BB266" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:54">
       <c r="A267" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI267" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="268" spans="1:36">
+        <v>322</v>
+      </c>
+      <c r="AZ267" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:54">
       <c r="A268" t="s">
-        <v>303</v>
-      </c>
-      <c r="M268" t="s">
-        <v>37</v>
-      </c>
-      <c r="R268" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" spans="1:36">
+        <v>323</v>
+      </c>
+      <c r="T268" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="269" spans="1:54">
       <c r="A269" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="270" spans="1:36">
+        <v>324</v>
+      </c>
+      <c r="X269" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:54">
       <c r="A270" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA270" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB270" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC270" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="271" spans="1:36">
+        <v>325</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:54">
       <c r="A271" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA271" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB271" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC271" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="1:36">
+        <v>326</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="272" spans="1:54">
       <c r="A272" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC272" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" spans="1:37">
+        <v>327</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="273" spans="1:56">
       <c r="A273" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC273" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="274" spans="1:37">
+        <v>328</v>
+      </c>
+      <c r="AQ273" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="274" spans="1:56">
       <c r="A274" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC274" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="275" spans="1:37">
+        <v>329</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:56">
       <c r="A275" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC275" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" spans="1:37">
+        <v>330</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="276" spans="1:56">
       <c r="A276" t="s">
-        <v>311</v>
-      </c>
-      <c r="B276" t="s">
-        <v>37</v>
-      </c>
-      <c r="D276" t="s">
-        <v>37</v>
+        <v>331</v>
+      </c>
+      <c r="C276" t="s">
+        <v>57</v>
       </c>
       <c r="E276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I276" t="s">
-        <v>37</v>
-      </c>
-      <c r="K276" t="s">
-        <v>37</v>
-      </c>
-      <c r="M276" t="s">
-        <v>37</v>
-      </c>
-      <c r="N276" t="s">
-        <v>37</v>
-      </c>
-      <c r="O276" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="J276" t="s">
+        <v>57</v>
       </c>
       <c r="P276" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q276" t="s">
-        <v>37</v>
-      </c>
-      <c r="R276" t="s">
-        <v>37</v>
-      </c>
-      <c r="S276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W276" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>57</v>
       </c>
       <c r="AD276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF276" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG276" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AH276" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI276" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ276" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK276" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AR276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX276" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ276" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB276" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD276" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:56">
       <c r="A277" t="s">
-        <v>312</v>
-      </c>
-      <c r="X277" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:37">
+        <v>332</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="278" spans="1:56">
       <c r="A278" t="s">
-        <v>313</v>
-      </c>
-      <c r="X278" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" spans="1:37">
+        <v>333</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="279" spans="1:56">
       <c r="A279" t="s">
-        <v>314</v>
-      </c>
-      <c r="S279" t="s">
-        <v>37</v>
-      </c>
-      <c r="W279" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:37">
+        <v>334</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280" spans="1:56">
       <c r="A280" t="s">
-        <v>315</v>
-      </c>
-      <c r="X280" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" spans="1:37">
+        <v>335</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:56">
       <c r="A281" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD281" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" spans="1:37">
+        <v>336</v>
+      </c>
+      <c r="AR281" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282" spans="1:56">
       <c r="A282" t="s">
-        <v>317</v>
-      </c>
-      <c r="E282" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD282" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="1:37">
+        <v>337</v>
+      </c>
+      <c r="F282" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR282" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:56">
       <c r="A283" t="s">
-        <v>318</v>
-      </c>
-      <c r="E283" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD283" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" spans="1:37">
+        <v>338</v>
+      </c>
+      <c r="F283" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="284" spans="1:56">
       <c r="A284" t="s">
-        <v>319</v>
-      </c>
-      <c r="E284" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD284" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="285" spans="1:37">
+        <v>339</v>
+      </c>
+      <c r="F284" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR284" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="1:56">
       <c r="A285" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA285" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB285" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC285" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="286" spans="1:37">
+        <v>340</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP285" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:56">
       <c r="A286" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE286" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="287" spans="1:37">
+        <v>341</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="287" spans="1:56">
       <c r="A287" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE287" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="1:37">
+        <v>342</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="288" spans="1:56">
       <c r="A288" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE288" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" spans="1:37">
+        <v>343</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="289" spans="1:56">
       <c r="A289" t="s">
-        <v>324</v>
-      </c>
-      <c r="C289" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="290" spans="1:37">
+        <v>344</v>
+      </c>
+      <c r="D289" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="290" spans="1:56">
       <c r="A290" t="s">
-        <v>325</v>
-      </c>
-      <c r="B290" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="C290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J290" t="s">
-        <v>37</v>
-      </c>
-      <c r="K290" t="s">
-        <v>37</v>
-      </c>
-      <c r="M290" t="s">
-        <v>37</v>
-      </c>
-      <c r="N290" t="s">
-        <v>37</v>
-      </c>
-      <c r="O290" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="L290" t="s">
+        <v>57</v>
       </c>
       <c r="P290" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q290" t="s">
-        <v>37</v>
-      </c>
-      <c r="R290" t="s">
-        <v>37</v>
-      </c>
-      <c r="S290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="W290" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y290" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA290" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="X290" t="s">
+        <v>57</v>
       </c>
       <c r="AB290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AD290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AE290" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG290" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>57</v>
       </c>
       <c r="AH290" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI290" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ290" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AK290" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" spans="1:37">
+        <v>57</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ290" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB290" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD290" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="291" spans="1:56">
       <c r="A291" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z291" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="292" spans="1:37">
+        <v>346</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="292" spans="1:56">
       <c r="A292" t="s">
-        <v>327</v>
-      </c>
-      <c r="S292" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="293" spans="1:37">
+        <v>347</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="293" spans="1:56">
       <c r="A293" t="s">
-        <v>328</v>
-      </c>
-      <c r="S293" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="294" spans="1:37">
+        <v>348</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="294" spans="1:56">
       <c r="A294" t="s">
-        <v>329</v>
-      </c>
-      <c r="W294" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="295" spans="1:37">
+        <v>349</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:56">
       <c r="A295" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA295" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" spans="1:37">
+        <v>350</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="1:56">
       <c r="A296" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA296" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="297" spans="1:37">
+        <v>351</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:56">
       <c r="A297" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z297" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="298" spans="1:37">
+        <v>352</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:56">
       <c r="A298" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z298" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" spans="1:37">
+        <v>353</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="299" spans="1:56">
       <c r="A299" t="s">
-        <v>334</v>
-      </c>
-      <c r="X299" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" spans="1:37">
+        <v>354</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:56">
       <c r="A300" t="s">
-        <v>335</v>
-      </c>
-      <c r="X300" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:37">
+        <v>355</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="301" spans="1:56">
       <c r="A301" t="s">
-        <v>336</v>
-      </c>
-      <c r="W301" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" spans="1:37">
+        <v>356</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="302" spans="1:56">
       <c r="A302" t="s">
-        <v>337</v>
-      </c>
-      <c r="W302" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="1:37">
+        <v>357</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="303" spans="1:56">
       <c r="A303" t="s">
-        <v>338</v>
-      </c>
-      <c r="X303" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA303" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" spans="1:37">
+        <v>358</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="304" spans="1:56">
       <c r="A304" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA304" t="s">
-        <v>37</v>
+        <v>359</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="360">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -7380,15 +7380,6 @@
       <c r="S99" t="s">
         <v>57</v>
       </c>
-      <c r="T99" t="s">
-        <v>57</v>
-      </c>
-      <c r="U99" t="s">
-        <v>57</v>
-      </c>
-      <c r="V99" t="s">
-        <v>57</v>
-      </c>
       <c r="W99" t="s">
         <v>57</v>
       </c>
@@ -7455,16 +7446,10 @@
       <c r="AT99" t="s">
         <v>57</v>
       </c>
-      <c r="AU99" t="s">
-        <v>57</v>
-      </c>
       <c r="AV99" t="s">
         <v>57</v>
       </c>
       <c r="AW99" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX99" t="s">
         <v>57</v>
       </c>
       <c r="AY99" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="360">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -6075,6 +6075,9 @@
       <c r="AH21" t="s">
         <v>57</v>
       </c>
+      <c r="AI21" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ21" t="s">
         <v>57</v>
       </c>
@@ -6082,6 +6085,18 @@
         <v>57</v>
       </c>
       <c r="AM21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>57</v>
       </c>
       <c r="AR21" t="s">
@@ -6221,6 +6236,9 @@
       <c r="AH22" t="s">
         <v>57</v>
       </c>
+      <c r="AI22" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ22" t="s">
         <v>57</v>
       </c>
@@ -6231,6 +6249,18 @@
         <v>57</v>
       </c>
       <c r="AM22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>57</v>
       </c>
       <c r="AR22" t="s">
@@ -7426,6 +7456,9 @@
         <v>57</v>
       </c>
       <c r="AM99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN99" t="s">
         <v>57</v>
       </c>
       <c r="AO99" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="360">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -6054,6 +6054,9 @@
       <c r="Z21" t="s">
         <v>57</v>
       </c>
+      <c r="AA21" t="s">
+        <v>57</v>
+      </c>
       <c r="AB21" t="s">
         <v>57</v>
       </c>
@@ -6215,6 +6218,9 @@
       <c r="Z22" t="s">
         <v>57</v>
       </c>
+      <c r="AA22" t="s">
+        <v>57</v>
+      </c>
       <c r="AB22" t="s">
         <v>57</v>
       </c>
@@ -7477,6 +7483,9 @@
         <v>57</v>
       </c>
       <c r="AT99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU99" t="s">
         <v>57</v>
       </c>
       <c r="AV99" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="360">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -6054,6 +6054,9 @@
       <c r="Z21" t="s">
         <v>57</v>
       </c>
+      <c r="AA21" t="s">
+        <v>57</v>
+      </c>
       <c r="AB21" t="s">
         <v>57</v>
       </c>
@@ -6075,6 +6078,9 @@
       <c r="AH21" t="s">
         <v>57</v>
       </c>
+      <c r="AI21" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ21" t="s">
         <v>57</v>
       </c>
@@ -6082,6 +6088,18 @@
         <v>57</v>
       </c>
       <c r="AM21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>57</v>
       </c>
       <c r="AR21" t="s">
@@ -6200,6 +6218,9 @@
       <c r="Z22" t="s">
         <v>57</v>
       </c>
+      <c r="AA22" t="s">
+        <v>57</v>
+      </c>
       <c r="AB22" t="s">
         <v>57</v>
       </c>
@@ -6221,6 +6242,9 @@
       <c r="AH22" t="s">
         <v>57</v>
       </c>
+      <c r="AI22" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ22" t="s">
         <v>57</v>
       </c>
@@ -6231,6 +6255,18 @@
         <v>57</v>
       </c>
       <c r="AM22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>57</v>
       </c>
       <c r="AR22" t="s">
@@ -7428,6 +7464,9 @@
       <c r="AM99" t="s">
         <v>57</v>
       </c>
+      <c r="AN99" t="s">
+        <v>57</v>
+      </c>
       <c r="AO99" t="s">
         <v>57</v>
       </c>
@@ -7444,6 +7483,9 @@
         <v>57</v>
       </c>
       <c r="AT99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU99" t="s">
         <v>57</v>
       </c>
       <c r="AV99" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="360">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -7416,6 +7416,15 @@
       <c r="S99" t="s">
         <v>57</v>
       </c>
+      <c r="T99" t="s">
+        <v>57</v>
+      </c>
+      <c r="U99" t="s">
+        <v>57</v>
+      </c>
+      <c r="V99" t="s">
+        <v>57</v>
+      </c>
       <c r="W99" t="s">
         <v>57</v>
       </c>
@@ -7492,6 +7501,9 @@
         <v>57</v>
       </c>
       <c r="AW99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX99" t="s">
         <v>57</v>
       </c>
       <c r="AY99" t="s">

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="361">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4001,12 +4001,18 @@
     <t>cosmx</t>
   </si>
   <si>
+    <t>cycif</t>
+  </si>
+  <si>
     <t>dbit</t>
   </si>
   <si>
     <t>desi</t>
   </si>
   <si>
+    <t>enhanced-srs</t>
+  </si>
+  <si>
     <t>gcms</t>
   </si>
   <si>
@@ -4100,25 +4106,22 @@
     <t>scrnaseq-hca</t>
   </si>
   <si>
+    <t>second-harmonic-generation</t>
+  </si>
+  <si>
     <t>seqfish</t>
   </si>
   <si>
-    <t>shg</t>
-  </si>
-  <si>
     <t>sims</t>
   </si>
   <si>
     <t>slideseq</t>
   </si>
   <si>
-    <t>srs</t>
-  </si>
-  <si>
     <t>stained</t>
   </si>
   <si>
-    <t>tsm-mxif</t>
+    <t>thick-section-multiphoton-mxif</t>
   </si>
   <si>
     <t>ultrasound</t>
@@ -5383,7 +5386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE304"/>
+  <dimension ref="A1:BF304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5395,10 +5398,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="57" width="2.7109375" customWidth="1"/>
+    <col min="2" max="58" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5567,5300 +5570,5312 @@
       <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
+        <v>61</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
+        <v>62</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
       </c>
       <c r="AD9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>58</v>
       </c>
       <c r="AH9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>58</v>
       </c>
       <c r="AT9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>58</v>
       </c>
       <c r="AX9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
       </c>
       <c r="AD10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>58</v>
       </c>
       <c r="AH10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>58</v>
       </c>
       <c r="AT10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>58</v>
       </c>
       <c r="AX10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57">
+        <v>67</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
+        <v>68</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R14" t="s">
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>58</v>
       </c>
       <c r="AT14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU14" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>58</v>
       </c>
       <c r="AX14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57">
+        <v>76</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>58</v>
       </c>
       <c r="AL21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:57">
+        <v>79</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57">
+        <v>80</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57">
+        <v>81</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AT38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46">
+        <v>58</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AT39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46">
+        <v>58</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AT40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46">
+        <v>58</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46">
+        <v>98</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46">
+        <v>99</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46">
+        <v>100</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46">
+        <v>101</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
       <c r="A47" t="s">
-        <v>102</v>
-      </c>
-      <c r="P47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46">
+        <v>103</v>
+      </c>
+      <c r="R47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
       <c r="A48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:56">
+        <v>104</v>
+      </c>
+      <c r="R48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57">
       <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="P49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:56">
+        <v>105</v>
+      </c>
+      <c r="R49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:56">
+        <v>106</v>
+      </c>
+      <c r="R50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57">
       <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="P51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:56">
+        <v>107</v>
+      </c>
+      <c r="R51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57">
       <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="P52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:56">
+        <v>108</v>
+      </c>
+      <c r="R52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
       <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:56">
+        <v>109</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
-      </c>
-      <c r="P58" t="s">
-        <v>57</v>
-      </c>
-      <c r="T58" t="s">
-        <v>57</v>
-      </c>
-      <c r="U58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R58" t="s">
+        <v>58</v>
       </c>
       <c r="V58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>58</v>
       </c>
       <c r="AD58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>58</v>
       </c>
       <c r="AH58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>58</v>
       </c>
       <c r="AT58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>58</v>
       </c>
       <c r="AX58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ58" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB58" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57">
       <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:56">
+        <v>115</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57">
       <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:56">
+        <v>116</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
-      </c>
-      <c r="P61" t="s">
-        <v>57</v>
-      </c>
-      <c r="W61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="R61" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T62" t="s">
-        <v>57</v>
-      </c>
-      <c r="U62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R62" t="s">
+        <v>58</v>
       </c>
       <c r="V62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>58</v>
       </c>
       <c r="AD62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>58</v>
       </c>
       <c r="AH62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>58</v>
       </c>
       <c r="AX62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ62" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57">
       <c r="A63" t="s">
-        <v>118</v>
-      </c>
-      <c r="T63" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:56">
+        <v>119</v>
+      </c>
+      <c r="V63" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T64" t="s">
-        <v>57</v>
-      </c>
-      <c r="U64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R64" t="s">
+        <v>58</v>
       </c>
       <c r="V64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>58</v>
       </c>
       <c r="AD64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>58</v>
       </c>
       <c r="AU64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ64" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB64" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57">
       <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="V65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:56">
+        <v>121</v>
+      </c>
+      <c r="X65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57">
       <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="V66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:56">
+        <v>122</v>
+      </c>
+      <c r="X66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57">
       <c r="A67" t="s">
-        <v>122</v>
-      </c>
-      <c r="V67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:56">
+        <v>123</v>
+      </c>
+      <c r="X67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57">
       <c r="A69" t="s">
-        <v>124</v>
-      </c>
-      <c r="W69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:56">
+        <v>125</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57">
       <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:56">
+        <v>126</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57">
       <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:56">
+        <v>127</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>57</v>
-      </c>
-      <c r="P72" t="s">
-        <v>57</v>
-      </c>
-      <c r="T72" t="s">
-        <v>57</v>
-      </c>
-      <c r="U72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R72" t="s">
+        <v>58</v>
       </c>
       <c r="V72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>58</v>
       </c>
       <c r="AD72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>58</v>
       </c>
       <c r="AH72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>58</v>
       </c>
       <c r="AT72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>58</v>
       </c>
       <c r="AX72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ72" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57">
       <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="T73" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:56">
+        <v>129</v>
+      </c>
+      <c r="V73" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:56">
+        <v>130</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57">
       <c r="A75" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:56">
+        <v>131</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57">
       <c r="A76" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:56">
+        <v>132</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57">
       <c r="A77" t="s">
-        <v>132</v>
-      </c>
-      <c r="T77" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:56">
+        <v>133</v>
+      </c>
+      <c r="V77" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>57</v>
-      </c>
-      <c r="P78" t="s">
-        <v>57</v>
-      </c>
-      <c r="T78" t="s">
-        <v>57</v>
-      </c>
-      <c r="U78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R78" t="s">
+        <v>58</v>
       </c>
       <c r="V78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>58</v>
       </c>
       <c r="AD78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>58</v>
       </c>
       <c r="AH78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>58</v>
       </c>
       <c r="AT78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>58</v>
       </c>
       <c r="AX78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ78" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA78" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:56">
+        <v>135</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
       <c r="A80" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:56">
+        <v>136</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57">
       <c r="A81" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:56">
+        <v>137</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57">
       <c r="A82" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:56">
+        <v>138</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57">
       <c r="A84" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:56">
+        <v>140</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57">
       <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:56">
+        <v>141</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57">
       <c r="A86" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:56">
+        <v>142</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57">
       <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:56">
+        <v>143</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57">
       <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="P88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:56">
+        <v>144</v>
+      </c>
+      <c r="R88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57">
       <c r="A89" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:56">
+        <v>145</v>
+      </c>
+      <c r="BC89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57">
       <c r="A90" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:56">
+        <v>146</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:57">
       <c r="A91" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO91" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:56">
+        <v>147</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:57">
       <c r="A92" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:56">
+        <v>148</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57">
       <c r="A93" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:56">
+        <v>149</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57">
       <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="X94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:56">
+        <v>150</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:57">
       <c r="A95" t="s">
-        <v>150</v>
-      </c>
-      <c r="X95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:56">
+        <v>151</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57">
       <c r="A96" t="s">
-        <v>151</v>
-      </c>
-      <c r="P96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:57">
+        <v>152</v>
+      </c>
+      <c r="R96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I97" t="s">
-        <v>57</v>
-      </c>
-      <c r="P97" t="s">
-        <v>57</v>
-      </c>
-      <c r="V97" t="s">
-        <v>57</v>
-      </c>
-      <c r="W97" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="R97" t="s">
+        <v>58</v>
+      </c>
+      <c r="X97" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58">
       <c r="A98" t="s">
-        <v>153</v>
-      </c>
-      <c r="P98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:57">
+        <v>154</v>
+      </c>
+      <c r="R98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE99" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>58</v>
       </c>
       <c r="AG99" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BF99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L100" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J101" t="s">
-        <v>57</v>
-      </c>
-      <c r="P101" t="s">
-        <v>57</v>
-      </c>
-      <c r="T101" t="s">
-        <v>57</v>
-      </c>
-      <c r="U101" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R101" t="s">
+        <v>58</v>
       </c>
       <c r="V101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS101" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>58</v>
       </c>
       <c r="AT101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU101" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV101" t="s">
+        <v>58</v>
       </c>
       <c r="AX101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ101" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA101" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:58">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="AU102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
       <c r="A103" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:57">
+        <v>159</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58">
       <c r="A104" t="s">
-        <v>159</v>
-      </c>
-      <c r="W104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:57">
+        <v>160</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I105" t="s">
-        <v>57</v>
-      </c>
-      <c r="P105" t="s">
-        <v>57</v>
-      </c>
-      <c r="W105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="R105" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:58">
       <c r="A107" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:57">
+        <v>163</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58">
       <c r="A108" t="s">
-        <v>163</v>
-      </c>
-      <c r="W108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:57">
+        <v>164</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58">
       <c r="A109" t="s">
-        <v>164</v>
-      </c>
-      <c r="W109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:57">
+        <v>165</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:58">
       <c r="A110" t="s">
-        <v>165</v>
-      </c>
-      <c r="W110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:57">
+        <v>166</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58">
       <c r="A111" t="s">
-        <v>166</v>
-      </c>
-      <c r="W111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:57">
+        <v>167</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:58">
       <c r="A112" t="s">
-        <v>167</v>
-      </c>
-      <c r="W112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:56">
+        <v>168</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:57">
       <c r="A113" t="s">
-        <v>168</v>
-      </c>
-      <c r="W113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:56">
+        <v>169</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:57">
       <c r="A114" t="s">
-        <v>169</v>
-      </c>
-      <c r="W114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:56">
+        <v>170</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:57">
       <c r="A115" t="s">
-        <v>170</v>
-      </c>
-      <c r="W115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:56">
+        <v>171</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:57">
       <c r="A116" t="s">
-        <v>171</v>
-      </c>
-      <c r="W116" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:56">
+        <v>172</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:57">
       <c r="A117" t="s">
-        <v>172</v>
-      </c>
-      <c r="W117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:56">
+        <v>173</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:57">
       <c r="A118" t="s">
-        <v>173</v>
-      </c>
-      <c r="W118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:56">
+        <v>174</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:57">
       <c r="A119" t="s">
-        <v>174</v>
-      </c>
-      <c r="W119" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:56">
+        <v>175</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57">
       <c r="A120" t="s">
-        <v>175</v>
-      </c>
-      <c r="W120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:56">
+        <v>176</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57">
       <c r="A121" t="s">
-        <v>176</v>
-      </c>
-      <c r="W121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:56">
+        <v>177</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57">
       <c r="A122" t="s">
-        <v>177</v>
-      </c>
-      <c r="W122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:56">
+        <v>178</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57">
       <c r="A123" t="s">
-        <v>178</v>
-      </c>
-      <c r="W123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:56">
+        <v>179</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G124" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR124" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT124" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX124" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU124" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV124" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ124" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX125" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU125" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ125" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57">
       <c r="A128" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:56">
+        <v>184</v>
+      </c>
+      <c r="BE128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:57">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G129" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR129" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT129" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX129" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ129" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:57">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:57">
       <c r="A131" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR131" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:56">
+        <v>187</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:57">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX132" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU132" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV132" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ132" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:57">
       <c r="A133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G133" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS133" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT133" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX133" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU133" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV133" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57">
       <c r="A134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F134" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR134" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT134" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR135" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT135" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX135" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD135" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU135" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV135" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ135" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU136" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV136" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU137" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV137" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F138" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I140" t="s">
-        <v>57</v>
-      </c>
-      <c r="P140" t="s">
-        <v>57</v>
-      </c>
-      <c r="V140" t="s">
-        <v>57</v>
-      </c>
-      <c r="W140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="R140" t="s">
+        <v>58</v>
+      </c>
+      <c r="X140" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
-      </c>
-      <c r="T141" t="s">
-        <v>57</v>
-      </c>
-      <c r="U141" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB141" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC141" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V141" t="s">
+        <v>58</v>
+      </c>
+      <c r="W141" t="s">
+        <v>58</v>
       </c>
       <c r="AD141" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH141" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB141" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
-      </c>
-      <c r="T142" t="s">
-        <v>57</v>
-      </c>
-      <c r="U142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC142" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V142" t="s">
+        <v>58</v>
+      </c>
+      <c r="W142" t="s">
+        <v>58</v>
       </c>
       <c r="AD142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH142" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB142" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
-      </c>
-      <c r="T143" t="s">
-        <v>57</v>
-      </c>
-      <c r="U143" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB143" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC143" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V143" t="s">
+        <v>58</v>
+      </c>
+      <c r="W143" t="s">
+        <v>58</v>
       </c>
       <c r="AD143" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH143" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
-      </c>
-      <c r="T144" t="s">
-        <v>57</v>
-      </c>
-      <c r="U144" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC144" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V144" t="s">
+        <v>58</v>
+      </c>
+      <c r="W144" t="s">
+        <v>58</v>
       </c>
       <c r="AD144" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH144" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:50">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L145" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:50">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I146" t="s">
-        <v>57</v>
-      </c>
-      <c r="P146" t="s">
-        <v>57</v>
-      </c>
-      <c r="V146" t="s">
-        <v>57</v>
-      </c>
-      <c r="W146" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="R146" t="s">
+        <v>58</v>
+      </c>
+      <c r="X146" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:50">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I147" t="s">
-        <v>57</v>
-      </c>
-      <c r="P147" t="s">
-        <v>57</v>
-      </c>
-      <c r="V147" t="s">
-        <v>57</v>
-      </c>
-      <c r="W147" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF147" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="R147" t="s">
+        <v>58</v>
+      </c>
+      <c r="X147" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:50">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I148" t="s">
-        <v>57</v>
-      </c>
-      <c r="P148" t="s">
-        <v>57</v>
-      </c>
-      <c r="V148" t="s">
-        <v>57</v>
-      </c>
-      <c r="W148" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="149" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="R148" t="s">
+        <v>58</v>
+      </c>
+      <c r="X148" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:50">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I149" t="s">
-        <v>57</v>
-      </c>
-      <c r="P149" t="s">
-        <v>57</v>
-      </c>
-      <c r="V149" t="s">
-        <v>57</v>
-      </c>
-      <c r="W149" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF149" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="R149" t="s">
+        <v>58</v>
+      </c>
+      <c r="X149" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:50">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I150" t="s">
-        <v>57</v>
-      </c>
-      <c r="P150" t="s">
-        <v>57</v>
-      </c>
-      <c r="V150" t="s">
-        <v>57</v>
-      </c>
-      <c r="W150" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="R150" t="s">
+        <v>58</v>
+      </c>
+      <c r="X150" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:50">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L151" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:50">
       <c r="A152" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO152" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP152" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="AQ152" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AR152" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:50">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J153" t="s">
-        <v>57</v>
-      </c>
-      <c r="X153" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB153" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:50">
       <c r="A154" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD154" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:47">
+        <v>210</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:50">
       <c r="A155" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU155" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:47">
+        <v>211</v>
+      </c>
+      <c r="AX155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:50">
       <c r="A156" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU156" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="157" spans="1:47">
+        <v>212</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:50">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J157" t="s">
-        <v>57</v>
-      </c>
-      <c r="T157" t="s">
-        <v>57</v>
-      </c>
-      <c r="U157" t="s">
-        <v>57</v>
-      </c>
-      <c r="X157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="V157" t="s">
+        <v>58</v>
+      </c>
+      <c r="W157" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:50">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J158" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE158" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU158" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:50">
       <c r="A159" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD159" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:47">
+        <v>215</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:50">
       <c r="A160" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:56">
+        <v>216</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:57">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH161" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB161" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:57">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:57">
       <c r="A163" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:56">
+        <v>219</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:57">
       <c r="A164" t="s">
-        <v>219</v>
-      </c>
-      <c r="AU164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:56">
+        <v>220</v>
+      </c>
+      <c r="AX164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:57">
       <c r="A165" t="s">
-        <v>220</v>
-      </c>
-      <c r="U165" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:56">
+        <v>221</v>
+      </c>
+      <c r="W165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:57">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J166" t="s">
-        <v>57</v>
-      </c>
-      <c r="P166" t="s">
-        <v>57</v>
-      </c>
-      <c r="T166" t="s">
-        <v>57</v>
-      </c>
-      <c r="U166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R166" t="s">
+        <v>58</v>
       </c>
       <c r="V166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>58</v>
       </c>
       <c r="AD166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>58</v>
       </c>
       <c r="AH166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>58</v>
       </c>
       <c r="AT166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>58</v>
       </c>
       <c r="AX166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ166" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB166" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD166" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA166" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:57">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
-      </c>
-      <c r="P167" t="s">
-        <v>57</v>
-      </c>
-      <c r="T167" t="s">
-        <v>57</v>
-      </c>
-      <c r="U167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R167" t="s">
+        <v>58</v>
       </c>
       <c r="V167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>58</v>
       </c>
       <c r="AD167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>58</v>
       </c>
       <c r="AH167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>58</v>
       </c>
       <c r="AT167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>58</v>
       </c>
       <c r="AX167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ167" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB167" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD167" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA167" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC167" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:57">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L168" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:57">
       <c r="A169" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI169" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN169" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:56">
+        <v>225</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:57">
       <c r="A170" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:56">
+        <v>226</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57">
       <c r="A171" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI171" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:56">
+        <v>227</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:57">
       <c r="A172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:56">
+        <v>228</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57">
       <c r="A173" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:56">
+        <v>229</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57">
       <c r="A174" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:56">
+        <v>230</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:57">
       <c r="A175" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI175" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:56">
+        <v>231</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:57">
       <c r="A176" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI176" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:56">
+        <v>232</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:57">
       <c r="A177" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI177" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="178" spans="1:56">
+        <v>233</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:57">
       <c r="A178" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="1:56">
+        <v>234</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:57">
       <c r="A179" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI179" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:56">
+        <v>235</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:57">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I180" t="s">
-        <v>57</v>
-      </c>
-      <c r="P180" t="s">
-        <v>57</v>
-      </c>
-      <c r="V180" t="s">
-        <v>57</v>
-      </c>
-      <c r="W180" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE180" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF180" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ180" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="181" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="R180" t="s">
+        <v>58</v>
+      </c>
+      <c r="X180" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:57">
       <c r="A181" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN181" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:56">
+        <v>237</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:57">
       <c r="A182" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO182" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:56">
+        <v>238</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:57">
       <c r="A183" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO183" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="184" spans="1:56">
+        <v>239</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:57">
       <c r="A184" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI184" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="1:56">
+        <v>240</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:57">
       <c r="A185" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI185" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN185" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="186" spans="1:56">
+        <v>241</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:57">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J186" t="s">
-        <v>57</v>
-      </c>
-      <c r="P186" t="s">
-        <v>57</v>
-      </c>
-      <c r="T186" t="s">
-        <v>57</v>
-      </c>
-      <c r="U186" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R186" t="s">
+        <v>58</v>
       </c>
       <c r="V186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X186" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB186" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC186" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>58</v>
       </c>
       <c r="AD186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF186" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>58</v>
       </c>
       <c r="AH186" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR186" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS186" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>58</v>
       </c>
       <c r="AT186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU186" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>58</v>
       </c>
       <c r="AX186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ186" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB186" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA186" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC186" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:57">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J187" t="s">
-        <v>57</v>
-      </c>
-      <c r="P187" t="s">
-        <v>57</v>
-      </c>
-      <c r="T187" t="s">
-        <v>57</v>
-      </c>
-      <c r="U187" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
       </c>
       <c r="V187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X187" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB187" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>58</v>
       </c>
       <c r="AD187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF187" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>58</v>
       </c>
       <c r="AH187" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR187" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS187" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>58</v>
       </c>
       <c r="AT187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU187" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>58</v>
       </c>
       <c r="AX187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ187" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB187" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD187" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="188" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA187" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC187" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:57">
       <c r="A188" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB188" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="189" spans="1:56">
+        <v>244</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:57">
       <c r="A189" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB189" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="190" spans="1:56">
+        <v>245</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:57">
       <c r="A190" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB190" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="191" spans="1:56">
+        <v>246</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:57">
       <c r="A191" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB191" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="192" spans="1:56">
+        <v>247</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:57">
       <c r="A192" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB192" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="193" spans="1:54">
+        <v>248</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:55">
       <c r="A193" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB193" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="194" spans="1:54">
+        <v>249</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:55">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E194" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC194" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD194" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH194" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB194" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="195" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:55">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E195" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC195" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD195" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH195" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB195" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:55">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I196" t="s">
-        <v>57</v>
-      </c>
-      <c r="P196" t="s">
-        <v>57</v>
-      </c>
-      <c r="V196" t="s">
-        <v>57</v>
-      </c>
-      <c r="W196" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF196" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="197" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="X196" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:55">
       <c r="A197" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO197" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP197" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="AQ197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:55">
       <c r="A198" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
-      </c>
-      <c r="T198" t="s">
-        <v>57</v>
-      </c>
-      <c r="U198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V198" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB198" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU198" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="W198" t="s">
+        <v>58</v>
+      </c>
+      <c r="X198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:55">
       <c r="A199" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J199" t="s">
-        <v>57</v>
-      </c>
-      <c r="T199" t="s">
-        <v>57</v>
-      </c>
-      <c r="U199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V199" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB199" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU199" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="200" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="W199" t="s">
+        <v>58</v>
+      </c>
+      <c r="X199" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:55">
       <c r="A200" t="s">
-        <v>255</v>
-      </c>
-      <c r="V200" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:54">
+        <v>256</v>
+      </c>
+      <c r="X200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:55">
       <c r="A201" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO201" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP201" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="AQ201" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:55">
       <c r="A202" t="s">
-        <v>257</v>
-      </c>
-      <c r="V202" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="203" spans="1:54">
+        <v>258</v>
+      </c>
+      <c r="X202" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:55">
       <c r="A203" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:54">
+        <v>259</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:55">
       <c r="A204" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB204" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="205" spans="1:54">
+        <v>260</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:55">
       <c r="A205" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB205" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="206" spans="1:54">
+        <v>261</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:55">
       <c r="A206" t="s">
-        <v>261</v>
-      </c>
-      <c r="BB206" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="207" spans="1:54">
+        <v>262</v>
+      </c>
+      <c r="BC206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:55">
       <c r="A207" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN207" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:54">
+        <v>263</v>
+      </c>
+      <c r="AP207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:55">
       <c r="A208" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H208" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
-      </c>
-      <c r="V208" t="s">
-        <v>57</v>
-      </c>
-      <c r="W208" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="X208" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57">
       <c r="A209" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I209" t="s">
-        <v>57</v>
-      </c>
-      <c r="P209" t="s">
-        <v>57</v>
-      </c>
-      <c r="W209" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="210" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="R209" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:57">
       <c r="A210" t="s">
-        <v>265</v>
-      </c>
-      <c r="AO210" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP210" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="AQ210" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="211" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57">
       <c r="A211" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO211" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP211" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="AQ211" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="212" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:57">
       <c r="A212" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J212" t="s">
-        <v>57</v>
-      </c>
-      <c r="P212" t="s">
-        <v>57</v>
-      </c>
-      <c r="T212" t="s">
-        <v>57</v>
-      </c>
-      <c r="U212" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R212" t="s">
+        <v>58</v>
       </c>
       <c r="V212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X212" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB212" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC212" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>58</v>
       </c>
       <c r="AD212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF212" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>58</v>
       </c>
       <c r="AH212" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR212" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS212" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>58</v>
       </c>
       <c r="AT212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU212" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>58</v>
       </c>
       <c r="AX212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ212" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB212" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD212" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="213" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA212" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC212" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:57">
       <c r="A213" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX213" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="214" spans="1:56">
+        <v>269</v>
+      </c>
+      <c r="AZ213" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:57">
       <c r="A214" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO214" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP214" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="AQ214" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="215" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:57">
       <c r="A215" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB215" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="216" spans="1:56">
+        <v>271</v>
+      </c>
+      <c r="BC215" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:57">
       <c r="A216" t="s">
-        <v>271</v>
-      </c>
-      <c r="X216" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="217" spans="1:56">
+        <v>272</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:57">
       <c r="A217" t="s">
-        <v>272</v>
-      </c>
-      <c r="X217" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="218" spans="1:56">
+        <v>273</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:57">
       <c r="A218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J218" t="s">
-        <v>57</v>
-      </c>
-      <c r="T218" t="s">
-        <v>57</v>
-      </c>
-      <c r="U218" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB218" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE218" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU218" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="219" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="V218" t="s">
+        <v>58</v>
+      </c>
+      <c r="W218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:57">
       <c r="A219" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:56">
+        <v>275</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:57">
       <c r="A220" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J220" t="s">
-        <v>57</v>
-      </c>
-      <c r="P220" t="s">
-        <v>57</v>
-      </c>
-      <c r="V220" t="s">
-        <v>57</v>
-      </c>
-      <c r="W220" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R220" t="s">
+        <v>58</v>
       </c>
       <c r="X220" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB220" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC220" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>58</v>
       </c>
       <c r="AD220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF220" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>58</v>
       </c>
       <c r="AH220" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU220" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ220" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB220" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="221" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA220" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC220" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:57">
       <c r="A221" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J221" t="s">
-        <v>57</v>
-      </c>
-      <c r="P221" t="s">
-        <v>57</v>
-      </c>
-      <c r="V221" t="s">
-        <v>57</v>
-      </c>
-      <c r="W221" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R221" t="s">
+        <v>58</v>
       </c>
       <c r="X221" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB221" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC221" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>58</v>
       </c>
       <c r="AD221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF221" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>58</v>
       </c>
       <c r="AH221" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU221" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ221" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB221" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="222" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA221" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
       <c r="A222" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J222" t="s">
-        <v>57</v>
-      </c>
-      <c r="P222" t="s">
-        <v>57</v>
-      </c>
-      <c r="V222" t="s">
-        <v>57</v>
-      </c>
-      <c r="W222" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R222" t="s">
+        <v>58</v>
       </c>
       <c r="X222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC222" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>58</v>
       </c>
       <c r="AD222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF222" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>58</v>
       </c>
       <c r="AH222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ222" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB222" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="223" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA222" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
       <c r="A223" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
-      </c>
-      <c r="P223" t="s">
-        <v>57</v>
-      </c>
-      <c r="V223" t="s">
-        <v>57</v>
-      </c>
-      <c r="W223" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R223" t="s">
+        <v>58</v>
       </c>
       <c r="X223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC223" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>58</v>
       </c>
       <c r="AD223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF223" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>58</v>
       </c>
       <c r="AH223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ223" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB223" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="224" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
       <c r="A224" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J224" t="s">
-        <v>57</v>
-      </c>
-      <c r="X224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ224" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB224" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="225" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:55">
       <c r="A225" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J225" t="s">
-        <v>57</v>
-      </c>
-      <c r="X225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ225" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB225" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="226" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:55">
       <c r="A226" t="s">
-        <v>281</v>
-      </c>
-      <c r="AS226" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT226" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="227" spans="1:54">
+        <v>282</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:55">
       <c r="A227" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G227" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="228" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:55">
       <c r="A228" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G228" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="229" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="229" spans="1:55">
       <c r="A229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G229" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS229" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT229" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX229" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="230" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:55">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E230" t="s">
-        <v>57</v>
-      </c>
-      <c r="T230" t="s">
-        <v>57</v>
-      </c>
-      <c r="U230" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB230" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC230" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V230" t="s">
+        <v>58</v>
+      </c>
+      <c r="W230" t="s">
+        <v>58</v>
       </c>
       <c r="AD230" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH230" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB230" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC230" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:55">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E231" t="s">
-        <v>57</v>
-      </c>
-      <c r="T231" t="s">
-        <v>57</v>
-      </c>
-      <c r="U231" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB231" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC231" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V231" t="s">
+        <v>58</v>
+      </c>
+      <c r="W231" t="s">
+        <v>58</v>
       </c>
       <c r="AD231" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH231" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB231" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="232" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC231" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:55">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D232" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="233" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:55">
       <c r="A233" t="s">
-        <v>288</v>
-      </c>
-      <c r="AN233" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO233" t="s">
-        <v>57</v>
+        <v>289</v>
       </c>
       <c r="AP233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ233" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="234" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:55">
       <c r="A234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F234" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="235" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="235" spans="1:55">
       <c r="A235" t="s">
-        <v>290</v>
-      </c>
-      <c r="AR235" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS235" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="AT235" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="236" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV235" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:55">
       <c r="A236" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR236" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS236" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="AT236" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:55">
       <c r="A237" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR237" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS237" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="AT237" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="238" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:55">
       <c r="A238" t="s">
-        <v>293</v>
-      </c>
-      <c r="AR238" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS238" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="AT238" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="239" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:55">
       <c r="A239" t="s">
-        <v>294</v>
-      </c>
-      <c r="AR239" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS239" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="AT239" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="240" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:55">
       <c r="A240" t="s">
-        <v>295</v>
-      </c>
-      <c r="AR240" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS240" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="AT240" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="241" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="241" spans="1:57">
       <c r="A241" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD241" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="242" spans="1:56">
+        <v>297</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="242" spans="1:57">
       <c r="A242" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP242" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:56">
+        <v>298</v>
+      </c>
+      <c r="AR242" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="243" spans="1:57">
       <c r="A243" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J243" t="s">
-        <v>57</v>
-      </c>
-      <c r="P243" t="s">
-        <v>57</v>
-      </c>
-      <c r="T243" t="s">
-        <v>57</v>
-      </c>
-      <c r="U243" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R243" t="s">
+        <v>58</v>
       </c>
       <c r="V243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W243" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB243" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU243" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ243" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="244" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="X243" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX243" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA243" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:57">
       <c r="A244" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP244" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="245" spans="1:56">
+        <v>300</v>
+      </c>
+      <c r="AR244" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:57">
       <c r="A245" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP245" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="246" spans="1:56">
+        <v>301</v>
+      </c>
+      <c r="AR245" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:57">
       <c r="A246" t="s">
-        <v>301</v>
-      </c>
-      <c r="T246" t="s">
-        <v>57</v>
-      </c>
-      <c r="U246" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB246" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="247" spans="1:56">
+        <v>302</v>
+      </c>
+      <c r="V246" t="s">
+        <v>58</v>
+      </c>
+      <c r="W246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:57">
       <c r="A247" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD247" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="248" spans="1:56">
+        <v>303</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:57">
       <c r="A248" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G248" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR248" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT248" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX248" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD248" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="249" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ248" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE248" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:57">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F249" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G249" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR249" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS249" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT249" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX249" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD249" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="250" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ249" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE249" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:57">
       <c r="A250" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G250" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR250" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT250" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX250" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD250" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="251" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ250" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE250" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:57">
       <c r="A251" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G251" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR251" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT251" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX251" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD251" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="252" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ251" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE251" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:57">
       <c r="A252" t="s">
-        <v>307</v>
-      </c>
-      <c r="T252" t="s">
-        <v>57</v>
-      </c>
-      <c r="U252" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB252" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="253" spans="1:56">
+        <v>308</v>
+      </c>
+      <c r="V252" t="s">
+        <v>58</v>
+      </c>
+      <c r="W252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:57">
       <c r="A253" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E253" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC253" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD253" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH253" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB253" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="254" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC253" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:57">
       <c r="A254" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH254" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:56">
+        <v>310</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:57">
       <c r="A255" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH255" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="256" spans="1:56">
+        <v>311</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:57">
       <c r="A256" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT256" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="257" spans="1:54">
+        <v>312</v>
+      </c>
+      <c r="AV256" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:55">
       <c r="A257" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO257" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP257" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="AQ257" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="258" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR257" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:55">
       <c r="A258" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO258" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP258" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="AQ258" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="259" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:55">
       <c r="A259" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I259" t="s">
-        <v>57</v>
-      </c>
-      <c r="P259" t="s">
-        <v>57</v>
-      </c>
-      <c r="W259" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="260" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="R259" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:55">
       <c r="A260" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I260" t="s">
-        <v>57</v>
-      </c>
-      <c r="P260" t="s">
-        <v>57</v>
-      </c>
-      <c r="W260" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="261" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="R260" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261" spans="1:55">
       <c r="A261" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I261" t="s">
-        <v>57</v>
-      </c>
-      <c r="P261" t="s">
-        <v>57</v>
-      </c>
-      <c r="W261" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="262" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="R261" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="262" spans="1:55">
       <c r="A262" t="s">
-        <v>317</v>
-      </c>
-      <c r="AN262" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="263" spans="1:54">
+        <v>318</v>
+      </c>
+      <c r="AP262" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:55">
       <c r="A263" t="s">
-        <v>318</v>
-      </c>
-      <c r="AN263" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="264" spans="1:54">
+        <v>319</v>
+      </c>
+      <c r="AP263" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:55">
       <c r="A264" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN264" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="265" spans="1:54">
+        <v>320</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="265" spans="1:55">
       <c r="A265" t="s">
-        <v>320</v>
-      </c>
-      <c r="AN265" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="266" spans="1:54">
+        <v>321</v>
+      </c>
+      <c r="AP265" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="266" spans="1:55">
       <c r="A266" t="s">
-        <v>321</v>
-      </c>
-      <c r="BB266" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="267" spans="1:54">
+        <v>322</v>
+      </c>
+      <c r="BC266" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="267" spans="1:55">
       <c r="A267" t="s">
-        <v>322</v>
-      </c>
-      <c r="AZ267" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="268" spans="1:54">
+        <v>323</v>
+      </c>
+      <c r="BA267" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="1:55">
       <c r="A268" t="s">
-        <v>323</v>
-      </c>
-      <c r="T268" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="269" spans="1:54">
+        <v>324</v>
+      </c>
+      <c r="V268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:55">
       <c r="A269" t="s">
-        <v>324</v>
-      </c>
-      <c r="X269" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="270" spans="1:54">
+        <v>325</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:55">
       <c r="A270" t="s">
-        <v>325</v>
-      </c>
-      <c r="AO270" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP270" t="s">
-        <v>57</v>
+        <v>326</v>
       </c>
       <c r="AQ270" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="271" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS270" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="271" spans="1:55">
       <c r="A271" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO271" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP271" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="AQ271" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="272" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AR271" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="272" spans="1:55">
       <c r="A272" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="273" spans="1:56">
+        <v>328</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:57">
       <c r="A273" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ273" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="274" spans="1:56">
+        <v>329</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="1:57">
       <c r="A274" t="s">
-        <v>329</v>
-      </c>
-      <c r="AQ274" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="275" spans="1:56">
+        <v>330</v>
+      </c>
+      <c r="AS274" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275" spans="1:57">
       <c r="A275" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ275" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="276" spans="1:56">
+        <v>331</v>
+      </c>
+      <c r="AS275" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:57">
       <c r="A276" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J276" t="s">
-        <v>57</v>
-      </c>
-      <c r="P276" t="s">
-        <v>57</v>
-      </c>
-      <c r="T276" t="s">
-        <v>57</v>
-      </c>
-      <c r="U276" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R276" t="s">
+        <v>58</v>
       </c>
       <c r="V276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X276" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB276" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>58</v>
       </c>
       <c r="AD276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF276" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>58</v>
       </c>
       <c r="AH276" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR276" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS276" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>58</v>
       </c>
       <c r="AT276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU276" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV276" t="s">
+        <v>58</v>
       </c>
       <c r="AX276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ276" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB276" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD276" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="277" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA276" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC276" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE276" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:57">
       <c r="A277" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI277" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="278" spans="1:56">
+        <v>333</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="1:57">
       <c r="A278" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI278" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="279" spans="1:56">
+        <v>334</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:57">
       <c r="A279" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC279" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH279" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="280" spans="1:56">
+        <v>335</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:57">
       <c r="A280" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI280" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="281" spans="1:56">
+        <v>336</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="281" spans="1:57">
       <c r="A281" t="s">
-        <v>336</v>
-      </c>
-      <c r="AR281" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="282" spans="1:56">
+        <v>337</v>
+      </c>
+      <c r="AT281" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:57">
       <c r="A282" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F282" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR282" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="283" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:57">
       <c r="A283" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F283" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR283" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="284" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284" spans="1:57">
       <c r="A284" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F284" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR284" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="285" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AT284" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="285" spans="1:57">
       <c r="A285" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO285" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP285" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="AQ285" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="286" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AR285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS285" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="1:57">
       <c r="A286" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS286" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="287" spans="1:56">
+        <v>342</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="287" spans="1:57">
       <c r="A287" t="s">
-        <v>342</v>
-      </c>
-      <c r="AS287" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="288" spans="1:56">
+        <v>343</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="288" spans="1:57">
       <c r="A288" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS288" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="289" spans="1:56">
+        <v>344</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289" spans="1:57">
       <c r="A289" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D289" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="290" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:57">
       <c r="A290" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L290" t="s">
-        <v>57</v>
-      </c>
-      <c r="P290" t="s">
-        <v>57</v>
-      </c>
-      <c r="T290" t="s">
-        <v>57</v>
-      </c>
-      <c r="U290" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="R290" t="s">
+        <v>58</v>
       </c>
       <c r="V290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X290" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB290" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC290" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>58</v>
       </c>
       <c r="AD290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF290" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>58</v>
       </c>
       <c r="AH290" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK290" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO290" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP290" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>58</v>
       </c>
       <c r="AQ290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS290" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AT290" t="s">
+        <v>58</v>
       </c>
       <c r="AU290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ290" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB290" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD290" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="291" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA290" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC290" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE290" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="291" spans="1:57">
       <c r="A291" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN291" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="292" spans="1:56">
+        <v>347</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:57">
       <c r="A292" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC292" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="293" spans="1:56">
+        <v>348</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:57">
       <c r="A293" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC293" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="294" spans="1:56">
+        <v>349</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:57">
       <c r="A294" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH294" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="295" spans="1:56">
+        <v>350</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="295" spans="1:57">
       <c r="A295" t="s">
-        <v>350</v>
-      </c>
-      <c r="AO295" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="296" spans="1:56">
+        <v>351</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="296" spans="1:57">
       <c r="A296" t="s">
-        <v>351</v>
-      </c>
-      <c r="AO296" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="297" spans="1:56">
+        <v>352</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="297" spans="1:57">
       <c r="A297" t="s">
-        <v>352</v>
-      </c>
-      <c r="AN297" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="298" spans="1:56">
+        <v>353</v>
+      </c>
+      <c r="AP297" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:57">
       <c r="A298" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN298" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="299" spans="1:56">
+        <v>354</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="299" spans="1:57">
       <c r="A299" t="s">
-        <v>354</v>
-      </c>
-      <c r="AI299" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="300" spans="1:56">
+        <v>355</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:57">
       <c r="A300" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI300" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="301" spans="1:56">
+        <v>356</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="301" spans="1:57">
       <c r="A301" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH301" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="302" spans="1:56">
+        <v>357</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="302" spans="1:57">
       <c r="A302" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH302" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="303" spans="1:56">
+        <v>358</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:57">
       <c r="A303" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI303" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO303" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="304" spans="1:56">
+        <v>359</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="304" spans="1:57">
       <c r="A304" t="s">
-        <v>359</v>
-      </c>
-      <c r="AO304" t="s">
-        <v>57</v>
+        <v>360</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2238,7 +2238,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique HuBMAP identifier for the organ. This can be found in the Submission ID section of a registered donor on the Ingest UI.</t>
+          <t>UUID or HuBMAP ID of organ</t>
         </r>
       </text>
     </comment>
@@ -2355,11 +2355,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>UUID or HuBMAP ID of parent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Further details on organ level QC checks.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2489,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2515,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2554,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2606,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2684,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2775,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2814,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2840,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2866,7 +2879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2905,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2918,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2944,7 +2957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2957,7 +2970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2970,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2983,7 +2996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2996,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,7 +3035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3035,7 +3048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3048,7 +3061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3061,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3126,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3152,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3204,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3243,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A252" authorId="0">
+    <comment ref="A253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A253" authorId="0">
+    <comment ref="A254" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A254" authorId="0">
+    <comment ref="A255" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0">
+    <comment ref="A257" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A257" authorId="0">
+    <comment ref="A258" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3360,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A259" authorId="0">
+    <comment ref="A260" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3373,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A260" authorId="0">
+    <comment ref="A261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A261" authorId="0">
+    <comment ref="A262" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A262" authorId="0">
+    <comment ref="A263" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0">
+    <comment ref="A264" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3425,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A264" authorId="0">
+    <comment ref="A265" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3438,7 +3451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A265" authorId="0">
+    <comment ref="A266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A266" authorId="0">
+    <comment ref="A267" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3464,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A268" authorId="0">
+    <comment ref="A269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3490,7 +3503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3516,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A272" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3529,7 +3542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3568,7 +3581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3581,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3607,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3633,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3711,7 +3724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3724,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3737,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A292" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A293" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3815,7 +3828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A294" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3828,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A295" authorId="0">
+    <comment ref="A296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3841,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A296" authorId="0">
+    <comment ref="A297" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3854,7 +3867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A297" authorId="0">
+    <comment ref="A298" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3867,7 +3880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A298" authorId="0">
+    <comment ref="A299" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3880,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A299" authorId="0">
+    <comment ref="A300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3893,7 +3906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A300" authorId="0">
+    <comment ref="A301" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3906,7 +3919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A301" authorId="0">
+    <comment ref="A302" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3919,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A302" authorId="0">
+    <comment ref="A303" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A303" authorId="0">
+    <comment ref="A304" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3945,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A304" authorId="0">
+    <comment ref="A305" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3963,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="362">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4674,6 +4687,9 @@
   </si>
   <si>
     <t>overall_protocols_io_doi</t>
+  </si>
+  <si>
+    <t>parent_id</t>
   </si>
   <si>
     <t>pathologist_report</t>
@@ -5386,7 +5402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF304"/>
+  <dimension ref="A1:BF305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8804,7 +8820,7 @@
       <c r="A181" t="s">
         <v>237</v>
       </c>
-      <c r="AP181" t="s">
+      <c r="U181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8812,7 +8828,7 @@
       <c r="A182" t="s">
         <v>238</v>
       </c>
-      <c r="AQ182" t="s">
+      <c r="AP182" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8828,7 +8844,7 @@
       <c r="A184" t="s">
         <v>240</v>
       </c>
-      <c r="AK184" t="s">
+      <c r="AQ184" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8839,93 +8855,15 @@
       <c r="AK185" t="s">
         <v>58</v>
       </c>
-      <c r="AP185" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="186" spans="1:57">
       <c r="A186" t="s">
         <v>242</v>
       </c>
-      <c r="C186" t="s">
-        <v>58</v>
-      </c>
-      <c r="E186" t="s">
-        <v>58</v>
-      </c>
-      <c r="F186" t="s">
-        <v>58</v>
-      </c>
-      <c r="G186" t="s">
-        <v>58</v>
-      </c>
-      <c r="H186" t="s">
-        <v>58</v>
-      </c>
-      <c r="I186" t="s">
-        <v>58</v>
-      </c>
-      <c r="J186" t="s">
-        <v>58</v>
-      </c>
-      <c r="R186" t="s">
-        <v>58</v>
-      </c>
-      <c r="V186" t="s">
-        <v>58</v>
-      </c>
-      <c r="W186" t="s">
-        <v>58</v>
-      </c>
-      <c r="X186" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE186" t="s">
+      <c r="AK186" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP186" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9019,7 +8957,85 @@
       <c r="A188" t="s">
         <v>244</v>
       </c>
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+      <c r="E188" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" t="s">
+        <v>58</v>
+      </c>
+      <c r="H188" t="s">
+        <v>58</v>
+      </c>
+      <c r="I188" t="s">
+        <v>58</v>
+      </c>
+      <c r="J188" t="s">
+        <v>58</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="V188" t="s">
+        <v>58</v>
+      </c>
+      <c r="W188" t="s">
+        <v>58</v>
+      </c>
+      <c r="X188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>58</v>
+      </c>
       <c r="AD188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE188" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9067,19 +9083,7 @@
       <c r="A194" t="s">
         <v>250</v>
       </c>
-      <c r="E194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC194" t="s">
+      <c r="AD194" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9107,19 +9111,19 @@
       <c r="A196" t="s">
         <v>252</v>
       </c>
-      <c r="I196" t="s">
-        <v>58</v>
-      </c>
-      <c r="R196" t="s">
-        <v>58</v>
-      </c>
-      <c r="X196" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH196" t="s">
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC196" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9127,13 +9131,19 @@
       <c r="A197" t="s">
         <v>253</v>
       </c>
-      <c r="AQ197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS197" t="s">
+      <c r="I197" t="s">
+        <v>58</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="X197" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH197" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9141,22 +9151,13 @@
       <c r="A198" t="s">
         <v>254</v>
       </c>
-      <c r="J198" t="s">
-        <v>58</v>
-      </c>
-      <c r="V198" t="s">
-        <v>58</v>
-      </c>
-      <c r="W198" t="s">
-        <v>58</v>
-      </c>
-      <c r="X198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX198" t="s">
+      <c r="AQ198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS198" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9187,7 +9188,22 @@
       <c r="A200" t="s">
         <v>256</v>
       </c>
+      <c r="J200" t="s">
+        <v>58</v>
+      </c>
+      <c r="V200" t="s">
+        <v>58</v>
+      </c>
+      <c r="W200" t="s">
+        <v>58</v>
+      </c>
       <c r="X200" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX200" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9195,13 +9211,7 @@
       <c r="A201" t="s">
         <v>257</v>
       </c>
-      <c r="AQ201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS201" t="s">
+      <c r="X201" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9209,7 +9219,13 @@
       <c r="A202" t="s">
         <v>258</v>
       </c>
-      <c r="X202" t="s">
+      <c r="AQ202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS202" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9217,7 +9233,7 @@
       <c r="A203" t="s">
         <v>259</v>
       </c>
-      <c r="AD203" t="s">
+      <c r="X203" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9241,7 +9257,7 @@
       <c r="A206" t="s">
         <v>262</v>
       </c>
-      <c r="BC206" t="s">
+      <c r="AD206" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9249,7 +9265,7 @@
       <c r="A207" t="s">
         <v>263</v>
       </c>
-      <c r="AP207" t="s">
+      <c r="BC207" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9257,19 +9273,7 @@
       <c r="A208" t="s">
         <v>264</v>
       </c>
-      <c r="H208" t="s">
-        <v>58</v>
-      </c>
-      <c r="I208" t="s">
-        <v>58</v>
-      </c>
-      <c r="X208" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH208" t="s">
+      <c r="AP208" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9277,13 +9281,19 @@
       <c r="A209" t="s">
         <v>265</v>
       </c>
+      <c r="H209" t="s">
+        <v>58</v>
+      </c>
       <c r="I209" t="s">
         <v>58</v>
       </c>
-      <c r="R209" t="s">
+      <c r="X209" t="s">
         <v>58</v>
       </c>
       <c r="Y209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH209" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9291,13 +9301,13 @@
       <c r="A210" t="s">
         <v>266</v>
       </c>
-      <c r="AQ210" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR210" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS210" t="s">
+      <c r="I210" t="s">
+        <v>58</v>
+      </c>
+      <c r="R210" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y210" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9319,85 +9329,13 @@
       <c r="A212" t="s">
         <v>268</v>
       </c>
-      <c r="C212" t="s">
-        <v>58</v>
-      </c>
-      <c r="E212" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" t="s">
-        <v>58</v>
-      </c>
-      <c r="G212" t="s">
-        <v>58</v>
-      </c>
-      <c r="H212" t="s">
-        <v>58</v>
-      </c>
-      <c r="I212" t="s">
-        <v>58</v>
-      </c>
-      <c r="J212" t="s">
-        <v>58</v>
-      </c>
-      <c r="R212" t="s">
-        <v>58</v>
-      </c>
-      <c r="V212" t="s">
-        <v>58</v>
-      </c>
-      <c r="W212" t="s">
-        <v>58</v>
-      </c>
-      <c r="X212" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE212" t="s">
+      <c r="AQ212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS212" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9405,7 +9343,85 @@
       <c r="A213" t="s">
         <v>269</v>
       </c>
+      <c r="C213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E213" t="s">
+        <v>58</v>
+      </c>
+      <c r="F213" t="s">
+        <v>58</v>
+      </c>
+      <c r="G213" t="s">
+        <v>58</v>
+      </c>
+      <c r="H213" t="s">
+        <v>58</v>
+      </c>
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+      <c r="J213" t="s">
+        <v>58</v>
+      </c>
+      <c r="R213" t="s">
+        <v>58</v>
+      </c>
+      <c r="V213" t="s">
+        <v>58</v>
+      </c>
+      <c r="W213" t="s">
+        <v>58</v>
+      </c>
+      <c r="X213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE213" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9413,13 +9429,7 @@
       <c r="A214" t="s">
         <v>270</v>
       </c>
-      <c r="AQ214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS214" t="s">
+      <c r="AZ214" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9427,7 +9437,13 @@
       <c r="A215" t="s">
         <v>271</v>
       </c>
-      <c r="BC215" t="s">
+      <c r="AQ215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS215" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9435,7 +9451,7 @@
       <c r="A216" t="s">
         <v>272</v>
       </c>
-      <c r="Z216" t="s">
+      <c r="BC216" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9451,22 +9467,7 @@
       <c r="A218" t="s">
         <v>274</v>
       </c>
-      <c r="J218" t="s">
-        <v>58</v>
-      </c>
-      <c r="V218" t="s">
-        <v>58</v>
-      </c>
-      <c r="W218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX218" t="s">
+      <c r="Z218" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9474,7 +9475,22 @@
       <c r="A219" t="s">
         <v>275</v>
       </c>
-      <c r="AF219" t="s">
+      <c r="J219" t="s">
+        <v>58</v>
+      </c>
+      <c r="V219" t="s">
+        <v>58</v>
+      </c>
+      <c r="W219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX219" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9482,58 +9498,7 @@
       <c r="A220" t="s">
         <v>276</v>
       </c>
-      <c r="C220" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" t="s">
-        <v>58</v>
-      </c>
-      <c r="H220" t="s">
-        <v>58</v>
-      </c>
-      <c r="I220" t="s">
-        <v>58</v>
-      </c>
-      <c r="J220" t="s">
-        <v>58</v>
-      </c>
-      <c r="R220" t="s">
-        <v>58</v>
-      </c>
-      <c r="X220" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y220" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE220" t="s">
-        <v>58</v>
-      </c>
       <c r="AF220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX220" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA220" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC220" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9724,16 +9689,40 @@
       <c r="E224" t="s">
         <v>58</v>
       </c>
+      <c r="H224" t="s">
+        <v>58</v>
+      </c>
+      <c r="I224" t="s">
+        <v>58</v>
+      </c>
       <c r="J224" t="s">
         <v>58</v>
       </c>
+      <c r="R224" t="s">
+        <v>58</v>
+      </c>
+      <c r="X224" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>58</v>
+      </c>
       <c r="Z224" t="s">
         <v>58</v>
       </c>
+      <c r="AD224" t="s">
+        <v>58</v>
+      </c>
       <c r="AE224" t="s">
         <v>58</v>
       </c>
       <c r="AF224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH224" t="s">
         <v>58</v>
       </c>
       <c r="AJ224" t="s">
@@ -9788,10 +9777,34 @@
       <c r="A226" t="s">
         <v>282</v>
       </c>
-      <c r="AU226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV226" t="s">
+      <c r="C226" t="s">
+        <v>58</v>
+      </c>
+      <c r="E226" t="s">
+        <v>58</v>
+      </c>
+      <c r="J226" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC226" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9799,7 +9812,10 @@
       <c r="A227" t="s">
         <v>283</v>
       </c>
-      <c r="G227" t="s">
+      <c r="AU227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV227" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9818,42 +9834,21 @@
       <c r="G229" t="s">
         <v>58</v>
       </c>
-      <c r="AU229" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV229" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ229" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="230" spans="1:55">
       <c r="A230" t="s">
         <v>286</v>
       </c>
-      <c r="E230" t="s">
-        <v>58</v>
-      </c>
-      <c r="V230" t="s">
-        <v>58</v>
-      </c>
-      <c r="W230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ230" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC230" t="s">
+      <c r="G230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ230" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9890,7 +9885,28 @@
       <c r="A232" t="s">
         <v>288</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
+        <v>58</v>
+      </c>
+      <c r="V232" t="s">
+        <v>58</v>
+      </c>
+      <c r="W232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC232" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9898,16 +9914,7 @@
       <c r="A233" t="s">
         <v>289</v>
       </c>
-      <c r="AP233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS233" t="s">
+      <c r="D233" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9915,7 +9922,16 @@
       <c r="A234" t="s">
         <v>290</v>
       </c>
-      <c r="F234" t="s">
+      <c r="AP234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS234" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9923,13 +9939,7 @@
       <c r="A235" t="s">
         <v>291</v>
       </c>
-      <c r="AT235" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU235" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV235" t="s">
+      <c r="F235" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10007,7 +10017,13 @@
       <c r="A241" t="s">
         <v>297</v>
       </c>
-      <c r="AF241" t="s">
+      <c r="AT241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV241" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10015,7 +10031,7 @@
       <c r="A242" t="s">
         <v>298</v>
       </c>
-      <c r="AR242" t="s">
+      <c r="AF242" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10023,37 +10039,7 @@
       <c r="A243" t="s">
         <v>299</v>
       </c>
-      <c r="I243" t="s">
-        <v>58</v>
-      </c>
-      <c r="J243" t="s">
-        <v>58</v>
-      </c>
-      <c r="R243" t="s">
-        <v>58</v>
-      </c>
-      <c r="V243" t="s">
-        <v>58</v>
-      </c>
-      <c r="W243" t="s">
-        <v>58</v>
-      </c>
-      <c r="X243" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX243" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA243" t="s">
+      <c r="AR243" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10061,7 +10047,37 @@
       <c r="A244" t="s">
         <v>300</v>
       </c>
-      <c r="AR244" t="s">
+      <c r="I244" t="s">
+        <v>58</v>
+      </c>
+      <c r="J244" t="s">
+        <v>58</v>
+      </c>
+      <c r="R244" t="s">
+        <v>58</v>
+      </c>
+      <c r="V244" t="s">
+        <v>58</v>
+      </c>
+      <c r="W244" t="s">
+        <v>58</v>
+      </c>
+      <c r="X244" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA244" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10077,13 +10093,7 @@
       <c r="A246" t="s">
         <v>302</v>
       </c>
-      <c r="V246" t="s">
-        <v>58</v>
-      </c>
-      <c r="W246" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD246" t="s">
+      <c r="AR246" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10091,7 +10101,13 @@
       <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="AF247" t="s">
+      <c r="V247" t="s">
+        <v>58</v>
+      </c>
+      <c r="W247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD247" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10099,25 +10115,7 @@
       <c r="A248" t="s">
         <v>304</v>
       </c>
-      <c r="F248" t="s">
-        <v>58</v>
-      </c>
-      <c r="G248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ248" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE248" t="s">
+      <c r="AF248" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10203,13 +10201,25 @@
       <c r="A252" t="s">
         <v>308</v>
       </c>
-      <c r="V252" t="s">
-        <v>58</v>
-      </c>
-      <c r="W252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD252" t="s">
+      <c r="F252" t="s">
+        <v>58</v>
+      </c>
+      <c r="G252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ252" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE252" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10217,19 +10227,13 @@
       <c r="A253" t="s">
         <v>309</v>
       </c>
-      <c r="E253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ253" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC253" t="s">
+      <c r="V253" t="s">
+        <v>58</v>
+      </c>
+      <c r="W253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD253" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10237,7 +10241,19 @@
       <c r="A254" t="s">
         <v>310</v>
       </c>
+      <c r="E254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ254" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC254" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10253,7 +10269,7 @@
       <c r="A256" t="s">
         <v>312</v>
       </c>
-      <c r="AV256" t="s">
+      <c r="AJ256" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10261,13 +10277,7 @@
       <c r="A257" t="s">
         <v>313</v>
       </c>
-      <c r="AQ257" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR257" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS257" t="s">
+      <c r="AV257" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10289,13 +10299,13 @@
       <c r="A259" t="s">
         <v>315</v>
       </c>
-      <c r="I259" t="s">
-        <v>58</v>
-      </c>
-      <c r="R259" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y259" t="s">
+      <c r="AQ259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS259" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10331,7 +10341,13 @@
       <c r="A262" t="s">
         <v>318</v>
       </c>
-      <c r="AP262" t="s">
+      <c r="I262" t="s">
+        <v>58</v>
+      </c>
+      <c r="R262" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y262" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10363,7 +10379,7 @@
       <c r="A266" t="s">
         <v>322</v>
       </c>
-      <c r="BC266" t="s">
+      <c r="AP266" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10371,7 +10387,7 @@
       <c r="A267" t="s">
         <v>323</v>
       </c>
-      <c r="BA267" t="s">
+      <c r="BC267" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10379,10 +10395,7 @@
       <c r="A268" t="s">
         <v>324</v>
       </c>
-      <c r="V268" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD268" t="s">
+      <c r="BA268" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10390,7 +10403,10 @@
       <c r="A269" t="s">
         <v>325</v>
       </c>
-      <c r="Z269" t="s">
+      <c r="V269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD269" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10398,13 +10414,7 @@
       <c r="A270" t="s">
         <v>326</v>
       </c>
-      <c r="AQ270" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR270" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS270" t="s">
+      <c r="Z270" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10426,6 +10436,12 @@
       <c r="A272" t="s">
         <v>328</v>
       </c>
+      <c r="AQ272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>58</v>
+      </c>
       <c r="AS272" t="s">
         <v>58</v>
       </c>
@@ -10458,85 +10474,7 @@
       <c r="A276" t="s">
         <v>332</v>
       </c>
-      <c r="C276" t="s">
-        <v>58</v>
-      </c>
-      <c r="E276" t="s">
-        <v>58</v>
-      </c>
-      <c r="F276" t="s">
-        <v>58</v>
-      </c>
-      <c r="G276" t="s">
-        <v>58</v>
-      </c>
-      <c r="H276" t="s">
-        <v>58</v>
-      </c>
-      <c r="I276" t="s">
-        <v>58</v>
-      </c>
-      <c r="J276" t="s">
-        <v>58</v>
-      </c>
-      <c r="R276" t="s">
-        <v>58</v>
-      </c>
-      <c r="V276" t="s">
-        <v>58</v>
-      </c>
-      <c r="W276" t="s">
-        <v>58</v>
-      </c>
-      <c r="X276" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y276" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE276" t="s">
+      <c r="AS276" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10544,7 +10482,85 @@
       <c r="A277" t="s">
         <v>333</v>
       </c>
-      <c r="AK277" t="s">
+      <c r="C277" t="s">
+        <v>58</v>
+      </c>
+      <c r="E277" t="s">
+        <v>58</v>
+      </c>
+      <c r="F277" t="s">
+        <v>58</v>
+      </c>
+      <c r="G277" t="s">
+        <v>58</v>
+      </c>
+      <c r="H277" t="s">
+        <v>58</v>
+      </c>
+      <c r="I277" t="s">
+        <v>58</v>
+      </c>
+      <c r="J277" t="s">
+        <v>58</v>
+      </c>
+      <c r="R277" t="s">
+        <v>58</v>
+      </c>
+      <c r="V277" t="s">
+        <v>58</v>
+      </c>
+      <c r="W277" t="s">
+        <v>58</v>
+      </c>
+      <c r="X277" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE277" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10560,10 +10576,7 @@
       <c r="A279" t="s">
         <v>335</v>
       </c>
-      <c r="AE279" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ279" t="s">
+      <c r="AK279" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10571,7 +10584,10 @@
       <c r="A280" t="s">
         <v>336</v>
       </c>
-      <c r="AK280" t="s">
+      <c r="AE280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ280" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10579,7 +10595,7 @@
       <c r="A281" t="s">
         <v>337</v>
       </c>
-      <c r="AT281" t="s">
+      <c r="AK281" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10587,9 +10603,6 @@
       <c r="A282" t="s">
         <v>338</v>
       </c>
-      <c r="F282" t="s">
-        <v>58</v>
-      </c>
       <c r="AT282" t="s">
         <v>58</v>
       </c>
@@ -10620,13 +10633,10 @@
       <c r="A285" t="s">
         <v>341</v>
       </c>
-      <c r="AQ285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS285" t="s">
+      <c r="F285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT285" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10634,7 +10644,13 @@
       <c r="A286" t="s">
         <v>342</v>
       </c>
-      <c r="AU286" t="s">
+      <c r="AQ286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS286" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10658,7 +10674,7 @@
       <c r="A289" t="s">
         <v>345</v>
       </c>
-      <c r="D289" t="s">
+      <c r="AU289" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10666,100 +10682,7 @@
       <c r="A290" t="s">
         <v>346</v>
       </c>
-      <c r="C290" t="s">
-        <v>58</v>
-      </c>
       <c r="D290" t="s">
-        <v>58</v>
-      </c>
-      <c r="E290" t="s">
-        <v>58</v>
-      </c>
-      <c r="F290" t="s">
-        <v>58</v>
-      </c>
-      <c r="G290" t="s">
-        <v>58</v>
-      </c>
-      <c r="H290" t="s">
-        <v>58</v>
-      </c>
-      <c r="I290" t="s">
-        <v>58</v>
-      </c>
-      <c r="J290" t="s">
-        <v>58</v>
-      </c>
-      <c r="L290" t="s">
-        <v>58</v>
-      </c>
-      <c r="R290" t="s">
-        <v>58</v>
-      </c>
-      <c r="V290" t="s">
-        <v>58</v>
-      </c>
-      <c r="W290" t="s">
-        <v>58</v>
-      </c>
-      <c r="X290" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y290" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE290" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10767,7 +10690,100 @@
       <c r="A291" t="s">
         <v>347</v>
       </c>
-      <c r="AP291" t="s">
+      <c r="C291" t="s">
+        <v>58</v>
+      </c>
+      <c r="D291" t="s">
+        <v>58</v>
+      </c>
+      <c r="E291" t="s">
+        <v>58</v>
+      </c>
+      <c r="F291" t="s">
+        <v>58</v>
+      </c>
+      <c r="G291" t="s">
+        <v>58</v>
+      </c>
+      <c r="H291" t="s">
+        <v>58</v>
+      </c>
+      <c r="I291" t="s">
+        <v>58</v>
+      </c>
+      <c r="J291" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" t="s">
+        <v>58</v>
+      </c>
+      <c r="R291" t="s">
+        <v>58</v>
+      </c>
+      <c r="V291" t="s">
+        <v>58</v>
+      </c>
+      <c r="W291" t="s">
+        <v>58</v>
+      </c>
+      <c r="X291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE291" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10775,7 +10791,7 @@
       <c r="A292" t="s">
         <v>348</v>
       </c>
-      <c r="AE292" t="s">
+      <c r="AP292" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10791,7 +10807,7 @@
       <c r="A294" t="s">
         <v>350</v>
       </c>
-      <c r="AJ294" t="s">
+      <c r="AE294" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10799,7 +10815,7 @@
       <c r="A295" t="s">
         <v>351</v>
       </c>
-      <c r="AQ295" t="s">
+      <c r="AJ295" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10815,7 +10831,7 @@
       <c r="A297" t="s">
         <v>353</v>
       </c>
-      <c r="AP297" t="s">
+      <c r="AQ297" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10831,7 +10847,7 @@
       <c r="A299" t="s">
         <v>355</v>
       </c>
-      <c r="AK299" t="s">
+      <c r="AP299" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10847,7 +10863,7 @@
       <c r="A301" t="s">
         <v>357</v>
       </c>
-      <c r="AJ301" t="s">
+      <c r="AK301" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10863,10 +10879,7 @@
       <c r="A303" t="s">
         <v>359</v>
       </c>
-      <c r="AK303" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ303" t="s">
+      <c r="AJ303" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10874,7 +10887,18 @@
       <c r="A304" t="s">
         <v>360</v>
       </c>
+      <c r="AK304" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ304" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="1:43">
+      <c r="A305" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ305" t="s">
         <v>58</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3044,7 +3044,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(No description for this field was supplied.)</t>
+          <t>UUID or HuBMAP ID of parent</t>
         </r>
       </text>
     </comment>
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="362">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -8760,7 +8760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:57">
+    <row r="177" spans="1:58">
       <c r="A177" t="s">
         <v>233</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:57">
+    <row r="178" spans="1:58">
       <c r="A178" t="s">
         <v>234</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:57">
+    <row r="179" spans="1:58">
       <c r="A179" t="s">
         <v>235</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:57">
+    <row r="180" spans="1:58">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -8816,15 +8816,150 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:57">
+    <row r="181" spans="1:58">
       <c r="A181" t="s">
         <v>237</v>
       </c>
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" t="s">
+        <v>58</v>
+      </c>
+      <c r="E181" t="s">
+        <v>58</v>
+      </c>
+      <c r="F181" t="s">
+        <v>58</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="H181" t="s">
+        <v>58</v>
+      </c>
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181" t="s">
+        <v>58</v>
+      </c>
+      <c r="K181" t="s">
+        <v>58</v>
+      </c>
+      <c r="M181" t="s">
+        <v>58</v>
+      </c>
+      <c r="N181" t="s">
+        <v>58</v>
+      </c>
+      <c r="O181" t="s">
+        <v>58</v>
+      </c>
+      <c r="P181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>58</v>
+      </c>
+      <c r="R181" t="s">
+        <v>58</v>
+      </c>
+      <c r="S181" t="s">
+        <v>58</v>
+      </c>
+      <c r="T181" t="s">
+        <v>58</v>
+      </c>
       <c r="U181" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="1:57">
+      <c r="V181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:58">
       <c r="A182" t="s">
         <v>238</v>
       </c>
@@ -8832,7 +8967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:57">
+    <row r="183" spans="1:58">
       <c r="A183" t="s">
         <v>239</v>
       </c>
@@ -8840,7 +8975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:57">
+    <row r="184" spans="1:58">
       <c r="A184" t="s">
         <v>240</v>
       </c>
@@ -8848,7 +8983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:57">
+    <row r="185" spans="1:58">
       <c r="A185" t="s">
         <v>241</v>
       </c>
@@ -8856,7 +8991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:57">
+    <row r="186" spans="1:58">
       <c r="A186" t="s">
         <v>242</v>
       </c>
@@ -8867,7 +9002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:57">
+    <row r="187" spans="1:58">
       <c r="A187" t="s">
         <v>243</v>
       </c>
@@ -8953,7 +9088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:57">
+    <row r="188" spans="1:58">
       <c r="A188" t="s">
         <v>244</v>
       </c>
@@ -9039,7 +9174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:57">
+    <row r="189" spans="1:58">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -9047,7 +9182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:57">
+    <row r="190" spans="1:58">
       <c r="A190" t="s">
         <v>246</v>
       </c>
@@ -9055,7 +9190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:57">
+    <row r="191" spans="1:58">
       <c r="A191" t="s">
         <v>247</v>
       </c>
@@ -9063,7 +9198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:57">
+    <row r="192" spans="1:58">
       <c r="A192" t="s">
         <v>248</v>
       </c>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2238,7 +2238,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique HuBMAP identifier for the organ. This can be found in the Submission ID section of a registered donor on the Ingest UI.</t>
+          <t>UUID or HuBMAP ID of organ</t>
         </r>
       </text>
     </comment>
@@ -2355,11 +2355,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>UUID or HuBMAP ID of parent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Further details on organ level QC checks.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2489,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2515,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2554,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2606,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2684,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2775,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2814,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2840,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2866,7 +2879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2905,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2918,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2944,7 +2957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2957,7 +2970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2970,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2983,7 +2996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2996,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,19 +3035,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(No description for this field was supplied.)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A234" authorId="0">
       <text>
         <r>
@@ -3044,11 +3044,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>UUID or HuBMAP ID of parent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A235" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>This is a quality metric by visual inspection. This should answer the question: Are the nuclei intact and are the nuclei free of significant amounts of debris? This can be captured at a high level, “OK” or “not OK”.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3061,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3126,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3152,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3204,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3243,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A252" authorId="0">
+    <comment ref="A253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A253" authorId="0">
+    <comment ref="A254" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A254" authorId="0">
+    <comment ref="A255" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0">
+    <comment ref="A257" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A257" authorId="0">
+    <comment ref="A258" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3360,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A259" authorId="0">
+    <comment ref="A260" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3373,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A260" authorId="0">
+    <comment ref="A261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A261" authorId="0">
+    <comment ref="A262" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A262" authorId="0">
+    <comment ref="A263" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0">
+    <comment ref="A264" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3425,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A264" authorId="0">
+    <comment ref="A265" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3438,7 +3451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A265" authorId="0">
+    <comment ref="A266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A266" authorId="0">
+    <comment ref="A267" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3464,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A268" authorId="0">
+    <comment ref="A269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3490,7 +3503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3516,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A272" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3529,7 +3542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3568,7 +3581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3581,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3607,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3633,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3711,7 +3724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3724,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3737,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A292" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A293" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3815,7 +3828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A294" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3828,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A295" authorId="0">
+    <comment ref="A296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3841,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A296" authorId="0">
+    <comment ref="A297" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3854,7 +3867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A297" authorId="0">
+    <comment ref="A298" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3867,7 +3880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A298" authorId="0">
+    <comment ref="A299" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3880,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A299" authorId="0">
+    <comment ref="A300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3893,7 +3906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A300" authorId="0">
+    <comment ref="A301" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3906,7 +3919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A301" authorId="0">
+    <comment ref="A302" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3919,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A302" authorId="0">
+    <comment ref="A303" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A303" authorId="0">
+    <comment ref="A304" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3945,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A304" authorId="0">
+    <comment ref="A305" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3963,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="362">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4674,6 +4687,9 @@
   </si>
   <si>
     <t>overall_protocols_io_doi</t>
+  </si>
+  <si>
+    <t>parent_id</t>
   </si>
   <si>
     <t>pathologist_report</t>
@@ -5386,7 +5402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF304"/>
+  <dimension ref="A1:BF305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8744,7 +8760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:57">
+    <row r="177" spans="1:58">
       <c r="A177" t="s">
         <v>233</v>
       </c>
@@ -8752,7 +8768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:57">
+    <row r="178" spans="1:58">
       <c r="A178" t="s">
         <v>234</v>
       </c>
@@ -8760,7 +8776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:57">
+    <row r="179" spans="1:58">
       <c r="A179" t="s">
         <v>235</v>
       </c>
@@ -8768,7 +8784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:57">
+    <row r="180" spans="1:58">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -8800,23 +8816,158 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:57">
+    <row r="181" spans="1:58">
       <c r="A181" t="s">
         <v>237</v>
       </c>
-      <c r="AP181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:57">
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" t="s">
+        <v>58</v>
+      </c>
+      <c r="E181" t="s">
+        <v>58</v>
+      </c>
+      <c r="F181" t="s">
+        <v>58</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="H181" t="s">
+        <v>58</v>
+      </c>
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181" t="s">
+        <v>58</v>
+      </c>
+      <c r="K181" t="s">
+        <v>58</v>
+      </c>
+      <c r="M181" t="s">
+        <v>58</v>
+      </c>
+      <c r="N181" t="s">
+        <v>58</v>
+      </c>
+      <c r="O181" t="s">
+        <v>58</v>
+      </c>
+      <c r="P181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>58</v>
+      </c>
+      <c r="R181" t="s">
+        <v>58</v>
+      </c>
+      <c r="S181" t="s">
+        <v>58</v>
+      </c>
+      <c r="T181" t="s">
+        <v>58</v>
+      </c>
+      <c r="U181" t="s">
+        <v>58</v>
+      </c>
+      <c r="V181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY181" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:58">
       <c r="A182" t="s">
         <v>238</v>
       </c>
-      <c r="AQ182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:57">
+      <c r="AP182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:58">
       <c r="A183" t="s">
         <v>239</v>
       </c>
@@ -8824,112 +8975,34 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:57">
+    <row r="184" spans="1:58">
       <c r="A184" t="s">
         <v>240</v>
       </c>
-      <c r="AK184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:57">
+      <c r="AQ184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:58">
       <c r="A185" t="s">
         <v>241</v>
       </c>
       <c r="AK185" t="s">
         <v>58</v>
       </c>
-      <c r="AP185" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:57">
+    </row>
+    <row r="186" spans="1:58">
       <c r="A186" t="s">
         <v>242</v>
       </c>
-      <c r="C186" t="s">
-        <v>58</v>
-      </c>
-      <c r="E186" t="s">
-        <v>58</v>
-      </c>
-      <c r="F186" t="s">
-        <v>58</v>
-      </c>
-      <c r="G186" t="s">
-        <v>58</v>
-      </c>
-      <c r="H186" t="s">
-        <v>58</v>
-      </c>
-      <c r="I186" t="s">
-        <v>58</v>
-      </c>
-      <c r="J186" t="s">
-        <v>58</v>
-      </c>
-      <c r="R186" t="s">
-        <v>58</v>
-      </c>
-      <c r="V186" t="s">
-        <v>58</v>
-      </c>
-      <c r="W186" t="s">
-        <v>58</v>
-      </c>
-      <c r="X186" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC186" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE186" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="187" spans="1:57">
+      <c r="AK186" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:58">
       <c r="A187" t="s">
         <v>243</v>
       </c>
@@ -9015,15 +9088,93 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:57">
+    <row r="188" spans="1:58">
       <c r="A188" t="s">
         <v>244</v>
       </c>
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+      <c r="E188" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" t="s">
+        <v>58</v>
+      </c>
+      <c r="H188" t="s">
+        <v>58</v>
+      </c>
+      <c r="I188" t="s">
+        <v>58</v>
+      </c>
+      <c r="J188" t="s">
+        <v>58</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="V188" t="s">
+        <v>58</v>
+      </c>
+      <c r="W188" t="s">
+        <v>58</v>
+      </c>
+      <c r="X188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>58</v>
+      </c>
       <c r="AD188" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="189" spans="1:57">
+      <c r="AE188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:58">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -9031,7 +9182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:57">
+    <row r="190" spans="1:58">
       <c r="A190" t="s">
         <v>246</v>
       </c>
@@ -9039,7 +9190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:57">
+    <row r="191" spans="1:58">
       <c r="A191" t="s">
         <v>247</v>
       </c>
@@ -9047,7 +9198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:57">
+    <row r="192" spans="1:58">
       <c r="A192" t="s">
         <v>248</v>
       </c>
@@ -9067,19 +9218,7 @@
       <c r="A194" t="s">
         <v>250</v>
       </c>
-      <c r="E194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF194" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC194" t="s">
+      <c r="AD194" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9107,19 +9246,19 @@
       <c r="A196" t="s">
         <v>252</v>
       </c>
-      <c r="I196" t="s">
-        <v>58</v>
-      </c>
-      <c r="R196" t="s">
-        <v>58</v>
-      </c>
-      <c r="X196" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH196" t="s">
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC196" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9127,13 +9266,19 @@
       <c r="A197" t="s">
         <v>253</v>
       </c>
-      <c r="AQ197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS197" t="s">
+      <c r="I197" t="s">
+        <v>58</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="X197" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH197" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9141,22 +9286,13 @@
       <c r="A198" t="s">
         <v>254</v>
       </c>
-      <c r="J198" t="s">
-        <v>58</v>
-      </c>
-      <c r="V198" t="s">
-        <v>58</v>
-      </c>
-      <c r="W198" t="s">
-        <v>58</v>
-      </c>
-      <c r="X198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX198" t="s">
+      <c r="AQ198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS198" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9187,7 +9323,22 @@
       <c r="A200" t="s">
         <v>256</v>
       </c>
+      <c r="J200" t="s">
+        <v>58</v>
+      </c>
+      <c r="V200" t="s">
+        <v>58</v>
+      </c>
+      <c r="W200" t="s">
+        <v>58</v>
+      </c>
       <c r="X200" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX200" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9195,13 +9346,7 @@
       <c r="A201" t="s">
         <v>257</v>
       </c>
-      <c r="AQ201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS201" t="s">
+      <c r="X201" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9209,7 +9354,13 @@
       <c r="A202" t="s">
         <v>258</v>
       </c>
-      <c r="X202" t="s">
+      <c r="AQ202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS202" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9217,7 +9368,7 @@
       <c r="A203" t="s">
         <v>259</v>
       </c>
-      <c r="AD203" t="s">
+      <c r="X203" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9241,7 +9392,7 @@
       <c r="A206" t="s">
         <v>262</v>
       </c>
-      <c r="BC206" t="s">
+      <c r="AD206" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9249,7 +9400,7 @@
       <c r="A207" t="s">
         <v>263</v>
       </c>
-      <c r="AP207" t="s">
+      <c r="BC207" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9257,19 +9408,7 @@
       <c r="A208" t="s">
         <v>264</v>
       </c>
-      <c r="H208" t="s">
-        <v>58</v>
-      </c>
-      <c r="I208" t="s">
-        <v>58</v>
-      </c>
-      <c r="X208" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH208" t="s">
+      <c r="AP208" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9277,13 +9416,19 @@
       <c r="A209" t="s">
         <v>265</v>
       </c>
+      <c r="H209" t="s">
+        <v>58</v>
+      </c>
       <c r="I209" t="s">
         <v>58</v>
       </c>
-      <c r="R209" t="s">
+      <c r="X209" t="s">
         <v>58</v>
       </c>
       <c r="Y209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH209" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9291,13 +9436,13 @@
       <c r="A210" t="s">
         <v>266</v>
       </c>
-      <c r="AQ210" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR210" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS210" t="s">
+      <c r="I210" t="s">
+        <v>58</v>
+      </c>
+      <c r="R210" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y210" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9319,85 +9464,13 @@
       <c r="A212" t="s">
         <v>268</v>
       </c>
-      <c r="C212" t="s">
-        <v>58</v>
-      </c>
-      <c r="E212" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" t="s">
-        <v>58</v>
-      </c>
-      <c r="G212" t="s">
-        <v>58</v>
-      </c>
-      <c r="H212" t="s">
-        <v>58</v>
-      </c>
-      <c r="I212" t="s">
-        <v>58</v>
-      </c>
-      <c r="J212" t="s">
-        <v>58</v>
-      </c>
-      <c r="R212" t="s">
-        <v>58</v>
-      </c>
-      <c r="V212" t="s">
-        <v>58</v>
-      </c>
-      <c r="W212" t="s">
-        <v>58</v>
-      </c>
-      <c r="X212" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC212" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE212" t="s">
+      <c r="AQ212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS212" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9405,7 +9478,85 @@
       <c r="A213" t="s">
         <v>269</v>
       </c>
+      <c r="C213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E213" t="s">
+        <v>58</v>
+      </c>
+      <c r="F213" t="s">
+        <v>58</v>
+      </c>
+      <c r="G213" t="s">
+        <v>58</v>
+      </c>
+      <c r="H213" t="s">
+        <v>58</v>
+      </c>
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+      <c r="J213" t="s">
+        <v>58</v>
+      </c>
+      <c r="R213" t="s">
+        <v>58</v>
+      </c>
+      <c r="V213" t="s">
+        <v>58</v>
+      </c>
+      <c r="W213" t="s">
+        <v>58</v>
+      </c>
+      <c r="X213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC213" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE213" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9413,13 +9564,7 @@
       <c r="A214" t="s">
         <v>270</v>
       </c>
-      <c r="AQ214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS214" t="s">
+      <c r="AZ214" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9427,7 +9572,13 @@
       <c r="A215" t="s">
         <v>271</v>
       </c>
-      <c r="BC215" t="s">
+      <c r="AQ215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS215" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9435,7 +9586,7 @@
       <c r="A216" t="s">
         <v>272</v>
       </c>
-      <c r="Z216" t="s">
+      <c r="BC216" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9451,22 +9602,7 @@
       <c r="A218" t="s">
         <v>274</v>
       </c>
-      <c r="J218" t="s">
-        <v>58</v>
-      </c>
-      <c r="V218" t="s">
-        <v>58</v>
-      </c>
-      <c r="W218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG218" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX218" t="s">
+      <c r="Z218" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9474,7 +9610,22 @@
       <c r="A219" t="s">
         <v>275</v>
       </c>
-      <c r="AF219" t="s">
+      <c r="J219" t="s">
+        <v>58</v>
+      </c>
+      <c r="V219" t="s">
+        <v>58</v>
+      </c>
+      <c r="W219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX219" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9482,58 +9633,7 @@
       <c r="A220" t="s">
         <v>276</v>
       </c>
-      <c r="C220" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" t="s">
-        <v>58</v>
-      </c>
-      <c r="H220" t="s">
-        <v>58</v>
-      </c>
-      <c r="I220" t="s">
-        <v>58</v>
-      </c>
-      <c r="J220" t="s">
-        <v>58</v>
-      </c>
-      <c r="R220" t="s">
-        <v>58</v>
-      </c>
-      <c r="X220" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y220" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE220" t="s">
-        <v>58</v>
-      </c>
       <c r="AF220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX220" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA220" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC220" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9724,16 +9824,40 @@
       <c r="E224" t="s">
         <v>58</v>
       </c>
+      <c r="H224" t="s">
+        <v>58</v>
+      </c>
+      <c r="I224" t="s">
+        <v>58</v>
+      </c>
       <c r="J224" t="s">
         <v>58</v>
       </c>
+      <c r="R224" t="s">
+        <v>58</v>
+      </c>
+      <c r="X224" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>58</v>
+      </c>
       <c r="Z224" t="s">
         <v>58</v>
       </c>
+      <c r="AD224" t="s">
+        <v>58</v>
+      </c>
       <c r="AE224" t="s">
         <v>58</v>
       </c>
       <c r="AF224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH224" t="s">
         <v>58</v>
       </c>
       <c r="AJ224" t="s">
@@ -9788,10 +9912,34 @@
       <c r="A226" t="s">
         <v>282</v>
       </c>
-      <c r="AU226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV226" t="s">
+      <c r="C226" t="s">
+        <v>58</v>
+      </c>
+      <c r="E226" t="s">
+        <v>58</v>
+      </c>
+      <c r="J226" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC226" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9799,7 +9947,10 @@
       <c r="A227" t="s">
         <v>283</v>
       </c>
-      <c r="G227" t="s">
+      <c r="AU227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV227" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9818,42 +9969,21 @@
       <c r="G229" t="s">
         <v>58</v>
       </c>
-      <c r="AU229" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV229" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ229" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="230" spans="1:55">
       <c r="A230" t="s">
         <v>286</v>
       </c>
-      <c r="E230" t="s">
-        <v>58</v>
-      </c>
-      <c r="V230" t="s">
-        <v>58</v>
-      </c>
-      <c r="W230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ230" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC230" t="s">
+      <c r="G230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ230" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9890,7 +10020,28 @@
       <c r="A232" t="s">
         <v>288</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
+        <v>58</v>
+      </c>
+      <c r="V232" t="s">
+        <v>58</v>
+      </c>
+      <c r="W232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC232" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9898,16 +10049,7 @@
       <c r="A233" t="s">
         <v>289</v>
       </c>
-      <c r="AP233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS233" t="s">
+      <c r="D233" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9915,7 +10057,16 @@
       <c r="A234" t="s">
         <v>290</v>
       </c>
-      <c r="F234" t="s">
+      <c r="AP234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS234" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9923,13 +10074,7 @@
       <c r="A235" t="s">
         <v>291</v>
       </c>
-      <c r="AT235" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU235" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV235" t="s">
+      <c r="F235" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10007,7 +10152,13 @@
       <c r="A241" t="s">
         <v>297</v>
       </c>
-      <c r="AF241" t="s">
+      <c r="AT241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV241" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10015,7 +10166,7 @@
       <c r="A242" t="s">
         <v>298</v>
       </c>
-      <c r="AR242" t="s">
+      <c r="AF242" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10023,37 +10174,7 @@
       <c r="A243" t="s">
         <v>299</v>
       </c>
-      <c r="I243" t="s">
-        <v>58</v>
-      </c>
-      <c r="J243" t="s">
-        <v>58</v>
-      </c>
-      <c r="R243" t="s">
-        <v>58</v>
-      </c>
-      <c r="V243" t="s">
-        <v>58</v>
-      </c>
-      <c r="W243" t="s">
-        <v>58</v>
-      </c>
-      <c r="X243" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG243" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX243" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA243" t="s">
+      <c r="AR243" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10061,7 +10182,37 @@
       <c r="A244" t="s">
         <v>300</v>
       </c>
-      <c r="AR244" t="s">
+      <c r="I244" t="s">
+        <v>58</v>
+      </c>
+      <c r="J244" t="s">
+        <v>58</v>
+      </c>
+      <c r="R244" t="s">
+        <v>58</v>
+      </c>
+      <c r="V244" t="s">
+        <v>58</v>
+      </c>
+      <c r="W244" t="s">
+        <v>58</v>
+      </c>
+      <c r="X244" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA244" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10077,13 +10228,7 @@
       <c r="A246" t="s">
         <v>302</v>
       </c>
-      <c r="V246" t="s">
-        <v>58</v>
-      </c>
-      <c r="W246" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD246" t="s">
+      <c r="AR246" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10091,7 +10236,13 @@
       <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="AF247" t="s">
+      <c r="V247" t="s">
+        <v>58</v>
+      </c>
+      <c r="W247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD247" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10099,25 +10250,7 @@
       <c r="A248" t="s">
         <v>304</v>
       </c>
-      <c r="F248" t="s">
-        <v>58</v>
-      </c>
-      <c r="G248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ248" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE248" t="s">
+      <c r="AF248" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10203,13 +10336,25 @@
       <c r="A252" t="s">
         <v>308</v>
       </c>
-      <c r="V252" t="s">
-        <v>58</v>
-      </c>
-      <c r="W252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD252" t="s">
+      <c r="F252" t="s">
+        <v>58</v>
+      </c>
+      <c r="G252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ252" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE252" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10217,19 +10362,13 @@
       <c r="A253" t="s">
         <v>309</v>
       </c>
-      <c r="E253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ253" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC253" t="s">
+      <c r="V253" t="s">
+        <v>58</v>
+      </c>
+      <c r="W253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD253" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10237,7 +10376,19 @@
       <c r="A254" t="s">
         <v>310</v>
       </c>
+      <c r="E254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ254" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC254" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10253,7 +10404,7 @@
       <c r="A256" t="s">
         <v>312</v>
       </c>
-      <c r="AV256" t="s">
+      <c r="AJ256" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10261,13 +10412,7 @@
       <c r="A257" t="s">
         <v>313</v>
       </c>
-      <c r="AQ257" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR257" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS257" t="s">
+      <c r="AV257" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10289,13 +10434,13 @@
       <c r="A259" t="s">
         <v>315</v>
       </c>
-      <c r="I259" t="s">
-        <v>58</v>
-      </c>
-      <c r="R259" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y259" t="s">
+      <c r="AQ259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS259" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10331,7 +10476,13 @@
       <c r="A262" t="s">
         <v>318</v>
       </c>
-      <c r="AP262" t="s">
+      <c r="I262" t="s">
+        <v>58</v>
+      </c>
+      <c r="R262" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y262" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10363,7 +10514,7 @@
       <c r="A266" t="s">
         <v>322</v>
       </c>
-      <c r="BC266" t="s">
+      <c r="AP266" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10371,7 +10522,7 @@
       <c r="A267" t="s">
         <v>323</v>
       </c>
-      <c r="BA267" t="s">
+      <c r="BC267" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10379,10 +10530,7 @@
       <c r="A268" t="s">
         <v>324</v>
       </c>
-      <c r="V268" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD268" t="s">
+      <c r="BA268" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10390,7 +10538,10 @@
       <c r="A269" t="s">
         <v>325</v>
       </c>
-      <c r="Z269" t="s">
+      <c r="V269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD269" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10398,13 +10549,7 @@
       <c r="A270" t="s">
         <v>326</v>
       </c>
-      <c r="AQ270" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR270" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS270" t="s">
+      <c r="Z270" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10426,6 +10571,12 @@
       <c r="A272" t="s">
         <v>328</v>
       </c>
+      <c r="AQ272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>58</v>
+      </c>
       <c r="AS272" t="s">
         <v>58</v>
       </c>
@@ -10458,85 +10609,7 @@
       <c r="A276" t="s">
         <v>332</v>
       </c>
-      <c r="C276" t="s">
-        <v>58</v>
-      </c>
-      <c r="E276" t="s">
-        <v>58</v>
-      </c>
-      <c r="F276" t="s">
-        <v>58</v>
-      </c>
-      <c r="G276" t="s">
-        <v>58</v>
-      </c>
-      <c r="H276" t="s">
-        <v>58</v>
-      </c>
-      <c r="I276" t="s">
-        <v>58</v>
-      </c>
-      <c r="J276" t="s">
-        <v>58</v>
-      </c>
-      <c r="R276" t="s">
-        <v>58</v>
-      </c>
-      <c r="V276" t="s">
-        <v>58</v>
-      </c>
-      <c r="W276" t="s">
-        <v>58</v>
-      </c>
-      <c r="X276" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y276" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX276" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC276" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE276" t="s">
+      <c r="AS276" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10544,7 +10617,85 @@
       <c r="A277" t="s">
         <v>333</v>
       </c>
-      <c r="AK277" t="s">
+      <c r="C277" t="s">
+        <v>58</v>
+      </c>
+      <c r="E277" t="s">
+        <v>58</v>
+      </c>
+      <c r="F277" t="s">
+        <v>58</v>
+      </c>
+      <c r="G277" t="s">
+        <v>58</v>
+      </c>
+      <c r="H277" t="s">
+        <v>58</v>
+      </c>
+      <c r="I277" t="s">
+        <v>58</v>
+      </c>
+      <c r="J277" t="s">
+        <v>58</v>
+      </c>
+      <c r="R277" t="s">
+        <v>58</v>
+      </c>
+      <c r="V277" t="s">
+        <v>58</v>
+      </c>
+      <c r="W277" t="s">
+        <v>58</v>
+      </c>
+      <c r="X277" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC277" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE277" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10560,10 +10711,7 @@
       <c r="A279" t="s">
         <v>335</v>
       </c>
-      <c r="AE279" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ279" t="s">
+      <c r="AK279" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10571,7 +10719,10 @@
       <c r="A280" t="s">
         <v>336</v>
       </c>
-      <c r="AK280" t="s">
+      <c r="AE280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ280" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10579,7 +10730,7 @@
       <c r="A281" t="s">
         <v>337</v>
       </c>
-      <c r="AT281" t="s">
+      <c r="AK281" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10587,9 +10738,6 @@
       <c r="A282" t="s">
         <v>338</v>
       </c>
-      <c r="F282" t="s">
-        <v>58</v>
-      </c>
       <c r="AT282" t="s">
         <v>58</v>
       </c>
@@ -10620,13 +10768,10 @@
       <c r="A285" t="s">
         <v>341</v>
       </c>
-      <c r="AQ285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS285" t="s">
+      <c r="F285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT285" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10634,7 +10779,13 @@
       <c r="A286" t="s">
         <v>342</v>
       </c>
-      <c r="AU286" t="s">
+      <c r="AQ286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS286" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10658,7 +10809,7 @@
       <c r="A289" t="s">
         <v>345</v>
       </c>
-      <c r="D289" t="s">
+      <c r="AU289" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10666,100 +10817,7 @@
       <c r="A290" t="s">
         <v>346</v>
       </c>
-      <c r="C290" t="s">
-        <v>58</v>
-      </c>
       <c r="D290" t="s">
-        <v>58</v>
-      </c>
-      <c r="E290" t="s">
-        <v>58</v>
-      </c>
-      <c r="F290" t="s">
-        <v>58</v>
-      </c>
-      <c r="G290" t="s">
-        <v>58</v>
-      </c>
-      <c r="H290" t="s">
-        <v>58</v>
-      </c>
-      <c r="I290" t="s">
-        <v>58</v>
-      </c>
-      <c r="J290" t="s">
-        <v>58</v>
-      </c>
-      <c r="L290" t="s">
-        <v>58</v>
-      </c>
-      <c r="R290" t="s">
-        <v>58</v>
-      </c>
-      <c r="V290" t="s">
-        <v>58</v>
-      </c>
-      <c r="W290" t="s">
-        <v>58</v>
-      </c>
-      <c r="X290" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y290" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX290" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE290" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10767,7 +10825,100 @@
       <c r="A291" t="s">
         <v>347</v>
       </c>
-      <c r="AP291" t="s">
+      <c r="C291" t="s">
+        <v>58</v>
+      </c>
+      <c r="D291" t="s">
+        <v>58</v>
+      </c>
+      <c r="E291" t="s">
+        <v>58</v>
+      </c>
+      <c r="F291" t="s">
+        <v>58</v>
+      </c>
+      <c r="G291" t="s">
+        <v>58</v>
+      </c>
+      <c r="H291" t="s">
+        <v>58</v>
+      </c>
+      <c r="I291" t="s">
+        <v>58</v>
+      </c>
+      <c r="J291" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" t="s">
+        <v>58</v>
+      </c>
+      <c r="R291" t="s">
+        <v>58</v>
+      </c>
+      <c r="V291" t="s">
+        <v>58</v>
+      </c>
+      <c r="W291" t="s">
+        <v>58</v>
+      </c>
+      <c r="X291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC291" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE291" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10775,7 +10926,7 @@
       <c r="A292" t="s">
         <v>348</v>
       </c>
-      <c r="AE292" t="s">
+      <c r="AP292" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10791,7 +10942,7 @@
       <c r="A294" t="s">
         <v>350</v>
       </c>
-      <c r="AJ294" t="s">
+      <c r="AE294" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10799,7 +10950,7 @@
       <c r="A295" t="s">
         <v>351</v>
       </c>
-      <c r="AQ295" t="s">
+      <c r="AJ295" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10815,7 +10966,7 @@
       <c r="A297" t="s">
         <v>353</v>
       </c>
-      <c r="AP297" t="s">
+      <c r="AQ297" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10831,7 +10982,7 @@
       <c r="A299" t="s">
         <v>355</v>
       </c>
-      <c r="AK299" t="s">
+      <c r="AP299" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10847,7 +10998,7 @@
       <c r="A301" t="s">
         <v>357</v>
       </c>
-      <c r="AJ301" t="s">
+      <c r="AK301" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10863,10 +11014,7 @@
       <c r="A303" t="s">
         <v>359</v>
       </c>
-      <c r="AK303" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ303" t="s">
+      <c r="AJ303" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10874,7 +11022,18 @@
       <c r="A304" t="s">
         <v>360</v>
       </c>
+      <c r="AK304" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ304" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="1:43">
+      <c r="A305" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ305" t="s">
         <v>58</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="362">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -7423,6 +7423,9 @@
       <c r="K99" t="s">
         <v>58</v>
       </c>
+      <c r="L99" t="s">
+        <v>58</v>
+      </c>
       <c r="M99" t="s">
         <v>58</v>
       </c>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2368,11 +2368,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>UUID or HuBMAP ID of parent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Further details on organ level QC checks.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2489,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2515,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2554,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2606,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2684,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2775,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2814,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2840,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2866,7 +2879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2905,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2918,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2944,7 +2957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2957,7 +2970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2970,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2983,7 +2996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2996,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,7 +3035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3035,7 +3048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3048,7 +3061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3061,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3126,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3152,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3204,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3243,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A252" authorId="0">
+    <comment ref="A253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A253" authorId="0">
+    <comment ref="A254" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A254" authorId="0">
+    <comment ref="A255" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0">
+    <comment ref="A257" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A257" authorId="0">
+    <comment ref="A258" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3360,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A259" authorId="0">
+    <comment ref="A260" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3373,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A260" authorId="0">
+    <comment ref="A261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A261" authorId="0">
+    <comment ref="A262" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A262" authorId="0">
+    <comment ref="A263" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0">
+    <comment ref="A264" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3425,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A264" authorId="0">
+    <comment ref="A265" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3438,7 +3451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A265" authorId="0">
+    <comment ref="A266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A266" authorId="0">
+    <comment ref="A267" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3464,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A268" authorId="0">
+    <comment ref="A269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3490,7 +3503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3516,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A272" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3529,7 +3542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3568,7 +3581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3581,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3607,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3633,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3711,7 +3724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3724,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3737,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A292" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A293" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3815,7 +3828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A294" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3828,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A295" authorId="0">
+    <comment ref="A296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3841,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A296" authorId="0">
+    <comment ref="A297" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3854,7 +3867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A297" authorId="0">
+    <comment ref="A298" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3867,7 +3880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A298" authorId="0">
+    <comment ref="A299" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3880,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A299" authorId="0">
+    <comment ref="A300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3893,7 +3906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A300" authorId="0">
+    <comment ref="A301" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3906,7 +3919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A301" authorId="0">
+    <comment ref="A302" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3919,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A302" authorId="0">
+    <comment ref="A303" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A303" authorId="0">
+    <comment ref="A304" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3945,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A304" authorId="0">
+    <comment ref="A305" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3958,7 +3971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A305" authorId="0">
+    <comment ref="A306" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3976,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="363">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4690,6 +4703,9 @@
   </si>
   <si>
     <t>parent_id</t>
+  </si>
+  <si>
+    <t>parent_sample_id</t>
   </si>
   <si>
     <t>pathologist_report</t>
@@ -5402,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF305"/>
+  <dimension ref="A1:BF306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8874,9 +8890,6 @@
       <c r="T181" t="s">
         <v>58</v>
       </c>
-      <c r="U181" t="s">
-        <v>58</v>
-      </c>
       <c r="V181" t="s">
         <v>58</v>
       </c>
@@ -8966,7 +8979,7 @@
       <c r="A182" t="s">
         <v>238</v>
       </c>
-      <c r="AP182" t="s">
+      <c r="U182" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8974,7 +8987,7 @@
       <c r="A183" t="s">
         <v>239</v>
       </c>
-      <c r="AQ183" t="s">
+      <c r="AP183" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8990,7 +9003,7 @@
       <c r="A185" t="s">
         <v>241</v>
       </c>
-      <c r="AK185" t="s">
+      <c r="AQ185" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9001,93 +9014,15 @@
       <c r="AK186" t="s">
         <v>58</v>
       </c>
-      <c r="AP186" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="187" spans="1:58">
       <c r="A187" t="s">
         <v>243</v>
       </c>
-      <c r="C187" t="s">
-        <v>58</v>
-      </c>
-      <c r="E187" t="s">
-        <v>58</v>
-      </c>
-      <c r="F187" t="s">
-        <v>58</v>
-      </c>
-      <c r="G187" t="s">
-        <v>58</v>
-      </c>
-      <c r="H187" t="s">
-        <v>58</v>
-      </c>
-      <c r="I187" t="s">
-        <v>58</v>
-      </c>
-      <c r="J187" t="s">
-        <v>58</v>
-      </c>
-      <c r="R187" t="s">
-        <v>58</v>
-      </c>
-      <c r="V187" t="s">
-        <v>58</v>
-      </c>
-      <c r="W187" t="s">
-        <v>58</v>
-      </c>
-      <c r="X187" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE187" t="s">
+      <c r="AK187" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP187" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9181,7 +9116,85 @@
       <c r="A189" t="s">
         <v>245</v>
       </c>
+      <c r="C189" t="s">
+        <v>58</v>
+      </c>
+      <c r="E189" t="s">
+        <v>58</v>
+      </c>
+      <c r="F189" t="s">
+        <v>58</v>
+      </c>
+      <c r="G189" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" t="s">
+        <v>58</v>
+      </c>
+      <c r="I189" t="s">
+        <v>58</v>
+      </c>
+      <c r="J189" t="s">
+        <v>58</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="V189" t="s">
+        <v>58</v>
+      </c>
+      <c r="W189" t="s">
+        <v>58</v>
+      </c>
+      <c r="X189" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>58</v>
+      </c>
       <c r="AD189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ189" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC189" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE189" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9229,19 +9242,7 @@
       <c r="A195" t="s">
         <v>251</v>
       </c>
-      <c r="E195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC195" t="s">
+      <c r="AD195" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9269,19 +9270,19 @@
       <c r="A197" t="s">
         <v>253</v>
       </c>
-      <c r="I197" t="s">
-        <v>58</v>
-      </c>
-      <c r="R197" t="s">
-        <v>58</v>
-      </c>
-      <c r="X197" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH197" t="s">
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC197" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9289,13 +9290,19 @@
       <c r="A198" t="s">
         <v>254</v>
       </c>
-      <c r="AQ198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS198" t="s">
+      <c r="I198" t="s">
+        <v>58</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="X198" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH198" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9303,22 +9310,13 @@
       <c r="A199" t="s">
         <v>255</v>
       </c>
-      <c r="J199" t="s">
-        <v>58</v>
-      </c>
-      <c r="V199" t="s">
-        <v>58</v>
-      </c>
-      <c r="W199" t="s">
-        <v>58</v>
-      </c>
-      <c r="X199" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX199" t="s">
+      <c r="AQ199" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS199" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9349,7 +9347,22 @@
       <c r="A201" t="s">
         <v>257</v>
       </c>
+      <c r="J201" t="s">
+        <v>58</v>
+      </c>
+      <c r="V201" t="s">
+        <v>58</v>
+      </c>
+      <c r="W201" t="s">
+        <v>58</v>
+      </c>
       <c r="X201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX201" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9357,13 +9370,7 @@
       <c r="A202" t="s">
         <v>258</v>
       </c>
-      <c r="AQ202" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR202" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS202" t="s">
+      <c r="X202" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9371,7 +9378,13 @@
       <c r="A203" t="s">
         <v>259</v>
       </c>
-      <c r="X203" t="s">
+      <c r="AQ203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS203" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9379,7 +9392,7 @@
       <c r="A204" t="s">
         <v>260</v>
       </c>
-      <c r="AD204" t="s">
+      <c r="X204" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9403,7 +9416,7 @@
       <c r="A207" t="s">
         <v>263</v>
       </c>
-      <c r="BC207" t="s">
+      <c r="AD207" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9411,7 +9424,7 @@
       <c r="A208" t="s">
         <v>264</v>
       </c>
-      <c r="AP208" t="s">
+      <c r="BC208" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9419,19 +9432,7 @@
       <c r="A209" t="s">
         <v>265</v>
       </c>
-      <c r="H209" t="s">
-        <v>58</v>
-      </c>
-      <c r="I209" t="s">
-        <v>58</v>
-      </c>
-      <c r="X209" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y209" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH209" t="s">
+      <c r="AP209" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9439,13 +9440,19 @@
       <c r="A210" t="s">
         <v>266</v>
       </c>
+      <c r="H210" t="s">
+        <v>58</v>
+      </c>
       <c r="I210" t="s">
         <v>58</v>
       </c>
-      <c r="R210" t="s">
+      <c r="X210" t="s">
         <v>58</v>
       </c>
       <c r="Y210" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH210" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9453,13 +9460,13 @@
       <c r="A211" t="s">
         <v>267</v>
       </c>
-      <c r="AQ211" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR211" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS211" t="s">
+      <c r="I211" t="s">
+        <v>58</v>
+      </c>
+      <c r="R211" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y211" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9481,85 +9488,13 @@
       <c r="A213" t="s">
         <v>269</v>
       </c>
-      <c r="C213" t="s">
-        <v>58</v>
-      </c>
-      <c r="E213" t="s">
-        <v>58</v>
-      </c>
-      <c r="F213" t="s">
-        <v>58</v>
-      </c>
-      <c r="G213" t="s">
-        <v>58</v>
-      </c>
-      <c r="H213" t="s">
-        <v>58</v>
-      </c>
-      <c r="I213" t="s">
-        <v>58</v>
-      </c>
-      <c r="J213" t="s">
-        <v>58</v>
-      </c>
-      <c r="R213" t="s">
-        <v>58</v>
-      </c>
-      <c r="V213" t="s">
-        <v>58</v>
-      </c>
-      <c r="W213" t="s">
-        <v>58</v>
-      </c>
-      <c r="X213" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE213" t="s">
+      <c r="AQ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS213" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9567,7 +9502,85 @@
       <c r="A214" t="s">
         <v>270</v>
       </c>
+      <c r="C214" t="s">
+        <v>58</v>
+      </c>
+      <c r="E214" t="s">
+        <v>58</v>
+      </c>
+      <c r="F214" t="s">
+        <v>58</v>
+      </c>
+      <c r="G214" t="s">
+        <v>58</v>
+      </c>
+      <c r="H214" t="s">
+        <v>58</v>
+      </c>
+      <c r="I214" t="s">
+        <v>58</v>
+      </c>
+      <c r="J214" t="s">
+        <v>58</v>
+      </c>
+      <c r="R214" t="s">
+        <v>58</v>
+      </c>
+      <c r="V214" t="s">
+        <v>58</v>
+      </c>
+      <c r="W214" t="s">
+        <v>58</v>
+      </c>
+      <c r="X214" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ214" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC214" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE214" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9575,13 +9588,7 @@
       <c r="A215" t="s">
         <v>271</v>
       </c>
-      <c r="AQ215" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR215" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS215" t="s">
+      <c r="AZ215" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9589,7 +9596,13 @@
       <c r="A216" t="s">
         <v>272</v>
       </c>
-      <c r="BC216" t="s">
+      <c r="AQ216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS216" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9597,7 +9610,7 @@
       <c r="A217" t="s">
         <v>273</v>
       </c>
-      <c r="Z217" t="s">
+      <c r="BC217" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9613,22 +9626,7 @@
       <c r="A219" t="s">
         <v>275</v>
       </c>
-      <c r="J219" t="s">
-        <v>58</v>
-      </c>
-      <c r="V219" t="s">
-        <v>58</v>
-      </c>
-      <c r="W219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX219" t="s">
+      <c r="Z219" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9636,7 +9634,22 @@
       <c r="A220" t="s">
         <v>276</v>
       </c>
-      <c r="AF220" t="s">
+      <c r="J220" t="s">
+        <v>58</v>
+      </c>
+      <c r="V220" t="s">
+        <v>58</v>
+      </c>
+      <c r="W220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX220" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9644,58 +9657,7 @@
       <c r="A221" t="s">
         <v>277</v>
       </c>
-      <c r="C221" t="s">
-        <v>58</v>
-      </c>
-      <c r="E221" t="s">
-        <v>58</v>
-      </c>
-      <c r="H221" t="s">
-        <v>58</v>
-      </c>
-      <c r="I221" t="s">
-        <v>58</v>
-      </c>
-      <c r="J221" t="s">
-        <v>58</v>
-      </c>
-      <c r="R221" t="s">
-        <v>58</v>
-      </c>
-      <c r="X221" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y221" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE221" t="s">
-        <v>58</v>
-      </c>
       <c r="AF221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC221" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9886,16 +9848,40 @@
       <c r="E225" t="s">
         <v>58</v>
       </c>
+      <c r="H225" t="s">
+        <v>58</v>
+      </c>
+      <c r="I225" t="s">
+        <v>58</v>
+      </c>
       <c r="J225" t="s">
         <v>58</v>
       </c>
+      <c r="R225" t="s">
+        <v>58</v>
+      </c>
+      <c r="X225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>58</v>
+      </c>
       <c r="Z225" t="s">
         <v>58</v>
       </c>
+      <c r="AD225" t="s">
+        <v>58</v>
+      </c>
       <c r="AE225" t="s">
         <v>58</v>
       </c>
       <c r="AF225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH225" t="s">
         <v>58</v>
       </c>
       <c r="AJ225" t="s">
@@ -9950,10 +9936,34 @@
       <c r="A227" t="s">
         <v>283</v>
       </c>
-      <c r="AU227" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV227" t="s">
+      <c r="C227" t="s">
+        <v>58</v>
+      </c>
+      <c r="E227" t="s">
+        <v>58</v>
+      </c>
+      <c r="J227" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA227" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC227" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9961,7 +9971,10 @@
       <c r="A228" t="s">
         <v>284</v>
       </c>
-      <c r="G228" t="s">
+      <c r="AU228" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV228" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9980,42 +9993,21 @@
       <c r="G230" t="s">
         <v>58</v>
       </c>
-      <c r="AU230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ230" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="231" spans="1:55">
       <c r="A231" t="s">
         <v>287</v>
       </c>
-      <c r="E231" t="s">
-        <v>58</v>
-      </c>
-      <c r="V231" t="s">
-        <v>58</v>
-      </c>
-      <c r="W231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ231" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC231" t="s">
+      <c r="G231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ231" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10052,7 +10044,28 @@
       <c r="A233" t="s">
         <v>289</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
+        <v>58</v>
+      </c>
+      <c r="V233" t="s">
+        <v>58</v>
+      </c>
+      <c r="W233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC233" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10060,16 +10073,7 @@
       <c r="A234" t="s">
         <v>290</v>
       </c>
-      <c r="AP234" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ234" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR234" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS234" t="s">
+      <c r="D234" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10077,7 +10081,16 @@
       <c r="A235" t="s">
         <v>291</v>
       </c>
-      <c r="F235" t="s">
+      <c r="AP235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS235" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10085,13 +10098,7 @@
       <c r="A236" t="s">
         <v>292</v>
       </c>
-      <c r="AT236" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU236" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV236" t="s">
+      <c r="F236" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10169,7 +10176,13 @@
       <c r="A242" t="s">
         <v>298</v>
       </c>
-      <c r="AF242" t="s">
+      <c r="AT242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV242" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10177,7 +10190,7 @@
       <c r="A243" t="s">
         <v>299</v>
       </c>
-      <c r="AR243" t="s">
+      <c r="AF243" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10185,37 +10198,7 @@
       <c r="A244" t="s">
         <v>300</v>
       </c>
-      <c r="I244" t="s">
-        <v>58</v>
-      </c>
-      <c r="J244" t="s">
-        <v>58</v>
-      </c>
-      <c r="R244" t="s">
-        <v>58</v>
-      </c>
-      <c r="V244" t="s">
-        <v>58</v>
-      </c>
-      <c r="W244" t="s">
-        <v>58</v>
-      </c>
-      <c r="X244" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX244" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA244" t="s">
+      <c r="AR244" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10223,7 +10206,37 @@
       <c r="A245" t="s">
         <v>301</v>
       </c>
-      <c r="AR245" t="s">
+      <c r="I245" t="s">
+        <v>58</v>
+      </c>
+      <c r="J245" t="s">
+        <v>58</v>
+      </c>
+      <c r="R245" t="s">
+        <v>58</v>
+      </c>
+      <c r="V245" t="s">
+        <v>58</v>
+      </c>
+      <c r="W245" t="s">
+        <v>58</v>
+      </c>
+      <c r="X245" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA245" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10239,13 +10252,7 @@
       <c r="A247" t="s">
         <v>303</v>
       </c>
-      <c r="V247" t="s">
-        <v>58</v>
-      </c>
-      <c r="W247" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD247" t="s">
+      <c r="AR247" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10253,7 +10260,13 @@
       <c r="A248" t="s">
         <v>304</v>
       </c>
-      <c r="AF248" t="s">
+      <c r="V248" t="s">
+        <v>58</v>
+      </c>
+      <c r="W248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD248" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10261,25 +10274,7 @@
       <c r="A249" t="s">
         <v>305</v>
       </c>
-      <c r="F249" t="s">
-        <v>58</v>
-      </c>
-      <c r="G249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ249" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE249" t="s">
+      <c r="AF249" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10365,13 +10360,25 @@
       <c r="A253" t="s">
         <v>309</v>
       </c>
-      <c r="V253" t="s">
-        <v>58</v>
-      </c>
-      <c r="W253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD253" t="s">
+      <c r="F253" t="s">
+        <v>58</v>
+      </c>
+      <c r="G253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ253" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE253" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10379,19 +10386,13 @@
       <c r="A254" t="s">
         <v>310</v>
       </c>
-      <c r="E254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ254" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC254" t="s">
+      <c r="V254" t="s">
+        <v>58</v>
+      </c>
+      <c r="W254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD254" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10399,7 +10400,19 @@
       <c r="A255" t="s">
         <v>311</v>
       </c>
+      <c r="E255" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ255" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC255" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10415,7 +10428,7 @@
       <c r="A257" t="s">
         <v>313</v>
       </c>
-      <c r="AV257" t="s">
+      <c r="AJ257" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10423,13 +10436,7 @@
       <c r="A258" t="s">
         <v>314</v>
       </c>
-      <c r="AQ258" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR258" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS258" t="s">
+      <c r="AV258" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10451,13 +10458,13 @@
       <c r="A260" t="s">
         <v>316</v>
       </c>
-      <c r="I260" t="s">
-        <v>58</v>
-      </c>
-      <c r="R260" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y260" t="s">
+      <c r="AQ260" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR260" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS260" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10493,7 +10500,13 @@
       <c r="A263" t="s">
         <v>319</v>
       </c>
-      <c r="AP263" t="s">
+      <c r="I263" t="s">
+        <v>58</v>
+      </c>
+      <c r="R263" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y263" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10525,7 +10538,7 @@
       <c r="A267" t="s">
         <v>323</v>
       </c>
-      <c r="BC267" t="s">
+      <c r="AP267" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10533,7 +10546,7 @@
       <c r="A268" t="s">
         <v>324</v>
       </c>
-      <c r="BA268" t="s">
+      <c r="BC268" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10541,10 +10554,7 @@
       <c r="A269" t="s">
         <v>325</v>
       </c>
-      <c r="V269" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD269" t="s">
+      <c r="BA269" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10552,7 +10562,10 @@
       <c r="A270" t="s">
         <v>326</v>
       </c>
-      <c r="Z270" t="s">
+      <c r="V270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD270" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10560,13 +10573,7 @@
       <c r="A271" t="s">
         <v>327</v>
       </c>
-      <c r="AQ271" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR271" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS271" t="s">
+      <c r="Z271" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10588,6 +10595,12 @@
       <c r="A273" t="s">
         <v>329</v>
       </c>
+      <c r="AQ273" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR273" t="s">
+        <v>58</v>
+      </c>
       <c r="AS273" t="s">
         <v>58</v>
       </c>
@@ -10620,85 +10633,7 @@
       <c r="A277" t="s">
         <v>333</v>
       </c>
-      <c r="C277" t="s">
-        <v>58</v>
-      </c>
-      <c r="E277" t="s">
-        <v>58</v>
-      </c>
-      <c r="F277" t="s">
-        <v>58</v>
-      </c>
-      <c r="G277" t="s">
-        <v>58</v>
-      </c>
-      <c r="H277" t="s">
-        <v>58</v>
-      </c>
-      <c r="I277" t="s">
-        <v>58</v>
-      </c>
-      <c r="J277" t="s">
-        <v>58</v>
-      </c>
-      <c r="R277" t="s">
-        <v>58</v>
-      </c>
-      <c r="V277" t="s">
-        <v>58</v>
-      </c>
-      <c r="W277" t="s">
-        <v>58</v>
-      </c>
-      <c r="X277" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y277" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE277" t="s">
+      <c r="AS277" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10706,7 +10641,85 @@
       <c r="A278" t="s">
         <v>334</v>
       </c>
-      <c r="AK278" t="s">
+      <c r="C278" t="s">
+        <v>58</v>
+      </c>
+      <c r="E278" t="s">
+        <v>58</v>
+      </c>
+      <c r="F278" t="s">
+        <v>58</v>
+      </c>
+      <c r="G278" t="s">
+        <v>58</v>
+      </c>
+      <c r="H278" t="s">
+        <v>58</v>
+      </c>
+      <c r="I278" t="s">
+        <v>58</v>
+      </c>
+      <c r="J278" t="s">
+        <v>58</v>
+      </c>
+      <c r="R278" t="s">
+        <v>58</v>
+      </c>
+      <c r="V278" t="s">
+        <v>58</v>
+      </c>
+      <c r="W278" t="s">
+        <v>58</v>
+      </c>
+      <c r="X278" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ278" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA278" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC278" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE278" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10722,10 +10735,7 @@
       <c r="A280" t="s">
         <v>336</v>
       </c>
-      <c r="AE280" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ280" t="s">
+      <c r="AK280" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10733,7 +10743,10 @@
       <c r="A281" t="s">
         <v>337</v>
       </c>
-      <c r="AK281" t="s">
+      <c r="AE281" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ281" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10741,7 +10754,7 @@
       <c r="A282" t="s">
         <v>338</v>
       </c>
-      <c r="AT282" t="s">
+      <c r="AK282" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10749,9 +10762,6 @@
       <c r="A283" t="s">
         <v>339</v>
       </c>
-      <c r="F283" t="s">
-        <v>58</v>
-      </c>
       <c r="AT283" t="s">
         <v>58</v>
       </c>
@@ -10782,13 +10792,10 @@
       <c r="A286" t="s">
         <v>342</v>
       </c>
-      <c r="AQ286" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR286" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS286" t="s">
+      <c r="F286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT286" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10796,7 +10803,13 @@
       <c r="A287" t="s">
         <v>343</v>
       </c>
-      <c r="AU287" t="s">
+      <c r="AQ287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS287" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10820,7 +10833,7 @@
       <c r="A290" t="s">
         <v>346</v>
       </c>
-      <c r="D290" t="s">
+      <c r="AU290" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10828,100 +10841,7 @@
       <c r="A291" t="s">
         <v>347</v>
       </c>
-      <c r="C291" t="s">
-        <v>58</v>
-      </c>
       <c r="D291" t="s">
-        <v>58</v>
-      </c>
-      <c r="E291" t="s">
-        <v>58</v>
-      </c>
-      <c r="F291" t="s">
-        <v>58</v>
-      </c>
-      <c r="G291" t="s">
-        <v>58</v>
-      </c>
-      <c r="H291" t="s">
-        <v>58</v>
-      </c>
-      <c r="I291" t="s">
-        <v>58</v>
-      </c>
-      <c r="J291" t="s">
-        <v>58</v>
-      </c>
-      <c r="L291" t="s">
-        <v>58</v>
-      </c>
-      <c r="R291" t="s">
-        <v>58</v>
-      </c>
-      <c r="V291" t="s">
-        <v>58</v>
-      </c>
-      <c r="W291" t="s">
-        <v>58</v>
-      </c>
-      <c r="X291" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y291" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE291" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10929,7 +10849,100 @@
       <c r="A292" t="s">
         <v>348</v>
       </c>
-      <c r="AP292" t="s">
+      <c r="C292" t="s">
+        <v>58</v>
+      </c>
+      <c r="D292" t="s">
+        <v>58</v>
+      </c>
+      <c r="E292" t="s">
+        <v>58</v>
+      </c>
+      <c r="F292" t="s">
+        <v>58</v>
+      </c>
+      <c r="G292" t="s">
+        <v>58</v>
+      </c>
+      <c r="H292" t="s">
+        <v>58</v>
+      </c>
+      <c r="I292" t="s">
+        <v>58</v>
+      </c>
+      <c r="J292" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" t="s">
+        <v>58</v>
+      </c>
+      <c r="R292" t="s">
+        <v>58</v>
+      </c>
+      <c r="V292" t="s">
+        <v>58</v>
+      </c>
+      <c r="W292" t="s">
+        <v>58</v>
+      </c>
+      <c r="X292" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ292" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA292" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC292" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE292" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10937,7 +10950,7 @@
       <c r="A293" t="s">
         <v>349</v>
       </c>
-      <c r="AE293" t="s">
+      <c r="AP293" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10953,7 +10966,7 @@
       <c r="A295" t="s">
         <v>351</v>
       </c>
-      <c r="AJ295" t="s">
+      <c r="AE295" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10961,7 +10974,7 @@
       <c r="A296" t="s">
         <v>352</v>
       </c>
-      <c r="AQ296" t="s">
+      <c r="AJ296" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10977,7 +10990,7 @@
       <c r="A298" t="s">
         <v>354</v>
       </c>
-      <c r="AP298" t="s">
+      <c r="AQ298" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10993,7 +11006,7 @@
       <c r="A300" t="s">
         <v>356</v>
       </c>
-      <c r="AK300" t="s">
+      <c r="AP300" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11009,7 +11022,7 @@
       <c r="A302" t="s">
         <v>358</v>
       </c>
-      <c r="AJ302" t="s">
+      <c r="AK302" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11025,10 +11038,7 @@
       <c r="A304" t="s">
         <v>360</v>
       </c>
-      <c r="AK304" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ304" t="s">
+      <c r="AJ304" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11036,7 +11046,18 @@
       <c r="A305" t="s">
         <v>361</v>
       </c>
+      <c r="AK305" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ305" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306" spans="1:43">
+      <c r="A306" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ306" t="s">
         <v>58</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="363">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -3987,6 +3987,9 @@
     <t>antibodies</t>
   </si>
   <si>
+    <t>atacseq</t>
+  </si>
+  <si>
     <t>bodyct</t>
   </si>
   <si>
@@ -4092,10 +4095,10 @@
     <t>publication</t>
   </si>
   <si>
+    <t>rnaseq</t>
+  </si>
+  <si>
     <t>rnaseq-geomx</t>
-  </si>
-  <si>
-    <t>rnaseq-visium</t>
   </si>
   <si>
     <t>sample</t>
@@ -5402,7 +5405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF305"/>
+  <dimension ref="A1:BG305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5414,10 +5417,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="58" width="2.7109375" customWidth="1"/>
+    <col min="2" max="59" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:59">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5589,5455 +5592,5440 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
         <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
       </c>
       <c r="AE9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
       </c>
       <c r="AU9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>59</v>
       </c>
       <c r="BA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>59</v>
       </c>
       <c r="AE10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
       </c>
       <c r="AU10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>59</v>
       </c>
       <c r="BA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>68</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58">
+        <v>69</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>59</v>
       </c>
       <c r="AH14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>59</v>
       </c>
       <c r="AU14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>59</v>
       </c>
       <c r="BA14" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58">
+        <v>76</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
       <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58">
+        <v>77</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>59</v>
       </c>
       <c r="AO21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="L22" t="s">
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58">
+        <v>80</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
       <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58">
+        <v>81</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
       <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58">
+        <v>82</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
       <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
       <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
       <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
       <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
       <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
       <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48">
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48">
+        <v>92</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48">
+        <v>94</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AU38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AU39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AU40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48">
+        <v>99</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48">
+        <v>100</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48">
+        <v>101</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48">
+        <v>102</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48">
+        <v>103</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="R47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48">
+        <v>104</v>
+      </c>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="R48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57">
+        <v>105</v>
+      </c>
+      <c r="S48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
       <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="R49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57">
+        <v>106</v>
+      </c>
+      <c r="S49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58">
       <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="R50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57">
+        <v>107</v>
+      </c>
+      <c r="S50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
       <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="R51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57">
+        <v>108</v>
+      </c>
+      <c r="S51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
       <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="R52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57">
+        <v>109</v>
+      </c>
+      <c r="S52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
       <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57">
+        <v>110</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="R58" t="s">
-        <v>58</v>
-      </c>
-      <c r="V58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K58" t="s">
+        <v>59</v>
+      </c>
+      <c r="S58" t="s">
+        <v>59</v>
       </c>
       <c r="W58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>59</v>
       </c>
       <c r="AE58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>59</v>
       </c>
       <c r="AU58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>59</v>
       </c>
       <c r="BA58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
       <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57">
+        <v>116</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
       <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57">
+        <v>117</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58">
       <c r="A61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57">
+        <v>118</v>
+      </c>
+      <c r="J61" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
-      </c>
-      <c r="R62" t="s">
-        <v>58</v>
-      </c>
-      <c r="V62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K62" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" t="s">
+        <v>59</v>
       </c>
       <c r="W62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>59</v>
       </c>
       <c r="AE62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>59</v>
       </c>
       <c r="AU62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>59</v>
       </c>
       <c r="BA62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
       <c r="A63" t="s">
-        <v>119</v>
-      </c>
-      <c r="V63" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:57">
+        <v>120</v>
+      </c>
+      <c r="W63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
-      </c>
-      <c r="R64" t="s">
-        <v>58</v>
-      </c>
-      <c r="V64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K64" t="s">
+        <v>59</v>
+      </c>
+      <c r="S64" t="s">
+        <v>59</v>
       </c>
       <c r="W64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>59</v>
       </c>
       <c r="AE64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>59</v>
       </c>
       <c r="AU64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>59</v>
       </c>
       <c r="BA64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
       <c r="A65" t="s">
-        <v>121</v>
-      </c>
-      <c r="X65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57">
+        <v>122</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58">
       <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="X66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57">
+        <v>123</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
       <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="X67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57">
+        <v>124</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58">
       <c r="A69" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:57">
+        <v>126</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
       <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:57">
+        <v>127</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
       <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:57">
+        <v>128</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>58</v>
-      </c>
-      <c r="R72" t="s">
-        <v>58</v>
-      </c>
-      <c r="V72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K72" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" t="s">
+        <v>59</v>
       </c>
       <c r="W72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>59</v>
       </c>
       <c r="AE72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>59</v>
       </c>
       <c r="AU72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>59</v>
       </c>
       <c r="BA72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
       <c r="A73" t="s">
-        <v>129</v>
-      </c>
-      <c r="V73" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:57">
+        <v>130</v>
+      </c>
+      <c r="W73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
       <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:57">
+        <v>131</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58">
       <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:57">
+        <v>132</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
       <c r="A76" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:57">
+        <v>133</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
       <c r="A77" t="s">
-        <v>133</v>
-      </c>
-      <c r="V77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:57">
+        <v>134</v>
+      </c>
+      <c r="W77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>58</v>
-      </c>
-      <c r="R78" t="s">
-        <v>58</v>
-      </c>
-      <c r="V78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K78" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" t="s">
+        <v>59</v>
       </c>
       <c r="W78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>59</v>
       </c>
       <c r="AE78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>59</v>
       </c>
       <c r="AU78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>59</v>
       </c>
       <c r="BA78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
       <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:57">
+        <v>136</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
       <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57">
+        <v>137</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
       <c r="A81" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57">
+        <v>138</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
       <c r="A82" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:57">
+        <v>139</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58">
       <c r="A83" t="s">
-        <v>139</v>
-      </c>
-      <c r="L83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57">
+        <v>140</v>
+      </c>
+      <c r="M83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
       <c r="A84" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:57">
+        <v>141</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58">
       <c r="A85" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:57">
+        <v>142</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
       <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:57">
+        <v>143</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
       <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="BE87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:57">
+        <v>144</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58">
       <c r="A88" t="s">
-        <v>144</v>
-      </c>
-      <c r="R88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:57">
+        <v>145</v>
+      </c>
+      <c r="S88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
       <c r="A89" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:57">
+        <v>146</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
       <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:57">
+        <v>147</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58">
       <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ91" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="AR91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
       <c r="A92" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:57">
+        <v>149</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58">
       <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:57">
+        <v>150</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
       <c r="A94" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:57">
+        <v>151</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58">
       <c r="A95" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:57">
+        <v>152</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
       <c r="A96" t="s">
-        <v>152</v>
-      </c>
-      <c r="R96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58">
+        <v>153</v>
+      </c>
+      <c r="S96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:59">
       <c r="A97" t="s">
-        <v>153</v>
-      </c>
-      <c r="I97" t="s">
-        <v>58</v>
-      </c>
-      <c r="R97" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" t="s">
-        <v>58</v>
+        <v>154</v>
+      </c>
+      <c r="J97" t="s">
+        <v>59</v>
+      </c>
+      <c r="S97" t="s">
+        <v>59</v>
       </c>
       <c r="Y97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:59">
       <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="R98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:58">
+        <v>155</v>
+      </c>
+      <c r="S98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:59">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
-      </c>
-      <c r="G99" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>59</v>
       </c>
       <c r="AJ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:59">
       <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="L100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58">
+        <v>157</v>
+      </c>
+      <c r="M100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:59">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J101" t="s">
-        <v>58</v>
-      </c>
-      <c r="R101" t="s">
-        <v>58</v>
-      </c>
-      <c r="V101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K101" t="s">
+        <v>59</v>
+      </c>
+      <c r="S101" t="s">
+        <v>59</v>
       </c>
       <c r="W101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>59</v>
       </c>
       <c r="AH101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>59</v>
       </c>
       <c r="AU101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>59</v>
       </c>
       <c r="BA101" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:59">
       <c r="A102" t="s">
-        <v>158</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>58</v>
+        <v>159</v>
+      </c>
+      <c r="G102" t="s">
+        <v>59</v>
       </c>
       <c r="AU102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:59">
       <c r="A103" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58">
+        <v>160</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:59">
       <c r="A104" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:58">
+        <v>161</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:59">
       <c r="A105" t="s">
-        <v>161</v>
-      </c>
-      <c r="I105" t="s">
-        <v>58</v>
-      </c>
-      <c r="R105" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:58">
+        <v>162</v>
+      </c>
+      <c r="J105" t="s">
+        <v>59</v>
+      </c>
+      <c r="S105" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:59">
       <c r="A106" t="s">
-        <v>162</v>
-      </c>
-      <c r="L106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:58">
+        <v>163</v>
+      </c>
+      <c r="M106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:59">
       <c r="A107" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58">
+        <v>164</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:59">
       <c r="A108" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:58">
+        <v>165</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:59">
       <c r="A109" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:58">
+        <v>166</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:59">
       <c r="A110" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58">
+        <v>167</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:59">
       <c r="A111" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:58">
+        <v>168</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:59">
       <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:57">
+        <v>169</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58">
       <c r="A113" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:57">
+        <v>170</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:58">
       <c r="A114" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:57">
+        <v>171</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58">
       <c r="A115" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:57">
+        <v>172</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58">
       <c r="A116" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:57">
+        <v>173</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58">
       <c r="A117" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:57">
+        <v>174</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58">
       <c r="A118" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:57">
+        <v>175</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:58">
       <c r="A119" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:57">
+        <v>176</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:58">
       <c r="A120" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:57">
+        <v>177</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58">
       <c r="A121" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:57">
+        <v>178</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58">
       <c r="A122" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:57">
+        <v>179</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58">
       <c r="A123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:57">
+        <v>180</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58">
       <c r="A124" t="s">
-        <v>180</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT124" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H124" t="s">
+        <v>59</v>
       </c>
       <c r="AU124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ124" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58">
       <c r="A125" t="s">
-        <v>181</v>
-      </c>
-      <c r="F125" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT125" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H125" t="s">
+        <v>59</v>
       </c>
       <c r="AU125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ125" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58">
       <c r="A126" t="s">
-        <v>182</v>
-      </c>
-      <c r="F126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:57">
+        <v>183</v>
+      </c>
+      <c r="G126" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:58">
       <c r="A127" t="s">
-        <v>183</v>
-      </c>
-      <c r="F127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:57">
+        <v>184</v>
+      </c>
+      <c r="G127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58">
       <c r="A128" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:57">
+        <v>185</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:58">
       <c r="A129" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT129" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H129" t="s">
+        <v>59</v>
       </c>
       <c r="AU129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ129" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:58">
       <c r="A130" t="s">
-        <v>186</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:57">
+        <v>187</v>
+      </c>
+      <c r="G130" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58">
       <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT131" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:57">
+        <v>188</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58">
       <c r="A132" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="G132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT132" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H132" t="s">
+        <v>59</v>
       </c>
       <c r="AU132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ132" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:58">
       <c r="A133" t="s">
-        <v>189</v>
-      </c>
-      <c r="F133" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="G133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU133" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H133" t="s">
+        <v>59</v>
       </c>
       <c r="AV133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW133" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:58">
       <c r="A134" t="s">
-        <v>190</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT134" t="s">
-        <v>58</v>
+        <v>191</v>
+      </c>
+      <c r="G134" t="s">
+        <v>59</v>
       </c>
       <c r="AU134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:58">
       <c r="A135" t="s">
-        <v>191</v>
-      </c>
-      <c r="F135" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="G135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT135" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H135" t="s">
+        <v>59</v>
       </c>
       <c r="AU135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ135" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:58">
       <c r="A136" t="s">
-        <v>192</v>
-      </c>
-      <c r="F136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT136" t="s">
-        <v>58</v>
+        <v>193</v>
+      </c>
+      <c r="G136" t="s">
+        <v>59</v>
       </c>
       <c r="AU136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW136" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:58">
       <c r="A137" t="s">
-        <v>193</v>
-      </c>
-      <c r="G137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT137" t="s">
-        <v>58</v>
+        <v>194</v>
+      </c>
+      <c r="H137" t="s">
+        <v>59</v>
       </c>
       <c r="AU137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW137" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:58">
       <c r="A138" t="s">
-        <v>194</v>
-      </c>
-      <c r="F138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:57">
+        <v>195</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:58">
       <c r="A139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:58">
       <c r="A140" t="s">
-        <v>196</v>
-      </c>
-      <c r="I140" t="s">
-        <v>58</v>
-      </c>
-      <c r="R140" t="s">
-        <v>58</v>
-      </c>
-      <c r="X140" t="s">
-        <v>58</v>
+        <v>197</v>
+      </c>
+      <c r="J140" t="s">
+        <v>59</v>
+      </c>
+      <c r="S140" t="s">
+        <v>59</v>
       </c>
       <c r="Y140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:58">
       <c r="A141" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" t="s">
-        <v>58</v>
-      </c>
-      <c r="V141" t="s">
-        <v>58</v>
+        <v>198</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
       </c>
       <c r="W141" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD141" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X141" t="s">
+        <v>59</v>
       </c>
       <c r="AE141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF141" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:58">
       <c r="A142" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" t="s">
-        <v>58</v>
-      </c>
-      <c r="V142" t="s">
-        <v>58</v>
+        <v>199</v>
+      </c>
+      <c r="F142" t="s">
+        <v>59</v>
       </c>
       <c r="W142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD142" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X142" t="s">
+        <v>59</v>
       </c>
       <c r="AE142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:58">
       <c r="A143" t="s">
-        <v>199</v>
-      </c>
-      <c r="E143" t="s">
-        <v>58</v>
-      </c>
-      <c r="V143" t="s">
-        <v>58</v>
+        <v>200</v>
+      </c>
+      <c r="F143" t="s">
+        <v>59</v>
       </c>
       <c r="W143" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD143" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X143" t="s">
+        <v>59</v>
       </c>
       <c r="AE143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF143" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:58">
       <c r="A144" t="s">
-        <v>200</v>
-      </c>
-      <c r="E144" t="s">
-        <v>58</v>
-      </c>
-      <c r="V144" t="s">
-        <v>58</v>
+        <v>201</v>
+      </c>
+      <c r="F144" t="s">
+        <v>59</v>
       </c>
       <c r="W144" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD144" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X144" t="s">
+        <v>59</v>
       </c>
       <c r="AE144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF144" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51">
       <c r="A145" t="s">
-        <v>201</v>
-      </c>
-      <c r="L145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:50">
+        <v>202</v>
+      </c>
+      <c r="M145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51">
       <c r="A146" t="s">
-        <v>202</v>
-      </c>
-      <c r="I146" t="s">
-        <v>58</v>
-      </c>
-      <c r="R146" t="s">
-        <v>58</v>
-      </c>
-      <c r="X146" t="s">
-        <v>58</v>
+        <v>203</v>
+      </c>
+      <c r="J146" t="s">
+        <v>59</v>
+      </c>
+      <c r="S146" t="s">
+        <v>59</v>
       </c>
       <c r="Y146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51">
       <c r="A147" t="s">
-        <v>203</v>
-      </c>
-      <c r="I147" t="s">
-        <v>58</v>
-      </c>
-      <c r="R147" t="s">
-        <v>58</v>
-      </c>
-      <c r="X147" t="s">
-        <v>58</v>
+        <v>204</v>
+      </c>
+      <c r="J147" t="s">
+        <v>59</v>
+      </c>
+      <c r="S147" t="s">
+        <v>59</v>
       </c>
       <c r="Y147" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:51">
       <c r="A148" t="s">
-        <v>204</v>
-      </c>
-      <c r="I148" t="s">
-        <v>58</v>
-      </c>
-      <c r="R148" t="s">
-        <v>58</v>
-      </c>
-      <c r="X148" t="s">
-        <v>58</v>
+        <v>205</v>
+      </c>
+      <c r="J148" t="s">
+        <v>59</v>
+      </c>
+      <c r="S148" t="s">
+        <v>59</v>
       </c>
       <c r="Y148" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51">
       <c r="A149" t="s">
-        <v>205</v>
-      </c>
-      <c r="I149" t="s">
-        <v>58</v>
-      </c>
-      <c r="R149" t="s">
-        <v>58</v>
-      </c>
-      <c r="X149" t="s">
-        <v>58</v>
+        <v>206</v>
+      </c>
+      <c r="J149" t="s">
+        <v>59</v>
+      </c>
+      <c r="S149" t="s">
+        <v>59</v>
       </c>
       <c r="Y149" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51">
       <c r="A150" t="s">
-        <v>206</v>
-      </c>
-      <c r="I150" t="s">
-        <v>58</v>
-      </c>
-      <c r="R150" t="s">
-        <v>58</v>
-      </c>
-      <c r="X150" t="s">
-        <v>58</v>
+        <v>207</v>
+      </c>
+      <c r="J150" t="s">
+        <v>59</v>
+      </c>
+      <c r="S150" t="s">
+        <v>59</v>
       </c>
       <c r="Y150" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51">
       <c r="A151" t="s">
-        <v>207</v>
-      </c>
-      <c r="L151" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:50">
+        <v>208</v>
+      </c>
+      <c r="M151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51">
       <c r="A152" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ152" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="AR152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51">
       <c r="A153" t="s">
-        <v>209</v>
-      </c>
-      <c r="H153" t="s">
-        <v>58</v>
-      </c>
-      <c r="J153" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:50">
+        <v>210</v>
+      </c>
+      <c r="I153" t="s">
+        <v>59</v>
+      </c>
+      <c r="K153" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:51">
       <c r="A154" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="1:50">
+        <v>211</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:51">
       <c r="A155" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:50">
+        <v>212</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51">
       <c r="A156" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX156" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="157" spans="1:50">
+        <v>213</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
-      </c>
-      <c r="H157" t="s">
-        <v>58</v>
-      </c>
-      <c r="J157" t="s">
-        <v>58</v>
-      </c>
-      <c r="V157" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I157" t="s">
+        <v>59</v>
+      </c>
+      <c r="K157" t="s">
+        <v>59</v>
       </c>
       <c r="W157" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX157" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="158" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="X157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51">
       <c r="A158" t="s">
-        <v>214</v>
-      </c>
-      <c r="H158" t="s">
-        <v>58</v>
-      </c>
-      <c r="J158" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG158" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:50">
+        <v>215</v>
+      </c>
+      <c r="I158" t="s">
+        <v>59</v>
+      </c>
+      <c r="K158" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51">
       <c r="A159" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:50">
+        <v>216</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:51">
       <c r="A160" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:57">
+        <v>217</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:58">
       <c r="A161" t="s">
-        <v>217</v>
-      </c>
-      <c r="E161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE161" t="s">
-        <v>58</v>
+        <v>218</v>
+      </c>
+      <c r="F161" t="s">
+        <v>59</v>
       </c>
       <c r="AF161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC161" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:58">
       <c r="A162" t="s">
-        <v>218</v>
-      </c>
-      <c r="H162" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="163" spans="1:57">
+        <v>219</v>
+      </c>
+      <c r="I162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:58">
       <c r="A163" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:57">
+        <v>220</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:58">
       <c r="A164" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:57">
+        <v>221</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:58">
       <c r="A165" t="s">
-        <v>221</v>
-      </c>
-      <c r="W165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:57">
+        <v>222</v>
+      </c>
+      <c r="X165" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:58">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
-      </c>
-      <c r="E166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J166" t="s">
-        <v>58</v>
-      </c>
-      <c r="R166" t="s">
-        <v>58</v>
-      </c>
-      <c r="V166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K166" t="s">
+        <v>59</v>
+      </c>
+      <c r="S166" t="s">
+        <v>59</v>
       </c>
       <c r="W166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>59</v>
       </c>
       <c r="AE166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>59</v>
       </c>
       <c r="AU166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>59</v>
       </c>
       <c r="BA166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:58">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
-      </c>
-      <c r="E167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J167" t="s">
-        <v>58</v>
-      </c>
-      <c r="R167" t="s">
-        <v>58</v>
-      </c>
-      <c r="V167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K167" t="s">
+        <v>59</v>
+      </c>
+      <c r="S167" t="s">
+        <v>59</v>
       </c>
       <c r="W167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>59</v>
       </c>
       <c r="AE167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>59</v>
       </c>
       <c r="AU167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY167" t="s">
+        <v>59</v>
       </c>
       <c r="BA167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:58">
       <c r="A168" t="s">
-        <v>224</v>
-      </c>
-      <c r="L168" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:57">
+        <v>225</v>
+      </c>
+      <c r="M168" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:58">
       <c r="A169" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK169" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP169" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:57">
+        <v>226</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:58">
       <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:57">
+        <v>227</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:58">
       <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:57">
+        <v>228</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:58">
       <c r="A172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:57">
+        <v>229</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:58">
       <c r="A173" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="174" spans="1:57">
+        <v>230</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:58">
       <c r="A174" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:57">
+        <v>231</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:58">
       <c r="A175" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK175" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="1:57">
+        <v>232</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:58">
       <c r="A176" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:58">
+        <v>233</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:59">
       <c r="A177" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:58">
+        <v>234</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:59">
       <c r="A178" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:58">
+        <v>235</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:59">
       <c r="A179" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:58">
+        <v>236</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:59">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
-        <v>58</v>
-      </c>
-      <c r="H180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
-      </c>
-      <c r="R180" t="s">
-        <v>58</v>
-      </c>
-      <c r="X180" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J180" t="s">
+        <v>59</v>
+      </c>
+      <c r="S180" t="s">
+        <v>59</v>
       </c>
       <c r="Y180" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG180" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>59</v>
       </c>
       <c r="AH180" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA180" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:59">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
-      </c>
-      <c r="G181" t="s">
-        <v>58</v>
-      </c>
-      <c r="H181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K181" t="s">
-        <v>58</v>
-      </c>
-      <c r="M181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="L181" t="s">
+        <v>59</v>
       </c>
       <c r="N181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V181" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W181" t="s">
+        <v>59</v>
       </c>
       <c r="Z181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>59</v>
       </c>
       <c r="AJ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>59</v>
       </c>
       <c r="AM181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>59</v>
       </c>
       <c r="AX181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="BA181" t="s">
+        <v>59</v>
       </c>
       <c r="BC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:59">
       <c r="A182" t="s">
-        <v>238</v>
-      </c>
-      <c r="AP182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:58">
+        <v>239</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:59">
       <c r="A183" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:58">
+        <v>240</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:59">
       <c r="A184" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:58">
+        <v>241</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:59">
       <c r="A185" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK185" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:58">
+        <v>242</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:59">
       <c r="A186" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP186" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="187" spans="1:58">
+        <v>243</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:59">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C187" t="s">
-        <v>58</v>
-      </c>
-      <c r="E187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J187" t="s">
-        <v>58</v>
-      </c>
-      <c r="R187" t="s">
-        <v>58</v>
-      </c>
-      <c r="V187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K187" t="s">
+        <v>59</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
       </c>
       <c r="W187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>59</v>
       </c>
       <c r="AE187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>59</v>
       </c>
       <c r="AU187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY187" t="s">
+        <v>59</v>
       </c>
       <c r="BA187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:59">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
-      </c>
-      <c r="E188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J188" t="s">
-        <v>58</v>
-      </c>
-      <c r="R188" t="s">
-        <v>58</v>
-      </c>
-      <c r="V188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K188" t="s">
+        <v>59</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
       </c>
       <c r="W188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>59</v>
       </c>
       <c r="AE188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>59</v>
       </c>
       <c r="AU188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>59</v>
       </c>
       <c r="BA188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:59">
       <c r="A189" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD189" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:58">
+        <v>246</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:59">
       <c r="A190" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:58">
+        <v>247</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:59">
       <c r="A191" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD191" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:58">
+        <v>248</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:59">
       <c r="A192" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD192" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="1:55">
+        <v>249</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:56">
       <c r="A193" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD193" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:55">
+        <v>250</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:56">
       <c r="A194" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:55">
+        <v>251</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:56">
       <c r="A195" t="s">
-        <v>251</v>
-      </c>
-      <c r="E195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE195" t="s">
-        <v>58</v>
+        <v>252</v>
+      </c>
+      <c r="F195" t="s">
+        <v>59</v>
       </c>
       <c r="AF195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD195" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:56">
       <c r="A196" t="s">
-        <v>252</v>
-      </c>
-      <c r="E196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE196" t="s">
-        <v>58</v>
+        <v>253</v>
+      </c>
+      <c r="F196" t="s">
+        <v>59</v>
       </c>
       <c r="AF196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:56">
       <c r="A197" t="s">
-        <v>253</v>
-      </c>
-      <c r="I197" t="s">
-        <v>58</v>
-      </c>
-      <c r="R197" t="s">
-        <v>58</v>
-      </c>
-      <c r="X197" t="s">
-        <v>58</v>
+        <v>254</v>
+      </c>
+      <c r="J197" t="s">
+        <v>59</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
       </c>
       <c r="Y197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH197" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="198" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:56">
       <c r="A198" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ198" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="AR198" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS198" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:56">
       <c r="A199" t="s">
-        <v>255</v>
-      </c>
-      <c r="J199" t="s">
-        <v>58</v>
-      </c>
-      <c r="V199" t="s">
-        <v>58</v>
+        <v>256</v>
+      </c>
+      <c r="K199" t="s">
+        <v>59</v>
       </c>
       <c r="W199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X199" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX199" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:56">
       <c r="A200" t="s">
-        <v>256</v>
-      </c>
-      <c r="J200" t="s">
-        <v>58</v>
-      </c>
-      <c r="V200" t="s">
-        <v>58</v>
+        <v>257</v>
+      </c>
+      <c r="K200" t="s">
+        <v>59</v>
       </c>
       <c r="W200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X200" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD200" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:56">
       <c r="A201" t="s">
-        <v>257</v>
-      </c>
-      <c r="X201" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="202" spans="1:55">
+        <v>258</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:56">
       <c r="A202" t="s">
-        <v>258</v>
-      </c>
-      <c r="AQ202" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="AR202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT202" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:56">
       <c r="A203" t="s">
-        <v>259</v>
-      </c>
-      <c r="X203" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:55">
+        <v>260</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="1:56">
       <c r="A204" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD204" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:55">
+        <v>261</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:56">
       <c r="A205" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="206" spans="1:55">
+        <v>262</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:56">
       <c r="A206" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:55">
+        <v>263</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:56">
       <c r="A207" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC207" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:55">
+        <v>264</v>
+      </c>
+      <c r="BD207" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:56">
       <c r="A208" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:57">
+        <v>265</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:58">
       <c r="A209" t="s">
-        <v>265</v>
-      </c>
-      <c r="H209" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
-      </c>
-      <c r="X209" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J209" t="s">
+        <v>59</v>
       </c>
       <c r="Y209" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:58">
       <c r="A210" t="s">
-        <v>266</v>
-      </c>
-      <c r="I210" t="s">
-        <v>58</v>
-      </c>
-      <c r="R210" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y210" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="211" spans="1:57">
+        <v>267</v>
+      </c>
+      <c r="J210" t="s">
+        <v>59</v>
+      </c>
+      <c r="S210" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:58">
       <c r="A211" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ211" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="AR211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:58">
       <c r="A212" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ212" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="AR212" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:58">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
-      </c>
-      <c r="E213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J213" t="s">
-        <v>58</v>
-      </c>
-      <c r="R213" t="s">
-        <v>58</v>
-      </c>
-      <c r="V213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K213" t="s">
+        <v>59</v>
+      </c>
+      <c r="S213" t="s">
+        <v>59</v>
       </c>
       <c r="W213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>59</v>
       </c>
       <c r="AE213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>59</v>
       </c>
       <c r="AU213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>59</v>
       </c>
       <c r="BA213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB213" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD213" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:58">
       <c r="A214" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ214" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="215" spans="1:57">
+        <v>271</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:58">
       <c r="A215" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ215" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="AR215" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS215" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:58">
       <c r="A216" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC216" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="217" spans="1:57">
+        <v>273</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:58">
       <c r="A217" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:57">
+        <v>274</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:58">
       <c r="A218" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:57">
+        <v>275</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:58">
       <c r="A219" t="s">
-        <v>275</v>
-      </c>
-      <c r="J219" t="s">
-        <v>58</v>
-      </c>
-      <c r="V219" t="s">
-        <v>58</v>
+        <v>276</v>
+      </c>
+      <c r="K219" t="s">
+        <v>59</v>
       </c>
       <c r="W219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX219" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="X219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:58">
       <c r="A220" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF220" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="221" spans="1:57">
+        <v>277</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:58">
       <c r="A221" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C221" t="s">
-        <v>58</v>
-      </c>
-      <c r="E221" t="s">
-        <v>58</v>
-      </c>
-      <c r="H221" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F221" t="s">
+        <v>59</v>
       </c>
       <c r="I221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J221" t="s">
-        <v>58</v>
-      </c>
-      <c r="R221" t="s">
-        <v>58</v>
-      </c>
-      <c r="X221" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K221" t="s">
+        <v>59</v>
+      </c>
+      <c r="S221" t="s">
+        <v>59</v>
       </c>
       <c r="Y221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD221" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>59</v>
       </c>
       <c r="AE221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC221" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="222" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:58">
       <c r="A222" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
-      </c>
-      <c r="E222" t="s">
-        <v>58</v>
-      </c>
-      <c r="H222" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F222" t="s">
+        <v>59</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J222" t="s">
-        <v>58</v>
-      </c>
-      <c r="R222" t="s">
-        <v>58</v>
-      </c>
-      <c r="X222" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K222" t="s">
+        <v>59</v>
+      </c>
+      <c r="S222" t="s">
+        <v>59</v>
       </c>
       <c r="Y222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD222" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>59</v>
       </c>
       <c r="AE222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC222" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:58">
       <c r="A223" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C223" t="s">
-        <v>58</v>
-      </c>
-      <c r="E223" t="s">
-        <v>58</v>
-      </c>
-      <c r="H223" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F223" t="s">
+        <v>59</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J223" t="s">
-        <v>58</v>
-      </c>
-      <c r="R223" t="s">
-        <v>58</v>
-      </c>
-      <c r="X223" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K223" t="s">
+        <v>59</v>
+      </c>
+      <c r="S223" t="s">
+        <v>59</v>
       </c>
       <c r="Y223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD223" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>59</v>
       </c>
       <c r="AE223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC223" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:58">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
-      </c>
-      <c r="E224" t="s">
-        <v>58</v>
-      </c>
-      <c r="H224" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F224" t="s">
+        <v>59</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J224" t="s">
-        <v>58</v>
-      </c>
-      <c r="R224" t="s">
-        <v>58</v>
-      </c>
-      <c r="X224" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K224" t="s">
+        <v>59</v>
+      </c>
+      <c r="S224" t="s">
+        <v>59</v>
       </c>
       <c r="Y224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD224" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>59</v>
       </c>
       <c r="AE224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC224" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:56">
       <c r="A225" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C225" t="s">
-        <v>58</v>
-      </c>
-      <c r="E225" t="s">
-        <v>58</v>
-      </c>
-      <c r="J225" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE225" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F225" t="s">
+        <v>59</v>
+      </c>
+      <c r="K225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>59</v>
       </c>
       <c r="AF225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC225" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:56">
       <c r="A226" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
-      </c>
-      <c r="E226" t="s">
-        <v>58</v>
-      </c>
-      <c r="J226" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE226" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F226" t="s">
+        <v>59</v>
+      </c>
+      <c r="K226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>59</v>
       </c>
       <c r="AF226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:56">
       <c r="A227" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU227" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="AV227" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:56">
       <c r="A228" t="s">
-        <v>284</v>
-      </c>
-      <c r="G228" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:55">
+        <v>285</v>
+      </c>
+      <c r="H228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:56">
       <c r="A229" t="s">
-        <v>285</v>
-      </c>
-      <c r="G229" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="1:55">
+        <v>286</v>
+      </c>
+      <c r="H229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:56">
       <c r="A230" t="s">
-        <v>286</v>
-      </c>
-      <c r="G230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU230" t="s">
-        <v>58</v>
+        <v>287</v>
+      </c>
+      <c r="H230" t="s">
+        <v>59</v>
       </c>
       <c r="AV230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ230" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="231" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW230" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:56">
       <c r="A231" t="s">
-        <v>287</v>
-      </c>
-      <c r="E231" t="s">
-        <v>58</v>
-      </c>
-      <c r="V231" t="s">
-        <v>58</v>
+        <v>288</v>
+      </c>
+      <c r="F231" t="s">
+        <v>59</v>
       </c>
       <c r="W231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD231" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X231" t="s">
+        <v>59</v>
       </c>
       <c r="AE231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ231" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC231" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="232" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:56">
       <c r="A232" t="s">
-        <v>288</v>
-      </c>
-      <c r="E232" t="s">
-        <v>58</v>
-      </c>
-      <c r="V232" t="s">
-        <v>58</v>
+        <v>289</v>
+      </c>
+      <c r="F232" t="s">
+        <v>59</v>
       </c>
       <c r="W232" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD232" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X232" t="s">
+        <v>59</v>
       </c>
       <c r="AE232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF232" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ232" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC232" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="233" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:56">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D233" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="234" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:56">
       <c r="A234" t="s">
-        <v>290</v>
-      </c>
-      <c r="AP234" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="AQ234" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR234" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS234" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="235" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:56">
       <c r="A235" t="s">
-        <v>291</v>
-      </c>
-      <c r="F235" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="236" spans="1:55">
+        <v>292</v>
+      </c>
+      <c r="G235" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:56">
       <c r="A236" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT236" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="AU236" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV236" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="237" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:56">
       <c r="A237" t="s">
-        <v>293</v>
-      </c>
-      <c r="AT237" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="AU237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV237" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="238" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:56">
       <c r="A238" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT238" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="AU238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV238" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="239" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:56">
       <c r="A239" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT239" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="AU239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV239" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="240" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:56">
       <c r="A240" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT240" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="AU240" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV240" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="241" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:58">
       <c r="A241" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT241" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="AU241" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV241" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="242" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:58">
       <c r="A242" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF242" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:57">
+        <v>299</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:58">
       <c r="A243" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR243" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="244" spans="1:57">
+        <v>300</v>
+      </c>
+      <c r="AS243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:58">
       <c r="A244" t="s">
-        <v>300</v>
-      </c>
-      <c r="I244" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="J244" t="s">
-        <v>58</v>
-      </c>
-      <c r="R244" t="s">
-        <v>58</v>
-      </c>
-      <c r="V244" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K244" t="s">
+        <v>59</v>
+      </c>
+      <c r="S244" t="s">
+        <v>59</v>
       </c>
       <c r="W244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX244" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB244" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:58">
       <c r="A245" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR245" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="246" spans="1:57">
+        <v>302</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:58">
       <c r="A246" t="s">
-        <v>302</v>
-      </c>
-      <c r="AR246" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="247" spans="1:57">
+        <v>303</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:58">
       <c r="A247" t="s">
-        <v>303</v>
-      </c>
-      <c r="V247" t="s">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="W247" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD247" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="248" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="X247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:58">
       <c r="A248" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF248" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="249" spans="1:57">
+        <v>305</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:58">
       <c r="A249" t="s">
-        <v>305</v>
-      </c>
-      <c r="F249" t="s">
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT249" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H249" t="s">
+        <v>59</v>
       </c>
       <c r="AU249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ249" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE249" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="250" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA249" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:58">
       <c r="A250" t="s">
-        <v>306</v>
-      </c>
-      <c r="F250" t="s">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="G250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT250" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H250" t="s">
+        <v>59</v>
       </c>
       <c r="AU250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ250" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE250" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="251" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:58">
       <c r="A251" t="s">
-        <v>307</v>
-      </c>
-      <c r="F251" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c r="G251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT251" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H251" t="s">
+        <v>59</v>
       </c>
       <c r="AU251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ251" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE251" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="252" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:58">
       <c r="A252" t="s">
-        <v>308</v>
-      </c>
-      <c r="F252" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT252" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H252" t="s">
+        <v>59</v>
       </c>
       <c r="AU252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ252" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE252" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="253" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:58">
       <c r="A253" t="s">
-        <v>309</v>
-      </c>
-      <c r="V253" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="W253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD253" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="X253" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:58">
       <c r="A254" t="s">
-        <v>310</v>
-      </c>
-      <c r="E254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE254" t="s">
-        <v>58</v>
+        <v>311</v>
+      </c>
+      <c r="F254" t="s">
+        <v>59</v>
       </c>
       <c r="AF254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ254" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC254" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="255" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:58">
       <c r="A255" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:57">
+        <v>312</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:58">
       <c r="A256" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ256" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:55">
+        <v>313</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:56">
       <c r="A257" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV257" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:55">
+        <v>314</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:56">
       <c r="A258" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ258" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="AR258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS258" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="259" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:56">
       <c r="A259" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ259" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="AR259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS259" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="260" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:56">
       <c r="A260" t="s">
-        <v>316</v>
-      </c>
-      <c r="I260" t="s">
-        <v>58</v>
-      </c>
-      <c r="R260" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y260" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="261" spans="1:55">
+        <v>317</v>
+      </c>
+      <c r="J260" t="s">
+        <v>59</v>
+      </c>
+      <c r="S260" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:56">
       <c r="A261" t="s">
-        <v>317</v>
-      </c>
-      <c r="I261" t="s">
-        <v>58</v>
-      </c>
-      <c r="R261" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y261" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="262" spans="1:55">
+        <v>318</v>
+      </c>
+      <c r="J261" t="s">
+        <v>59</v>
+      </c>
+      <c r="S261" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:56">
       <c r="A262" t="s">
-        <v>318</v>
-      </c>
-      <c r="I262" t="s">
-        <v>58</v>
-      </c>
-      <c r="R262" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y262" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="263" spans="1:55">
+        <v>319</v>
+      </c>
+      <c r="J262" t="s">
+        <v>59</v>
+      </c>
+      <c r="S262" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:56">
       <c r="A263" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP263" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="264" spans="1:55">
+        <v>320</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:56">
       <c r="A264" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP264" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="265" spans="1:55">
+        <v>321</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:56">
       <c r="A265" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP265" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="266" spans="1:55">
+        <v>322</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:56">
       <c r="A266" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP266" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="267" spans="1:55">
+        <v>323</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:56">
       <c r="A267" t="s">
-        <v>323</v>
-      </c>
-      <c r="BC267" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="268" spans="1:55">
+        <v>324</v>
+      </c>
+      <c r="BD267" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:56">
       <c r="A268" t="s">
-        <v>324</v>
-      </c>
-      <c r="BA268" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="269" spans="1:55">
+        <v>325</v>
+      </c>
+      <c r="BB268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:56">
       <c r="A269" t="s">
-        <v>325</v>
-      </c>
-      <c r="V269" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD269" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:55">
+        <v>326</v>
+      </c>
+      <c r="W269" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:56">
       <c r="A270" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z270" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="271" spans="1:55">
+        <v>327</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:56">
       <c r="A271" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ271" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="AR271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS271" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="272" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:56">
       <c r="A272" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="AR272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS272" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="273" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:58">
       <c r="A273" t="s">
-        <v>329</v>
-      </c>
-      <c r="AS273" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="274" spans="1:57">
+        <v>330</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:58">
       <c r="A274" t="s">
-        <v>330</v>
-      </c>
-      <c r="AS274" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="275" spans="1:57">
+        <v>331</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:58">
       <c r="A275" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS275" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="276" spans="1:57">
+        <v>332</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:58">
       <c r="A276" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS276" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:57">
+        <v>333</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:58">
       <c r="A277" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C277" t="s">
-        <v>58</v>
-      </c>
-      <c r="E277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J277" t="s">
-        <v>58</v>
-      </c>
-      <c r="R277" t="s">
-        <v>58</v>
-      </c>
-      <c r="V277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K277" t="s">
+        <v>59</v>
+      </c>
+      <c r="S277" t="s">
+        <v>59</v>
       </c>
       <c r="W277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>59</v>
       </c>
       <c r="AE277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>59</v>
       </c>
       <c r="AU277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>59</v>
       </c>
       <c r="BA277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE277" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="278" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB277" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD277" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF277" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:58">
       <c r="A278" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK278" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="279" spans="1:57">
+        <v>335</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:58">
       <c r="A279" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK279" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="280" spans="1:57">
+        <v>336</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:58">
       <c r="A280" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE280" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ280" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="281" spans="1:57">
+        <v>337</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:58">
       <c r="A281" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK281" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="282" spans="1:57">
+        <v>338</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:58">
       <c r="A282" t="s">
-        <v>338</v>
-      </c>
-      <c r="AT282" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="283" spans="1:57">
+        <v>339</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:58">
       <c r="A283" t="s">
-        <v>339</v>
-      </c>
-      <c r="F283" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT283" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="284" spans="1:57">
+        <v>340</v>
+      </c>
+      <c r="G283" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:58">
       <c r="A284" t="s">
-        <v>340</v>
-      </c>
-      <c r="F284" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT284" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="285" spans="1:57">
+        <v>341</v>
+      </c>
+      <c r="G284" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:58">
       <c r="A285" t="s">
-        <v>341</v>
-      </c>
-      <c r="F285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT285" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="286" spans="1:57">
+        <v>342</v>
+      </c>
+      <c r="G285" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:58">
       <c r="A286" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ286" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="AR286" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS286" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="287" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:58">
       <c r="A287" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU287" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="288" spans="1:57">
+        <v>344</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288" spans="1:58">
       <c r="A288" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU288" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="289" spans="1:57">
+        <v>345</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:58">
       <c r="A289" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU289" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" spans="1:57">
+        <v>346</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:58">
       <c r="A290" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D290" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="291" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:58">
       <c r="A291" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D291" t="s">
-        <v>58</v>
-      </c>
-      <c r="E291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J291" t="s">
-        <v>58</v>
-      </c>
-      <c r="L291" t="s">
-        <v>58</v>
-      </c>
-      <c r="R291" t="s">
-        <v>58</v>
-      </c>
-      <c r="V291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K291" t="s">
+        <v>59</v>
+      </c>
+      <c r="M291" t="s">
+        <v>59</v>
+      </c>
+      <c r="S291" t="s">
+        <v>59</v>
       </c>
       <c r="W291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>59</v>
       </c>
       <c r="AE291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>59</v>
       </c>
       <c r="AR291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>59</v>
       </c>
       <c r="BA291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE291" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="292" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB291" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD291" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:58">
       <c r="A292" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP292" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="293" spans="1:57">
+        <v>349</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:58">
       <c r="A293" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE293" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="294" spans="1:57">
+        <v>350</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:58">
       <c r="A294" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE294" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="295" spans="1:57">
+        <v>351</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:58">
       <c r="A295" t="s">
-        <v>351</v>
-      </c>
-      <c r="AJ295" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="296" spans="1:57">
+        <v>352</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:58">
       <c r="A296" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ296" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="297" spans="1:57">
+        <v>353</v>
+      </c>
+      <c r="AR296" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="1:58">
       <c r="A297" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ297" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="298" spans="1:57">
+        <v>354</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:58">
       <c r="A298" t="s">
-        <v>354</v>
-      </c>
-      <c r="AP298" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="299" spans="1:57">
+        <v>355</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:58">
       <c r="A299" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP299" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="300" spans="1:57">
+        <v>356</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:58">
       <c r="A300" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK300" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="301" spans="1:57">
+        <v>357</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:58">
       <c r="A301" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK301" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="302" spans="1:57">
+        <v>358</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:58">
       <c r="A302" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ302" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="303" spans="1:57">
+        <v>359</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="1:58">
       <c r="A303" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ303" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="304" spans="1:57">
+        <v>360</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:58">
       <c r="A304" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK304" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ304" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="305" spans="1:43">
+        <v>361</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44">
       <c r="A305" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ305" t="s">
-        <v>58</v>
+        <v>362</v>
+      </c>
+      <c r="AR305" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="363">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4078,6 +4078,9 @@
   </si>
   <si>
     <t>nano</t>
+  </si>
+  <si>
+    <t>nano-splits</t>
   </si>
   <si>
     <t>oct</t>
@@ -5402,7 +5405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF305"/>
+  <dimension ref="A1:BG305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5414,10 +5417,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="58" width="2.7109375" customWidth="1"/>
+    <col min="2" max="59" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:59">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5589,5425 +5592,5437 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
       </c>
       <c r="AU9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>59</v>
       </c>
       <c r="BA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
       </c>
       <c r="AU10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>59</v>
       </c>
       <c r="BA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>59</v>
       </c>
       <c r="BA14" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58">
+        <v>76</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
       <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58">
+        <v>77</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>59</v>
       </c>
       <c r="AO21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58">
+        <v>80</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
       <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58">
+        <v>81</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
       <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58">
+        <v>82</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AU38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AU39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AU40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48">
+        <v>100</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48">
+        <v>101</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48">
+        <v>102</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48">
+        <v>103</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
       <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57">
+        <v>110</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>59</v>
       </c>
       <c r="AU58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>59</v>
       </c>
       <c r="BA58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>59</v>
       </c>
       <c r="AU62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>59</v>
       </c>
       <c r="BA62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>59</v>
       </c>
       <c r="AU64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>59</v>
       </c>
       <c r="BA64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
       <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:57">
+        <v>127</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
       <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:57">
+        <v>128</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>59</v>
       </c>
       <c r="AU72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>59</v>
       </c>
       <c r="BA72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
       <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:57">
+        <v>131</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>59</v>
       </c>
       <c r="AU78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>59</v>
       </c>
       <c r="BA78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
       <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:57">
+        <v>136</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG85" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG86" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
       <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="BE87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:57">
+        <v>144</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
       <c r="A89" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:57">
+        <v>146</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
       <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:57">
+        <v>147</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58">
       <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ91" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="AR91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:59">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:59">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:59">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW99" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>59</v>
       </c>
       <c r="AX99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:59">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:59">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>59</v>
       </c>
       <c r="BA101" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:59">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:59">
       <c r="A103" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58">
+        <v>160</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:59">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:59">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:59">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:59">
       <c r="A107" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58">
+        <v>164</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:59">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:59">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:59">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:59">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:59">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:58">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:58">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:58">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ124" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ125" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:58">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58">
       <c r="A128" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:57">
+        <v>185</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:58">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ129" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:58">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58">
       <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT131" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:57">
+        <v>188</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ132" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:58">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW133" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:58">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:58">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ135" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:58">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW136" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:58">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW137" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:58">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:58">
       <c r="A139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:58">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:58">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG141" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:58">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:58">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG143" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:58">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG144" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:51">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z150" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M151" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51">
       <c r="A152" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ152" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="AR152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:51">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:51">
       <c r="A155" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:50">
+        <v>212</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51">
       <c r="A156" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX156" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="157" spans="1:50">
+        <v>213</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX157" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="158" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51">
       <c r="A158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH158" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:51">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:58">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC161" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:58">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="163" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:58">
       <c r="A163" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:57">
+        <v>220</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:58">
       <c r="A164" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:57">
+        <v>221</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:58">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:58">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>59</v>
       </c>
       <c r="AU166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>59</v>
       </c>
       <c r="BA166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:58">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>59</v>
       </c>
       <c r="AU167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY167" t="s">
+        <v>59</v>
       </c>
       <c r="BA167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:58">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M168" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:58">
       <c r="A169" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK169" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP169" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:57">
+        <v>226</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:58">
       <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:57">
+        <v>227</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:58">
       <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:57">
+        <v>228</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:58">
       <c r="A172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:57">
+        <v>229</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:58">
       <c r="A173" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="174" spans="1:57">
+        <v>230</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:58">
       <c r="A174" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:57">
+        <v>231</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:58">
       <c r="A175" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK175" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="1:57">
+        <v>232</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:58">
       <c r="A176" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:58">
+        <v>233</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:59">
       <c r="A177" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:58">
+        <v>234</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:59">
       <c r="A178" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:58">
+        <v>235</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:59">
       <c r="A179" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:58">
+        <v>236</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:59">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI180" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA180" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:59">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>59</v>
       </c>
       <c r="AM181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>59</v>
       </c>
       <c r="AX181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="BA181" t="s">
+        <v>59</v>
       </c>
       <c r="BC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:59">
       <c r="A182" t="s">
-        <v>238</v>
-      </c>
-      <c r="AP182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:58">
+        <v>239</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:59">
       <c r="A183" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:58">
+        <v>240</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:59">
       <c r="A184" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:58">
+        <v>241</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:59">
       <c r="A185" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK185" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:58">
+        <v>242</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:59">
       <c r="A186" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP186" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="187" spans="1:58">
+        <v>243</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:59">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>59</v>
       </c>
       <c r="AU187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ187" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY187" t="s">
+        <v>59</v>
       </c>
       <c r="BA187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC187" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:59">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>59</v>
       </c>
       <c r="AU188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>59</v>
       </c>
       <c r="BA188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:59">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE189" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:59">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:59">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE191" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:59">
       <c r="A192" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE192" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:56">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE193" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:56">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:56">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F195" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF195" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG195" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD195" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:56">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:56">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI197" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="198" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:56">
       <c r="A198" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ198" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="AR198" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS198" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:56">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE199" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX199" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AY199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:56">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE200" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:56">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y201" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="202" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:56">
       <c r="A202" t="s">
-        <v>258</v>
-      </c>
-      <c r="AQ202" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="AR202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT202" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:56">
       <c r="A203" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y203" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="1:56">
       <c r="A204" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AE204" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:56">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="206" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:56">
       <c r="A206" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:56">
       <c r="A207" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC207" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:55">
+        <v>264</v>
+      </c>
+      <c r="BD207" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:56">
       <c r="A208" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:57">
+        <v>265</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:58">
       <c r="A209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z209" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:58">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z210" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="211" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:58">
       <c r="A211" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ211" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="AR211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:58">
       <c r="A212" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ212" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="AR212" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:58">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>59</v>
       </c>
       <c r="AU213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX213" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ213" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>59</v>
       </c>
       <c r="BA213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC213" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB213" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD213" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:58">
       <c r="A214" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ214" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="215" spans="1:57">
+        <v>271</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:58">
       <c r="A215" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ215" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="AR215" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS215" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:58">
       <c r="A216" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC216" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="217" spans="1:57">
+        <v>273</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:58">
       <c r="A217" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA217" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:58">
       <c r="A218" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA218" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:58">
       <c r="A219" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH219" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX219" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:58">
       <c r="A220" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG220" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="221" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:58">
       <c r="A221" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ221" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA221" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC221" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="222" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:58">
       <c r="A222" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC222" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:58">
       <c r="A223" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC223" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:58">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC224" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:56">
       <c r="A225" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC225" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:56">
       <c r="A226" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:56">
       <c r="A227" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU227" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="AV227" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:56">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H228" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:56">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H229" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:56">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU230" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV230" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ230" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="231" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW230" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:56">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ231" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC231" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="232" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:56">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG232" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ232" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC232" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="233" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:56">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D233" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="234" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:56">
       <c r="A234" t="s">
-        <v>290</v>
-      </c>
-      <c r="AP234" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="AQ234" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR234" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS234" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="235" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:56">
       <c r="A235" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G235" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="236" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:56">
       <c r="A236" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT236" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="AU236" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV236" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="237" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:56">
       <c r="A237" t="s">
-        <v>293</v>
-      </c>
-      <c r="AT237" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="AU237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV237" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="238" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:56">
       <c r="A238" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT238" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="AU238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV238" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="239" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:56">
       <c r="A239" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT239" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="AU239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV239" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="240" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:56">
       <c r="A240" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT240" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="AU240" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV240" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="241" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:58">
       <c r="A241" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT241" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="AU241" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV241" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="242" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:58">
       <c r="A242" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG242" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:58">
       <c r="A243" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR243" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="244" spans="1:57">
+        <v>300</v>
+      </c>
+      <c r="AS243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:58">
       <c r="A244" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE244" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH244" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX244" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB244" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:58">
       <c r="A245" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR245" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="246" spans="1:57">
+        <v>302</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:58">
       <c r="A246" t="s">
-        <v>302</v>
-      </c>
-      <c r="AR246" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="247" spans="1:57">
+        <v>303</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:58">
       <c r="A247" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W247" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X247" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE247" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="248" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:58">
       <c r="A248" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG248" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="249" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:58">
       <c r="A249" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU249" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV249" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ249" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE249" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="250" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA249" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:58">
       <c r="A250" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ250" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE250" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="251" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:58">
       <c r="A251" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ251" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE251" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="252" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:58">
       <c r="A252" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ252" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE252" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="253" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:58">
       <c r="A253" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE253" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:58">
       <c r="A254" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F254" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF254" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ254" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC254" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="255" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:58">
       <c r="A255" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:57">
+        <v>312</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:58">
       <c r="A256" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ256" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:55">
+        <v>313</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:56">
       <c r="A257" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV257" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:55">
+        <v>314</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:56">
       <c r="A258" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ258" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="AR258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS258" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="259" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:56">
       <c r="A259" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ259" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="AR259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS259" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="260" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:56">
       <c r="A260" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z260" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="261" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:56">
       <c r="A261" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z261" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="262" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:56">
       <c r="A262" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z262" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="263" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:56">
       <c r="A263" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP263" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="264" spans="1:55">
+        <v>320</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:56">
       <c r="A264" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP264" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="265" spans="1:55">
+        <v>321</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:56">
       <c r="A265" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP265" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="266" spans="1:55">
+        <v>322</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:56">
       <c r="A266" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP266" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="267" spans="1:55">
+        <v>323</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:56">
       <c r="A267" t="s">
-        <v>323</v>
-      </c>
-      <c r="BC267" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="268" spans="1:55">
+        <v>324</v>
+      </c>
+      <c r="BD267" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:56">
       <c r="A268" t="s">
-        <v>324</v>
-      </c>
-      <c r="BA268" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="269" spans="1:55">
+        <v>325</v>
+      </c>
+      <c r="BB268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:56">
       <c r="A269" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W269" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE269" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:56">
       <c r="A270" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA270" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="271" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:56">
       <c r="A271" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ271" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="AR271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS271" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="272" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:56">
       <c r="A272" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="AR272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS272" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="273" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:58">
       <c r="A273" t="s">
-        <v>329</v>
-      </c>
-      <c r="AS273" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="274" spans="1:57">
+        <v>330</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:58">
       <c r="A274" t="s">
-        <v>330</v>
-      </c>
-      <c r="AS274" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="275" spans="1:57">
+        <v>331</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:58">
       <c r="A275" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS275" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="276" spans="1:57">
+        <v>332</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:58">
       <c r="A276" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS276" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:57">
+        <v>333</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:58">
       <c r="A277" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>59</v>
       </c>
       <c r="AU277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX277" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ277" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>59</v>
       </c>
       <c r="BA277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC277" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE277" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="278" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB277" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD277" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF277" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:58">
       <c r="A278" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK278" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="279" spans="1:57">
+        <v>335</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:58">
       <c r="A279" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK279" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="280" spans="1:57">
+        <v>336</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:58">
       <c r="A280" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF280" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ280" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="281" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:58">
       <c r="A281" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK281" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="282" spans="1:57">
+        <v>338</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:58">
       <c r="A282" t="s">
-        <v>338</v>
-      </c>
-      <c r="AT282" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="283" spans="1:57">
+        <v>339</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:58">
       <c r="A283" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G283" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT283" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="284" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:58">
       <c r="A284" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G284" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT284" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="285" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:58">
       <c r="A285" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT285" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="286" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:58">
       <c r="A286" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ286" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="AR286" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS286" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="287" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:58">
       <c r="A287" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU287" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="288" spans="1:57">
+        <v>344</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288" spans="1:58">
       <c r="A288" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU288" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="289" spans="1:57">
+        <v>345</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:58">
       <c r="A289" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU289" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" spans="1:57">
+        <v>346</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:58">
       <c r="A290" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D290" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="291" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:58">
       <c r="A291" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>59</v>
       </c>
       <c r="AR291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX291" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ291" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>59</v>
       </c>
       <c r="BA291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC291" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE291" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="292" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB291" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD291" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:58">
       <c r="A292" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP292" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="293" spans="1:57">
+        <v>349</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:58">
       <c r="A293" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF293" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="294" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:58">
       <c r="A294" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF294" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="295" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:58">
       <c r="A295" t="s">
-        <v>351</v>
-      </c>
-      <c r="AJ295" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="296" spans="1:57">
+        <v>352</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:58">
       <c r="A296" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ296" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="297" spans="1:57">
+        <v>353</v>
+      </c>
+      <c r="AR296" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="1:58">
       <c r="A297" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ297" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="298" spans="1:57">
+        <v>354</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:58">
       <c r="A298" t="s">
-        <v>354</v>
-      </c>
-      <c r="AP298" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="299" spans="1:57">
+        <v>355</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:58">
       <c r="A299" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP299" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="300" spans="1:57">
+        <v>356</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:58">
       <c r="A300" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK300" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="301" spans="1:57">
+        <v>357</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:58">
       <c r="A301" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK301" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="302" spans="1:57">
+        <v>358</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:58">
       <c r="A302" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ302" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="303" spans="1:57">
+        <v>359</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="1:58">
       <c r="A303" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ303" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="304" spans="1:57">
+        <v>360</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:58">
       <c r="A304" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK304" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ304" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="305" spans="1:43">
+        <v>361</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44">
       <c r="A305" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ305" t="s">
-        <v>58</v>
+        <v>362</v>
+      </c>
+      <c r="AR305" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -2368,11 +2368,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>UUID or HuBMAP ID of parent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Further details on organ level QC checks.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2489,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2515,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2554,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2606,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2684,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2775,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2814,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2840,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2866,7 +2879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2905,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2918,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2944,7 +2957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2957,7 +2970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2970,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2983,7 +2996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2996,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,7 +3035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3035,7 +3048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3048,7 +3061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3061,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3126,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3152,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3204,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3243,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A252" authorId="0">
+    <comment ref="A253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A253" authorId="0">
+    <comment ref="A254" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A254" authorId="0">
+    <comment ref="A255" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0">
+    <comment ref="A257" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A257" authorId="0">
+    <comment ref="A258" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3360,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A259" authorId="0">
+    <comment ref="A260" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3373,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A260" authorId="0">
+    <comment ref="A261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A261" authorId="0">
+    <comment ref="A262" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A262" authorId="0">
+    <comment ref="A263" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0">
+    <comment ref="A264" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3425,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A264" authorId="0">
+    <comment ref="A265" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3438,7 +3451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A265" authorId="0">
+    <comment ref="A266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A266" authorId="0">
+    <comment ref="A267" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3464,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A268" authorId="0">
+    <comment ref="A269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3490,7 +3503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3516,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A272" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3529,7 +3542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3568,7 +3581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3581,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3607,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3633,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3711,7 +3724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3724,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3737,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A292" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A293" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3815,7 +3828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A294" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3828,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A295" authorId="0">
+    <comment ref="A296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3841,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A296" authorId="0">
+    <comment ref="A297" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3854,7 +3867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A297" authorId="0">
+    <comment ref="A298" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3867,7 +3880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A298" authorId="0">
+    <comment ref="A299" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3880,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A299" authorId="0">
+    <comment ref="A300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3893,7 +3906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A300" authorId="0">
+    <comment ref="A301" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3906,7 +3919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A301" authorId="0">
+    <comment ref="A302" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3919,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A302" authorId="0">
+    <comment ref="A303" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A303" authorId="0">
+    <comment ref="A304" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3945,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A304" authorId="0">
+    <comment ref="A305" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3958,7 +3971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A305" authorId="0">
+    <comment ref="A306" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3976,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="364">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4693,6 +4706,9 @@
   </si>
   <si>
     <t>parent_id</t>
+  </si>
+  <si>
+    <t>parent_sample_id</t>
   </si>
   <si>
     <t>pathologist_report</t>
@@ -5405,7 +5421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG305"/>
+  <dimension ref="A1:BG306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8871,9 +8887,6 @@
       <c r="U181" t="s">
         <v>59</v>
       </c>
-      <c r="V181" t="s">
-        <v>59</v>
-      </c>
       <c r="W181" t="s">
         <v>59</v>
       </c>
@@ -8951,7 +8964,7 @@
       <c r="A182" t="s">
         <v>239</v>
       </c>
-      <c r="AQ182" t="s">
+      <c r="V182" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8959,7 +8972,7 @@
       <c r="A183" t="s">
         <v>240</v>
       </c>
-      <c r="AR183" t="s">
+      <c r="AQ183" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8975,7 +8988,7 @@
       <c r="A185" t="s">
         <v>242</v>
       </c>
-      <c r="AL185" t="s">
+      <c r="AR185" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8986,93 +8999,15 @@
       <c r="AL186" t="s">
         <v>59</v>
       </c>
-      <c r="AQ186" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="187" spans="1:59">
       <c r="A187" t="s">
         <v>244</v>
       </c>
-      <c r="C187" t="s">
-        <v>59</v>
-      </c>
-      <c r="F187" t="s">
-        <v>59</v>
-      </c>
-      <c r="G187" t="s">
-        <v>59</v>
-      </c>
-      <c r="H187" t="s">
-        <v>59</v>
-      </c>
-      <c r="I187" t="s">
-        <v>59</v>
-      </c>
-      <c r="J187" t="s">
-        <v>59</v>
-      </c>
-      <c r="K187" t="s">
-        <v>59</v>
-      </c>
-      <c r="S187" t="s">
-        <v>59</v>
-      </c>
-      <c r="W187" t="s">
-        <v>59</v>
-      </c>
-      <c r="X187" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW187" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY187" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA187" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB187" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD187" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF187" t="s">
+      <c r="AL187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ187" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9166,7 +9101,85 @@
       <c r="A189" t="s">
         <v>246</v>
       </c>
+      <c r="C189" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189" t="s">
+        <v>59</v>
+      </c>
+      <c r="G189" t="s">
+        <v>59</v>
+      </c>
+      <c r="H189" t="s">
+        <v>59</v>
+      </c>
+      <c r="I189" t="s">
+        <v>59</v>
+      </c>
+      <c r="J189" t="s">
+        <v>59</v>
+      </c>
+      <c r="K189" t="s">
+        <v>59</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="W189" t="s">
+        <v>59</v>
+      </c>
+      <c r="X189" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>59</v>
+      </c>
       <c r="AE189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF189" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9214,19 +9227,7 @@
       <c r="A195" t="s">
         <v>252</v>
       </c>
-      <c r="F195" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF195" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG195" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK195" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD195" t="s">
+      <c r="AE195" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9254,19 +9255,19 @@
       <c r="A197" t="s">
         <v>254</v>
       </c>
-      <c r="J197" t="s">
-        <v>59</v>
-      </c>
-      <c r="S197" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI197" t="s">
+      <c r="F197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD197" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9274,13 +9275,19 @@
       <c r="A198" t="s">
         <v>255</v>
       </c>
-      <c r="AR198" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS198" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT198" t="s">
+      <c r="J198" t="s">
+        <v>59</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI198" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9288,22 +9295,13 @@
       <c r="A199" t="s">
         <v>256</v>
       </c>
-      <c r="K199" t="s">
-        <v>59</v>
-      </c>
-      <c r="W199" t="s">
-        <v>59</v>
-      </c>
-      <c r="X199" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y199" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE199" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY199" t="s">
+      <c r="AR199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT199" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9334,7 +9332,22 @@
       <c r="A201" t="s">
         <v>258</v>
       </c>
+      <c r="K201" t="s">
+        <v>59</v>
+      </c>
+      <c r="W201" t="s">
+        <v>59</v>
+      </c>
+      <c r="X201" t="s">
+        <v>59</v>
+      </c>
       <c r="Y201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY201" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9342,13 +9355,7 @@
       <c r="A202" t="s">
         <v>259</v>
       </c>
-      <c r="AR202" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS202" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT202" t="s">
+      <c r="Y202" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9356,7 +9363,13 @@
       <c r="A203" t="s">
         <v>260</v>
       </c>
-      <c r="Y203" t="s">
+      <c r="AR203" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT203" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9364,7 +9377,7 @@
       <c r="A204" t="s">
         <v>261</v>
       </c>
-      <c r="AE204" t="s">
+      <c r="Y204" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9388,7 +9401,7 @@
       <c r="A207" t="s">
         <v>264</v>
       </c>
-      <c r="BD207" t="s">
+      <c r="AE207" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9396,7 +9409,7 @@
       <c r="A208" t="s">
         <v>265</v>
       </c>
-      <c r="AQ208" t="s">
+      <c r="BD208" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9404,19 +9417,7 @@
       <c r="A209" t="s">
         <v>266</v>
       </c>
-      <c r="I209" t="s">
-        <v>59</v>
-      </c>
-      <c r="J209" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y209" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI209" t="s">
+      <c r="AQ209" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9424,13 +9425,19 @@
       <c r="A210" t="s">
         <v>267</v>
       </c>
+      <c r="I210" t="s">
+        <v>59</v>
+      </c>
       <c r="J210" t="s">
         <v>59</v>
       </c>
-      <c r="S210" t="s">
+      <c r="Y210" t="s">
         <v>59</v>
       </c>
       <c r="Z210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI210" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9438,13 +9445,13 @@
       <c r="A211" t="s">
         <v>268</v>
       </c>
-      <c r="AR211" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS211" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT211" t="s">
+      <c r="J211" t="s">
+        <v>59</v>
+      </c>
+      <c r="S211" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z211" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9466,85 +9473,13 @@
       <c r="A213" t="s">
         <v>270</v>
       </c>
-      <c r="C213" t="s">
-        <v>59</v>
-      </c>
-      <c r="F213" t="s">
-        <v>59</v>
-      </c>
-      <c r="G213" t="s">
-        <v>59</v>
-      </c>
-      <c r="H213" t="s">
-        <v>59</v>
-      </c>
-      <c r="I213" t="s">
-        <v>59</v>
-      </c>
-      <c r="J213" t="s">
-        <v>59</v>
-      </c>
-      <c r="K213" t="s">
-        <v>59</v>
-      </c>
-      <c r="S213" t="s">
-        <v>59</v>
-      </c>
-      <c r="W213" t="s">
-        <v>59</v>
-      </c>
-      <c r="X213" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW213" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY213" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA213" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB213" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD213" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF213" t="s">
+      <c r="AR213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT213" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9552,7 +9487,85 @@
       <c r="A214" t="s">
         <v>271</v>
       </c>
+      <c r="C214" t="s">
+        <v>59</v>
+      </c>
+      <c r="F214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G214" t="s">
+        <v>59</v>
+      </c>
+      <c r="H214" t="s">
+        <v>59</v>
+      </c>
+      <c r="I214" t="s">
+        <v>59</v>
+      </c>
+      <c r="J214" t="s">
+        <v>59</v>
+      </c>
+      <c r="K214" t="s">
+        <v>59</v>
+      </c>
+      <c r="S214" t="s">
+        <v>59</v>
+      </c>
+      <c r="W214" t="s">
+        <v>59</v>
+      </c>
+      <c r="X214" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>59</v>
+      </c>
       <c r="BA214" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB214" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD214" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF214" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9560,13 +9573,7 @@
       <c r="A215" t="s">
         <v>272</v>
       </c>
-      <c r="AR215" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS215" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT215" t="s">
+      <c r="BA215" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9574,7 +9581,13 @@
       <c r="A216" t="s">
         <v>273</v>
       </c>
-      <c r="BD216" t="s">
+      <c r="AR216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT216" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9582,7 +9595,7 @@
       <c r="A217" t="s">
         <v>274</v>
       </c>
-      <c r="AA217" t="s">
+      <c r="BD217" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9598,22 +9611,7 @@
       <c r="A219" t="s">
         <v>276</v>
       </c>
-      <c r="K219" t="s">
-        <v>59</v>
-      </c>
-      <c r="W219" t="s">
-        <v>59</v>
-      </c>
-      <c r="X219" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE219" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH219" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY219" t="s">
+      <c r="AA219" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9621,7 +9619,22 @@
       <c r="A220" t="s">
         <v>277</v>
       </c>
-      <c r="AG220" t="s">
+      <c r="K220" t="s">
+        <v>59</v>
+      </c>
+      <c r="W220" t="s">
+        <v>59</v>
+      </c>
+      <c r="X220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY220" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9629,58 +9642,7 @@
       <c r="A221" t="s">
         <v>278</v>
       </c>
-      <c r="C221" t="s">
-        <v>59</v>
-      </c>
-      <c r="F221" t="s">
-        <v>59</v>
-      </c>
-      <c r="I221" t="s">
-        <v>59</v>
-      </c>
-      <c r="J221" t="s">
-        <v>59</v>
-      </c>
-      <c r="K221" t="s">
-        <v>59</v>
-      </c>
-      <c r="S221" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y221" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF221" t="s">
-        <v>59</v>
-      </c>
       <c r="AG221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY221" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB221" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD221" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9871,16 +9833,40 @@
       <c r="F225" t="s">
         <v>59</v>
       </c>
+      <c r="I225" t="s">
+        <v>59</v>
+      </c>
+      <c r="J225" t="s">
+        <v>59</v>
+      </c>
       <c r="K225" t="s">
         <v>59</v>
       </c>
+      <c r="S225" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>59</v>
+      </c>
       <c r="AA225" t="s">
         <v>59</v>
       </c>
+      <c r="AE225" t="s">
+        <v>59</v>
+      </c>
       <c r="AF225" t="s">
         <v>59</v>
       </c>
       <c r="AG225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI225" t="s">
         <v>59</v>
       </c>
       <c r="AK225" t="s">
@@ -9935,10 +9921,34 @@
       <c r="A227" t="s">
         <v>284</v>
       </c>
-      <c r="AV227" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW227" t="s">
+      <c r="C227" t="s">
+        <v>59</v>
+      </c>
+      <c r="F227" t="s">
+        <v>59</v>
+      </c>
+      <c r="K227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB227" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD227" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9946,7 +9956,10 @@
       <c r="A228" t="s">
         <v>285</v>
       </c>
-      <c r="H228" t="s">
+      <c r="AV228" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW228" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9965,42 +9978,21 @@
       <c r="H230" t="s">
         <v>59</v>
       </c>
-      <c r="AV230" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW230" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA230" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="231" spans="1:56">
       <c r="A231" t="s">
         <v>288</v>
       </c>
-      <c r="F231" t="s">
-        <v>59</v>
-      </c>
-      <c r="W231" t="s">
-        <v>59</v>
-      </c>
-      <c r="X231" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE231" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF231" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG231" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK231" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD231" t="s">
+      <c r="H231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA231" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10037,7 +10029,28 @@
       <c r="A233" t="s">
         <v>290</v>
       </c>
-      <c r="D233" t="s">
+      <c r="F233" t="s">
+        <v>59</v>
+      </c>
+      <c r="W233" t="s">
+        <v>59</v>
+      </c>
+      <c r="X233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD233" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10045,16 +10058,7 @@
       <c r="A234" t="s">
         <v>291</v>
       </c>
-      <c r="AQ234" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR234" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS234" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT234" t="s">
+      <c r="D234" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10062,7 +10066,16 @@
       <c r="A235" t="s">
         <v>292</v>
       </c>
-      <c r="G235" t="s">
+      <c r="AQ235" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR235" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT235" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10070,13 +10083,7 @@
       <c r="A236" t="s">
         <v>293</v>
       </c>
-      <c r="AU236" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV236" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW236" t="s">
+      <c r="G236" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10154,7 +10161,13 @@
       <c r="A242" t="s">
         <v>299</v>
       </c>
-      <c r="AG242" t="s">
+      <c r="AU242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW242" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10162,7 +10175,7 @@
       <c r="A243" t="s">
         <v>300</v>
       </c>
-      <c r="AS243" t="s">
+      <c r="AG243" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10170,37 +10183,7 @@
       <c r="A244" t="s">
         <v>301</v>
       </c>
-      <c r="J244" t="s">
-        <v>59</v>
-      </c>
-      <c r="K244" t="s">
-        <v>59</v>
-      </c>
-      <c r="S244" t="s">
-        <v>59</v>
-      </c>
-      <c r="W244" t="s">
-        <v>59</v>
-      </c>
-      <c r="X244" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y244" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z244" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE244" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH244" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY244" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB244" t="s">
+      <c r="AS244" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10208,7 +10191,37 @@
       <c r="A245" t="s">
         <v>302</v>
       </c>
-      <c r="AS245" t="s">
+      <c r="J245" t="s">
+        <v>59</v>
+      </c>
+      <c r="K245" t="s">
+        <v>59</v>
+      </c>
+      <c r="S245" t="s">
+        <v>59</v>
+      </c>
+      <c r="W245" t="s">
+        <v>59</v>
+      </c>
+      <c r="X245" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB245" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10224,13 +10237,7 @@
       <c r="A247" t="s">
         <v>304</v>
       </c>
-      <c r="W247" t="s">
-        <v>59</v>
-      </c>
-      <c r="X247" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE247" t="s">
+      <c r="AS247" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10238,7 +10245,13 @@
       <c r="A248" t="s">
         <v>305</v>
       </c>
-      <c r="AG248" t="s">
+      <c r="W248" t="s">
+        <v>59</v>
+      </c>
+      <c r="X248" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE248" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10246,25 +10259,7 @@
       <c r="A249" t="s">
         <v>306</v>
       </c>
-      <c r="G249" t="s">
-        <v>59</v>
-      </c>
-      <c r="H249" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU249" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV249" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW249" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA249" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF249" t="s">
+      <c r="AG249" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10350,13 +10345,25 @@
       <c r="A253" t="s">
         <v>310</v>
       </c>
-      <c r="W253" t="s">
-        <v>59</v>
-      </c>
-      <c r="X253" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE253" t="s">
+      <c r="G253" t="s">
+        <v>59</v>
+      </c>
+      <c r="H253" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA253" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF253" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10364,19 +10371,13 @@
       <c r="A254" t="s">
         <v>311</v>
       </c>
-      <c r="F254" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF254" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG254" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK254" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD254" t="s">
+      <c r="W254" t="s">
+        <v>59</v>
+      </c>
+      <c r="X254" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE254" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10384,7 +10385,19 @@
       <c r="A255" t="s">
         <v>312</v>
       </c>
+      <c r="F255" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>59</v>
+      </c>
       <c r="AK255" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD255" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10400,7 +10413,7 @@
       <c r="A257" t="s">
         <v>314</v>
       </c>
-      <c r="AW257" t="s">
+      <c r="AK257" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10408,13 +10421,7 @@
       <c r="A258" t="s">
         <v>315</v>
       </c>
-      <c r="AR258" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS258" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT258" t="s">
+      <c r="AW258" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10436,13 +10443,13 @@
       <c r="A260" t="s">
         <v>317</v>
       </c>
-      <c r="J260" t="s">
-        <v>59</v>
-      </c>
-      <c r="S260" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z260" t="s">
+      <c r="AR260" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT260" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10478,7 +10485,13 @@
       <c r="A263" t="s">
         <v>320</v>
       </c>
-      <c r="AQ263" t="s">
+      <c r="J263" t="s">
+        <v>59</v>
+      </c>
+      <c r="S263" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z263" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10510,7 +10523,7 @@
       <c r="A267" t="s">
         <v>324</v>
       </c>
-      <c r="BD267" t="s">
+      <c r="AQ267" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10518,7 +10531,7 @@
       <c r="A268" t="s">
         <v>325</v>
       </c>
-      <c r="BB268" t="s">
+      <c r="BD268" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10526,10 +10539,7 @@
       <c r="A269" t="s">
         <v>326</v>
       </c>
-      <c r="W269" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE269" t="s">
+      <c r="BB269" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10537,7 +10547,10 @@
       <c r="A270" t="s">
         <v>327</v>
       </c>
-      <c r="AA270" t="s">
+      <c r="W270" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE270" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10545,13 +10558,7 @@
       <c r="A271" t="s">
         <v>328</v>
       </c>
-      <c r="AR271" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS271" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT271" t="s">
+      <c r="AA271" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10573,6 +10580,12 @@
       <c r="A273" t="s">
         <v>330</v>
       </c>
+      <c r="AR273" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>59</v>
+      </c>
       <c r="AT273" t="s">
         <v>59</v>
       </c>
@@ -10605,85 +10618,7 @@
       <c r="A277" t="s">
         <v>334</v>
       </c>
-      <c r="C277" t="s">
-        <v>59</v>
-      </c>
-      <c r="F277" t="s">
-        <v>59</v>
-      </c>
-      <c r="G277" t="s">
-        <v>59</v>
-      </c>
-      <c r="H277" t="s">
-        <v>59</v>
-      </c>
-      <c r="I277" t="s">
-        <v>59</v>
-      </c>
-      <c r="J277" t="s">
-        <v>59</v>
-      </c>
-      <c r="K277" t="s">
-        <v>59</v>
-      </c>
-      <c r="S277" t="s">
-        <v>59</v>
-      </c>
-      <c r="W277" t="s">
-        <v>59</v>
-      </c>
-      <c r="X277" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y277" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW277" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY277" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA277" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB277" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD277" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF277" t="s">
+      <c r="AT277" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10691,7 +10626,85 @@
       <c r="A278" t="s">
         <v>335</v>
       </c>
-      <c r="AL278" t="s">
+      <c r="C278" t="s">
+        <v>59</v>
+      </c>
+      <c r="F278" t="s">
+        <v>59</v>
+      </c>
+      <c r="G278" t="s">
+        <v>59</v>
+      </c>
+      <c r="H278" t="s">
+        <v>59</v>
+      </c>
+      <c r="I278" t="s">
+        <v>59</v>
+      </c>
+      <c r="J278" t="s">
+        <v>59</v>
+      </c>
+      <c r="K278" t="s">
+        <v>59</v>
+      </c>
+      <c r="S278" t="s">
+        <v>59</v>
+      </c>
+      <c r="W278" t="s">
+        <v>59</v>
+      </c>
+      <c r="X278" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF278" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10707,10 +10720,7 @@
       <c r="A280" t="s">
         <v>337</v>
       </c>
-      <c r="AF280" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK280" t="s">
+      <c r="AL280" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10718,7 +10728,10 @@
       <c r="A281" t="s">
         <v>338</v>
       </c>
-      <c r="AL281" t="s">
+      <c r="AF281" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK281" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10726,7 +10739,7 @@
       <c r="A282" t="s">
         <v>339</v>
       </c>
-      <c r="AU282" t="s">
+      <c r="AL282" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10734,9 +10747,6 @@
       <c r="A283" t="s">
         <v>340</v>
       </c>
-      <c r="G283" t="s">
-        <v>59</v>
-      </c>
       <c r="AU283" t="s">
         <v>59</v>
       </c>
@@ -10767,13 +10777,10 @@
       <c r="A286" t="s">
         <v>343</v>
       </c>
-      <c r="AR286" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS286" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT286" t="s">
+      <c r="G286" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU286" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10781,7 +10788,13 @@
       <c r="A287" t="s">
         <v>344</v>
       </c>
-      <c r="AV287" t="s">
+      <c r="AR287" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT287" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10805,7 +10818,7 @@
       <c r="A290" t="s">
         <v>347</v>
       </c>
-      <c r="D290" t="s">
+      <c r="AV290" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10813,100 +10826,7 @@
       <c r="A291" t="s">
         <v>348</v>
       </c>
-      <c r="C291" t="s">
-        <v>59</v>
-      </c>
       <c r="D291" t="s">
-        <v>59</v>
-      </c>
-      <c r="F291" t="s">
-        <v>59</v>
-      </c>
-      <c r="G291" t="s">
-        <v>59</v>
-      </c>
-      <c r="H291" t="s">
-        <v>59</v>
-      </c>
-      <c r="I291" t="s">
-        <v>59</v>
-      </c>
-      <c r="J291" t="s">
-        <v>59</v>
-      </c>
-      <c r="K291" t="s">
-        <v>59</v>
-      </c>
-      <c r="M291" t="s">
-        <v>59</v>
-      </c>
-      <c r="S291" t="s">
-        <v>59</v>
-      </c>
-      <c r="W291" t="s">
-        <v>59</v>
-      </c>
-      <c r="X291" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y291" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV291" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY291" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA291" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB291" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD291" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF291" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10914,7 +10834,100 @@
       <c r="A292" t="s">
         <v>349</v>
       </c>
-      <c r="AQ292" t="s">
+      <c r="C292" t="s">
+        <v>59</v>
+      </c>
+      <c r="D292" t="s">
+        <v>59</v>
+      </c>
+      <c r="F292" t="s">
+        <v>59</v>
+      </c>
+      <c r="G292" t="s">
+        <v>59</v>
+      </c>
+      <c r="H292" t="s">
+        <v>59</v>
+      </c>
+      <c r="I292" t="s">
+        <v>59</v>
+      </c>
+      <c r="J292" t="s">
+        <v>59</v>
+      </c>
+      <c r="K292" t="s">
+        <v>59</v>
+      </c>
+      <c r="M292" t="s">
+        <v>59</v>
+      </c>
+      <c r="S292" t="s">
+        <v>59</v>
+      </c>
+      <c r="W292" t="s">
+        <v>59</v>
+      </c>
+      <c r="X292" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF292" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10922,7 +10935,7 @@
       <c r="A293" t="s">
         <v>350</v>
       </c>
-      <c r="AF293" t="s">
+      <c r="AQ293" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10938,7 +10951,7 @@
       <c r="A295" t="s">
         <v>352</v>
       </c>
-      <c r="AK295" t="s">
+      <c r="AF295" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10946,7 +10959,7 @@
       <c r="A296" t="s">
         <v>353</v>
       </c>
-      <c r="AR296" t="s">
+      <c r="AK296" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10962,7 +10975,7 @@
       <c r="A298" t="s">
         <v>355</v>
       </c>
-      <c r="AQ298" t="s">
+      <c r="AR298" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10978,7 +10991,7 @@
       <c r="A300" t="s">
         <v>357</v>
       </c>
-      <c r="AL300" t="s">
+      <c r="AQ300" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10994,7 +11007,7 @@
       <c r="A302" t="s">
         <v>359</v>
       </c>
-      <c r="AK302" t="s">
+      <c r="AL302" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11010,10 +11023,7 @@
       <c r="A304" t="s">
         <v>361</v>
       </c>
-      <c r="AL304" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR304" t="s">
+      <c r="AK304" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11021,7 +11031,18 @@
       <c r="A305" t="s">
         <v>362</v>
       </c>
+      <c r="AL305" t="s">
+        <v>59</v>
+      </c>
       <c r="AR305" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:44">
+      <c r="A306" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR306" t="s">
         <v>59</v>
       </c>
     </row>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3989,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="364">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -7430,6 +7430,9 @@
       <c r="C99" t="s">
         <v>59</v>
       </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
       <c r="E99" t="s">
         <v>59</v>
       </c>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3989,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="363">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -7418,6 +7418,9 @@
       <c r="C99" t="s">
         <v>58</v>
       </c>
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
       <c r="E99" t="s">
         <v>58</v>
       </c>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3989,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="364">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4055,6 +4055,9 @@
   </si>
   <si>
     <t>imc</t>
+  </si>
+  <si>
+    <t>imc-2d</t>
   </si>
   <si>
     <t>imc3d</t>
@@ -5418,7 +5421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF306"/>
+  <dimension ref="A1:BG306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5430,10 +5433,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="58" width="2.7109375" customWidth="1"/>
+    <col min="2" max="59" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:59">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5605,5433 +5608,5442 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
-      </c>
-      <c r="X9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
       </c>
       <c r="AU9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>59</v>
       </c>
       <c r="BA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
       </c>
       <c r="AU10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>59</v>
       </c>
       <c r="BA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>68</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58">
+        <v>69</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>59</v>
       </c>
       <c r="AI14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>59</v>
       </c>
       <c r="AU14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>59</v>
       </c>
       <c r="BA14" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58">
+        <v>76</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
       <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58">
+        <v>77</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>59</v>
       </c>
       <c r="AO21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58">
+        <v>80</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
       <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58">
+        <v>81</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
       <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58">
+        <v>82</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AU38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AU39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AU40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48">
+        <v>59</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48">
+        <v>99</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48">
+        <v>100</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48">
+        <v>101</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48">
+        <v>102</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48">
+        <v>103</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
       <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57">
+        <v>110</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W58" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>59</v>
       </c>
       <c r="AF58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>59</v>
       </c>
       <c r="AU58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>59</v>
       </c>
       <c r="BA58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC58" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
       <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57">
+        <v>116</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
       <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57">
+        <v>117</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W62" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>59</v>
       </c>
       <c r="AF62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>59</v>
       </c>
       <c r="AU62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>59</v>
       </c>
       <c r="BA62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W63" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W64" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>59</v>
       </c>
       <c r="AF64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>59</v>
       </c>
       <c r="AU64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>59</v>
       </c>
       <c r="BA64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC64" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
       <c r="A65" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57">
+        <v>122</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58">
       <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57">
+        <v>123</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
       <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57">
+        <v>124</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58">
       <c r="A69" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:57">
+        <v>126</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
       <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:57">
+        <v>127</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
       <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:57">
+        <v>128</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W72" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>59</v>
       </c>
       <c r="AF72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>59</v>
       </c>
       <c r="AU72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>59</v>
       </c>
       <c r="BA72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W73" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
       <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:57">
+        <v>131</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58">
       <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:57">
+        <v>132</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
       <c r="A76" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:57">
+        <v>133</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W78" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>59</v>
       </c>
       <c r="AF78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>59</v>
       </c>
       <c r="AU78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>59</v>
       </c>
       <c r="BA78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
       <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:57">
+        <v>136</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
       <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57">
+        <v>137</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
       <c r="A81" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57">
+        <v>138</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
       <c r="A82" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:57">
+        <v>139</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
       <c r="A84" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:57">
+        <v>141</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58">
       <c r="A85" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:57">
+        <v>142</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
       <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:57">
+        <v>143</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
       <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="BE87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:57">
+        <v>144</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:58">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
       <c r="A89" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:57">
+        <v>146</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
       <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:57">
+        <v>147</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:58">
       <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ91" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="AR91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
       <c r="A92" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:57">
+        <v>149</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:58">
       <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:57">
+        <v>150</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
       <c r="A94" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:57">
+        <v>151</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:58">
       <c r="A95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:57">
+        <v>152</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:59">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:59">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:59">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V99" t="s">
-        <v>58</v>
-      </c>
-      <c r="W99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ99" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>59</v>
       </c>
       <c r="AK99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS99" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW99" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>59</v>
       </c>
       <c r="AX99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:59">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:59">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W101" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>59</v>
       </c>
       <c r="AI101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>59</v>
       </c>
       <c r="AU101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX101" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>59</v>
       </c>
       <c r="BA101" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:59">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:59">
       <c r="A103" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58">
+        <v>160</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:59">
       <c r="A104" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:58">
+        <v>161</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:59">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:59">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:59">
       <c r="A107" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58">
+        <v>164</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:59">
       <c r="A108" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:58">
+        <v>165</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:59">
       <c r="A109" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:58">
+        <v>166</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:59">
       <c r="A110" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58">
+        <v>167</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:59">
       <c r="A111" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:58">
+        <v>168</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:59">
       <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:57">
+        <v>169</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58">
       <c r="A113" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:57">
+        <v>170</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:58">
       <c r="A114" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:57">
+        <v>171</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58">
       <c r="A115" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:57">
+        <v>172</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58">
       <c r="A116" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:57">
+        <v>173</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58">
       <c r="A117" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:57">
+        <v>174</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58">
       <c r="A118" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:57">
+        <v>175</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:58">
       <c r="A119" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:57">
+        <v>176</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:58">
       <c r="A120" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:57">
+        <v>177</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58">
       <c r="A121" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:57">
+        <v>178</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58">
       <c r="A122" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:57">
+        <v>179</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58">
       <c r="A123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:57">
+        <v>180</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV124" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ124" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV125" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ125" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:58">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58">
       <c r="A128" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:57">
+        <v>185</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:58">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV129" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ129" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA129" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:58">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58">
       <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT131" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:57">
+        <v>188</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ132" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA132" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:58">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW133" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:58">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:58">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV135" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ135" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA135" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:58">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV136" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW136" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:58">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV137" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW137" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:58">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:58">
       <c r="A139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:58">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:58">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W141" t="s">
-        <v>58</v>
-      </c>
-      <c r="X141" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE141" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>59</v>
       </c>
       <c r="AF141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG141" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:58">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W142" t="s">
-        <v>58</v>
-      </c>
-      <c r="X142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE142" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>59</v>
       </c>
       <c r="AF142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:58">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W143" t="s">
-        <v>58</v>
-      </c>
-      <c r="X143" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE143" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>59</v>
       </c>
       <c r="AF143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG143" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:58">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W144" t="s">
-        <v>58</v>
-      </c>
-      <c r="X144" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE144" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>59</v>
       </c>
       <c r="AF144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG144" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z147" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:51">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z148" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z149" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z150" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M151" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51">
       <c r="A152" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ152" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="AR152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K153" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA153" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:51">
       <c r="A154" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="1:50">
+        <v>211</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:51">
       <c r="A155" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:50">
+        <v>212</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51">
       <c r="A156" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX156" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="157" spans="1:50">
+        <v>213</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W157" t="s">
-        <v>58</v>
-      </c>
-      <c r="X157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH157" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX157" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="158" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51">
       <c r="A158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K158" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH158" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:50">
+        <v>59</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51">
       <c r="A159" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:50">
+        <v>216</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:51">
       <c r="A160" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:57">
+        <v>217</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:58">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC161" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:58">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="163" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:58">
       <c r="A163" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:57">
+        <v>220</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:58">
       <c r="A164" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:57">
+        <v>221</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:58">
       <c r="A165" t="s">
-        <v>221</v>
-      </c>
-      <c r="X165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:57">
+        <v>222</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:58">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W166" t="s">
-        <v>58</v>
-      </c>
-      <c r="X166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>59</v>
       </c>
       <c r="AF166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>59</v>
       </c>
       <c r="AU166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX166" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>59</v>
       </c>
       <c r="BA166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC166" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:58">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W167" t="s">
-        <v>58</v>
-      </c>
-      <c r="X167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>59</v>
       </c>
       <c r="AF167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>59</v>
       </c>
       <c r="AU167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX167" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ167" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY167" t="s">
+        <v>59</v>
       </c>
       <c r="BA167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC167" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:58">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M168" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:58">
       <c r="A169" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK169" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP169" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:57">
+        <v>226</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:58">
       <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:57">
+        <v>227</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:58">
       <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:57">
+        <v>228</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:58">
       <c r="A172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:57">
+        <v>229</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:58">
       <c r="A173" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="174" spans="1:57">
+        <v>230</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:58">
       <c r="A174" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:57">
+        <v>231</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:58">
       <c r="A175" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK175" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="1:57">
+        <v>232</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:58">
       <c r="A176" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:58">
+        <v>233</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:59">
       <c r="A177" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:58">
+        <v>234</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:59">
       <c r="A178" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:58">
+        <v>235</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:59">
       <c r="A179" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:58">
+        <v>236</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:59">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z180" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH180" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>59</v>
       </c>
       <c r="AI180" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA180" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:59">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U181" t="s">
-        <v>58</v>
-      </c>
-      <c r="W181" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="X181" t="s">
+        <v>59</v>
       </c>
       <c r="AA181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>59</v>
       </c>
       <c r="AM181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO181" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>59</v>
       </c>
       <c r="AX181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ181" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB181" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="BA181" t="s">
+        <v>59</v>
       </c>
       <c r="BC181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BD181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BG181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:59">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="V182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:59">
       <c r="A183" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:58">
+        <v>240</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:59">
       <c r="A184" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:58">
+        <v>241</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:59">
       <c r="A185" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ185" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:58">
+        <v>242</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:59">
       <c r="A186" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="187" spans="1:58">
+        <v>243</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:59">
       <c r="A187" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK187" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:58">
+        <v>244</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:59">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W188" t="s">
-        <v>58</v>
-      </c>
-      <c r="X188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>59</v>
       </c>
       <c r="AF188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>59</v>
       </c>
       <c r="AU188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX188" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ188" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>59</v>
       </c>
       <c r="BA188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC188" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:59">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W189" t="s">
-        <v>58</v>
-      </c>
-      <c r="X189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA189" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE189" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>59</v>
       </c>
       <c r="AF189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ189" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT189" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>59</v>
       </c>
       <c r="AU189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV189" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX189" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ189" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY189" t="s">
+        <v>59</v>
       </c>
       <c r="BA189" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC189" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE189" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:58">
+        <v>59</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD189" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF189" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:59">
       <c r="A190" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:58">
+        <v>247</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:59">
       <c r="A191" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE191" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:58">
+        <v>248</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:59">
       <c r="A192" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE192" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="1:55">
+        <v>249</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:56">
       <c r="A193" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE193" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:55">
+        <v>250</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:56">
       <c r="A194" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:55">
+        <v>251</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:56">
       <c r="A195" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:55">
+        <v>252</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:56">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG196" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:56">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG197" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ197" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC197" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="198" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:56">
       <c r="A198" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J198" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S198" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z198" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI198" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:56">
       <c r="A199" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ199" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="AR199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS199" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:56">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W200" t="s">
-        <v>58</v>
-      </c>
-      <c r="X200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y200" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE200" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:56">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K201" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W201" t="s">
-        <v>58</v>
-      </c>
-      <c r="X201" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX201" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="202" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:56">
       <c r="A202" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:55">
+        <v>259</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:56">
       <c r="A203" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ203" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="AR203" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS203" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT203" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="1:56">
       <c r="A204" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:55">
+        <v>261</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:56">
       <c r="A205" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="206" spans="1:55">
+        <v>262</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:56">
       <c r="A206" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:55">
+        <v>263</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:56">
       <c r="A207" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE207" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:55">
+        <v>264</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:56">
       <c r="A208" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:57">
+        <v>265</v>
+      </c>
+      <c r="BD208" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:58">
       <c r="A209" t="s">
-        <v>265</v>
-      </c>
-      <c r="AP209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:57">
+        <v>266</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:58">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J210" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z210" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI210" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="211" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:58">
       <c r="A211" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S211" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="212" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:58">
       <c r="A212" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ212" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="AR212" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:58">
       <c r="A213" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ213" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="AR213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:58">
       <c r="A214" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W214" t="s">
-        <v>58</v>
-      </c>
-      <c r="X214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE214" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>59</v>
       </c>
       <c r="AF214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT214" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>59</v>
       </c>
       <c r="AU214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX214" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ214" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>59</v>
       </c>
       <c r="BA214" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC214" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE214" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="215" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB214" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD214" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF214" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:58">
       <c r="A215" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ215" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:57">
+        <v>272</v>
+      </c>
+      <c r="BA215" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:58">
       <c r="A216" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ216" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="AR216" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS216" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="217" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:58">
       <c r="A217" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC217" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:57">
+        <v>274</v>
+      </c>
+      <c r="BD217" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:58">
       <c r="A218" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA218" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:57">
+        <v>275</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:58">
       <c r="A219" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA219" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:57">
+        <v>276</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:58">
       <c r="A220" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K220" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W220" t="s">
-        <v>58</v>
-      </c>
-      <c r="X220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH220" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX220" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="221" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:58">
       <c r="A221" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG221" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="222" spans="1:57">
+        <v>278</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:58">
       <c r="A222" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S222" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE222" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>59</v>
       </c>
       <c r="AF222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI222" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ222" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA222" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC222" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:58">
       <c r="A223" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S223" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE223" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>59</v>
       </c>
       <c r="AF223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI223" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ223" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA223" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC223" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:58">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S224" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE224" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>59</v>
       </c>
       <c r="AF224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ224" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA224" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC224" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:56">
       <c r="A225" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S225" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE225" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>59</v>
       </c>
       <c r="AF225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ225" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA225" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC225" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:56">
       <c r="A226" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF226" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>59</v>
       </c>
       <c r="AG226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ226" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA226" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:56">
       <c r="A227" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C227" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F227" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K227" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA227" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF227" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>59</v>
       </c>
       <c r="AG227" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ227" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX227" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA227" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC227" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB227" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:56">
       <c r="A228" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU228" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="AV228" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:56">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H229" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:56">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H230" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="231" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:56">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU231" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV231" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ231" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="232" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:56">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W232" t="s">
-        <v>58</v>
-      </c>
-      <c r="X232" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE232" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>59</v>
       </c>
       <c r="AF232" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG232" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ232" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC232" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="233" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD232" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:56">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W233" t="s">
-        <v>58</v>
-      </c>
-      <c r="X233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE233" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>59</v>
       </c>
       <c r="AF233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG233" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ233" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC233" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="234" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD233" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:56">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D234" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="235" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:56">
       <c r="A235" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP235" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="AQ235" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR235" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS235" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="236" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT235" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:56">
       <c r="A236" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G236" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="237" spans="1:55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:56">
       <c r="A237" t="s">
-        <v>293</v>
-      </c>
-      <c r="AT237" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="AU237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV237" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="238" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:56">
       <c r="A238" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT238" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="AU238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV238" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="239" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:56">
       <c r="A239" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT239" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="AU239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV239" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="240" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:56">
       <c r="A240" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT240" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="AU240" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV240" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="241" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:58">
       <c r="A241" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT241" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="AU241" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV241" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="242" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:58">
       <c r="A242" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT242" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="AU242" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV242" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:58">
       <c r="A243" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG243" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="244" spans="1:57">
+        <v>300</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:58">
       <c r="A244" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="1:57">
+        <v>301</v>
+      </c>
+      <c r="AS244" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245" spans="1:58">
       <c r="A245" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W245" t="s">
-        <v>58</v>
-      </c>
-      <c r="X245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z245" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE245" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH245" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX245" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA245" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="246" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:58">
       <c r="A246" t="s">
-        <v>302</v>
-      </c>
-      <c r="AR246" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="247" spans="1:57">
+        <v>303</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:58">
       <c r="A247" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR247" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="248" spans="1:57">
+        <v>304</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:58">
       <c r="A248" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W248" t="s">
-        <v>58</v>
-      </c>
-      <c r="X248" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE248" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="249" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:58">
       <c r="A249" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG249" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="250" spans="1:57">
+        <v>306</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:58">
       <c r="A250" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU250" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV250" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ250" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE250" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="251" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:58">
       <c r="A251" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU251" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV251" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ251" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE251" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="252" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:58">
       <c r="A252" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV252" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ252" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE252" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="253" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:58">
       <c r="A253" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV253" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ253" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE253" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA253" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:58">
       <c r="A254" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W254" t="s">
-        <v>58</v>
-      </c>
-      <c r="X254" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE254" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="255" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:58">
       <c r="A255" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F255" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF255" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG255" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ255" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:58">
       <c r="A256" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ256" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:55">
+        <v>313</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:56">
       <c r="A257" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ257" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:55">
+        <v>314</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:56">
       <c r="A258" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV258" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="259" spans="1:55">
+        <v>315</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:56">
       <c r="A259" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ259" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="AR259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS259" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="260" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:56">
       <c r="A260" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ260" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="AR260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS260" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="261" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AT260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:56">
       <c r="A261" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S261" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z261" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="262" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:56">
       <c r="A262" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S262" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="263" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:56">
       <c r="A263" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J263" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S263" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="264" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:56">
       <c r="A264" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP264" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="265" spans="1:55">
+        <v>321</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:56">
       <c r="A265" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP265" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="266" spans="1:55">
+        <v>322</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:56">
       <c r="A266" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP266" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="267" spans="1:55">
+        <v>323</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:56">
       <c r="A267" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP267" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="268" spans="1:55">
+        <v>324</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:56">
       <c r="A268" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC268" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="269" spans="1:55">
+        <v>325</v>
+      </c>
+      <c r="BD268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:56">
       <c r="A269" t="s">
-        <v>325</v>
-      </c>
-      <c r="BA269" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:55">
+        <v>326</v>
+      </c>
+      <c r="BB269" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:56">
       <c r="A270" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W270" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE270" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="271" spans="1:55">
+        <v>59</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="1:56">
       <c r="A271" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA271" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="272" spans="1:55">
+        <v>328</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:56">
       <c r="A272" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="AR272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS272" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="273" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273" spans="1:58">
       <c r="A273" t="s">
-        <v>329</v>
-      </c>
-      <c r="AQ273" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="AR273" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS273" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="274" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:58">
       <c r="A274" t="s">
-        <v>330</v>
-      </c>
-      <c r="AS274" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="275" spans="1:57">
+        <v>331</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:58">
       <c r="A275" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS275" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="276" spans="1:57">
+        <v>332</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:58">
       <c r="A276" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS276" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:57">
+        <v>333</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277" spans="1:58">
       <c r="A277" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS277" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="278" spans="1:57">
+        <v>334</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278" spans="1:58">
       <c r="A278" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W278" t="s">
-        <v>58</v>
-      </c>
-      <c r="X278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA278" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE278" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>59</v>
       </c>
       <c r="AF278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ278" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT278" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>59</v>
       </c>
       <c r="AU278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV278" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX278" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ278" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>59</v>
       </c>
       <c r="BA278" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC278" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE278" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="279" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD278" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:58">
       <c r="A279" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK279" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="280" spans="1:57">
+        <v>336</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:58">
       <c r="A280" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK280" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="281" spans="1:57">
+        <v>337</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:58">
       <c r="A281" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF281" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ281" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="282" spans="1:57">
+        <v>338</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282" spans="1:58">
       <c r="A282" t="s">
-        <v>338</v>
-      </c>
-      <c r="AK282" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="283" spans="1:57">
+        <v>339</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:58">
       <c r="A283" t="s">
-        <v>339</v>
-      </c>
-      <c r="AT283" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="284" spans="1:57">
+        <v>340</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:58">
       <c r="A284" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G284" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT284" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="285" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:58">
       <c r="A285" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G285" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT285" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="286" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:58">
       <c r="A286" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G286" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT286" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="287" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:58">
       <c r="A287" t="s">
-        <v>343</v>
-      </c>
-      <c r="AQ287" t="s">
-        <v>58</v>
+        <v>344</v>
       </c>
       <c r="AR287" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS287" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="288" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288" spans="1:58">
       <c r="A288" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU288" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="289" spans="1:57">
+        <v>345</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:58">
       <c r="A289" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU289" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" spans="1:57">
+        <v>346</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:58">
       <c r="A290" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU290" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="291" spans="1:57">
+        <v>347</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:58">
       <c r="A291" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D291" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="292" spans="1:57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:58">
       <c r="A292" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W292" t="s">
-        <v>58</v>
-      </c>
-      <c r="X292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA292" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE292" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>59</v>
       </c>
       <c r="AF292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ292" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM292" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ292" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>59</v>
       </c>
       <c r="AR292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU292" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX292" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ292" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>59</v>
       </c>
       <c r="BA292" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC292" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE292" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="293" spans="1:57">
+        <v>59</v>
+      </c>
+      <c r="BB292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD292" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF292" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:58">
       <c r="A293" t="s">
-        <v>349</v>
-      </c>
-      <c r="AP293" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="294" spans="1:57">
+        <v>350</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:58">
       <c r="A294" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF294" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="295" spans="1:57">
+        <v>351</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:58">
       <c r="A295" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF295" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="296" spans="1:57">
+        <v>352</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296" spans="1:58">
       <c r="A296" t="s">
-        <v>352</v>
-      </c>
-      <c r="AJ296" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="297" spans="1:57">
+        <v>353</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="1:58">
       <c r="A297" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ297" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="298" spans="1:57">
+        <v>354</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:58">
       <c r="A298" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ298" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="299" spans="1:57">
+        <v>355</v>
+      </c>
+      <c r="AR298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299" spans="1:58">
       <c r="A299" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP299" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="300" spans="1:57">
+        <v>356</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:58">
       <c r="A300" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP300" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="301" spans="1:57">
+        <v>357</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:58">
       <c r="A301" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK301" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="302" spans="1:57">
+        <v>358</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:58">
       <c r="A302" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK302" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="303" spans="1:57">
+        <v>359</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="1:58">
       <c r="A303" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ303" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="304" spans="1:57">
+        <v>360</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:58">
       <c r="A304" t="s">
-        <v>360</v>
-      </c>
-      <c r="AJ304" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="305" spans="1:43">
+        <v>361</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44">
       <c r="A305" t="s">
-        <v>361</v>
-      </c>
-      <c r="AK305" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ305" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="306" spans="1:43">
+        <v>362</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR305" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:44">
       <c r="A306" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ306" t="s">
-        <v>58</v>
+        <v>363</v>
+      </c>
+      <c r="AR306" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3989,7 +3989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="363">
   <si>
     <t>10x-multiome</t>
   </si>
@@ -4091,6 +4091,9 @@
   </si>
   <si>
     <t>nano</t>
+  </si>
+  <si>
+    <t>nano-splits</t>
   </si>
   <si>
     <t>oct</t>
@@ -5415,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE306"/>
+  <dimension ref="A1:BF306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5427,10 +5430,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="57" width="2.7109375" customWidth="1"/>
+    <col min="2" max="58" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5599,5403 +5602,5415 @@
       <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>58</v>
       </c>
       <c r="AT9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>58</v>
       </c>
       <c r="AZ9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>58</v>
       </c>
       <c r="AT10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>58</v>
       </c>
       <c r="AZ10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>58</v>
       </c>
       <c r="AZ14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57">
+        <v>76</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>58</v>
       </c>
       <c r="AO21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:57">
+        <v>79</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57">
+        <v>80</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57">
+        <v>81</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AT38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AT39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AT40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47">
+        <v>58</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47">
+        <v>99</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47">
+        <v>100</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47">
+        <v>101</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47">
+        <v>102</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
       <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:56">
+        <v>109</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>58</v>
       </c>
       <c r="AT58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>58</v>
       </c>
       <c r="AZ58" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB58" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>58</v>
       </c>
       <c r="AZ62" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>58</v>
       </c>
       <c r="AT64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>58</v>
       </c>
       <c r="AZ64" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB64" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57">
       <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:56">
+        <v>126</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57">
       <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:56">
+        <v>127</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>58</v>
       </c>
       <c r="AT72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY72" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>58</v>
       </c>
       <c r="AZ72" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:56">
+        <v>130</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>58</v>
       </c>
       <c r="AT78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>58</v>
       </c>
       <c r="AZ78" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA78" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:56">
+        <v>135</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG85" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG86" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57">
       <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:56">
+        <v>143</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57">
       <c r="A89" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:56">
+        <v>145</v>
+      </c>
+      <c r="BC89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57">
       <c r="A90" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:56">
+        <v>146</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:57">
       <c r="A91" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP91" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="AQ91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:57">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:57">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z97" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:58">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR99" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV99" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>58</v>
       </c>
       <c r="AW99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC99" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BD99" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M100" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY101" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV101" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX101" t="s">
+        <v>58</v>
       </c>
       <c r="AZ101" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA101" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:58">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="AV102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
       <c r="A103" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:57">
+        <v>159</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:58">
       <c r="A107" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:57">
+        <v>163</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:58">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:58">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:57">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:57">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:57">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:57">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z116" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:57">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:57">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:57">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z119" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57">
       <c r="A122" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H124" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU124" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY124" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV124" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ124" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU125" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY125" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ125" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57">
       <c r="A128" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:56">
+        <v>184</v>
+      </c>
+      <c r="BE128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:57">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H129" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU129" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY129" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ129" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:57">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:57">
       <c r="A131" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS131" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:56">
+        <v>187</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:57">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY132" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV132" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ132" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:57">
       <c r="A133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H133" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU133" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY133" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV133" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57">
       <c r="A134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G134" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU134" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H135" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU135" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY135" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD135" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV135" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ135" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV136" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV137" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G138" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG141" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB141" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB142" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG143" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG144" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:49">
+        <v>58</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:50">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M145" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:50">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z146" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:50">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI147" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:50">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI148" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="149" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:50">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI149" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:50">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z150" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:50">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M151" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:50">
       <c r="A152" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP152" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="AQ152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR152" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:49">
+        <v>58</v>
+      </c>
+      <c r="AS152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:50">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE153" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:50">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG154" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:50">
       <c r="A155" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW155" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:49">
+        <v>211</v>
+      </c>
+      <c r="AX155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:50">
       <c r="A156" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW156" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="157" spans="1:49">
+        <v>212</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:50">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:49">
+        <v>58</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:50">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH158" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW158" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:49">
+        <v>58</v>
+      </c>
+      <c r="AX158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:50">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG159" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:50">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:57">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB161" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:57">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:57">
       <c r="A163" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:56">
+        <v>219</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:57">
       <c r="A164" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:56">
+        <v>220</v>
+      </c>
+      <c r="AX164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:57">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X165" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:57">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>58</v>
       </c>
       <c r="AT166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY166" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>58</v>
       </c>
       <c r="AZ166" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB166" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD166" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA166" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:57">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>58</v>
       </c>
       <c r="AT167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY167" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>58</v>
       </c>
       <c r="AZ167" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB167" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD167" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA167" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC167" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:57">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M168" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:57">
       <c r="A169" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK169" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO169" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:56">
+        <v>225</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:57">
       <c r="A170" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:56">
+        <v>226</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57">
       <c r="A171" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:56">
+        <v>227</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:57">
       <c r="A172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:56">
+        <v>228</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57">
       <c r="A173" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:56">
+        <v>229</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57">
       <c r="A174" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:56">
+        <v>230</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:57">
       <c r="A175" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK175" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:56">
+        <v>231</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:57">
       <c r="A176" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:57">
+        <v>232</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:58">
       <c r="A177" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="178" spans="1:57">
+        <v>233</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:58">
       <c r="A178" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="1:57">
+        <v>234</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:58">
       <c r="A179" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK179" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:57">
+        <v>235</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:58">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI180" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ180" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="181" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:58">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH181" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ181" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL181" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>58</v>
       </c>
       <c r="AM181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN181" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV181" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>58</v>
       </c>
       <c r="AW181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY181" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA181" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AZ181" t="s">
+        <v>58</v>
       </c>
       <c r="BB181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC181" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE181" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BD181" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:58">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V182" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:58">
       <c r="A183" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO183" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="184" spans="1:57">
+        <v>239</v>
+      </c>
+      <c r="AP183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:58">
       <c r="A184" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP184" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="1:57">
+        <v>240</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:58">
       <c r="A185" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP185" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="186" spans="1:57">
+        <v>241</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:58">
       <c r="A186" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:57">
+        <v>242</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:58">
       <c r="A187" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK187" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO187" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="188" spans="1:57">
+        <v>243</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:58">
       <c r="A188" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI188" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ188" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS188" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>58</v>
       </c>
       <c r="AT188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU188" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW188" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY188" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>58</v>
       </c>
       <c r="AZ188" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB188" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD188" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="189" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:58">
       <c r="A189" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI189" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ189" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS189" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>58</v>
       </c>
       <c r="AT189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU189" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW189" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY189" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>58</v>
       </c>
       <c r="AZ189" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB189" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD189" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="190" spans="1:57">
+        <v>58</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC189" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:58">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE190" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="191" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:58">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE191" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="192" spans="1:57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:58">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE192" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="193" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:55">
       <c r="A193" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE193" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="194" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:55">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE194" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="195" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:55">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE195" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:55">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG196" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB196" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="197" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:55">
       <c r="A197" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG197" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ197" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:55">
       <c r="A198" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI198" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:55">
       <c r="A199" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP199" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="AQ199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR199" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="200" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:55">
       <c r="A200" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE200" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW200" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AX200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:55">
       <c r="A201" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE201" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW201" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AX201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:55">
       <c r="A202" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y202" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="203" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:55">
       <c r="A203" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP203" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="AQ203" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR203" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:55">
       <c r="A204" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y204" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="205" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:55">
       <c r="A205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AE205" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="206" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:55">
       <c r="A206" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE206" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="207" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:55">
       <c r="A207" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE207" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:55">
       <c r="A208" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:56">
+        <v>264</v>
+      </c>
+      <c r="BC208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57">
       <c r="A209" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO209" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="210" spans="1:56">
+        <v>265</v>
+      </c>
+      <c r="AP209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:57">
       <c r="A210" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI210" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="211" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57">
       <c r="A211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J211" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S211" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z211" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="212" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:57">
       <c r="A212" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP212" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="AQ212" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR212" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="213" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:57">
       <c r="A213" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP213" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="AQ213" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR213" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="214" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:57">
       <c r="A214" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI214" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ214" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS214" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>58</v>
       </c>
       <c r="AT214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU214" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW214" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY214" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>58</v>
       </c>
       <c r="AZ214" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB214" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD214" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="215" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC214" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:57">
       <c r="A215" t="s">
-        <v>270</v>
-      </c>
-      <c r="AY215" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="216" spans="1:56">
+        <v>271</v>
+      </c>
+      <c r="AZ215" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:57">
       <c r="A216" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP216" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="AQ216" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR216" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="217" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:57">
       <c r="A217" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB217" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="218" spans="1:56">
+        <v>273</v>
+      </c>
+      <c r="BC217" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:57">
       <c r="A218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA218" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="219" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:57">
       <c r="A219" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA219" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:57">
       <c r="A220" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH220" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW220" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="221" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:57">
       <c r="A221" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG221" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="222" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
       <c r="A222" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH222" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW222" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ222" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB222" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="223" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA222" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
       <c r="A223" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH223" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW223" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ223" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB223" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="224" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
       <c r="A224" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW224" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ224" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB224" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="225" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:55">
       <c r="A225" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH225" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW225" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ225" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB225" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="226" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:55">
       <c r="A226" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG226" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ226" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW226" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ226" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB226" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="227" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:55">
       <c r="A227" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG227" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ227" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW227" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ227" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB227" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="228" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA227" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC227" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:55">
       <c r="A228" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT228" t="s">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="AU228" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="229" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="229" spans="1:55">
       <c r="A229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H229" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="230" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:55">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H230" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:55">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H231" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT231" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU231" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY231" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="232" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ231" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:55">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG232" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ232" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB232" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="233" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC232" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:55">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG233" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ233" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB233" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="234" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC233" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:55">
       <c r="A234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D234" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="235" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="235" spans="1:55">
       <c r="A235" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO235" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="AP235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR235" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="236" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:55">
       <c r="A236" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G236" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:55">
       <c r="A237" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS237" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="AT237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU237" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="238" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:55">
       <c r="A238" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS238" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="AT238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU238" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="239" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:55">
       <c r="A239" t="s">
-        <v>294</v>
-      </c>
-      <c r="AS239" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="AT239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU239" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="240" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:55">
       <c r="A240" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS240" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="AT240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU240" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="241" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="241" spans="1:57">
       <c r="A241" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS241" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="AT241" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU241" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="242" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV241" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="242" spans="1:57">
       <c r="A242" t="s">
-        <v>297</v>
-      </c>
-      <c r="AS242" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="AT242" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU242" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="243" spans="1:57">
       <c r="A243" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG243" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="244" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:57">
       <c r="A244" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ244" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="245" spans="1:56">
+        <v>300</v>
+      </c>
+      <c r="AR244" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:57">
       <c r="A245" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH245" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW245" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ245" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="246" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA245" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:57">
       <c r="A246" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ246" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="247" spans="1:56">
+        <v>302</v>
+      </c>
+      <c r="AR246" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:57">
       <c r="A247" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ247" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="248" spans="1:56">
+        <v>303</v>
+      </c>
+      <c r="AR247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:57">
       <c r="A248" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE248" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="249" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:57">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG249" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="250" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:57">
       <c r="A250" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H250" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU250" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY250" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD250" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="251" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ250" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE250" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:57">
       <c r="A251" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H251" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU251" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY251" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD251" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="252" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ251" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE251" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:57">
       <c r="A252" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H252" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU252" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY252" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD252" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="253" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ252" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE252" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:57">
       <c r="A253" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H253" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU253" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY253" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD253" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="254" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ253" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE253" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:57">
       <c r="A254" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE254" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:57">
       <c r="A255" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG255" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ255" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB255" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="256" spans="1:56">
+        <v>58</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:57">
       <c r="A256" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ256" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="257" spans="1:54">
+        <v>312</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:55">
       <c r="A257" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ257" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="258" spans="1:54">
+        <v>313</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:55">
       <c r="A258" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU258" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="259" spans="1:54">
+        <v>314</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:55">
       <c r="A259" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP259" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="AQ259" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR259" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="260" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AS259" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:55">
       <c r="A260" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP260" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="AQ260" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR260" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="261" spans="1:54">
+        <v>58</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261" spans="1:55">
       <c r="A261" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J261" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S261" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z261" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="262" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="262" spans="1:55">
       <c r="A262" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z262" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="263" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:55">
       <c r="A263" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J263" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S263" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z263" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="264" spans="1:54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:55">
       <c r="A264" t="s">
-        <v>319</v>
-      </c>
-      <c r="AO264" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="265" spans="1:54">